--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -6101,9 +6101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O274" sqref="O274"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6927,50 +6927,50 @@
       <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="4">
+      <c r="A20" s="7">
         <v>446574</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>58</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="7">
         <v>58</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="7" t="s">
         <v>486</v>
       </c>
     </row>

--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1222">
   <si>
     <t>CDR-ID</t>
   </si>
@@ -1519,9 +1519,6 @@
     <t>NULL – will be removed before May 1st</t>
   </si>
   <si>
-    <t>WHAT HAPPENED TO THE RELATED SIDE EFFECT?</t>
-  </si>
-  <si>
     <t>Both the Patient and HP summaries will be listed as Related Resources on the Tobacco risk factor page. We will use this strategy in all cases where the PDQ doesn't show in navigation (risk factors; side effects; coping/advanced cancer). The HP PDQ has "–for health professionals" appended to the title.</t>
   </si>
   <si>
@@ -2041,537 +2038,6 @@
     <t>www.cancer.gov/types/brain/patient/child-cns-embryonal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/714-x-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/acupuncture-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/antineoplastons-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/aromatherapy-pdq</t>
-  </si>
-  <si>
-    <t>about-cancer/treatment/cam/health-pro/cancell-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/canabis-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/cartilage-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/coenzyme-q10-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/essiac-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/gerson-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/gonzalez-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/vitamin-c-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/hydrazine-sulfate-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/laetrile-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/milk-thistle-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/mistletoe-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/NDV-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/pc-spes-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/prostate-supplements-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/suns-soup-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/cam/health-pro/cam-topics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/breast/health-pro/breast-ovarian-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/colorectal/health-pro/colorectal-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/thyroid/health-pro/medullary-thyroid-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/kidney/health-pro/kidney-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/prostate/health-pro/prostate-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/skin/health-pro/skin-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/anal/health-pro/anal-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/breast/health-pro/breast-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/causes-prevention/cancer-prevention-overview-pdq/health-pro</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/cervical/health-pro/cervical-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/colorectal/health-pro/colorectal-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/uterine/health-pro/endometrial-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/esophageal/health-pro/esophageal-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/liver/health-pro/liver-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/lung/health-pro/lung-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/ovarian/health-pro/ovarian-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/prostate/health-pro/prostate-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/skin/health-pro/skin-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/stomach/health-pro/stomach-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/bladder/health-pro/bladder-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/breast/health-pro/breast-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/screening/oveview-pdq/health-pro</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/cervical/health-pro/cervical-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/colorectal/health-pro/colorectal-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/uterine/health-pro/endometrial-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/esophageal/health-pro/esophageal-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/lung/health-pro/lung-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/neuroblastoma/health-pro/neuroblastoma-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/ovarian/health-pro/ovarian-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/prostate/health-pro/prostate-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/skin/health-pro/skin-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/stomach/health-pro/stomach-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/testicular/health-pro/testicular-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/adrenocortical/health-pro/adrenocortical-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/leukemia/health-pro/adult-all-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/leukemia/health-pro/adult-aml-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/brain/health-pro/adult-brain-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/lymphoma/health-pro/adult-hodgkin-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/lymphoma/health-pro/adult-nhl-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/liver-bile-duct/health-pro/adult-liver-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/soft-tissue-sarcoma/health-pro/adult-soft-tissue-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/lymphoma/health-pro/aids-related-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/anal/health-pro/anal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/bladder/health-pro/bladder-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/breast/health-pro/breast-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/breast/health-pro/pregnancy-breast-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/unknown-primary/health-pro/unknown-primary-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/cervical/health-pro/cervical-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/leukemia/health-pro/child-all-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/leukemia/health-pro/child-aml-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/brain/health-pro/child-astrocytoma-treament-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/brain/health-pro/child-brain-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/brain/health-pro/child-glioma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/brain/health-pro/child-cns-atrt-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/brain/health-pro/child-cns-embryonal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/714-x-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/acupuncture-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/antineoplastons-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/aromatherapy-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/cancell-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/canabis-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/cartilage-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/coenzyme-q10-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/essiac-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/gerson-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/gonzalez-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/vitamin-c-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/hydrazine-sulfate-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/laetrile-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/milk-thistle-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/mistletoe-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/NDV-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/pc-spes-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/prostate-supplements-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/suns-soup-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/cam/health-pro/cam-topics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/breast/health-pro/breast-ovarian-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/colorectal/health-pro/colorectal-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/thyroid/health-pro/medullary-thyroid-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancetopics/types/kidney/health-pro/kidney-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/prostate/health-pro/prostate-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/skin/health-pro/skin-genetics-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/anal/health-pro/anal-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/breast/health-pro/breast-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/causes-prevention/cancer-prevention-overview-pdq/health-pro</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/cervical/health-pro/cervical-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/colorectal/health-pro/colorectal-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/uterine/health-pro/endometrial-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/esophageal/health-pro/esophageal-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/liver/health-pro/liver-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/lung/health-pro/lung-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/ovarian/health-pro/ovarian-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/prostate/health-pro/prostate-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/skin/health-pro/skin-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/stomach/health-pro/stomach-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/bladder/health-pro/bladder-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/breast/health-pro/breast-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/screening/oveview-pdq/health-pro</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/cervical/health-pro/cervical-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/colorectal/health-pro/colorectal-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/uterine/health-pro/endometrial-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/esophageal/health-pro/esophageal-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/liver/health-pro/liver-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/lung/health-pro/lung-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/neuroblastoma/health-pro/neuroblastoma-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/ovarian/health-pro/ovarian-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/prostate/health-pro/prostate-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/skin/health-pro/skin-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/stomach/health-pro/stomach-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/testicular/health-pro/testicular-screening-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/adrenocortical/health-pro/adrenocortical-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/leukemia/health-pro/adult-all-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/leukemia/health-pro/adult-aml-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/adult-brain-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/hodgkin/health-pro/adult-hodgkin-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/nhl/health-pro/adult-nhl-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/liver/health-pro/adult-liver-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/health-pro/adult-soft-tissue-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/lymphoma/health-pro/aids-related-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/anal/health-pro/anal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/bladder/health-pro/bladder-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/breast/health-pro/breast-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/breast/health-pro/pregnancy-breast-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/unknown-primary/health-pro/unknown-primary-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/cervical/health-pro/cervical-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/leukemia/health-pro/child-all-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/leukemia/health-pro/child-aml-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/child-astrocytoma-treament-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/child-brain-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/child-glioma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/child-cns-atrt-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/child-cns-embryonal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/coping/feelings/anxiety-distress-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/coping/feelings/anxiety-distress-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/memory/delirium-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/memory/delirium-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/coping/family-friends/family-caregivers-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/coping/family-friends/family-caregivers-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/constipation/GI-complications-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/constipation/GI-complications-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/sexuality-fertility-women/hot-flashes-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/sexuality-fertility-women/hot-flashes-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/appetite-loss/nutrition-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/appetite-loss/nutrition-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/mouth-throat/oral-complications-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/mouth-throat/oral-complications-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/pain-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/pain-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/coping/survivorship/new-normal/ptsd-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/coping/survivorship/new-normal/ptsd-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/skin-nail-changes/pruritus-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/skin-nail-changes/pruritus-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/coping/day-to-day/faith-and-spirituality/spirituality-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/coping/day-to-day/faith-and-spirituality/spirituality-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/child-cranio-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/brain/health-pro/child-cranio-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/brain/patient/child-cranio-treatment-pdq</t>
   </si>
   <si>
@@ -2584,114 +2050,54 @@
     <t>www.cancer.gov/types/brain/patient/child-ependymoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/child-ependymoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/brain/health-pro/child-ependymoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/brain/health-pro/child-cns-germ-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/brain/patient/child-cns-germ-cell-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/brain/patient/child-cns-germ-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/brain/health-pro/child-cns-germ-cell-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/extracranial-germ-cell/health-pro/germ-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/extracranial-germ-cell/patient/germ-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/extracranial-germ-cell/health-pro/germ-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/extracranial-germ-cell/patient/germ-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/lymphoma/health-pro/child-lymphoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/lymphoma/patient/child-lymphoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/lymphoma/health-pro/child-lymphoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/lymphoma/patient/child-lymphoma-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/liver/patient/child-liver-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/liver/health-pro/child-liver-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/liver/patient/child-liver-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/liver/health-pro/child-liver-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/lymphoma/health-pro/child-nhl-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/lymphoma/patient/child-nhl-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/lymphoma/health-pro/child-nhl-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/lymphoma/patient/child-nhl-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/patient/rhabdomyosarcoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/health-pro/rhabdomyosarcoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/soft-tissue-sarcoma/patient/rhabdomyosarcoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/soft-tissue-sarcoma/health-pro/rhabdomyosarcoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/health-pro/child-soft-tissue-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/patient/child-soft-tissue-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/soft-tissue-sarcoma/health-pro/child-soft-tissue-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/soft-tissue-sarcoma/patient/child-soft-tissue-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/leukemia/patient/cll-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/leukemia/health-pro/cll-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/leukemia/patient/cll-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/leukemia/health-pro/cll-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/leukemia/health-pro/cml-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/leukemia/health-pro/cml-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/leukemia/patient/cml-treatment-pdq</t>
   </si>
   <si>
@@ -2701,204 +2107,102 @@
     <t>www.cancer.gov/cancertopics/types/myeloproliferative/patient/chronic-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/myeloproliferative/health-pro/chronic-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/myeloproliferative/patient/chronic-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/myeloproliferative/health-pro/chronic-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/colorectal/patient/colon-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/colorectal/health-pro/colon-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/colorectal/patient/colon-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/colorectal/health-pro/colon-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/uterine/health-pro/endometrial-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/uterine/patient/endometrial-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/uterine/health-pro/endometrial-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/uterine/patient/endometrial-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/esophageal/health-pro/esophageal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/esophageal/patient/esophageal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/esophageal/health-pro/esophageal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/esophageal/patient/esophageal-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/bone/patient/ewing-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/bone/health-pro/ewing-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/bone/patient/ewing-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/bone/health-pro/ewing-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/extragonadal-germ-cell/health-pro/extragonadal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/extragonadal-germ-cell/health-pro/extragonadal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/extragonadal-germ-cell/patient/extragonadal-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/extragonadal-germ-cell/patient/extragonadal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/liver/health-pro/bile-duct-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/liver/patient/bile-duct-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/liver/patient/bile-duct-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/liver/health-pro/bile-duct-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/gallbladder/health-pro/gallbladder-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/gallbladder/patient/gallbladder-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/gallbladder/health-pro/gallbladder-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/gallbladder/patient/gallbladder-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/stomach/patient/stomach-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/stomach/health-pro/stomach-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/stomach/patient/stomach-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/stomach/health-pro/stomach-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/gi-carcinoid-tumors/health-pro/gi-carcinoid-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/gi-carcinoid-tumors/health-pro/gi-carcinoid-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/gi-carcinoid-tumors/patient/gi-carcinoid-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/gi-carcinoid-tumors/patient/gi-carcinoid-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/health-pro/gist-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/patient/gist-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/soft-tissue-sarcoma/health-pro/gist-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/soft-tissue-sarcoma/patient/gist-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/gestational-trophoblastic/health-pro/gtd-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/gestational-trophoblastic/health-pro/gtd-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/gestational-trophoblastic/patient/gtd-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/gestational-trophoblastic/patient/gtd-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/leukemia/health-pro/hairy-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/leukemia/patient/hairy-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/leukemia/health-pro/hairy-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/leukemia/patient/hairy-cell-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/oral/patient/hypopharyngeal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/oral/health-pro/hypopharyngeal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/oral/patient/hypopharyngeal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/oral/health-pro/hypopharyngeal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/eye/health-pro/intraocular-melanoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/eye/patient/intraocular-melanoma-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/eye/patient/intraocular-melanoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/eye/health-pro/intraocular-melanoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/patient/kaposi-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/health-pro/kaposi-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/soft-tissue-sarcoma/patient/kaposi-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/soft-tissue-sarcoma/health-pro/kaposi-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/langerhans/health-pro/langerhans-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/langerhans/patient/langerhans-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/langerhans/health-pro/langerhans-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/langerhans/patient/langerhans-treatment-pdq</t>
   </si>
   <si>
@@ -2914,108 +2218,54 @@
     <t>www.cancer.gov/cancertopics/types/oral/patient/lip-mouth-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/oral/health-pro/lip-mouth-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/oral/patient/lip-mouth-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/oral/health-pro/lip-mouth-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/breast/health-pro/male-breast-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/breast/health-pro/male-breast-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/breast/patient/male-breast-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/breast/patient/male-breast-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/mesothelioma/health-pro/mesothelioma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/mesothelioma/patient/mesothelioma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/mesothelioma/health-pro/mesothelioma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/mesothelioma/patient/mesothelioma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/skin/health-pro/melanoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/skin/patient/melanoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/skin/health-pro/melanoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/skin/patient/melanoma-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/skin/patient/merkel-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/skin/health-pro/merkel-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/skin/patient/merkel-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/skin/health-pro/merkel-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/lymphoma/patient/mycosis-fungoides-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/lymphoma/health-pro/mycosis-fungoides-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/lymphoma/health-pro/mycosis-fungoides-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/lymphoma/patient/mycosis-fungoides-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/myeloproliferative/health-pro/myelodysplastic-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/myeloproliferative/patient/myelodysplastic-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/myeloproliferative/health-pro/myelodysplastic-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/myeloproliferative/patient/myelodysplastic-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/myeloproliferative/health-pro/mds-mpd-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/myeloproliferative/patient/mds-mpd-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/myeloproliferative/health-pro/mds-mpd-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/myeloproliferative/patient/mds-mpd-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/neuroblastoma/health-pro/neuroblastoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/neuroblastoma/patient/neuroblastoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/neuroblastoma/health-pro/neuroblastoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/neuroblastoma/patient/neuroblastoma-treatment-pdq</t>
   </si>
   <si>
@@ -3025,42 +2275,18 @@
     <t>www.cancer.gov/types/bone/patient/osteosarcoma-treatment-pdq</t>
   </si>
   <si>
-    <t>wwww.cancer.gov/types/bone/health-pro/osteosarcoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/bone/health-pro/osteosarcoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/ovarian/health-pro/ovarian-epithelial-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/ovarian/patient/ovarian-epithelial-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/ovarian/health-pro/ovarian-epithelial-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/ovarian/patient/ovarian-epithelial-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/ovarian/patient/ovarian-germ-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/ovarian/health-pro/ovarian-germ-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/ovarian/patient/ovarian-germ-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/ovarian/health-pro/ovarian-germ-cell-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/ovarian/health-pro/ovarian-low-malignant-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/ovarian/health-pro/ovarian-low-malignant-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/ovarian/patient/ovarian-low-malignant-treatment-pdq</t>
   </si>
   <si>
@@ -3070,57 +2296,27 @@
     <t>www.cancer.gov/cancertopics/types/pancreatic/patient/pancreatic-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/pancreatic/health-pro/pancreatic-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/pancreatic/patient/pancreatic-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/pancreatic/health-pro/pancreatic-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/pancreatic/patient/pnet-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/pancreatic/health-pro/pnet-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/pancreatic/patient/pnet-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/pancreatic/health-pro/pnet-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/parathyroid/patient/parathyroid-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/parathyroid/health-pro/parathyroid-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/parathyroid/patient/parathyroid-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/parathyroid/health-pro/parathyroid-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/penile/patient/penile-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/penile/health-pro/penile-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/penile/patient/penile-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/penile/health-pro/penile-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/pheochromocytoma/health-pro/pheochromocytoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/pheochromocytoma/health-pro/pheochromocytoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/pheochromocytoma/patient/pheochromocytoma-treatment-pdq</t>
   </si>
   <si>
@@ -3130,240 +2326,120 @@
     <t>www.cancer.gov/cancertopics/types/pituitary/patient/pituitary-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/pituitary/health-pro/pituitary-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/pituitary/patient/pituitary-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/pituitary/health-pro/pituitary-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/multiple-myeloma/health-pro/myeloma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/multiple-myeloma/patient/myeloma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/multiple-myeloma/health-pro/myeloma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/multiple-myeloma/patient/myeloma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/lymphoma/health-pro/primary-cns-lymphoma-treatment</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/lymphoma/health-pro/primary-cns-lymphoma-treatment</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/lymphoma/patient/primary-cns-lymphoma-treatment</t>
   </si>
   <si>
     <t>www.cancer.gov/types/lymphoma/patient/primary-cns-lymphoma-treatment</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/prostate/health-pro/prostate-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/prostate/patient/prostate-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/prostate/health-pro/prostate-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/prostate/patient/prostate-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/colorectal/patient/rectal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/colorectal/health-pro/rectal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/colorectal/patient/rectal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/colorectal/health-pro/rectal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/kidney/health-pro/kidney-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/kidney/patient/kidney-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/kidney/health-pro/kidney-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/kidney/patient/kidney-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/retinoblastoma/patient/retinoblastoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/retinoblastoma/health-pro/retinoblastoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/retinoblastoma/patient/retinoblastoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/retinoblastoma/health-pro/retinoblastoma-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/skin/patient/skin-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/skin/health-pro/skin-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/skin/patient/skin-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/skin/health-pro/skin-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/lung/health-pro/small-cell-lung-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/lung/patient/small-cell-lung-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/lung/health-pro/non-small-cell-lung-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/lung/patient/non-small-cell-lung-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/lung/health-pro/non-small-cell-lung-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/lung/patient/non-small-cell-lung-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/small-intestine/health-pro/small-intestine-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/small-intestine/patient/small-intestine-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/testicular/health-pro/testicular-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/testicular/patient/testicular-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/thymoma/patient/thymoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/thymoma/health-pro/thymoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/lung/health-pro/small-cell-lung-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/lung/patient/small-cell-lung-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/small-intestine/health-pro/small-intestine-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/small-intestine/patient/small-intestine-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/testicular/health-pro/testicular-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/testicular/patient/testicular-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/thymoma/patient/thymoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/thymoma/health-pro/thymoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/thyroid/health-pro/thyroid-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/thyroid/patient/thyroid-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/kidney/health-pro/transitional-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/kidney/patient/transitional-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/urethral/health-pro/urethral-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/urethral/patient/urethral-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/uterine/patient/uterine-sarcoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/uterine/health-pro/uterine-sarcoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/vaginal/health-pro/vaginal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/vaginal/patient/vaginal-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/types/vulvar/patient/vulvar-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/vulvar/health-pro/vulvar-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/kidney/health-pro/wilms-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/kidney/patient/wilms-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/thyroid/health-pro/thyroid-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/thyroid/patient/thyroid-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/kidney/health-pro/transitional-cell-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/kidney/patient/transitional-cell-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/urethral/health-pro/urethral-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/urethral/patient/urethral-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/uterine/patient/uterine-sarcoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/uterine/health-pro/uterine-sarcoma-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/vaginal/health-pro/vaginal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/vaginal/patient/vaginal-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/vulvar/patient/vulvar-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/vulvar/health-pro/vulvar-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/kidney/health-pro/wilms-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/kidney/patient/wilms-treatment-pdq</t>
   </si>
   <si>
@@ -3376,9 +2452,6 @@
     <t>www.cancer.gov/types/liver/patient/liver-screening-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/liver/health-pro/liver-screening-pdq</t>
-  </si>
-  <si>
     <t>Remove AIDS-Related Cancers CTHP (OCECREATIV-1336)</t>
   </si>
   <si>
@@ -3400,85 +2473,43 @@
     <t>www.cancer.gov/about-cancer/coping/feelings/depression-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/coping/feelings/depression-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/coping/feelings/depression-health-pro-pdq</t>
-  </si>
-  <si>
     <t>Manual task to add HP summary as Related Resource on this page</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/fatigue/fatigue-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/treatment/side-effects/fatigue/fatigue-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/fatigue/fatigue-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/about-cancer/treatment/side-effects/fatigue/fatigue-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/lymphedema/lymphedema-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/treatment/side-effects/lymphedema/lymphedema-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/lymphedema/lymphedema-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/about-cancer/treatment/side-effects/lymphedema/lymphedema-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/nausea/nausea-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/treatment/side-effects/nausea/nausea-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/nausea/nausea-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/about-cancer/treatment/side-effects/nausea/nausea-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/insomnia/sleep-disorders-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/treatment/side-effects/insomnia/sleep-disorders-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/insomnia/sleep-disorders-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/about-cancer/treatment/side-effects/insomnia/sleep-disorders-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/coping/adjusting-to-cancer/communication-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/coping/adjusting-to-cancer/communication-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/about-cancer/coping/adjusting-to-cancer/communication-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/about-cancer/coping/adjusting-to-cancer/communication-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/cancertopics/treatment/side-effects/sexuality-fertility-women/sexuality-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/sexuality-fertility-women/sexuality-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/about-cancer/treatment/side-effects/sexuality-fertility-women/sexuality-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/sexuality-fertility-women/sexuality-health-pro-pdq</t>
   </si>
   <si>
     <t>Sexual Problems as a Side Effect of Cancer. Much more about treatment and the problems; doesn't belong under Coping. Side Effects has a separate male and a female sexuality side effect though. Live under female side effect?
@@ -3491,18 +2522,9 @@
     <t>www.cancer.gov/cancertopics/types/head-and-neck/patient/oral-prevention-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/head-and-neck/health-pro/oral-prevention-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/head-and-neck/patient/oral-prevention-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/head-and-neck/health-pro/oral-prevention-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/head-and-neck/health-pro/oral-screening-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/head-and-neck/patient/oral-screening-pdq</t>
   </si>
   <si>
@@ -3515,54 +2537,24 @@
     <t>www.cancer.gov/types/head-and-neck/patient/laryngeal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/head-and-neck/health-pro/laryngeal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/head-and-neck/health-pro/laryngeal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/head-and-neck/patient/metastatic-squamous-neck-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/head-and-neck/patient/metastatic-squamous-neck-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/head-and-neck/health-pro/metastatic-squamous-neck-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/head-and-neck/health-pro/metastatic-squamous-neck-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/head-and-neck/patient/nasopharyngeal-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/head-and-neck/patient/nasopharyngeal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/head-and-neck/health-pro/nasopharyngeal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/head-and-neck/health-pro/nasopharyngeal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/head-and-neck/health-pro/oropharyngeal-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/head-and-neck/health-pro/oropharyngeal-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/head-and-neck/patient/oropharyngeal-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/head-and-neck/patient/oropharyngeal-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/head-and-neck/health-pro/paranasal-sinus-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/head-and-neck/health-pro/paranasal-sinus-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/head-and-neck/patient/paranasal-sinus-treatment-pdq</t>
   </si>
   <si>
@@ -3575,105 +2567,42 @@
     <t>www.cancer.gov/types/head-and-neck/patient/salivary-gland-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/head-and-neck/health-pro/salivary-gland-treatment-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/head-and-neck/health-pro/salivary-gland-treatment-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/publications/pdq/levels-evidence/supportive-care</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/childhood-cancers/health-pro/late-effects-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/childhood-cancers/patient/late-effects-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/childhood-cancers/patient/unusual-cancers-childhood-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/types/childhood-cancers/health-pro/unusual-cancers-childhood-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/advanced-cancer/caregivers/planning/last-days-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/about-cancer/advanced-cancer/caregivers/planning/last-days-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/about-cancer/advanced-cancer/caregivers/planning/last-days-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/advanced-cancer/caregivers/planning/last-days-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/advanced-cancer/caregivers/planning/bereavement-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/advanced-cancer/caregivers/planning/bereavement-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/about-cancer/advanced-cancer/caregivers/planning/bereavement-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/about-cancer/advanced-cancer/caregivers/planning/bereavement-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/childhood-cancers/pediatric-supportive-care-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/childhood-cancers/pediatric-supportive-care-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/childhood-cancers/pediatric-supportive-care-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/types/childhood-cancers/pediatric-supportive-care-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/advanced-cancer/planning/end-of-life-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/about-cancer/advanced-cancer/planning/end-of-life-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/advanced-cancer/planning/end-of-life-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/advanced-cancer/planning/end-of-life-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/childhood-cancers/health-pro/late-effects-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/cancertopics/types/childhood-cancers/patient/late-effects-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/childhood-cancers/patient/unusual-cancers-childhood-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/types/childhood-cancers/health-pro/unusual-cancers-childhood-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/causes-prevention/risk/tobacco/quit-smoking-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/about-cancer/causes-prevention/risk/tobacco/quit-smoking-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/causes-prevention/risk/tobacco/quit-smoking-health-pro-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/causes-prevention/risk/tobacco/quit-smoking-health-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/causes-prevention/risk/tobacco/smoking-cessation-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/causes-prevention/risk/tobacco/smoking-cessation-health-pro-pdq</t>
-  </si>
-  <si>
     <t>Waiting for client input</t>
   </si>
   <si>
@@ -3690,6 +2619,1098 @@
   </si>
   <si>
     <t>Waiting for client input. Verify with Anne this PDQ will be linked from her new Childhood Cancers content.</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/cardiopulmonary-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/cardiopulmonary-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/cardiopulmonary-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/cardiopulmonary-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/childhood-cancers/pediatric-care-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/childhood-cancers/pediatric-care-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/childhood-cancers/pediatric-care-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/childhood-cancers/pediatric-care-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/causes-prevention/risk/tobacco/smoking-cessation-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/causes-prevention/risk/tobacco/smoking-cessation-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/causes-prevention/risk/tobacco/smoking-cessation-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/childhood-cancers/child-hct-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/childhood-cancers/child-hct-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/childhood-cancers/late-effects-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/childhood-cancers/late-effects-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/childhood-cancers/late-effects-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/childhood-cancers/late-effects-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/714-x-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/714-x-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/acupuncture-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/acupuncture-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/antineoplastons-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/antineoplastons-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/aromatherapy-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/aromatherapy-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/cancell-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/canabis-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/canabis-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/cartilage-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/cartilage-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/coenzyme-q10-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/coenzyme-q10-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/essiac-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/essiac-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/gerson-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/gerson-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/gonzalez-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/gonzalez-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/vitamin-c-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/vitamin-c-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/hydrazine-sulfate-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/hydrazine-sulfate-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/laetrile-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/laetrile-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/milk-thistle-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/milk-thistle-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/mistletoe-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/mistletoe-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/NDV-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/NDV-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/pc-spes-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/pc-spes-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/prostate-supplements-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/prostate-supplements-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/suns-soup-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/suns-soup-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/cam/hp/cam-topics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/cam-topics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/breast/hp/breast-ovarian-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/breast/hp/breast-ovarian-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/colorectal/hp/colorectal-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/colorectal/hp/colorectal-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/thyroid/hp/medullary-thyroid-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/thyroid/hp/medullary-thyroid-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancetopics/types/kidney/hp/kidney-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/kidney/hp/kidney-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/prostate/hp/prostate-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/prostate/hp/prostate-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/skin/hp/skin-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/skin/hp/skin-genetics-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/anal/hp/anal-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/anal/hp/anal-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/breast/hp/breast-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/breast/hp/breast-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/causes-prevention/cancer-prevention-overview-pdq/hp</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/causes-prevention/cancer-prevention-overview-pdq/hp</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/cervical/hp/cervical-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/cervical/hp/cervical-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/causes-prevention/risk/tobacco/quit-smoking-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/causes-prevention/risk/tobacco/quit-smoking-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/colorectal/hp/colorectal-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/colorectal/hp/colorectal-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/uterine/hp/endometrial-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/uterine/hp/endometrial-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/esophageal/hp/esophageal-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/esophageal/hp/esophageal-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/liver/hp/liver-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/liver/hp/liver-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lung/hp/lung-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lung/hp/lung-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/head-and-neck/hp/oral-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/head-and-neck/hp/oral-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/ovarian/hp/ovarian-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/ovarian/hp/ovarian-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/prostate/hp/prostate-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/prostate/hp/prostate-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/skin/hp/skin-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/skin/hp/skin-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/stomach/hp/stomach-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/stomach/hp/stomach-prevention-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/bladder/hp/bladder-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/bladder/hp/bladder-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/breast/hp/breast-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/breast/hp/breast-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/screening/oveview-pdq/hp</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/screening/oveview-pdq/hp</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/cervical/hp/cervical-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/cervical/hp/cervical-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/colorectal/hp/colorectal-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/colorectal/hp/colorectal-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/uterine/hp/endometrial-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/uterine/hp/endometrial-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/esophageal/hp/esophageal-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/esophageal/hp/esophageal-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/liver/hp/liver-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/liver/hp/liver-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lung/hp/lung-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lung/hp/lung-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/neuroblastoma/hp/neuroblastoma-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/neuroblastoma/hp/neuroblastoma-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/head-and-neck/hp/oral-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/ovarian/hp/ovarian-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/ovarian/hp/ovarian-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/prostate/hp/prostate-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/prostate/hp/prostate-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/skin/hp/skin-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/skin/hp/skin-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/stomach/hp/stomach-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/stomach/hp/stomach-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/testicular/hp/testicular-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/testicular/hp/testicular-screening-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/coping/feelings/anxiety-distress-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/coping/feelings/anxiety-distress-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/coping/adjusting-to-cancer/communication-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/coping/adjusting-to-cancer/communication-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/memory/delirium-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/memory/delirium-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/coping/feelings/depression-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/coping/feelings/depression-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/coping/family-friends/family-caregivers-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/coping/family-friends/family-caregivers-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/fatigue/fatigue-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/fatigue/fatigue-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/constipation/GI-complications-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/constipation/GI-complications-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/advanced-cancer/caregivers/planning/bereavement-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/advanced-cancer/caregivers/planning/bereavement-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/sexuality-fertility-women/hot-flashes-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/sexuality-fertility-women/hot-flashes-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/advanced-cancer/caregivers/planning/last-days-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/advanced-cancer/caregivers/planning/last-days-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/lymphedema/lymphedema-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/lymphedema/lymphedema-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/nausea/nausea-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/nausea/nausea-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/appetite-loss/nutrition-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/appetite-loss/nutrition-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/mouth-throat/oral-complications-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/mouth-throat/oral-complications-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/pain-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/pain-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/advanced-cancer/planning/end-of-life-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/advanced-cancer/planning/end-of-life-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/coping/survivorship/new-normal/ptsd-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/coping/survivorship/new-normal/ptsd-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/skin-nail-changes/pruritus-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/skin-nail-changes/pruritus-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/sexuality-fertility-women/sexuality-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/sexuality-fertility-women/sexuality-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/insomnia/sleep-disorders-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/insomnia/sleep-disorders-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/coping/day-to-day/faith-and-spirituality/spirituality-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/coping/day-to-day/faith-and-spirituality/spirituality-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/adrenocortical/hp/adrenocortical-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/adrenocortical/hp/adrenocortical-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/leukemia/hp/adult-all-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/leukemia/hp/adult-all-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/leukemia/hp/adult-aml-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/leukemia/hp/adult-aml-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/adult-brain-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/adult-brain-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/hodgkin/hp/adult-hodgkin-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lymphoma/hp/adult-hodgkin-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/nhl/hp/adult-nhl-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lymphoma/hp/adult-nhl-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/liver/hp/adult-liver-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/liver-bile-duct/hp/adult-liver-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/hp/adult-soft-tissue-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/soft-tissue-sarcoma/hp/adult-soft-tissue-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lymphoma/hp/aids-related-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lymphoma/hp/aids-related-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/anal/hp/anal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/anal/hp/anal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/bladder/hp/bladder-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/bladder/hp/bladder-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/breast/hp/breast-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/breast/hp/breast-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/breast/hp/pregnancy-breast-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/breast/hp/pregnancy-breast-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/unknown-primary/hp/unknown-primary-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/unknown-primary/hp/unknown-primary-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/cervical/hp/cervical-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/cervical/hp/cervical-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/leukemia/hp/child-all-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/leukemia/hp/child-all-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/leukemia/hp/child-aml-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/leukemia/hp/child-aml-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/child-astrocytoma-treament-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/child-astrocytoma-treament-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/child-brain-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/child-brain-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/child-glioma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/child-glioma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/child-cns-atrt-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/child-cns-atrt-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/child-cns-embryonal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/child-cns-embryonal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/child-cns-germ-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/child-cns-germ-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/child-cranio-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/child-cranio-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/brain/hp/child-ependymoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/brain/hp/child-ependymoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/extracranial-germ-cell/hp/germ-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/extracranial-germ-cell/hp/germ-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lymphoma/hp/child-lymphoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lymphoma/hp/child-lymphoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/liver/hp/child-liver-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/liver/hp/child-liver-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lymphoma/hp/child-nhl-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lymphoma/hp/child-nhl-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/hp/rhabdomyosarcoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/soft-tissue-sarcoma/hp/rhabdomyosarcoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/hp/child-soft-tissue-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/soft-tissue-sarcoma/hp/child-soft-tissue-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/leukemia/hp/cll-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/leukemia/hp/cll-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/leukemia/hp/cml-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/leukemia/hp/cml-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/myeloproliferative/hp/chronic-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/myeloproliferative/hp/chronic-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/colorectal/hp/colon-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/colorectal/hp/colon-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/uterine/hp/endometrial-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/uterine/hp/endometrial-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/esophageal/hp/esophageal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/esophageal/hp/esophageal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/bone/hp/ewing-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/bone/hp/ewing-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/extragonadal-germ-cell/hp/extragonadal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/extragonadal-germ-cell/hp/extragonadal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/liver/hp/bile-duct-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/liver/hp/bile-duct-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/gallbladder/hp/gallbladder-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/gallbladder/hp/gallbladder-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/stomach/hp/stomach-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/stomach/hp/stomach-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/gi-carcinoid-tumors/hp/gi-carcinoid-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/gi-carcinoid-tumors/hp/gi-carcinoid-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/hp/gist-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/soft-tissue-sarcoma/hp/gist-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/gestational-trophoblastic/hp/gtd-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/gestational-trophoblastic/hp/gtd-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/leukemia/hp/hairy-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/leukemia/hp/hairy-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/oral/hp/hypopharyngeal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/oral/hp/hypopharyngeal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/eye/hp/intraocular-melanoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/eye/hp/intraocular-melanoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/soft-tissue-sarcoma/hp/kaposi-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/soft-tissue-sarcoma/hp/kaposi-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/langerhans/hp/langerhans-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/langerhans/hp/langerhans-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/head-and-neck/hp/laryngeal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/head-and-neck/hp/laryngeal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/oral/hp/lip-mouth-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/oral/hp/lip-mouth-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/breast/hp/male-breast-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/breast/hp/male-breast-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/mesothelioma/hp/mesothelioma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/mesothelioma/hp/mesothelioma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/skin/hp/melanoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/skin/hp/melanoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/skin/hp/merkel-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/skin/hp/merkel-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/head-and-neck/hp/metastatic-squamous-neck-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/head-and-neck/hp/metastatic-squamous-neck-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lymphoma/hp/mycosis-fungoides-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lymphoma/hp/mycosis-fungoides-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/myeloproliferative/hp/myelodysplastic-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/myeloproliferative/hp/myelodysplastic-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/myeloproliferative/hp/mds-mpd-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/myeloproliferative/hp/mds-mpd-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/head-and-neck/hp/nasopharyngeal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/head-and-neck/hp/nasopharyngeal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/neuroblastoma/hp/neuroblastoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/neuroblastoma/hp/neuroblastoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lung/hp/non-small-cell-lung-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lung/hp/non-small-cell-lung-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/head-and-neck/hp/oropharyngeal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/head-and-neck/hp/oropharyngeal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/bone/hp/osteosarcoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>wwww.cancer.gov/types/bone/hp/osteosarcoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/ovarian/hp/ovarian-epithelial-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/ovarian/hp/ovarian-epithelial-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/ovarian/hp/ovarian-germ-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/ovarian/hp/ovarian-germ-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/ovarian/hp/ovarian-low-malignant-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/ovarian/hp/ovarian-low-malignant-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/pancreatic/hp/pancreatic-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/pancreatic/hp/pancreatic-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/pancreatic/hp/pnet-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/pancreatic/hp/pnet-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/head-and-neck/hp/paranasal-sinus-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/head-and-neck/hp/paranasal-sinus-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/parathyroid/hp/parathyroid-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/parathyroid/hp/parathyroid-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/penile/hp/penile-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/penile/hp/penile-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/pheochromocytoma/hp/pheochromocytoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/pheochromocytoma/hp/pheochromocytoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/pituitary/hp/pituitary-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/pituitary/hp/pituitary-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/multiple-myeloma/hp/myeloma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/multiple-myeloma/hp/myeloma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lymphoma/hp/primary-cns-lymphoma-treatment</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lymphoma/hp/primary-cns-lymphoma-treatment</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/prostate/hp/prostate-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/prostate/hp/prostate-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/colorectal/hp/rectal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/colorectal/hp/rectal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/kidney/hp/kidney-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/kidney/hp/kidney-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/retinoblastoma/hp/retinoblastoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/retinoblastoma/hp/retinoblastoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/head-and-neck/hp/salivary-gland-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/head-and-neck/hp/salivary-gland-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/skin/hp/skin-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/skin/hp/skin-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/lung/hp/small-cell-lung-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/lung/hp/small-cell-lung-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/small-intestine/hp/small-intestine-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/small-intestine/hp/small-intestine-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/testicular/hp/testicular-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/testicular/hp/testicular-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/thymoma/hp/thymoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/thymoma/hp/thymoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/thyroid/hp/thyroid-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/thyroid/hp/thyroid-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/kidney/hp/transitional-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/kidney/hp/transitional-cell-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/childhood-cancers/hp/unusual-cancers-childhood-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/childhood-cancers/hp/unusual-cancers-childhood-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/urethral/hp/urethral-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/urethral/hp/urethral-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/uterine/hp/uterine-sarcoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/uterine/hp/uterine-sarcoma-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/vaginal/hp/vaginal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/vaginal/hp/vaginal-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/vulvar/hp/vulvar-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/vulvar/hp/vulvar-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/types/kidney/hp/wilms-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/kidney/hp/wilms-treatment-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/cam/hp/cancell-pdq</t>
   </si>
 </sst>
 </file>
@@ -3828,7 +3849,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="943">
+  <cellStyleXfs count="951">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4373,6 +4394,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4823,7 +4852,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="943">
+  <cellStyles count="951">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5309,6 +5338,10 @@
     <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5766,6 +5799,10 @@
     <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6101,9 +6138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6172,15 +6209,15 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>1114</v>
+        <v>805</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="21" t="s">
-        <v>1113</v>
+        <v>804</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="22" t="s">
-        <v>1115</v>
+        <v>806</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="1"/>
@@ -6243,14 +6280,14 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>665</v>
+        <v>876</v>
       </c>
       <c r="N4" s="4">
         <f>LEN(M4)</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O4" s="5"/>
     </row>
@@ -6287,10 +6324,10 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" ref="N5:N68" si="0">LEN(M5)</f>
@@ -6331,14 +6368,14 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>742</v>
+        <v>877</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>666</v>
+        <v>878</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O6" s="5"/>
     </row>
@@ -6375,10 +6412,10 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
@@ -6419,10 +6456,10 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
@@ -6463,14 +6500,14 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>743</v>
+        <v>879</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>667</v>
+        <v>880</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O9" s="5"/>
     </row>
@@ -6509,10 +6546,10 @@
         <v>53</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
@@ -6555,14 +6592,14 @@
         <v>53</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>744</v>
+        <v>881</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>668</v>
+        <v>882</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O11" s="5"/>
     </row>
@@ -6599,14 +6636,14 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>669</v>
+        <v>1221</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O12" s="5"/>
     </row>
@@ -6643,10 +6680,10 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
@@ -6689,14 +6726,14 @@
         <v>84</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>670</v>
+        <v>885</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O14" s="5"/>
     </row>
@@ -6735,10 +6772,10 @@
         <v>84</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
@@ -6781,10 +6818,10 @@
         <v>90</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
@@ -6827,14 +6864,14 @@
         <v>90</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>747</v>
+        <v>886</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>671</v>
+        <v>887</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O17" s="5"/>
     </row>
@@ -6871,14 +6908,14 @@
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>672</v>
+        <v>889</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O18" s="5"/>
     </row>
@@ -6915,10 +6952,10 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
@@ -7007,14 +7044,14 @@
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>749</v>
+        <v>890</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>673</v>
+        <v>891</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O21" s="5"/>
     </row>
@@ -7051,10 +7088,10 @@
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
@@ -7095,14 +7132,14 @@
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>750</v>
+        <v>892</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>674</v>
+        <v>893</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O23" s="5"/>
     </row>
@@ -7139,10 +7176,10 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
@@ -7183,10 +7220,10 @@
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
@@ -7227,14 +7264,14 @@
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>751</v>
+        <v>894</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O26" s="5"/>
     </row>
@@ -7271,14 +7308,14 @@
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>752</v>
+        <v>896</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>676</v>
+        <v>897</v>
       </c>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O27" s="5"/>
     </row>
@@ -7315,10 +7352,10 @@
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="0"/>
@@ -7359,14 +7396,14 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>753</v>
+        <v>898</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>677</v>
+        <v>899</v>
       </c>
       <c r="N29" s="4">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O29" s="5"/>
     </row>
@@ -7403,10 +7440,10 @@
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="0"/>
@@ -7447,14 +7484,14 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>754</v>
+        <v>900</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>678</v>
+        <v>901</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O31" s="5"/>
     </row>
@@ -7491,10 +7528,10 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N32" s="4">
         <f t="shared" si="0"/>
@@ -7537,10 +7574,10 @@
         <v>280</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="0"/>
@@ -7581,14 +7618,14 @@
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>755</v>
+        <v>902</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>679</v>
+        <v>903</v>
       </c>
       <c r="N34" s="4">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O34" s="5"/>
     </row>
@@ -7625,10 +7662,10 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N35" s="4">
         <f t="shared" si="0"/>
@@ -7669,10 +7706,10 @@
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N36" s="4">
         <f t="shared" si="0"/>
@@ -7713,14 +7750,14 @@
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>756</v>
+        <v>904</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>680</v>
+        <v>905</v>
       </c>
       <c r="N37" s="4">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O37" s="5"/>
     </row>
@@ -7757,14 +7794,14 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>757</v>
+        <v>906</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>681</v>
+        <v>907</v>
       </c>
       <c r="N38" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O38" s="5"/>
     </row>
@@ -7801,10 +7838,10 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N39" s="4">
         <f t="shared" si="0"/>
@@ -7845,10 +7882,10 @@
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N40" s="4">
         <f t="shared" si="0"/>
@@ -7889,14 +7926,14 @@
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>758</v>
+        <v>908</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>682</v>
+        <v>909</v>
       </c>
       <c r="N41" s="4">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O41" s="5"/>
     </row>
@@ -7935,10 +7972,10 @@
         <v>411</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N42" s="4">
         <f t="shared" si="0"/>
@@ -7981,14 +8018,14 @@
         <v>411</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>759</v>
+        <v>910</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>683</v>
+        <v>911</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O43" s="5"/>
     </row>
@@ -8025,14 +8062,14 @@
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>760</v>
+        <v>912</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O44" s="5"/>
     </row>
@@ -8069,10 +8106,10 @@
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="0"/>
@@ -8115,14 +8152,14 @@
         <v>463</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>761</v>
+        <v>914</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>685</v>
+        <v>915</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O46" s="5"/>
     </row>
@@ -8161,10 +8198,10 @@
         <v>463</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N47" s="4">
         <f t="shared" si="0"/>
@@ -8205,10 +8242,10 @@
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N48" s="4">
         <f t="shared" si="0"/>
@@ -8251,10 +8288,10 @@
         <v>77</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N49" s="4">
         <f t="shared" si="0"/>
@@ -8299,14 +8336,14 @@
         <v>215</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>762</v>
+        <v>916</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>686</v>
+        <v>917</v>
       </c>
       <c r="N50" s="4">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O50" s="11"/>
     </row>
@@ -8343,14 +8380,14 @@
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>763</v>
+        <v>918</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>687</v>
+        <v>919</v>
       </c>
       <c r="N51" s="4">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O51" s="5"/>
     </row>
@@ -8389,14 +8426,14 @@
         <v>220</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>764</v>
+        <v>920</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>688</v>
+        <v>921</v>
       </c>
       <c r="N52" s="4">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O52" s="5"/>
     </row>
@@ -8435,14 +8472,14 @@
         <v>223</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>765</v>
+        <v>922</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>689</v>
+        <v>923</v>
       </c>
       <c r="N53" s="4">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O53" s="5"/>
     </row>
@@ -8479,14 +8516,14 @@
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>766</v>
+        <v>924</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>690</v>
+        <v>925</v>
       </c>
       <c r="N54" s="4">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O54" s="5"/>
     </row>
@@ -8523,14 +8560,14 @@
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>767</v>
+        <v>926</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>691</v>
+        <v>927</v>
       </c>
       <c r="N55" s="4">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O55" s="5"/>
     </row>
@@ -8569,17 +8606,17 @@
         <v>272</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N56" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>1107</v>
+        <v>799</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -8615,10 +8652,10 @@
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N57" s="4">
         <f t="shared" si="0"/>
@@ -8659,14 +8696,14 @@
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
-        <v>768</v>
+        <v>928</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>692</v>
+        <v>929</v>
       </c>
       <c r="N58" s="4">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O58" s="5"/>
     </row>
@@ -8703,14 +8740,14 @@
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
-        <v>769</v>
+        <v>930</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>693</v>
+        <v>931</v>
       </c>
       <c r="N59" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O59" s="5"/>
     </row>
@@ -8747,10 +8784,10 @@
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N60" s="4">
         <f t="shared" si="0"/>
@@ -8793,14 +8830,14 @@
         <v>78</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>770</v>
+        <v>932</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>694</v>
+        <v>933</v>
       </c>
       <c r="N61" s="4">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O61" s="5"/>
     </row>
@@ -8839,10 +8876,10 @@
         <v>78</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N62" s="4">
         <f t="shared" si="0"/>
@@ -8883,14 +8920,14 @@
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4" t="s">
-        <v>771</v>
+        <v>934</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>695</v>
+        <v>935</v>
       </c>
       <c r="N63" s="4">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O63" s="5"/>
     </row>
@@ -8927,10 +8964,10 @@
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N64" s="4">
         <f t="shared" si="0"/>
@@ -8973,10 +9010,10 @@
         <v>156</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>1203</v>
+        <v>849</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>1204</v>
+        <v>850</v>
       </c>
       <c r="N65" s="4">
         <f t="shared" si="0"/>
@@ -9019,17 +9056,17 @@
         <v>156</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>1205</v>
+        <v>936</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>1206</v>
+        <v>937</v>
       </c>
       <c r="N66" s="4">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -9065,14 +9102,14 @@
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
-        <v>772</v>
+        <v>938</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>696</v>
+        <v>939</v>
       </c>
       <c r="N67" s="4">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O67" s="5"/>
     </row>
@@ -9109,10 +9146,10 @@
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N68" s="4">
         <f t="shared" si="0"/>
@@ -9153,17 +9190,17 @@
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N69" s="4">
         <f t="shared" ref="N69:N132" si="1">LEN(M69)</f>
         <v>63</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -9199,17 +9236,17 @@
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7" t="s">
-        <v>773</v>
+        <v>940</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>697</v>
+        <v>941</v>
       </c>
       <c r="N70" s="4">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -9245,10 +9282,10 @@
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N71" s="4">
         <f t="shared" si="1"/>
@@ -9289,14 +9326,14 @@
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4" t="s">
-        <v>774</v>
+        <v>942</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>698</v>
+        <v>943</v>
       </c>
       <c r="N72" s="4">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O72" s="5"/>
     </row>
@@ -9335,17 +9372,17 @@
         <v>291</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>775</v>
+        <v>944</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>699</v>
+        <v>945</v>
       </c>
       <c r="N73" s="4">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -9383,17 +9420,17 @@
         <v>291</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N74" s="4">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -9429,14 +9466,14 @@
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4" t="s">
-        <v>776</v>
+        <v>946</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>700</v>
+        <v>947</v>
       </c>
       <c r="N75" s="4">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O75" s="5"/>
     </row>
@@ -9473,10 +9510,10 @@
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N76" s="4">
         <f t="shared" si="1"/>
@@ -9517,17 +9554,17 @@
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7" t="s">
-        <v>1147</v>
+        <v>824</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>1149</v>
+        <v>825</v>
       </c>
       <c r="N77" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -9563,17 +9600,17 @@
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7" t="s">
-        <v>1148</v>
+        <v>948</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>1150</v>
+        <v>949</v>
       </c>
       <c r="N78" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -9609,14 +9646,14 @@
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4" t="s">
-        <v>777</v>
+        <v>950</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>701</v>
+        <v>951</v>
       </c>
       <c r="N79" s="4">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O79" s="5"/>
     </row>
@@ -9653,10 +9690,10 @@
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N80" s="4">
         <f t="shared" si="1"/>
@@ -9697,14 +9734,14 @@
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4" t="s">
-        <v>778</v>
+        <v>952</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>702</v>
+        <v>953</v>
       </c>
       <c r="N81" s="4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O81" s="5"/>
     </row>
@@ -9741,10 +9778,10 @@
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N82" s="4">
         <f t="shared" si="1"/>
@@ -9785,14 +9822,14 @@
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4" t="s">
-        <v>779</v>
+        <v>954</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>703</v>
+        <v>955</v>
       </c>
       <c r="N83" s="4">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O83" s="5"/>
     </row>
@@ -9829,10 +9866,10 @@
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N84" s="4">
         <f t="shared" si="1"/>
@@ -9873,10 +9910,10 @@
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N85" s="4">
         <f t="shared" si="1"/>
@@ -9919,14 +9956,14 @@
         <v>446</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>780</v>
+        <v>956</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>704</v>
+        <v>957</v>
       </c>
       <c r="N86" s="4">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>487</v>
@@ -9967,10 +10004,10 @@
         <v>57</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N87" s="4">
         <f t="shared" si="1"/>
@@ -10013,14 +10050,14 @@
         <v>57</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>781</v>
+        <v>958</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>705</v>
+        <v>959</v>
       </c>
       <c r="N88" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O88" s="5"/>
     </row>
@@ -10057,10 +10094,10 @@
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N89" s="4">
         <f t="shared" si="1"/>
@@ -10101,14 +10138,14 @@
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4" t="s">
-        <v>782</v>
+        <v>960</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>706</v>
+        <v>961</v>
       </c>
       <c r="N90" s="4">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O90" s="5"/>
     </row>
@@ -10147,14 +10184,14 @@
         <v>80</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>783</v>
+        <v>962</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>707</v>
+        <v>963</v>
       </c>
       <c r="N91" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O91" s="5"/>
     </row>
@@ -10193,17 +10230,17 @@
         <v>80</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N92" s="4">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -10239,14 +10276,14 @@
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="15" t="s">
-        <v>784</v>
+        <v>964</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>708</v>
+        <v>965</v>
       </c>
       <c r="N93" s="4">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O93" s="5"/>
     </row>
@@ -10283,10 +10320,10 @@
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N94" s="4">
         <f t="shared" si="1"/>
@@ -10327,10 +10364,10 @@
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N95" s="4">
         <f t="shared" si="1"/>
@@ -10371,14 +10408,14 @@
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="15" t="s">
-        <v>785</v>
+        <v>966</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>709</v>
+        <v>967</v>
       </c>
       <c r="N96" s="4">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O96" s="5"/>
     </row>
@@ -10415,17 +10452,17 @@
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7" t="s">
-        <v>786</v>
+        <v>968</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>710</v>
+        <v>969</v>
       </c>
       <c r="N97" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O97" s="19" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -10461,17 +10498,17 @@
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N98" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="O98" s="19" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -10507,14 +10544,14 @@
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="15" t="s">
-        <v>787</v>
+        <v>970</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>711</v>
+        <v>971</v>
       </c>
       <c r="N99" s="4">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O99" s="5"/>
     </row>
@@ -10551,10 +10588,10 @@
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M100" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N100" s="4">
         <f t="shared" si="1"/>
@@ -10597,17 +10634,17 @@
         <v>276</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N101" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>1107</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -10645,17 +10682,17 @@
         <v>294</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>1109</v>
+        <v>801</v>
       </c>
       <c r="N102" s="4">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -10693,17 +10730,17 @@
         <v>294</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>788</v>
+        <v>972</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>1110</v>
+        <v>973</v>
       </c>
       <c r="N103" s="4">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O103" s="19" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -10739,14 +10776,14 @@
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="15" t="s">
-        <v>789</v>
+        <v>974</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>712</v>
+        <v>975</v>
       </c>
       <c r="N104" s="4">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O104" s="5"/>
     </row>
@@ -10783,10 +10820,10 @@
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N105" s="4">
         <f t="shared" si="1"/>
@@ -10827,14 +10864,14 @@
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4" t="s">
-        <v>790</v>
+        <v>976</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>713</v>
+        <v>977</v>
       </c>
       <c r="N106" s="4">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O106" s="5"/>
     </row>
@@ -10871,10 +10908,10 @@
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N107" s="4">
         <f t="shared" si="1"/>
@@ -10915,17 +10952,17 @@
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7" t="s">
-        <v>1151</v>
+        <v>978</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>1150</v>
+        <v>949</v>
       </c>
       <c r="N108" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -10961,17 +10998,17 @@
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7" t="s">
-        <v>1152</v>
+        <v>826</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>1153</v>
+        <v>827</v>
       </c>
       <c r="N109" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -11007,14 +11044,14 @@
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4" t="s">
-        <v>791</v>
+        <v>979</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>714</v>
+        <v>980</v>
       </c>
       <c r="N110" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O110" s="5"/>
     </row>
@@ -11051,10 +11088,10 @@
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N111" s="4">
         <f t="shared" si="1"/>
@@ -11095,14 +11132,14 @@
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4" t="s">
-        <v>792</v>
+        <v>981</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>715</v>
+        <v>982</v>
       </c>
       <c r="N112" s="4">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O112" s="5"/>
     </row>
@@ -11139,10 +11176,10 @@
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N113" s="4">
         <f t="shared" si="1"/>
@@ -11183,14 +11220,14 @@
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4" t="s">
-        <v>793</v>
+        <v>983</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>716</v>
+        <v>984</v>
       </c>
       <c r="N114" s="4">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O114" s="5"/>
     </row>
@@ -11227,10 +11264,10 @@
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N115" s="4">
         <f t="shared" si="1"/>
@@ -11273,14 +11310,14 @@
         <v>450</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>794</v>
+        <v>985</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>717</v>
+        <v>986</v>
       </c>
       <c r="N116" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O116" s="5"/>
     </row>
@@ -11319,10 +11356,10 @@
         <v>450</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N117" s="4">
         <f t="shared" si="1"/>
@@ -11363,10 +11400,10 @@
       </c>
       <c r="K118" s="4"/>
       <c r="L118" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N118" s="4">
         <f t="shared" si="1"/>
@@ -11407,14 +11444,14 @@
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4" t="s">
-        <v>795</v>
+        <v>987</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>718</v>
+        <v>988</v>
       </c>
       <c r="N119" s="4">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O119" s="5"/>
     </row>
@@ -11453,14 +11490,14 @@
         <v>21</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>818</v>
+        <v>989</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>819</v>
+        <v>990</v>
       </c>
       <c r="N120" s="4">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O120" s="11"/>
     </row>
@@ -11499,10 +11536,10 @@
         <v>21</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N121" s="4">
         <f t="shared" si="1"/>
@@ -11511,91 +11548,95 @@
       <c r="O121" s="5"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="13">
+      <c r="A122" s="6">
         <v>352186</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="13" t="s">
+      <c r="C122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="E122" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F122" s="13">
+      <c r="F122" s="6">
         <v>25</v>
       </c>
-      <c r="G122" s="13" t="s">
+      <c r="G122" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H122" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122" s="6">
         <v>25</v>
       </c>
-      <c r="J122" s="13" t="s">
+      <c r="J122" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="M122" s="13"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>860</v>
+      </c>
       <c r="N122" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>1209</v>
+        <v>852</v>
       </c>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="13">
+      <c r="A123" s="6">
         <v>352193</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="13" t="s">
+      <c r="C123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E123" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F123" s="6">
         <v>25</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="G123" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H123" s="13" t="s">
+      <c r="H123" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123" s="6">
         <v>25</v>
       </c>
-      <c r="J123" s="13" t="s">
+      <c r="J123" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="M123" s="13"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>861</v>
+      </c>
       <c r="N123" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>1209</v>
+        <v>852</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -11631,17 +11672,17 @@
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4" t="s">
-        <v>1137</v>
+        <v>991</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>1139</v>
+        <v>992</v>
       </c>
       <c r="N124" s="4">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>1120</v>
+        <v>809</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -11677,10 +11718,10 @@
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="4" t="s">
-        <v>1138</v>
+        <v>818</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>1140</v>
+        <v>819</v>
       </c>
       <c r="N125" s="4">
         <f t="shared" si="1"/>
@@ -11721,14 +11762,14 @@
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="6" t="s">
-        <v>820</v>
+        <v>993</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>821</v>
+        <v>994</v>
       </c>
       <c r="N126" s="4">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O126" s="11"/>
     </row>
@@ -11765,10 +11806,10 @@
       </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N127" s="4">
         <f t="shared" si="1"/>
@@ -11809,10 +11850,10 @@
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4" t="s">
-        <v>1116</v>
+        <v>807</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>1117</v>
+        <v>808</v>
       </c>
       <c r="N128" s="4">
         <f t="shared" si="1"/>
@@ -11853,17 +11894,17 @@
       </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4" t="s">
-        <v>1118</v>
+        <v>995</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>1119</v>
+        <v>996</v>
       </c>
       <c r="N129" s="4">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1120</v>
+        <v>809</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -11899,10 +11940,10 @@
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N130" s="4">
         <f t="shared" si="1"/>
@@ -11945,14 +11986,14 @@
         <v>194</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>822</v>
+        <v>997</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>823</v>
+        <v>998</v>
       </c>
       <c r="N131" s="4">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O131" s="11"/>
     </row>
@@ -11989,14 +12030,14 @@
       </c>
       <c r="K132" s="6"/>
       <c r="L132" s="6" t="s">
-        <v>1121</v>
+        <v>999</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>1123</v>
+        <v>1000</v>
       </c>
       <c r="N132" s="4">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O132" s="11"/>
     </row>
@@ -12033,10 +12074,10 @@
       </c>
       <c r="K133" s="6"/>
       <c r="L133" s="6" t="s">
-        <v>1122</v>
+        <v>810</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>1124</v>
+        <v>811</v>
       </c>
       <c r="N133" s="4">
         <f t="shared" ref="N133:N196" si="2">LEN(M133)</f>
@@ -12079,10 +12120,10 @@
         <v>208</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N134" s="4">
         <f t="shared" si="2"/>
@@ -12125,14 +12166,14 @@
         <v>208</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>824</v>
+        <v>1001</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>825</v>
+        <v>1002</v>
       </c>
       <c r="N135" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O135" s="11"/>
     </row>
@@ -12171,14 +12212,14 @@
         <v>236</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>1187</v>
+        <v>1003</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>1189</v>
+        <v>1004</v>
       </c>
       <c r="N136" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O136" s="11"/>
     </row>
@@ -12217,10 +12258,10 @@
         <v>236</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>1188</v>
+        <v>844</v>
       </c>
       <c r="M137" s="6" t="s">
-        <v>1190</v>
+        <v>845</v>
       </c>
       <c r="N137" s="4">
         <f t="shared" si="2"/>
@@ -12263,10 +12304,10 @@
         <v>242</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N138" s="4">
         <f t="shared" si="2"/>
@@ -12309,14 +12350,14 @@
         <v>242</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>826</v>
+        <v>1005</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>827</v>
+        <v>1006</v>
       </c>
       <c r="N139" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O139" s="5"/>
     </row>
@@ -12353,14 +12394,14 @@
       </c>
       <c r="K140" s="4"/>
       <c r="L140" s="4" t="s">
-        <v>1186</v>
+        <v>1007</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>1185</v>
+        <v>1008</v>
       </c>
       <c r="N140" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O140" s="5"/>
     </row>
@@ -12397,10 +12438,10 @@
       </c>
       <c r="K141" s="6"/>
       <c r="L141" s="6" t="s">
-        <v>1183</v>
+        <v>842</v>
       </c>
       <c r="M141" s="6" t="s">
-        <v>1184</v>
+        <v>843</v>
       </c>
       <c r="N141" s="4">
         <f t="shared" si="2"/>
@@ -12443,17 +12484,17 @@
         <v>284</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>1178</v>
+        <v>840</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>1178</v>
+        <v>840</v>
       </c>
       <c r="N142" s="4">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>1107</v>
+        <v>799</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -12489,14 +12530,14 @@
       </c>
       <c r="K143" s="4"/>
       <c r="L143" s="4" t="s">
-        <v>1125</v>
+        <v>1009</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>1127</v>
+        <v>1010</v>
       </c>
       <c r="N143" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O143" s="5"/>
     </row>
@@ -12533,10 +12574,10 @@
       </c>
       <c r="K144" s="4"/>
       <c r="L144" s="4" t="s">
-        <v>1126</v>
+        <v>812</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>1128</v>
+        <v>813</v>
       </c>
       <c r="N144" s="4">
         <f t="shared" si="2"/>
@@ -12579,14 +12620,14 @@
         <v>330</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>1129</v>
+        <v>1011</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>1131</v>
+        <v>1012</v>
       </c>
       <c r="N145" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O145" s="5"/>
     </row>
@@ -12625,10 +12666,10 @@
         <v>330</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>1130</v>
+        <v>814</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>1132</v>
+        <v>815</v>
       </c>
       <c r="N146" s="4">
         <f t="shared" si="2"/>
@@ -12669,10 +12710,10 @@
       </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N147" s="4">
         <f t="shared" si="2"/>
@@ -12713,14 +12754,14 @@
       </c>
       <c r="K148" s="4"/>
       <c r="L148" s="4" t="s">
-        <v>828</v>
+        <v>1013</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>829</v>
+        <v>1014</v>
       </c>
       <c r="N148" s="4">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O148" s="5"/>
     </row>
@@ -12759,14 +12800,14 @@
         <v>348</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>830</v>
+        <v>1015</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>831</v>
+        <v>1016</v>
       </c>
       <c r="N149" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O149" s="5"/>
     </row>
@@ -12805,10 +12846,10 @@
         <v>349</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N150" s="4">
         <f t="shared" si="2"/>
@@ -12849,14 +12890,14 @@
       </c>
       <c r="K151" s="4"/>
       <c r="L151" s="4" t="s">
-        <v>832</v>
+        <v>1017</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>833</v>
+        <v>1018</v>
       </c>
       <c r="N151" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O151" s="5"/>
     </row>
@@ -12893,10 +12934,10 @@
       </c>
       <c r="K152" s="4"/>
       <c r="L152" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N152" s="4">
         <f t="shared" si="2"/>
@@ -12905,95 +12946,95 @@
       <c r="O152" s="5"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="13">
+      <c r="A153" s="6">
         <v>593694</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C153" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="13" t="s">
+      <c r="C153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="13" t="s">
+      <c r="E153" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="6">
         <v>25</v>
       </c>
-      <c r="G153" s="13" t="s">
+      <c r="G153" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="H153" s="13" t="s">
+      <c r="H153" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="I153" s="13">
+      <c r="I153" s="6">
         <v>25</v>
       </c>
-      <c r="J153" s="13" t="s">
+      <c r="J153" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M153" s="13" t="s">
-        <v>1193</v>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>862</v>
       </c>
       <c r="N153" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>1210</v>
+        <v>853</v>
       </c>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="13">
+      <c r="A154" s="6">
         <v>595857</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C154" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="13" t="s">
+      <c r="C154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="E154" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="6">
         <v>25</v>
       </c>
-      <c r="G154" s="13" t="s">
+      <c r="G154" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="H154" s="13" t="s">
+      <c r="H154" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="I154" s="13">
+      <c r="I154" s="6">
         <v>25</v>
       </c>
-      <c r="J154" s="13" t="s">
+      <c r="J154" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13" t="s">
-        <v>1192</v>
-      </c>
-      <c r="M154" s="13" t="s">
-        <v>1194</v>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>865</v>
       </c>
       <c r="N154" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>1210</v>
+        <v>853</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -13031,10 +13072,10 @@
         <v>393</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>1195</v>
+        <v>846</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>1196</v>
+        <v>847</v>
       </c>
       <c r="N155" s="4">
         <f t="shared" si="2"/>
@@ -13077,14 +13118,14 @@
         <v>393</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>1197</v>
+        <v>1019</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>1198</v>
+        <v>1020</v>
       </c>
       <c r="N156" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O156" s="6"/>
     </row>
@@ -13121,10 +13162,10 @@
       </c>
       <c r="K157" s="4"/>
       <c r="L157" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N157" s="4">
         <f t="shared" si="2"/>
@@ -13165,14 +13206,14 @@
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4" t="s">
-        <v>834</v>
+        <v>1021</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>835</v>
+        <v>1022</v>
       </c>
       <c r="N158" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O158" s="5"/>
     </row>
@@ -13209,14 +13250,14 @@
       </c>
       <c r="K159" s="4"/>
       <c r="L159" s="4" t="s">
-        <v>836</v>
+        <v>1023</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>837</v>
+        <v>1024</v>
       </c>
       <c r="N159" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O159" s="5"/>
     </row>
@@ -13253,10 +13294,10 @@
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N160" s="4">
         <f t="shared" si="2"/>
@@ -13299,17 +13340,17 @@
         <v>427</v>
       </c>
       <c r="L161" s="11" t="s">
-        <v>1141</v>
+        <v>820</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>1143</v>
+        <v>821</v>
       </c>
       <c r="N161" s="4">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>1146</v>
+        <v>823</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="45">
@@ -13347,17 +13388,17 @@
         <v>427</v>
       </c>
       <c r="L162" s="11" t="s">
-        <v>1142</v>
+        <v>1025</v>
       </c>
       <c r="M162" s="11" t="s">
-        <v>1144</v>
+        <v>1026</v>
       </c>
       <c r="N162" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O162" s="11" t="s">
-        <v>1145</v>
+        <v>822</v>
       </c>
     </row>
     <row r="163" spans="1:15">
@@ -13393,17 +13434,17 @@
       </c>
       <c r="K163" s="13"/>
       <c r="L163" s="13" t="s">
-        <v>1133</v>
+        <v>1027</v>
       </c>
       <c r="M163" s="13" t="s">
-        <v>1135</v>
+        <v>1028</v>
       </c>
       <c r="N163" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>1211</v>
+        <v>854</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -13439,17 +13480,17 @@
       </c>
       <c r="K164" s="13"/>
       <c r="L164" s="13" t="s">
-        <v>1134</v>
+        <v>816</v>
       </c>
       <c r="M164" s="13" t="s">
-        <v>1136</v>
+        <v>817</v>
       </c>
       <c r="N164" s="4">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>1211</v>
+        <v>854</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="30">
@@ -13485,15 +13526,17 @@
       </c>
       <c r="K165" s="13"/>
       <c r="L165" s="13" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M165" s="13"/>
+        <v>851</v>
+      </c>
+      <c r="M165" s="13" t="s">
+        <v>867</v>
+      </c>
       <c r="N165" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>1212</v>
+        <v>855</v>
       </c>
     </row>
     <row r="166" spans="1:15">
@@ -13529,15 +13572,17 @@
       </c>
       <c r="K166" s="13"/>
       <c r="L166" s="13" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M166" s="13"/>
+        <v>866</v>
+      </c>
+      <c r="M166" s="13" t="s">
+        <v>868</v>
+      </c>
       <c r="N166" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>1209</v>
+        <v>852</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -13573,10 +13618,10 @@
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N167" s="4">
         <f t="shared" si="2"/>
@@ -13617,14 +13662,14 @@
       </c>
       <c r="K168" s="4"/>
       <c r="L168" s="4" t="s">
-        <v>838</v>
+        <v>1029</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>839</v>
+        <v>1030</v>
       </c>
       <c r="N168" s="4">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O168" s="5"/>
     </row>
@@ -13661,10 +13706,10 @@
       </c>
       <c r="K169" s="4"/>
       <c r="L169" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N169" s="4">
         <f t="shared" si="2"/>
@@ -13705,14 +13750,14 @@
       </c>
       <c r="K170" s="4"/>
       <c r="L170" s="4" t="s">
-        <v>796</v>
+        <v>1031</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>719</v>
+        <v>1032</v>
       </c>
       <c r="N170" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O170" s="5"/>
     </row>
@@ -13751,14 +13796,14 @@
         <v>27</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>797</v>
+        <v>1033</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>720</v>
+        <v>1034</v>
       </c>
       <c r="N171" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O171" s="5"/>
     </row>
@@ -13797,10 +13842,10 @@
         <v>27</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N172" s="4">
         <f t="shared" si="2"/>
@@ -13843,10 +13888,10 @@
         <v>29</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N173" s="4">
         <f t="shared" si="2"/>
@@ -13889,14 +13934,14 @@
         <v>29</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>798</v>
+        <v>1035</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>721</v>
+        <v>1036</v>
       </c>
       <c r="N174" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O174" s="5"/>
     </row>
@@ -13933,14 +13978,14 @@
       </c>
       <c r="K175" s="4"/>
       <c r="L175" s="4" t="s">
-        <v>799</v>
+        <v>1037</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>722</v>
+        <v>1038</v>
       </c>
       <c r="N175" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O175" s="5"/>
     </row>
@@ -13977,10 +14022,10 @@
       </c>
       <c r="K176" s="4"/>
       <c r="L176" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N176" s="4">
         <f t="shared" si="2"/>
@@ -14021,17 +14066,17 @@
       </c>
       <c r="K177" s="7"/>
       <c r="L177" s="7" t="s">
-        <v>800</v>
+        <v>1039</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>723</v>
+        <v>1040</v>
       </c>
       <c r="N177" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O177" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="178" spans="1:15">
@@ -14067,17 +14112,17 @@
       </c>
       <c r="K178" s="7"/>
       <c r="L178" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N178" s="4">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="179" spans="1:15">
@@ -14115,17 +14160,17 @@
         <v>37</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>801</v>
+        <v>1041</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>724</v>
+        <v>1042</v>
       </c>
       <c r="N179" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O179" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -14163,17 +14208,17 @@
         <v>37</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M180" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N180" s="4">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="O180" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="181" spans="1:15">
@@ -14211,17 +14256,17 @@
         <v>39</v>
       </c>
       <c r="L181" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M181" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N181" s="4">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -14259,17 +14304,17 @@
         <v>39</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>802</v>
+        <v>1043</v>
       </c>
       <c r="M182" s="7" t="s">
-        <v>725</v>
+        <v>1044</v>
       </c>
       <c r="N182" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O182" s="8" t="s">
-        <v>1108</v>
+        <v>800</v>
       </c>
     </row>
     <row r="183" spans="1:15">
@@ -14305,14 +14350,14 @@
       </c>
       <c r="K183" s="4"/>
       <c r="L183" s="4" t="s">
-        <v>803</v>
+        <v>1045</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>726</v>
+        <v>1046</v>
       </c>
       <c r="N183" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="O183" s="5"/>
     </row>
@@ -14349,10 +14394,10 @@
       </c>
       <c r="K184" s="4"/>
       <c r="L184" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N184" s="4">
         <f t="shared" si="2"/>
@@ -14393,17 +14438,17 @@
       </c>
       <c r="K185" s="7"/>
       <c r="L185" s="7" t="s">
-        <v>804</v>
+        <v>1047</v>
       </c>
       <c r="M185" s="7" t="s">
-        <v>727</v>
+        <v>1048</v>
       </c>
       <c r="N185" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O185" s="8" t="s">
-        <v>1111</v>
+        <v>802</v>
       </c>
     </row>
     <row r="186" spans="1:15">
@@ -14439,17 +14484,17 @@
       </c>
       <c r="K186" s="7"/>
       <c r="L186" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M186" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N186" s="4">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="O186" s="8" t="s">
-        <v>1111</v>
+        <v>802</v>
       </c>
     </row>
     <row r="187" spans="1:15">
@@ -14485,10 +14530,10 @@
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N187" s="4">
         <f t="shared" si="2"/>
@@ -14529,14 +14574,14 @@
       </c>
       <c r="K188" s="4"/>
       <c r="L188" s="4" t="s">
-        <v>805</v>
+        <v>1049</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>728</v>
+        <v>1050</v>
       </c>
       <c r="N188" s="4">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O188" s="5"/>
     </row>
@@ -14573,14 +14618,14 @@
       </c>
       <c r="K189" s="4"/>
       <c r="L189" s="4" t="s">
-        <v>806</v>
+        <v>1051</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>729</v>
+        <v>1052</v>
       </c>
       <c r="N189" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O189" s="5"/>
     </row>
@@ -14617,10 +14662,10 @@
       </c>
       <c r="K190" s="4"/>
       <c r="L190" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N190" s="4">
         <f t="shared" si="2"/>
@@ -14661,14 +14706,14 @@
       </c>
       <c r="K191" s="4"/>
       <c r="L191" s="4" t="s">
-        <v>807</v>
+        <v>1053</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>730</v>
+        <v>1054</v>
       </c>
       <c r="N191" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O191" s="5"/>
     </row>
@@ -14705,10 +14750,10 @@
       </c>
       <c r="K192" s="4"/>
       <c r="L192" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N192" s="4">
         <f t="shared" si="2"/>
@@ -14751,10 +14796,10 @@
         <v>68</v>
       </c>
       <c r="L193" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M193" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N193" s="4">
         <f t="shared" si="2"/>
@@ -14797,14 +14842,14 @@
         <v>68</v>
       </c>
       <c r="L194" s="16" t="s">
-        <v>808</v>
+        <v>1055</v>
       </c>
       <c r="M194" s="16" t="s">
-        <v>731</v>
+        <v>1056</v>
       </c>
       <c r="N194" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O194" s="5"/>
     </row>
@@ -14841,14 +14886,14 @@
       </c>
       <c r="K195" s="4"/>
       <c r="L195" s="4" t="s">
-        <v>809</v>
+        <v>1057</v>
       </c>
       <c r="M195" s="17" t="s">
-        <v>732</v>
+        <v>1058</v>
       </c>
       <c r="N195" s="4">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O195" s="5"/>
     </row>
@@ -14885,10 +14930,10 @@
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M196" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N196" s="4">
         <f t="shared" si="2"/>
@@ -14929,10 +14974,10 @@
       </c>
       <c r="K197" s="4"/>
       <c r="L197" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N197" s="4">
         <f t="shared" ref="N197:N260" si="3">LEN(M197)</f>
@@ -14973,14 +15018,14 @@
       </c>
       <c r="K198" s="4"/>
       <c r="L198" s="4" t="s">
-        <v>810</v>
+        <v>1059</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>733</v>
+        <v>1060</v>
       </c>
       <c r="N198" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O198" s="5"/>
     </row>
@@ -15019,14 +15064,14 @@
         <v>101</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>811</v>
+        <v>1061</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>734</v>
+        <v>1062</v>
       </c>
       <c r="N199" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O199" s="5"/>
     </row>
@@ -15065,10 +15110,10 @@
         <v>101</v>
       </c>
       <c r="L200" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="M200" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="M200" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="N200" s="4">
         <f t="shared" si="3"/>
@@ -15111,10 +15156,10 @@
         <v>104</v>
       </c>
       <c r="L201" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="M201" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="M201" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="N201" s="4">
         <f t="shared" si="3"/>
@@ -15157,14 +15202,14 @@
         <v>104</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>812</v>
+        <v>1063</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>735</v>
+        <v>1064</v>
       </c>
       <c r="N202" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O202" s="5"/>
     </row>
@@ -15201,10 +15246,10 @@
       </c>
       <c r="K203" s="4"/>
       <c r="L203" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="M203" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="M203" s="4" t="s">
-        <v>656</v>
       </c>
       <c r="N203" s="4">
         <f t="shared" si="3"/>
@@ -15245,14 +15290,14 @@
       </c>
       <c r="K204" s="4"/>
       <c r="L204" s="4" t="s">
-        <v>813</v>
+        <v>1065</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>736</v>
+        <v>1066</v>
       </c>
       <c r="N204" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O204" s="5"/>
     </row>
@@ -15291,10 +15336,10 @@
         <v>110</v>
       </c>
       <c r="L205" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="M205" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="M205" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="N205" s="4">
         <f t="shared" si="3"/>
@@ -15337,14 +15382,14 @@
         <v>110</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>814</v>
+        <v>1067</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>737</v>
+        <v>1068</v>
       </c>
       <c r="N206" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O206" s="5"/>
     </row>
@@ -15381,14 +15426,14 @@
       </c>
       <c r="K207" s="4"/>
       <c r="L207" s="4" t="s">
-        <v>815</v>
+        <v>1069</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>738</v>
+        <v>1070</v>
       </c>
       <c r="N207" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O207" s="5"/>
     </row>
@@ -15425,10 +15470,10 @@
       </c>
       <c r="K208" s="4"/>
       <c r="L208" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="M208" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="M208" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="N208" s="4">
         <f t="shared" si="3"/>
@@ -15471,10 +15516,10 @@
         <v>117</v>
       </c>
       <c r="L209" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="M209" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="M209" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="N209" s="4">
         <f t="shared" si="3"/>
@@ -15517,14 +15562,14 @@
         <v>117</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>816</v>
+        <v>1071</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>739</v>
+        <v>1072</v>
       </c>
       <c r="N210" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O210" s="5"/>
     </row>
@@ -15563,14 +15608,14 @@
         <v>122</v>
       </c>
       <c r="L211" s="4" t="s">
-        <v>817</v>
+        <v>1073</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>740</v>
+        <v>1074</v>
       </c>
       <c r="N211" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O211" s="5"/>
     </row>
@@ -15609,10 +15654,10 @@
         <v>122</v>
       </c>
       <c r="L212" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="M212" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="M212" s="4" t="s">
-        <v>664</v>
       </c>
       <c r="N212" s="4">
         <f t="shared" si="3"/>
@@ -15655,14 +15700,14 @@
         <v>125</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>848</v>
+        <v>1075</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>851</v>
+        <v>1076</v>
       </c>
       <c r="N213" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O213" s="5"/>
     </row>
@@ -15701,10 +15746,10 @@
         <v>125</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>849</v>
+        <v>668</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>850</v>
+        <v>669</v>
       </c>
       <c r="N214" s="4">
         <f t="shared" si="3"/>
@@ -15745,14 +15790,14 @@
       </c>
       <c r="K215" s="4"/>
       <c r="L215" s="4" t="s">
-        <v>840</v>
+        <v>1077</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>841</v>
+        <v>1078</v>
       </c>
       <c r="N215" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O215" s="5"/>
     </row>
@@ -15789,10 +15834,10 @@
       </c>
       <c r="K216" s="4"/>
       <c r="L216" s="4" t="s">
-        <v>842</v>
+        <v>664</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>843</v>
+        <v>665</v>
       </c>
       <c r="N216" s="4">
         <f t="shared" si="3"/>
@@ -15833,10 +15878,10 @@
       </c>
       <c r="K217" s="4"/>
       <c r="L217" s="4" t="s">
-        <v>844</v>
+        <v>666</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>845</v>
+        <v>667</v>
       </c>
       <c r="N217" s="4">
         <f t="shared" si="3"/>
@@ -15877,14 +15922,14 @@
       </c>
       <c r="K218" s="4"/>
       <c r="L218" s="4" t="s">
-        <v>846</v>
+        <v>1079</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>847</v>
+        <v>1080</v>
       </c>
       <c r="N218" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O218" s="5"/>
     </row>
@@ -15921,14 +15966,14 @@
       </c>
       <c r="K219" s="4"/>
       <c r="L219" s="4" t="s">
-        <v>852</v>
+        <v>1081</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>854</v>
+        <v>1082</v>
       </c>
       <c r="N219" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O219" s="5"/>
     </row>
@@ -15965,10 +16010,10 @@
       </c>
       <c r="K220" s="4"/>
       <c r="L220" s="4" t="s">
-        <v>853</v>
+        <v>670</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>855</v>
+        <v>671</v>
       </c>
       <c r="N220" s="4">
         <f t="shared" si="3"/>
@@ -15977,45 +16022,49 @@
       <c r="O220" s="5"/>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="13">
+      <c r="A221" s="6">
         <v>700000</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B221" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C221" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D221" s="13" t="s">
+      <c r="C221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E221" s="13" t="s">
+      <c r="E221" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F221" s="13">
+      <c r="F221" s="6">
         <v>44</v>
       </c>
-      <c r="G221" s="13" t="s">
+      <c r="G221" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H221" s="13" t="s">
+      <c r="H221" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I221" s="13">
+      <c r="I221" s="6">
         <v>44</v>
       </c>
-      <c r="J221" s="13" t="s">
+      <c r="J221" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K221" s="13"/>
-      <c r="L221" s="13"/>
-      <c r="M221" s="13"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="M221" s="6" t="s">
+        <v>870</v>
+      </c>
       <c r="N221" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O221" s="14" t="s">
-        <v>1213</v>
+        <v>856</v>
       </c>
     </row>
     <row r="222" spans="1:15">
@@ -16051,14 +16100,14 @@
       </c>
       <c r="K222" s="4"/>
       <c r="L222" s="4" t="s">
-        <v>856</v>
+        <v>1083</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>858</v>
+        <v>1084</v>
       </c>
       <c r="N222" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O222" s="5"/>
     </row>
@@ -16095,10 +16144,10 @@
       </c>
       <c r="K223" s="4"/>
       <c r="L223" s="4" t="s">
-        <v>857</v>
+        <v>672</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>859</v>
+        <v>673</v>
       </c>
       <c r="N223" s="4">
         <f t="shared" si="3"/>
@@ -16139,10 +16188,10 @@
       </c>
       <c r="K224" s="4"/>
       <c r="L224" s="4" t="s">
-        <v>860</v>
+        <v>674</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>862</v>
+        <v>675</v>
       </c>
       <c r="N224" s="4">
         <f t="shared" si="3"/>
@@ -16183,14 +16232,14 @@
       </c>
       <c r="K225" s="4"/>
       <c r="L225" s="4" t="s">
-        <v>861</v>
+        <v>1085</v>
       </c>
       <c r="M225" s="4" t="s">
-        <v>863</v>
+        <v>1086</v>
       </c>
       <c r="N225" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O225" s="5"/>
     </row>
@@ -16229,14 +16278,14 @@
         <v>140</v>
       </c>
       <c r="L226" s="4" t="s">
-        <v>864</v>
+        <v>1087</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>866</v>
+        <v>1088</v>
       </c>
       <c r="N226" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O226" s="5"/>
     </row>
@@ -16275,10 +16324,10 @@
         <v>140</v>
       </c>
       <c r="L227" s="4" t="s">
-        <v>865</v>
+        <v>676</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>867</v>
+        <v>677</v>
       </c>
       <c r="N227" s="4">
         <f t="shared" si="3"/>
@@ -16319,10 +16368,10 @@
       </c>
       <c r="K228" s="4"/>
       <c r="L228" s="4" t="s">
-        <v>868</v>
+        <v>678</v>
       </c>
       <c r="M228" s="4" t="s">
-        <v>870</v>
+        <v>679</v>
       </c>
       <c r="N228" s="4">
         <f t="shared" si="3"/>
@@ -16363,14 +16412,14 @@
       </c>
       <c r="K229" s="4"/>
       <c r="L229" s="4" t="s">
-        <v>869</v>
+        <v>1089</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>871</v>
+        <v>1090</v>
       </c>
       <c r="N229" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O229" s="5"/>
     </row>
@@ -16407,14 +16456,14 @@
       </c>
       <c r="K230" s="4"/>
       <c r="L230" s="4" t="s">
-        <v>872</v>
+        <v>1091</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>874</v>
+        <v>1092</v>
       </c>
       <c r="N230" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="O230" s="5"/>
     </row>
@@ -16451,10 +16500,10 @@
       </c>
       <c r="K231" s="4"/>
       <c r="L231" s="4" t="s">
-        <v>873</v>
+        <v>680</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>875</v>
+        <v>681</v>
       </c>
       <c r="N231" s="4">
         <f t="shared" si="3"/>
@@ -16497,10 +16546,10 @@
         <v>146</v>
       </c>
       <c r="L232" s="4" t="s">
-        <v>876</v>
+        <v>682</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>878</v>
+        <v>683</v>
       </c>
       <c r="N232" s="4">
         <f t="shared" si="3"/>
@@ -16543,14 +16592,14 @@
         <v>146</v>
       </c>
       <c r="L233" s="4" t="s">
-        <v>877</v>
+        <v>1093</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>879</v>
+        <v>1094</v>
       </c>
       <c r="N233" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O233" s="5"/>
     </row>
@@ -16589,14 +16638,14 @@
         <v>150</v>
       </c>
       <c r="L234" s="4" t="s">
-        <v>880</v>
+        <v>1095</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>881</v>
+        <v>1096</v>
       </c>
       <c r="N234" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O234" s="5"/>
     </row>
@@ -16635,10 +16684,10 @@
         <v>150</v>
       </c>
       <c r="L235" s="4" t="s">
-        <v>882</v>
+        <v>684</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>883</v>
+        <v>685</v>
       </c>
       <c r="N235" s="4">
         <f t="shared" si="3"/>
@@ -16681,10 +16730,10 @@
         <v>152</v>
       </c>
       <c r="L236" s="4" t="s">
-        <v>884</v>
+        <v>686</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>886</v>
+        <v>687</v>
       </c>
       <c r="N236" s="4">
         <f t="shared" si="3"/>
@@ -16727,14 +16776,14 @@
         <v>152</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>885</v>
+        <v>1097</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>887</v>
+        <v>1098</v>
       </c>
       <c r="N237" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O237" s="5"/>
     </row>
@@ -16771,10 +16820,10 @@
       </c>
       <c r="K238" s="4"/>
       <c r="L238" s="4" t="s">
-        <v>888</v>
+        <v>688</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>890</v>
+        <v>689</v>
       </c>
       <c r="N238" s="4">
         <f t="shared" si="3"/>
@@ -16815,14 +16864,14 @@
       </c>
       <c r="K239" s="4"/>
       <c r="L239" s="4" t="s">
-        <v>889</v>
+        <v>1099</v>
       </c>
       <c r="M239" s="4" t="s">
-        <v>891</v>
+        <v>1100</v>
       </c>
       <c r="N239" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O239" s="5"/>
     </row>
@@ -16859,14 +16908,14 @@
       </c>
       <c r="K240" s="4"/>
       <c r="L240" s="4" t="s">
-        <v>892</v>
+        <v>1101</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>894</v>
+        <v>1102</v>
       </c>
       <c r="N240" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O240" s="5"/>
     </row>
@@ -16903,10 +16952,10 @@
       </c>
       <c r="K241" s="4"/>
       <c r="L241" s="4" t="s">
-        <v>893</v>
+        <v>690</v>
       </c>
       <c r="M241" s="4" t="s">
-        <v>895</v>
+        <v>691</v>
       </c>
       <c r="N241" s="4">
         <f t="shared" si="3"/>
@@ -16947,14 +16996,14 @@
       </c>
       <c r="K242" s="4"/>
       <c r="L242" s="4" t="s">
-        <v>896</v>
+        <v>1103</v>
       </c>
       <c r="M242" s="4" t="s">
-        <v>898</v>
+        <v>1104</v>
       </c>
       <c r="N242" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O242" s="5"/>
     </row>
@@ -16991,10 +17040,10 @@
       </c>
       <c r="K243" s="4"/>
       <c r="L243" s="4" t="s">
-        <v>897</v>
+        <v>692</v>
       </c>
       <c r="M243" s="4" t="s">
-        <v>899</v>
+        <v>693</v>
       </c>
       <c r="N243" s="4">
         <f t="shared" si="3"/>
@@ -17035,10 +17084,10 @@
       </c>
       <c r="K244" s="4"/>
       <c r="L244" s="4" t="s">
-        <v>900</v>
+        <v>694</v>
       </c>
       <c r="M244" s="4" t="s">
-        <v>902</v>
+        <v>695</v>
       </c>
       <c r="N244" s="4">
         <f t="shared" si="3"/>
@@ -17079,14 +17128,14 @@
       </c>
       <c r="K245" s="4"/>
       <c r="L245" s="4" t="s">
-        <v>901</v>
+        <v>1105</v>
       </c>
       <c r="M245" s="4" t="s">
-        <v>903</v>
+        <v>1106</v>
       </c>
       <c r="N245" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O245" s="5"/>
     </row>
@@ -17123,14 +17172,14 @@
       </c>
       <c r="K246" s="4"/>
       <c r="L246" s="4" t="s">
-        <v>904</v>
+        <v>1107</v>
       </c>
       <c r="M246" s="4" t="s">
-        <v>905</v>
+        <v>1108</v>
       </c>
       <c r="N246" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O246" s="5"/>
     </row>
@@ -17167,10 +17216,10 @@
       </c>
       <c r="K247" s="4"/>
       <c r="L247" s="4" t="s">
-        <v>906</v>
+        <v>696</v>
       </c>
       <c r="M247" s="4" t="s">
-        <v>907</v>
+        <v>697</v>
       </c>
       <c r="N247" s="4">
         <f t="shared" si="3"/>
@@ -17211,10 +17260,10 @@
       </c>
       <c r="K248" s="4"/>
       <c r="L248" s="4" t="s">
-        <v>909</v>
+        <v>698</v>
       </c>
       <c r="M248" s="4" t="s">
-        <v>910</v>
+        <v>699</v>
       </c>
       <c r="N248" s="4">
         <f t="shared" si="3"/>
@@ -17255,14 +17304,14 @@
       </c>
       <c r="K249" s="4"/>
       <c r="L249" s="4" t="s">
-        <v>908</v>
+        <v>1109</v>
       </c>
       <c r="M249" s="4" t="s">
-        <v>911</v>
+        <v>1110</v>
       </c>
       <c r="N249" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O249" s="5"/>
     </row>
@@ -17299,14 +17348,14 @@
       </c>
       <c r="K250" s="4"/>
       <c r="L250" s="4" t="s">
-        <v>912</v>
+        <v>1111</v>
       </c>
       <c r="M250" s="4" t="s">
-        <v>914</v>
+        <v>1112</v>
       </c>
       <c r="N250" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O250" s="5"/>
     </row>
@@ -17343,10 +17392,10 @@
       </c>
       <c r="K251" s="4"/>
       <c r="L251" s="4" t="s">
-        <v>913</v>
+        <v>700</v>
       </c>
       <c r="M251" s="4" t="s">
-        <v>915</v>
+        <v>701</v>
       </c>
       <c r="N251" s="4">
         <f t="shared" si="3"/>
@@ -17387,10 +17436,10 @@
       </c>
       <c r="K252" s="4"/>
       <c r="L252" s="4" t="s">
-        <v>916</v>
+        <v>702</v>
       </c>
       <c r="M252" s="4" t="s">
-        <v>918</v>
+        <v>703</v>
       </c>
       <c r="N252" s="4">
         <f t="shared" si="3"/>
@@ -17431,14 +17480,14 @@
       </c>
       <c r="K253" s="4"/>
       <c r="L253" s="4" t="s">
-        <v>917</v>
+        <v>1113</v>
       </c>
       <c r="M253" s="4" t="s">
-        <v>919</v>
+        <v>1114</v>
       </c>
       <c r="N253" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O253" s="5"/>
     </row>
@@ -17477,14 +17526,14 @@
         <v>206</v>
       </c>
       <c r="L254" s="4" t="s">
-        <v>920</v>
+        <v>1115</v>
       </c>
       <c r="M254" s="4" t="s">
-        <v>921</v>
+        <v>1116</v>
       </c>
       <c r="N254" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O254" s="6" t="s">
         <v>487</v>
@@ -17525,10 +17574,10 @@
         <v>206</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>922</v>
+        <v>704</v>
       </c>
       <c r="M255" s="4" t="s">
-        <v>923</v>
+        <v>705</v>
       </c>
       <c r="N255" s="4">
         <f t="shared" si="3"/>
@@ -17571,14 +17620,14 @@
         <v>212</v>
       </c>
       <c r="L256" s="4" t="s">
-        <v>924</v>
+        <v>1117</v>
       </c>
       <c r="M256" s="4" t="s">
-        <v>926</v>
+        <v>1118</v>
       </c>
       <c r="N256" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O256" s="5"/>
     </row>
@@ -17617,10 +17666,10 @@
         <v>212</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>925</v>
+        <v>706</v>
       </c>
       <c r="M257" s="4" t="s">
-        <v>927</v>
+        <v>707</v>
       </c>
       <c r="N257" s="4">
         <f t="shared" si="3"/>
@@ -17661,14 +17710,14 @@
       </c>
       <c r="K258" s="4"/>
       <c r="L258" s="4" t="s">
-        <v>928</v>
+        <v>1119</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>929</v>
+        <v>1120</v>
       </c>
       <c r="N258" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O258" s="5"/>
     </row>
@@ -17705,10 +17754,10 @@
       </c>
       <c r="K259" s="4"/>
       <c r="L259" s="4" t="s">
-        <v>930</v>
+        <v>708</v>
       </c>
       <c r="M259" s="4" t="s">
-        <v>931</v>
+        <v>709</v>
       </c>
       <c r="N259" s="4">
         <f t="shared" si="3"/>
@@ -17749,14 +17798,14 @@
       </c>
       <c r="K260" s="4"/>
       <c r="L260" s="4" t="s">
-        <v>932</v>
+        <v>1121</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>934</v>
+        <v>1122</v>
       </c>
       <c r="N260" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O260" s="5"/>
     </row>
@@ -17793,10 +17842,10 @@
       </c>
       <c r="K261" s="4"/>
       <c r="L261" s="4" t="s">
-        <v>933</v>
+        <v>710</v>
       </c>
       <c r="M261" s="4" t="s">
-        <v>935</v>
+        <v>711</v>
       </c>
       <c r="N261" s="4">
         <f t="shared" ref="N261:N324" si="4">LEN(M261)</f>
@@ -17837,10 +17886,10 @@
       </c>
       <c r="K262" s="4"/>
       <c r="L262" s="4" t="s">
-        <v>936</v>
+        <v>712</v>
       </c>
       <c r="M262" s="4" t="s">
-        <v>938</v>
+        <v>713</v>
       </c>
       <c r="N262" s="4">
         <f t="shared" si="4"/>
@@ -17881,14 +17930,14 @@
       </c>
       <c r="K263" s="4"/>
       <c r="L263" s="4" t="s">
-        <v>937</v>
+        <v>1123</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>939</v>
+        <v>1124</v>
       </c>
       <c r="N263" s="4">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O263" s="5"/>
     </row>
@@ -17927,14 +17976,14 @@
         <v>251</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>940</v>
+        <v>1125</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>943</v>
+        <v>1126</v>
       </c>
       <c r="N264" s="4">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O264" s="5"/>
     </row>
@@ -17973,10 +18022,10 @@
         <v>251</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>941</v>
+        <v>714</v>
       </c>
       <c r="M265" s="4" t="s">
-        <v>942</v>
+        <v>715</v>
       </c>
       <c r="N265" s="4">
         <f t="shared" si="4"/>
@@ -18017,10 +18066,10 @@
       </c>
       <c r="K266" s="4"/>
       <c r="L266" s="4" t="s">
-        <v>944</v>
+        <v>716</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>946</v>
+        <v>717</v>
       </c>
       <c r="N266" s="4">
         <f t="shared" si="4"/>
@@ -18061,14 +18110,14 @@
       </c>
       <c r="K267" s="4"/>
       <c r="L267" s="4" t="s">
-        <v>945</v>
+        <v>1127</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>947</v>
+        <v>1128</v>
       </c>
       <c r="N267" s="4">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O267" s="5"/>
     </row>
@@ -18105,17 +18154,17 @@
       </c>
       <c r="K268" s="4"/>
       <c r="L268" s="4" t="s">
-        <v>948</v>
+        <v>1129</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>950</v>
+        <v>1130</v>
       </c>
       <c r="N268" s="4">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O268" s="5" t="s">
-        <v>952</v>
+        <v>720</v>
       </c>
     </row>
     <row r="269" spans="1:15">
@@ -18151,17 +18200,17 @@
       </c>
       <c r="K269" s="4"/>
       <c r="L269" s="4" t="s">
-        <v>949</v>
+        <v>718</v>
       </c>
       <c r="M269" s="4" t="s">
-        <v>951</v>
+        <v>719</v>
       </c>
       <c r="N269" s="4">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="O269" s="5" t="s">
-        <v>952</v>
+        <v>720</v>
       </c>
     </row>
     <row r="270" spans="1:15">
@@ -18197,10 +18246,10 @@
       </c>
       <c r="K270" s="4"/>
       <c r="L270" s="4" t="s">
-        <v>1154</v>
+        <v>828</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>1155</v>
+        <v>829</v>
       </c>
       <c r="N270" s="4">
         <f t="shared" si="4"/>
@@ -18241,111 +18290,111 @@
       </c>
       <c r="K271" s="4"/>
       <c r="L271" s="4" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
       <c r="M271" s="4" t="s">
-        <v>1157</v>
+        <v>1132</v>
       </c>
       <c r="N271" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O271" s="5"/>
     </row>
     <row r="272" spans="1:15">
-      <c r="A272" s="13">
+      <c r="A272" s="6">
         <v>343584</v>
       </c>
-      <c r="B272" s="13" t="s">
+      <c r="B272" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C272" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D272" s="13" t="s">
+      <c r="C272" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E272" s="13" t="s">
+      <c r="E272" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F272" s="13">
+      <c r="F272" s="6">
         <v>46</v>
       </c>
-      <c r="G272" s="13" t="s">
+      <c r="G272" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H272" s="13" t="s">
+      <c r="H272" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="I272" s="13">
+      <c r="I272" s="6">
         <v>46</v>
       </c>
-      <c r="J272" s="13" t="s">
+      <c r="J272" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="K272" s="13" t="s">
+      <c r="K272" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="L272" s="13" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M272" s="13" t="s">
-        <v>1179</v>
+      <c r="L272" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="M272" s="6" t="s">
+        <v>873</v>
       </c>
       <c r="N272" s="4">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O272" s="14" t="s">
-        <v>1214</v>
+        <v>857</v>
       </c>
     </row>
     <row r="273" spans="1:15">
-      <c r="A273" s="13">
+      <c r="A273" s="6">
         <v>373791</v>
       </c>
-      <c r="B273" s="13" t="s">
+      <c r="B273" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C273" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D273" s="13" t="s">
+      <c r="C273" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E273" s="13" t="s">
+      <c r="E273" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F273" s="13">
+      <c r="F273" s="6">
         <v>46</v>
       </c>
-      <c r="G273" s="13" t="s">
+      <c r="G273" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H273" s="13" t="s">
+      <c r="H273" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="I273" s="13">
+      <c r="I273" s="6">
         <v>46</v>
       </c>
-      <c r="J273" s="13" t="s">
+      <c r="J273" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="K273" s="13" t="s">
+      <c r="K273" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="L273" s="13" t="s">
-        <v>1200</v>
-      </c>
-      <c r="M273" s="13" t="s">
-        <v>1180</v>
+      <c r="L273" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="M273" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="N273" s="4">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O273" s="14" t="s">
-        <v>1214</v>
+        <v>857</v>
       </c>
     </row>
     <row r="274" spans="1:15">
@@ -18383,17 +18432,17 @@
         <v>268</v>
       </c>
       <c r="L274" s="7" t="s">
-        <v>953</v>
+        <v>721</v>
       </c>
       <c r="M274" s="7" t="s">
-        <v>954</v>
+        <v>722</v>
       </c>
       <c r="N274" s="4">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="O274" s="8" t="s">
-        <v>1112</v>
+        <v>803</v>
       </c>
     </row>
     <row r="275" spans="1:15">
@@ -18431,10 +18480,10 @@
         <v>286</v>
       </c>
       <c r="L275" s="4" t="s">
-        <v>955</v>
+        <v>723</v>
       </c>
       <c r="M275" s="4" t="s">
-        <v>957</v>
+        <v>724</v>
       </c>
       <c r="N275" s="4">
         <f t="shared" si="4"/>
@@ -18477,14 +18526,14 @@
         <v>286</v>
       </c>
       <c r="L276" s="4" t="s">
-        <v>956</v>
+        <v>1133</v>
       </c>
       <c r="M276" s="4" t="s">
-        <v>958</v>
+        <v>1134</v>
       </c>
       <c r="N276" s="4">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O276" s="5"/>
     </row>
@@ -18521,14 +18570,14 @@
       </c>
       <c r="K277" s="4"/>
       <c r="L277" s="4" t="s">
-        <v>959</v>
+        <v>1135</v>
       </c>
       <c r="M277" s="4" t="s">
-        <v>960</v>
+        <v>1136</v>
       </c>
       <c r="N277" s="4">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O277" s="5"/>
     </row>
@@ -18565,10 +18614,10 @@
       </c>
       <c r="K278" s="4"/>
       <c r="L278" s="4" t="s">
-        <v>961</v>
+        <v>725</v>
       </c>
       <c r="M278" s="4" t="s">
-        <v>962</v>
+        <v>726</v>
       </c>
       <c r="N278" s="4">
         <f t="shared" si="4"/>
@@ -18609,14 +18658,14 @@
       </c>
       <c r="K279" s="4"/>
       <c r="L279" s="4" t="s">
-        <v>963</v>
+        <v>1137</v>
       </c>
       <c r="M279" s="4" t="s">
-        <v>965</v>
+        <v>1138</v>
       </c>
       <c r="N279" s="4">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O279" s="5"/>
     </row>
@@ -18653,10 +18702,10 @@
       </c>
       <c r="K280" s="4"/>
       <c r="L280" s="4" t="s">
-        <v>964</v>
+        <v>727</v>
       </c>
       <c r="M280" s="4" t="s">
-        <v>966</v>
+        <v>728</v>
       </c>
       <c r="N280" s="4">
         <f t="shared" si="4"/>
@@ -18697,14 +18746,14 @@
       </c>
       <c r="K281" s="4"/>
       <c r="L281" s="4" t="s">
-        <v>967</v>
+        <v>1139</v>
       </c>
       <c r="M281" s="4" t="s">
-        <v>969</v>
+        <v>1140</v>
       </c>
       <c r="N281" s="4">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O281" s="5"/>
     </row>
@@ -18741,10 +18790,10 @@
       </c>
       <c r="K282" s="4"/>
       <c r="L282" s="4" t="s">
-        <v>968</v>
+        <v>729</v>
       </c>
       <c r="M282" s="4" t="s">
-        <v>970</v>
+        <v>730</v>
       </c>
       <c r="N282" s="4">
         <f t="shared" si="4"/>
@@ -18785,10 +18834,10 @@
       </c>
       <c r="K283" s="4"/>
       <c r="L283" s="4" t="s">
-        <v>971</v>
+        <v>731</v>
       </c>
       <c r="M283" s="4" t="s">
-        <v>973</v>
+        <v>732</v>
       </c>
       <c r="N283" s="4">
         <f t="shared" si="4"/>
@@ -18829,14 +18878,14 @@
       </c>
       <c r="K284" s="4"/>
       <c r="L284" s="4" t="s">
-        <v>972</v>
+        <v>1141</v>
       </c>
       <c r="M284" s="4" t="s">
-        <v>974</v>
+        <v>1142</v>
       </c>
       <c r="N284" s="4">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O284" s="5"/>
     </row>
@@ -18873,10 +18922,10 @@
       </c>
       <c r="K285" s="9"/>
       <c r="L285" s="9" t="s">
-        <v>1158</v>
+        <v>830</v>
       </c>
       <c r="M285" s="9" t="s">
-        <v>1159</v>
+        <v>831</v>
       </c>
       <c r="N285" s="4">
         <f t="shared" si="4"/>
@@ -18919,14 +18968,14 @@
       </c>
       <c r="K286" s="9"/>
       <c r="L286" s="9" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="M286" s="9" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="N286" s="4">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O286" s="10"/>
     </row>
@@ -18965,10 +19014,10 @@
         <v>318</v>
       </c>
       <c r="L287" s="4" t="s">
-        <v>975</v>
+        <v>733</v>
       </c>
       <c r="M287" s="4" t="s">
-        <v>978</v>
+        <v>734</v>
       </c>
       <c r="N287" s="4">
         <f t="shared" si="4"/>
@@ -19011,14 +19060,14 @@
         <v>318</v>
       </c>
       <c r="L288" s="4" t="s">
-        <v>976</v>
+        <v>1145</v>
       </c>
       <c r="M288" s="4" t="s">
-        <v>977</v>
+        <v>1146</v>
       </c>
       <c r="N288" s="4">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O288" s="5"/>
     </row>
@@ -19055,14 +19104,14 @@
       </c>
       <c r="K289" s="4"/>
       <c r="L289" s="4" t="s">
-        <v>979</v>
+        <v>1147</v>
       </c>
       <c r="M289" s="4" t="s">
-        <v>981</v>
+        <v>1148</v>
       </c>
       <c r="N289" s="4">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O289" s="5"/>
     </row>
@@ -19099,10 +19148,10 @@
       </c>
       <c r="K290" s="4"/>
       <c r="L290" s="4" t="s">
-        <v>980</v>
+        <v>735</v>
       </c>
       <c r="M290" s="4" t="s">
-        <v>982</v>
+        <v>736</v>
       </c>
       <c r="N290" s="4">
         <f t="shared" si="4"/>
@@ -19145,14 +19194,14 @@
         <v>324</v>
       </c>
       <c r="L291" s="4" t="s">
-        <v>983</v>
+        <v>1149</v>
       </c>
       <c r="M291" s="4" t="s">
-        <v>985</v>
+        <v>1150</v>
       </c>
       <c r="N291" s="4">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O291" s="5"/>
     </row>
@@ -19191,10 +19240,10 @@
         <v>324</v>
       </c>
       <c r="L292" s="4" t="s">
-        <v>984</v>
+        <v>737</v>
       </c>
       <c r="M292" s="4" t="s">
-        <v>986</v>
+        <v>738</v>
       </c>
       <c r="N292" s="4">
         <f t="shared" si="4"/>
@@ -19235,10 +19284,10 @@
       </c>
       <c r="K293" s="4"/>
       <c r="L293" s="4" t="s">
-        <v>1162</v>
+        <v>832</v>
       </c>
       <c r="M293" s="4" t="s">
-        <v>1163</v>
+        <v>833</v>
       </c>
       <c r="N293" s="4">
         <f t="shared" si="4"/>
@@ -19279,14 +19328,14 @@
       </c>
       <c r="K294" s="4"/>
       <c r="L294" s="4" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="M294" s="4" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="N294" s="4">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O294" s="5"/>
     </row>
@@ -19323,14 +19372,14 @@
       </c>
       <c r="K295" s="4"/>
       <c r="L295" s="4" t="s">
-        <v>987</v>
+        <v>1153</v>
       </c>
       <c r="M295" s="4" t="s">
-        <v>989</v>
+        <v>1154</v>
       </c>
       <c r="N295" s="4">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O295" s="5"/>
     </row>
@@ -19367,10 +19416,10 @@
       </c>
       <c r="K296" s="4"/>
       <c r="L296" s="4" t="s">
-        <v>988</v>
+        <v>739</v>
       </c>
       <c r="M296" s="4" t="s">
-        <v>990</v>
+        <v>740</v>
       </c>
       <c r="N296" s="4">
         <f t="shared" si="4"/>
@@ -19411,14 +19460,14 @@
       </c>
       <c r="K297" s="4"/>
       <c r="L297" s="4" t="s">
-        <v>1061</v>
+        <v>1155</v>
       </c>
       <c r="M297" s="4" t="s">
-        <v>1063</v>
+        <v>1156</v>
       </c>
       <c r="N297" s="4">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O297" s="5"/>
     </row>
@@ -19455,10 +19504,10 @@
       </c>
       <c r="K298" s="4"/>
       <c r="L298" s="4" t="s">
-        <v>1062</v>
+        <v>776</v>
       </c>
       <c r="M298" s="4" t="s">
-        <v>1064</v>
+        <v>777</v>
       </c>
       <c r="N298" s="4">
         <f t="shared" si="4"/>
@@ -19499,14 +19548,14 @@
       </c>
       <c r="K299" s="4"/>
       <c r="L299" s="4" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="M299" s="4" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="N299" s="4">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O299" s="5"/>
     </row>
@@ -19543,10 +19592,10 @@
       </c>
       <c r="K300" s="4"/>
       <c r="L300" s="4" t="s">
-        <v>1168</v>
+        <v>834</v>
       </c>
       <c r="M300" s="4" t="s">
-        <v>1169</v>
+        <v>835</v>
       </c>
       <c r="N300" s="4">
         <f t="shared" si="4"/>
@@ -19589,10 +19638,10 @@
         <v>354</v>
       </c>
       <c r="L301" s="4" t="s">
-        <v>991</v>
+        <v>741</v>
       </c>
       <c r="M301" s="4" t="s">
-        <v>992</v>
+        <v>742</v>
       </c>
       <c r="N301" s="4">
         <f t="shared" si="4"/>
@@ -19635,14 +19684,14 @@
         <v>354</v>
       </c>
       <c r="L302" s="4" t="s">
-        <v>994</v>
+        <v>1159</v>
       </c>
       <c r="M302" s="4" t="s">
-        <v>993</v>
+        <v>1160</v>
       </c>
       <c r="N302" s="4">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O302" s="5"/>
     </row>
@@ -19681,14 +19730,14 @@
         <v>362</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>995</v>
+        <v>1161</v>
       </c>
       <c r="M303" s="6" t="s">
-        <v>997</v>
+        <v>1162</v>
       </c>
       <c r="N303" s="4">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O303" s="10" t="s">
         <v>489</v>
@@ -19729,10 +19778,10 @@
         <v>362</v>
       </c>
       <c r="L304" s="6" t="s">
-        <v>996</v>
+        <v>743</v>
       </c>
       <c r="M304" s="6" t="s">
-        <v>998</v>
+        <v>744</v>
       </c>
       <c r="N304" s="4">
         <f t="shared" si="4"/>
@@ -19773,10 +19822,10 @@
       </c>
       <c r="K305" s="4"/>
       <c r="L305" s="6" t="s">
-        <v>999</v>
+        <v>745</v>
       </c>
       <c r="M305" s="6" t="s">
-        <v>1001</v>
+        <v>746</v>
       </c>
       <c r="N305" s="4">
         <f t="shared" si="4"/>
@@ -19817,14 +19866,14 @@
       </c>
       <c r="K306" s="4"/>
       <c r="L306" s="6" t="s">
-        <v>1000</v>
+        <v>1163</v>
       </c>
       <c r="M306" s="6" t="s">
-        <v>1002</v>
+        <v>1164</v>
       </c>
       <c r="N306" s="4">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O306" s="5"/>
     </row>
@@ -19861,14 +19910,14 @@
       </c>
       <c r="K307" s="6"/>
       <c r="L307" s="6" t="s">
-        <v>1003</v>
+        <v>1165</v>
       </c>
       <c r="M307" s="6" t="s">
-        <v>1004</v>
+        <v>1166</v>
       </c>
       <c r="N307" s="4">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O307" s="5"/>
     </row>
@@ -19905,10 +19954,10 @@
       </c>
       <c r="K308" s="4"/>
       <c r="L308" s="6" t="s">
-        <v>1005</v>
+        <v>747</v>
       </c>
       <c r="M308" s="6" t="s">
-        <v>1006</v>
+        <v>748</v>
       </c>
       <c r="N308" s="4">
         <f t="shared" si="4"/>
@@ -19949,10 +19998,10 @@
       </c>
       <c r="K309" s="4"/>
       <c r="L309" s="4" t="s">
-        <v>1007</v>
+        <v>749</v>
       </c>
       <c r="M309" s="4" t="s">
-        <v>1009</v>
+        <v>750</v>
       </c>
       <c r="N309" s="4">
         <f t="shared" si="4"/>
@@ -19993,14 +20042,14 @@
       </c>
       <c r="K310" s="4"/>
       <c r="L310" s="4" t="s">
-        <v>1008</v>
+        <v>1167</v>
       </c>
       <c r="M310" s="4" t="s">
-        <v>1010</v>
+        <v>1168</v>
       </c>
       <c r="N310" s="4">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O310" s="5"/>
     </row>
@@ -20039,10 +20088,10 @@
         <v>373</v>
       </c>
       <c r="L311" s="4" t="s">
-        <v>1011</v>
+        <v>751</v>
       </c>
       <c r="M311" s="4" t="s">
-        <v>1013</v>
+        <v>752</v>
       </c>
       <c r="N311" s="4">
         <f t="shared" si="4"/>
@@ -20085,14 +20134,14 @@
         <v>373</v>
       </c>
       <c r="L312" s="4" t="s">
-        <v>1012</v>
+        <v>1169</v>
       </c>
       <c r="M312" s="4" t="s">
-        <v>1014</v>
+        <v>1170</v>
       </c>
       <c r="N312" s="4">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O312" s="5"/>
     </row>
@@ -20131,14 +20180,14 @@
         <v>378</v>
       </c>
       <c r="L313" s="4" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="M313" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="N313" s="4">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O313" s="5"/>
     </row>
@@ -20177,10 +20226,10 @@
         <v>378</v>
       </c>
       <c r="L314" s="4" t="s">
-        <v>1172</v>
+        <v>836</v>
       </c>
       <c r="M314" s="4" t="s">
-        <v>1173</v>
+        <v>837</v>
       </c>
       <c r="N314" s="4">
         <f t="shared" si="4"/>
@@ -20221,10 +20270,10 @@
       </c>
       <c r="K315" s="4"/>
       <c r="L315" s="4" t="s">
-        <v>1015</v>
+        <v>753</v>
       </c>
       <c r="M315" s="4" t="s">
-        <v>1017</v>
+        <v>754</v>
       </c>
       <c r="N315" s="4">
         <f t="shared" si="4"/>
@@ -20265,14 +20314,14 @@
       </c>
       <c r="K316" s="4"/>
       <c r="L316" s="4" t="s">
-        <v>1016</v>
+        <v>1173</v>
       </c>
       <c r="M316" s="4" t="s">
-        <v>1018</v>
+        <v>1174</v>
       </c>
       <c r="N316" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O316" s="5"/>
     </row>
@@ -20309,10 +20358,10 @@
       </c>
       <c r="K317" s="4"/>
       <c r="L317" s="4" t="s">
-        <v>1019</v>
+        <v>755</v>
       </c>
       <c r="M317" s="4" t="s">
-        <v>1021</v>
+        <v>756</v>
       </c>
       <c r="N317" s="4">
         <f t="shared" si="4"/>
@@ -20353,14 +20402,14 @@
       </c>
       <c r="K318" s="4"/>
       <c r="L318" s="4" t="s">
-        <v>1020</v>
+        <v>1175</v>
       </c>
       <c r="M318" s="4" t="s">
-        <v>1022</v>
+        <v>1176</v>
       </c>
       <c r="N318" s="4">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O318" s="5"/>
     </row>
@@ -20399,14 +20448,14 @@
         <v>389</v>
       </c>
       <c r="L319" s="4" t="s">
-        <v>1023</v>
+        <v>1177</v>
       </c>
       <c r="M319" s="4" t="s">
-        <v>1024</v>
+        <v>1178</v>
       </c>
       <c r="N319" s="4">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O319" s="5"/>
     </row>
@@ -20445,10 +20494,10 @@
         <v>389</v>
       </c>
       <c r="L320" s="4" t="s">
-        <v>1025</v>
+        <v>757</v>
       </c>
       <c r="M320" s="4" t="s">
-        <v>1026</v>
+        <v>758</v>
       </c>
       <c r="N320" s="4">
         <f t="shared" si="4"/>
@@ -20489,10 +20538,10 @@
       </c>
       <c r="K321" s="4"/>
       <c r="L321" s="4" t="s">
-        <v>1027</v>
+        <v>759</v>
       </c>
       <c r="M321" s="4" t="s">
-        <v>1029</v>
+        <v>760</v>
       </c>
       <c r="N321" s="4">
         <f t="shared" si="4"/>
@@ -20533,14 +20582,14 @@
       </c>
       <c r="K322" s="4"/>
       <c r="L322" s="4" t="s">
-        <v>1028</v>
+        <v>1179</v>
       </c>
       <c r="M322" s="4" t="s">
-        <v>1030</v>
+        <v>1180</v>
       </c>
       <c r="N322" s="4">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O322" s="5"/>
     </row>
@@ -20579,14 +20628,14 @@
         <v>398</v>
       </c>
       <c r="L323" s="4" t="s">
-        <v>1031</v>
+        <v>1181</v>
       </c>
       <c r="M323" s="4" t="s">
-        <v>1033</v>
+        <v>1182</v>
       </c>
       <c r="N323" s="4">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O323" s="5"/>
     </row>
@@ -20625,10 +20674,10 @@
         <v>398</v>
       </c>
       <c r="L324" s="4" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
       <c r="M324" s="4" t="s">
-        <v>1034</v>
+        <v>762</v>
       </c>
       <c r="N324" s="4">
         <f t="shared" si="4"/>
@@ -20669,14 +20718,14 @@
       </c>
       <c r="K325" s="4"/>
       <c r="L325" s="4" t="s">
-        <v>1035</v>
+        <v>1183</v>
       </c>
       <c r="M325" s="4" t="s">
-        <v>1036</v>
+        <v>1184</v>
       </c>
       <c r="N325" s="4">
         <f t="shared" ref="N325:N362" si="5">LEN(M325)</f>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O325" s="5"/>
     </row>
@@ -20713,10 +20762,10 @@
       </c>
       <c r="K326" s="4"/>
       <c r="L326" s="4" t="s">
-        <v>1037</v>
+        <v>763</v>
       </c>
       <c r="M326" s="4" t="s">
-        <v>1038</v>
+        <v>764</v>
       </c>
       <c r="N326" s="4">
         <f t="shared" si="5"/>
@@ -20757,14 +20806,14 @@
       </c>
       <c r="K327" s="4"/>
       <c r="L327" s="4" t="s">
-        <v>1039</v>
+        <v>1185</v>
       </c>
       <c r="M327" s="4" t="s">
-        <v>1041</v>
+        <v>1186</v>
       </c>
       <c r="N327" s="4">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O327" s="5"/>
     </row>
@@ -20801,10 +20850,10 @@
       </c>
       <c r="K328" s="4"/>
       <c r="L328" s="4" t="s">
-        <v>1040</v>
+        <v>765</v>
       </c>
       <c r="M328" s="4" t="s">
-        <v>1042</v>
+        <v>766</v>
       </c>
       <c r="N328" s="4">
         <f t="shared" si="5"/>
@@ -20845,10 +20894,10 @@
       </c>
       <c r="K329" s="4"/>
       <c r="L329" s="4" t="s">
-        <v>1043</v>
+        <v>767</v>
       </c>
       <c r="M329" s="4" t="s">
-        <v>1045</v>
+        <v>768</v>
       </c>
       <c r="N329" s="4">
         <f t="shared" si="5"/>
@@ -20889,14 +20938,14 @@
       </c>
       <c r="K330" s="4"/>
       <c r="L330" s="4" t="s">
-        <v>1044</v>
+        <v>1187</v>
       </c>
       <c r="M330" s="4" t="s">
-        <v>1046</v>
+        <v>1188</v>
       </c>
       <c r="N330" s="4">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O330" s="5"/>
     </row>
@@ -20933,14 +20982,14 @@
       </c>
       <c r="K331" s="4"/>
       <c r="L331" s="4" t="s">
-        <v>1047</v>
+        <v>1189</v>
       </c>
       <c r="M331" s="4" t="s">
-        <v>1049</v>
+        <v>1190</v>
       </c>
       <c r="N331" s="4">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O331" s="5"/>
     </row>
@@ -20977,10 +21026,10 @@
       </c>
       <c r="K332" s="4"/>
       <c r="L332" s="4" t="s">
-        <v>1048</v>
+        <v>769</v>
       </c>
       <c r="M332" s="4" t="s">
-        <v>1050</v>
+        <v>770</v>
       </c>
       <c r="N332" s="4">
         <f t="shared" si="5"/>
@@ -21021,10 +21070,10 @@
       </c>
       <c r="K333" s="4"/>
       <c r="L333" s="4" t="s">
-        <v>1051</v>
+        <v>771</v>
       </c>
       <c r="M333" s="4" t="s">
-        <v>1053</v>
+        <v>772</v>
       </c>
       <c r="N333" s="4">
         <f t="shared" si="5"/>
@@ -21065,14 +21114,14 @@
       </c>
       <c r="K334" s="4"/>
       <c r="L334" s="4" t="s">
-        <v>1052</v>
+        <v>1191</v>
       </c>
       <c r="M334" s="4" t="s">
-        <v>1054</v>
+        <v>1192</v>
       </c>
       <c r="N334" s="4">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O334" s="5"/>
     </row>
@@ -21109,10 +21158,10 @@
       </c>
       <c r="K335" s="4"/>
       <c r="L335" s="4" t="s">
-        <v>1174</v>
+        <v>838</v>
       </c>
       <c r="M335" s="4" t="s">
-        <v>1175</v>
+        <v>839</v>
       </c>
       <c r="N335" s="4">
         <f t="shared" si="5"/>
@@ -21153,14 +21202,14 @@
       </c>
       <c r="K336" s="4"/>
       <c r="L336" s="4" t="s">
-        <v>1176</v>
+        <v>1193</v>
       </c>
       <c r="M336" s="4" t="s">
-        <v>1177</v>
+        <v>1194</v>
       </c>
       <c r="N336" s="4">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O336" s="5"/>
     </row>
@@ -21197,10 +21246,10 @@
       </c>
       <c r="K337" s="4"/>
       <c r="L337" s="4" t="s">
-        <v>1055</v>
+        <v>773</v>
       </c>
       <c r="M337" s="4" t="s">
-        <v>1057</v>
+        <v>774</v>
       </c>
       <c r="N337" s="4">
         <f t="shared" si="5"/>
@@ -21241,14 +21290,14 @@
       </c>
       <c r="K338" s="4"/>
       <c r="L338" s="4" t="s">
-        <v>1056</v>
+        <v>1195</v>
       </c>
       <c r="M338" s="4" t="s">
-        <v>1058</v>
+        <v>1196</v>
       </c>
       <c r="N338" s="4">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O338" s="5"/>
     </row>
@@ -21285,14 +21334,14 @@
       </c>
       <c r="K339" s="4"/>
       <c r="L339" s="4" t="s">
-        <v>1059</v>
+        <v>1197</v>
       </c>
       <c r="M339" s="4" t="s">
-        <v>1071</v>
+        <v>1198</v>
       </c>
       <c r="N339" s="4">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O339" s="5"/>
     </row>
@@ -21329,10 +21378,10 @@
       </c>
       <c r="K340" s="4"/>
       <c r="L340" s="4" t="s">
-        <v>1060</v>
+        <v>775</v>
       </c>
       <c r="M340" s="4" t="s">
-        <v>1072</v>
+        <v>781</v>
       </c>
       <c r="N340" s="4">
         <f t="shared" si="5"/>
@@ -21373,14 +21422,14 @@
       </c>
       <c r="K341" s="4"/>
       <c r="L341" s="4" t="s">
-        <v>1065</v>
+        <v>1199</v>
       </c>
       <c r="M341" s="4" t="s">
-        <v>1073</v>
+        <v>1200</v>
       </c>
       <c r="N341" s="4">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O341" s="5"/>
     </row>
@@ -21417,10 +21466,10 @@
       </c>
       <c r="K342" s="4"/>
       <c r="L342" s="4" t="s">
-        <v>1066</v>
+        <v>778</v>
       </c>
       <c r="M342" s="4" t="s">
-        <v>1074</v>
+        <v>782</v>
       </c>
       <c r="N342" s="4">
         <f t="shared" si="5"/>
@@ -21461,14 +21510,14 @@
       </c>
       <c r="K343" s="4"/>
       <c r="L343" s="4" t="s">
-        <v>1067</v>
+        <v>1201</v>
       </c>
       <c r="M343" s="4" t="s">
-        <v>1075</v>
+        <v>1202</v>
       </c>
       <c r="N343" s="4">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O343" s="5"/>
     </row>
@@ -21505,10 +21554,10 @@
       </c>
       <c r="K344" s="4"/>
       <c r="L344" s="4" t="s">
-        <v>1068</v>
+        <v>779</v>
       </c>
       <c r="M344" s="4" t="s">
-        <v>1076</v>
+        <v>783</v>
       </c>
       <c r="N344" s="4">
         <f t="shared" si="5"/>
@@ -21551,10 +21600,10 @@
         <v>456</v>
       </c>
       <c r="L345" s="4" t="s">
-        <v>1069</v>
+        <v>780</v>
       </c>
       <c r="M345" s="4" t="s">
-        <v>1077</v>
+        <v>784</v>
       </c>
       <c r="N345" s="4">
         <f t="shared" si="5"/>
@@ -21597,14 +21646,14 @@
         <v>456</v>
       </c>
       <c r="L346" s="4" t="s">
-        <v>1070</v>
+        <v>1203</v>
       </c>
       <c r="M346" s="4" t="s">
-        <v>1078</v>
+        <v>1204</v>
       </c>
       <c r="N346" s="4">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O346" s="5"/>
     </row>
@@ -21641,14 +21690,14 @@
       </c>
       <c r="K347" s="4"/>
       <c r="L347" s="4" t="s">
-        <v>1079</v>
+        <v>1205</v>
       </c>
       <c r="M347" s="4" t="s">
-        <v>1093</v>
+        <v>1206</v>
       </c>
       <c r="N347" s="4">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O347" s="5"/>
     </row>
@@ -21685,10 +21734,10 @@
       </c>
       <c r="K348" s="4"/>
       <c r="L348" s="4" t="s">
-        <v>1080</v>
+        <v>785</v>
       </c>
       <c r="M348" s="4" t="s">
-        <v>1094</v>
+        <v>792</v>
       </c>
       <c r="N348" s="4">
         <f t="shared" si="5"/>
@@ -21731,14 +21780,14 @@
         <v>467</v>
       </c>
       <c r="L349" s="4" t="s">
-        <v>1081</v>
+        <v>1207</v>
       </c>
       <c r="M349" s="4" t="s">
-        <v>1095</v>
+        <v>1208</v>
       </c>
       <c r="N349" s="4">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O349" s="6"/>
     </row>
@@ -21777,10 +21826,10 @@
         <v>467</v>
       </c>
       <c r="L350" s="4" t="s">
-        <v>1082</v>
+        <v>786</v>
       </c>
       <c r="M350" s="4" t="s">
-        <v>1096</v>
+        <v>793</v>
       </c>
       <c r="N350" s="4">
         <f t="shared" si="5"/>
@@ -21821,10 +21870,10 @@
       </c>
       <c r="K351" s="6"/>
       <c r="L351" s="6" t="s">
-        <v>1201</v>
+        <v>848</v>
       </c>
       <c r="M351" s="6" t="s">
-        <v>1181</v>
+        <v>841</v>
       </c>
       <c r="N351" s="4">
         <f t="shared" si="5"/>
@@ -21865,14 +21914,14 @@
       </c>
       <c r="K352" s="6"/>
       <c r="L352" s="6" t="s">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="M352" s="6" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="N352" s="4">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O352" s="5"/>
     </row>
@@ -21909,14 +21958,14 @@
       </c>
       <c r="K353" s="4"/>
       <c r="L353" s="4" t="s">
-        <v>1083</v>
+        <v>1211</v>
       </c>
       <c r="M353" s="4" t="s">
-        <v>1097</v>
+        <v>1212</v>
       </c>
       <c r="N353" s="4">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O353" s="5"/>
     </row>
@@ -21953,10 +22002,10 @@
       </c>
       <c r="K354" s="4"/>
       <c r="L354" s="4" t="s">
-        <v>1084</v>
+        <v>787</v>
       </c>
       <c r="M354" s="4" t="s">
-        <v>1098</v>
+        <v>794</v>
       </c>
       <c r="N354" s="4">
         <f t="shared" si="5"/>
@@ -21997,10 +22046,10 @@
       </c>
       <c r="K355" s="4"/>
       <c r="L355" s="4" t="s">
-        <v>1085</v>
+        <v>788</v>
       </c>
       <c r="M355" s="4" t="s">
-        <v>1099</v>
+        <v>795</v>
       </c>
       <c r="N355" s="4">
         <f t="shared" si="5"/>
@@ -22041,14 +22090,14 @@
       </c>
       <c r="K356" s="4"/>
       <c r="L356" s="4" t="s">
-        <v>1086</v>
+        <v>1213</v>
       </c>
       <c r="M356" s="4" t="s">
-        <v>1100</v>
+        <v>1214</v>
       </c>
       <c r="N356" s="4">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O356" s="5"/>
     </row>
@@ -22085,14 +22134,14 @@
       </c>
       <c r="K357" s="4"/>
       <c r="L357" s="4" t="s">
-        <v>1087</v>
+        <v>1215</v>
       </c>
       <c r="M357" s="4" t="s">
-        <v>1101</v>
+        <v>1216</v>
       </c>
       <c r="N357" s="4">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O357" s="5"/>
     </row>
@@ -22129,10 +22178,10 @@
       </c>
       <c r="K358" s="4"/>
       <c r="L358" s="4" t="s">
-        <v>1088</v>
+        <v>789</v>
       </c>
       <c r="M358" s="4" t="s">
-        <v>1102</v>
+        <v>796</v>
       </c>
       <c r="N358" s="4">
         <f t="shared" si="5"/>
@@ -22173,10 +22222,10 @@
       </c>
       <c r="K359" s="4"/>
       <c r="L359" s="4" t="s">
-        <v>1089</v>
+        <v>790</v>
       </c>
       <c r="M359" s="4" t="s">
-        <v>1103</v>
+        <v>797</v>
       </c>
       <c r="N359" s="4">
         <f t="shared" si="5"/>
@@ -22217,14 +22266,14 @@
       </c>
       <c r="K360" s="4"/>
       <c r="L360" s="4" t="s">
-        <v>1090</v>
+        <v>1217</v>
       </c>
       <c r="M360" s="4" t="s">
-        <v>1104</v>
+        <v>1218</v>
       </c>
       <c r="N360" s="4">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O360" s="5"/>
     </row>
@@ -22263,14 +22312,14 @@
         <v>481</v>
       </c>
       <c r="L361" s="4" t="s">
-        <v>1091</v>
+        <v>1219</v>
       </c>
       <c r="M361" s="4" t="s">
-        <v>1105</v>
+        <v>1220</v>
       </c>
       <c r="N361" s="4">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O361" s="5"/>
     </row>
@@ -22309,10 +22358,10 @@
         <v>481</v>
       </c>
       <c r="L362" s="4" t="s">
-        <v>1092</v>
+        <v>791</v>
       </c>
       <c r="M362" s="4" t="s">
-        <v>1106</v>
+        <v>798</v>
       </c>
       <c r="N362" s="4">
         <f t="shared" si="5"/>

--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1214">
   <si>
     <t>CDR-ID</t>
   </si>
@@ -1519,9 +1519,6 @@
     <t>NULL – will be removed before May 1st</t>
   </si>
   <si>
-    <t>Both the Patient and HP summaries will be listed as Related Resources on the Tobacco risk factor page. We will use this strategy in all cases where the PDQ doesn't show in navigation (risk factors; side effects; coping/advanced cancer). The HP PDQ has "–for health professionals" appended to the title.</t>
-  </si>
-  <si>
     <t>LYNN – be redundant with pretty URL or just have: /screening/overview-pdq ? (2/23 - Agreed to not be redundant)</t>
   </si>
   <si>
@@ -2494,12 +2491,6 @@
     <t>www.cancer.gov/about-cancer/treatment/side-effects/nausea/nausea-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/insomnia/sleep-disorders-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/insomnia/sleep-disorders-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/coping/adjusting-to-cancer/communication-pdq</t>
   </si>
   <si>
@@ -2512,13 +2503,6 @@
     <t>www.cancer.gov/about-cancer/treatment/side-effects/sexuality-fertility-women/sexuality-pdq</t>
   </si>
   <si>
-    <t>Sexual Problems as a Side Effect of Cancer. Much more about treatment and the problems; doesn't belong under Coping. Side Effects has a separate male and a female sexuality side effect though. Live under female side effect?
-Also, over 100 characters</t>
-  </si>
-  <si>
-    <t>Sexual Problems as a Side Effect of Cancer. Much more about treatment and the problems; doesn't belong under Coping. Side Effects has a separate male and a female sexuality side effect though. Live under female side effect?</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/types/head-and-neck/patient/oral-prevention-pdq</t>
   </si>
   <si>
@@ -2603,24 +2587,6 @@
     <t>www.cancer.gov/cancertopics/causes-prevention/risk/tobacco/smoking-cessation-pdq</t>
   </si>
   <si>
-    <t>Waiting for client input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waiting for client input. Haven't seen this content and need to verify if there will be subpages better suited to link this PDQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We have not received this side effect content. Waiting for client input on title of parent side effect page. </t>
-  </si>
-  <si>
-    <t>Waiting for client input. [this summary is about cancer patients who smoke. Not sure if fully belongs under Tobacco Risk Factor, but where else would it go?? Also, what should the pretty URL be? Currently it's "smoking cessation". "smoking-cancer-care" doesn't work; need the word "in"]</t>
-  </si>
-  <si>
-    <t>Waiting for client input. [Would this live under Childhood Cancers?]</t>
-  </si>
-  <si>
-    <t>Waiting for client input. Verify with Anne this PDQ will be linked from her new Childhood Cancers content.</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/treatment/side-effects/cardiopulmonary-hp-pdq</t>
   </si>
   <si>
@@ -3128,12 +3094,6 @@
     <t>www.cancer.gov/about-cancer/treatment/side-effects/sexuality-fertility-women/sexuality-hp-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/side-effects/insomnia/sleep-disorders-hp-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/about-cancer/treatment/side-effects/insomnia/sleep-disorders-hp-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/cancertopics/coping/day-to-day/faith-and-spirituality/spirituality-hp-pdq</t>
   </si>
   <si>
@@ -3711,6 +3671,21 @@
   </si>
   <si>
     <t>www.cancer.gov/about-cancer/treatment/cam/hp/cancell-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/sleep-disorders-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/side-effects/sleep-disorders-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/sleep-disorders-hp-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/about-cancer/treatment/side-effects/sleep-disorders-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/types/head-and-neck/hp/oral-screening-pdq</t>
   </si>
 </sst>
 </file>
@@ -3849,7 +3824,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="951">
+  <cellStyleXfs count="955">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4801,8 +4776,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4828,14 +4807,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4852,7 +4829,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="951">
+  <cellStyles count="955">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5342,6 +5319,8 @@
     <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5803,6 +5782,8 @@
     <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6138,9 +6119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L274" sqref="A274:L274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6157,7 +6138,7 @@
     <col min="10" max="10" width="55.33203125" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" customWidth="1"/>
     <col min="12" max="12" width="90.6640625" customWidth="1"/>
-    <col min="13" max="13" width="79.33203125" customWidth="1"/>
+    <col min="13" max="13" width="82.6640625" customWidth="1"/>
     <col min="14" max="14" width="21.1640625" customWidth="1"/>
     <col min="15" max="15" width="125.33203125" style="2" customWidth="1"/>
   </cols>
@@ -6208,18 +6189,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>804</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -6280,10 +6261,10 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="N4" s="4">
         <f>LEN(M4)</f>
@@ -6324,10 +6305,10 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" ref="N5:N68" si="0">LEN(M5)</f>
@@ -6368,10 +6349,10 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
@@ -6412,10 +6393,10 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
@@ -6456,10 +6437,10 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
@@ -6500,10 +6481,10 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
@@ -6546,10 +6527,10 @@
         <v>53</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
@@ -6592,10 +6573,10 @@
         <v>53</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
@@ -6636,10 +6617,10 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
@@ -6680,10 +6661,10 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
@@ -6726,10 +6707,10 @@
         <v>84</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
@@ -6772,10 +6753,10 @@
         <v>84</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
@@ -6818,10 +6799,10 @@
         <v>90</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
@@ -6864,10 +6845,10 @@
         <v>90</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
@@ -6908,10 +6889,10 @@
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
@@ -6952,10 +6933,10 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
@@ -7044,10 +7025,10 @@
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
@@ -7088,10 +7069,10 @@
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
@@ -7132,10 +7113,10 @@
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
@@ -7176,10 +7157,10 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
@@ -7220,10 +7201,10 @@
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
@@ -7264,10 +7245,10 @@
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="0"/>
@@ -7308,10 +7289,10 @@
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
@@ -7352,10 +7333,10 @@
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="0"/>
@@ -7396,10 +7377,10 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="N29" s="4">
         <f t="shared" si="0"/>
@@ -7440,10 +7421,10 @@
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="0"/>
@@ -7484,10 +7465,10 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" si="0"/>
@@ -7528,10 +7509,10 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N32" s="4">
         <f t="shared" si="0"/>
@@ -7574,10 +7555,10 @@
         <v>280</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="0"/>
@@ -7618,10 +7599,10 @@
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="N34" s="4">
         <f t="shared" si="0"/>
@@ -7662,10 +7643,10 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N35" s="4">
         <f t="shared" si="0"/>
@@ -7706,10 +7687,10 @@
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N36" s="4">
         <f t="shared" si="0"/>
@@ -7750,10 +7731,10 @@
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="N37" s="4">
         <f t="shared" si="0"/>
@@ -7794,10 +7775,10 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="N38" s="4">
         <f t="shared" si="0"/>
@@ -7838,10 +7819,10 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N39" s="4">
         <f t="shared" si="0"/>
@@ -7882,10 +7863,10 @@
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N40" s="4">
         <f t="shared" si="0"/>
@@ -7926,10 +7907,10 @@
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="N41" s="4">
         <f t="shared" si="0"/>
@@ -7972,10 +7953,10 @@
         <v>411</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N42" s="4">
         <f t="shared" si="0"/>
@@ -8018,10 +7999,10 @@
         <v>411</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="0"/>
@@ -8062,10 +8043,10 @@
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="0"/>
@@ -8106,10 +8087,10 @@
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="0"/>
@@ -8152,10 +8133,10 @@
         <v>463</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="0"/>
@@ -8198,10 +8179,10 @@
         <v>463</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N47" s="4">
         <f t="shared" si="0"/>
@@ -8242,10 +8223,10 @@
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N48" s="4">
         <f t="shared" si="0"/>
@@ -8288,10 +8269,10 @@
         <v>77</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N49" s="4">
         <f t="shared" si="0"/>
@@ -8336,10 +8317,10 @@
         <v>215</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="N50" s="4">
         <f t="shared" si="0"/>
@@ -8380,10 +8361,10 @@
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="N51" s="4">
         <f t="shared" si="0"/>
@@ -8426,10 +8407,10 @@
         <v>220</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="N52" s="4">
         <f t="shared" si="0"/>
@@ -8472,10 +8453,10 @@
         <v>223</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="N53" s="4">
         <f t="shared" si="0"/>
@@ -8516,10 +8497,10 @@
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="N54" s="4">
         <f t="shared" si="0"/>
@@ -8560,10 +8541,10 @@
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="N55" s="4">
         <f t="shared" si="0"/>
@@ -8572,51 +8553,51 @@
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>685387</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>46</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>43</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>647</v>
+      <c r="L56" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>646</v>
       </c>
       <c r="N56" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -8652,10 +8633,10 @@
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N57" s="4">
         <f t="shared" si="0"/>
@@ -8696,10 +8677,10 @@
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="N58" s="4">
         <f t="shared" si="0"/>
@@ -8740,10 +8721,10 @@
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="N59" s="4">
         <f t="shared" si="0"/>
@@ -8784,10 +8765,10 @@
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N60" s="4">
         <f t="shared" si="0"/>
@@ -8830,10 +8811,10 @@
         <v>78</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="N61" s="4">
         <f t="shared" si="0"/>
@@ -8876,10 +8857,10 @@
         <v>78</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N62" s="4">
         <f t="shared" si="0"/>
@@ -8920,10 +8901,10 @@
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="N63" s="4">
         <f t="shared" si="0"/>
@@ -8964,10 +8945,10 @@
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N64" s="4">
         <f t="shared" si="0"/>
@@ -9010,10 +8991,10 @@
         <v>156</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="N65" s="4">
         <f t="shared" si="0"/>
@@ -9021,7 +9002,7 @@
       </c>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15" ht="30">
+    <row r="66" spans="1:15">
       <c r="A66" s="4">
         <v>62889</v>
       </c>
@@ -9056,17 +9037,17 @@
         <v>156</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="N66" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="O66" s="8" t="s">
-        <v>491</v>
+      <c r="O66" s="17" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -9102,10 +9083,10 @@
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="N67" s="4">
         <f t="shared" si="0"/>
@@ -9146,10 +9127,10 @@
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N68" s="4">
         <f t="shared" si="0"/>
@@ -9158,134 +9139,134 @@
       <c r="O68" s="5"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>258009</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <v>29</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <v>29</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>533</v>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="N69" s="4">
         <f t="shared" ref="N69:N132" si="1">LEN(M69)</f>
         <v>63</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>62823</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="C70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <v>29</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>29</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="M70" s="7" t="s">
-        <v>941</v>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>930</v>
       </c>
       <c r="N70" s="4">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="4">
+      <c r="A71" s="6">
         <v>62888</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="6">
         <v>28</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="6">
         <v>28</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>534</v>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="N71" s="4">
         <f t="shared" si="1"/>
@@ -9294,42 +9275,42 @@
       <c r="O71" s="5"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="4">
+      <c r="A72" s="6">
         <v>62880</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="6">
         <v>28</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="6">
         <v>28</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>943</v>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>932</v>
       </c>
       <c r="N72" s="4">
         <f t="shared" si="1"/>
@@ -9338,138 +9319,138 @@
       <c r="O72" s="5"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>433282</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="7" t="s">
+      <c r="C73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <v>40</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="6">
         <v>41</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="M73" s="7" t="s">
-        <v>945</v>
+      <c r="L73" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>934</v>
       </c>
       <c r="N73" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>433423</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="C74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <v>40</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>40</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K74" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="L74" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="M74" s="7" t="s">
-        <v>535</v>
+      <c r="L74" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="N74" s="4">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="4">
+      <c r="A75" s="6">
         <v>62824</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="6">
         <v>22</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="6">
         <v>22</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>947</v>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>936</v>
       </c>
       <c r="N75" s="4">
         <f t="shared" si="1"/>
@@ -9478,42 +9459,42 @@
       <c r="O75" s="5"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="4">
+      <c r="A76" s="6">
         <v>62825</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="6">
         <v>22</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="6">
         <v>22</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>536</v>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>535</v>
       </c>
       <c r="N76" s="4">
         <f t="shared" si="1"/>
@@ -9522,95 +9503,95 @@
       <c r="O76" s="5"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>593570</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="7" t="s">
+      <c r="C77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <v>22</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="6">
         <v>22</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>825</v>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>820</v>
       </c>
       <c r="N77" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="O77" s="19" t="s">
-        <v>800</v>
+      <c r="O77" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>62837</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="7" t="s">
+      <c r="C78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <v>22</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="6">
         <v>22</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>949</v>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>938</v>
       </c>
       <c r="N78" s="4">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="O78" s="19" t="s">
-        <v>800</v>
+      <c r="O78" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -9646,10 +9627,10 @@
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="N79" s="4">
         <f t="shared" si="1"/>
@@ -9690,10 +9671,10 @@
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N80" s="4">
         <f t="shared" si="1"/>
@@ -9734,10 +9715,10 @@
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="N81" s="4">
         <f t="shared" si="1"/>
@@ -9778,10 +9759,10 @@
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N82" s="4">
         <f t="shared" si="1"/>
@@ -9822,10 +9803,10 @@
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="N83" s="4">
         <f t="shared" si="1"/>
@@ -9866,10 +9847,10 @@
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N84" s="4">
         <f t="shared" si="1"/>
@@ -9910,10 +9891,10 @@
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N85" s="4">
         <f t="shared" si="1"/>
@@ -9956,10 +9937,10 @@
         <v>446</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="N86" s="4">
         <f t="shared" si="1"/>
@@ -10004,10 +9985,10 @@
         <v>57</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N87" s="4">
         <f t="shared" si="1"/>
@@ -10050,10 +10031,10 @@
         <v>57</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="N88" s="4">
         <f t="shared" si="1"/>
@@ -10094,10 +10075,10 @@
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N89" s="4">
         <f t="shared" si="1"/>
@@ -10138,10 +10119,10 @@
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="N90" s="4">
         <f t="shared" si="1"/>
@@ -10184,10 +10165,10 @@
         <v>80</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="N91" s="4">
         <f t="shared" si="1"/>
@@ -10230,17 +10211,17 @@
         <v>80</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N92" s="4">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -10275,11 +10256,11 @@
         <v>94</v>
       </c>
       <c r="K93" s="4"/>
-      <c r="L93" s="15" t="s">
-        <v>964</v>
+      <c r="L93" s="14" t="s">
+        <v>953</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="N93" s="4">
         <f t="shared" si="1"/>
@@ -10319,11 +10300,11 @@
         <v>94</v>
       </c>
       <c r="K94" s="4"/>
-      <c r="L94" s="15" t="s">
-        <v>609</v>
+      <c r="L94" s="14" t="s">
+        <v>608</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N94" s="4">
         <f t="shared" si="1"/>
@@ -10363,11 +10344,11 @@
         <v>164</v>
       </c>
       <c r="K95" s="4"/>
-      <c r="L95" s="15" t="s">
-        <v>610</v>
+      <c r="L95" s="14" t="s">
+        <v>609</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N95" s="4">
         <f t="shared" si="1"/>
@@ -10407,11 +10388,11 @@
         <v>164</v>
       </c>
       <c r="K96" s="4"/>
-      <c r="L96" s="15" t="s">
-        <v>966</v>
+      <c r="L96" s="14" t="s">
+        <v>955</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="N96" s="4">
         <f t="shared" si="1"/>
@@ -10420,134 +10401,134 @@
       <c r="O96" s="5"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>62819</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="7" t="s">
+      <c r="C97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <v>28</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G97" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="6">
         <v>28</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7" t="s">
-        <v>968</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>969</v>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>958</v>
       </c>
       <c r="N97" s="4">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="O97" s="19" t="s">
-        <v>800</v>
+      <c r="O97" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>258010</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="7" t="s">
+      <c r="C98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <v>28</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="6">
         <v>28</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="M98" s="7" t="s">
-        <v>545</v>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="N98" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="O98" s="19" t="s">
-        <v>800</v>
+      <c r="O98" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="4">
+      <c r="A99" s="6">
         <v>62877</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="4" t="s">
+      <c r="C99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="6">
         <v>27</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I99" s="6">
         <v>27</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="J99" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K99" s="4"/>
-      <c r="L99" s="15" t="s">
-        <v>970</v>
-      </c>
-      <c r="M99" s="15" t="s">
-        <v>971</v>
+      <c r="K99" s="6"/>
+      <c r="L99" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="M99" s="14" t="s">
+        <v>960</v>
       </c>
       <c r="N99" s="4">
         <f t="shared" si="1"/>
@@ -10556,42 +10537,42 @@
       <c r="O99" s="5"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="4">
+      <c r="A100" s="6">
         <v>304521</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="4" t="s">
+      <c r="C100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="6">
         <v>27</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I100" s="6">
         <v>27</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K100" s="4"/>
-      <c r="L100" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="M100" s="15" t="s">
-        <v>546</v>
+      <c r="K100" s="6"/>
+      <c r="L100" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="M100" s="14" t="s">
+        <v>545</v>
       </c>
       <c r="N100" s="4">
         <f t="shared" si="1"/>
@@ -10600,147 +10581,147 @@
       <c r="O100" s="5"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>304747</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="7" t="s">
+      <c r="C101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="6">
         <v>62</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G101" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101" s="6">
         <v>59</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="K101" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="L101" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="M101" s="7" t="s">
-        <v>648</v>
+      <c r="L101" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>647</v>
       </c>
       <c r="N101" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>569404</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="7" t="s">
+      <c r="C102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <v>39</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="6">
         <v>39</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="K102" s="7" t="s">
+      <c r="K102" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="L102" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="M102" s="7" t="s">
-        <v>801</v>
+      <c r="L102" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>800</v>
       </c>
       <c r="N102" s="4">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="O102" s="19" t="s">
-        <v>800</v>
+      <c r="O102" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>62840</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="7" t="s">
+      <c r="C103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6">
         <v>39</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G103" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103" s="6">
         <v>39</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="K103" s="7" t="s">
+      <c r="K103" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="L103" s="7" t="s">
-        <v>972</v>
-      </c>
-      <c r="M103" s="7" t="s">
-        <v>973</v>
+      <c r="L103" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>962</v>
       </c>
       <c r="N103" s="4">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="O103" s="19" t="s">
-        <v>800</v>
+      <c r="O103" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -10775,11 +10756,11 @@
         <v>298</v>
       </c>
       <c r="K104" s="4"/>
-      <c r="L104" s="15" t="s">
-        <v>974</v>
-      </c>
-      <c r="M104" s="15" t="s">
-        <v>975</v>
+      <c r="L104" s="14" t="s">
+        <v>963</v>
+      </c>
+      <c r="M104" s="14" t="s">
+        <v>964</v>
       </c>
       <c r="N104" s="4">
         <f t="shared" si="1"/>
@@ -10820,10 +10801,10 @@
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N105" s="4">
         <f t="shared" si="1"/>
@@ -10864,10 +10845,10 @@
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="N106" s="4">
         <f t="shared" si="1"/>
@@ -10908,10 +10889,10 @@
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N107" s="4">
         <f t="shared" si="1"/>
@@ -10920,95 +10901,95 @@
       <c r="O107" s="5"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>62752</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="7" t="s">
+      <c r="C108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="6">
         <v>21</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="G108" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="6">
         <v>21</v>
       </c>
-      <c r="J108" s="7" t="s">
+      <c r="J108" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7" t="s">
-        <v>978</v>
-      </c>
-      <c r="M108" s="7" t="s">
-        <v>949</v>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>1213</v>
       </c>
       <c r="N108" s="4">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="O108" s="19" t="s">
-        <v>800</v>
+        <v>56</v>
+      </c>
+      <c r="O108" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>593427</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="7" t="s">
+      <c r="C109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="6">
         <v>21</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G109" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109" s="6">
         <v>21</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="J109" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="M109" s="7" t="s">
-        <v>827</v>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="N109" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="O109" s="19" t="s">
-        <v>800</v>
+      <c r="O109" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -11044,10 +11025,10 @@
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="N110" s="4">
         <f t="shared" si="1"/>
@@ -11088,10 +11069,10 @@
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N111" s="4">
         <f t="shared" si="1"/>
@@ -11132,10 +11113,10 @@
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="N112" s="4">
         <f t="shared" si="1"/>
@@ -11176,10 +11157,10 @@
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N113" s="4">
         <f t="shared" si="1"/>
@@ -11220,10 +11201,10 @@
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="N114" s="4">
         <f t="shared" si="1"/>
@@ -11264,10 +11245,10 @@
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N115" s="4">
         <f t="shared" si="1"/>
@@ -11310,10 +11291,10 @@
         <v>450</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="N116" s="4">
         <f t="shared" si="1"/>
@@ -11356,10 +11337,10 @@
         <v>450</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N117" s="4">
         <f t="shared" si="1"/>
@@ -11400,10 +11381,10 @@
       </c>
       <c r="K118" s="4"/>
       <c r="L118" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N118" s="4">
         <f t="shared" si="1"/>
@@ -11444,10 +11425,10 @@
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="N119" s="4">
         <f t="shared" si="1"/>
@@ -11490,10 +11471,10 @@
         <v>21</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="N120" s="4">
         <f t="shared" si="1"/>
@@ -11536,10 +11517,10 @@
         <v>21</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N121" s="4">
         <f t="shared" si="1"/>
@@ -11580,18 +11561,16 @@
       </c>
       <c r="K122" s="6"/>
       <c r="L122" s="6" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="N122" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="O122" s="14" t="s">
-        <v>852</v>
-      </c>
+      <c r="O122" s="11"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="6">
@@ -11626,18 +11605,16 @@
       </c>
       <c r="K123" s="6"/>
       <c r="L123" s="6" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="N123" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="O123" s="14" t="s">
-        <v>852</v>
-      </c>
+      <c r="O123" s="11"/>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="4">
@@ -11672,17 +11649,17 @@
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="N124" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -11718,10 +11695,10 @@
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="N125" s="4">
         <f t="shared" si="1"/>
@@ -11762,10 +11739,10 @@
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="6" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="N126" s="4">
         <f t="shared" si="1"/>
@@ -11806,10 +11783,10 @@
       </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N127" s="4">
         <f t="shared" si="1"/>
@@ -11850,10 +11827,10 @@
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="M128" s="4" t="s">
         <v>807</v>
-      </c>
-      <c r="M128" s="4" t="s">
-        <v>808</v>
       </c>
       <c r="N128" s="4">
         <f t="shared" si="1"/>
@@ -11894,17 +11871,17 @@
       </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="N129" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -11940,10 +11917,10 @@
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N130" s="4">
         <f t="shared" si="1"/>
@@ -11986,16 +11963,18 @@
         <v>194</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="N131" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="O131" s="11"/>
+      <c r="O131" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="6">
@@ -12030,16 +12009,18 @@
       </c>
       <c r="K132" s="6"/>
       <c r="L132" s="6" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="N132" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="O132" s="11"/>
+      <c r="O132" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="6">
@@ -12074,10 +12055,10 @@
       </c>
       <c r="K133" s="6"/>
       <c r="L133" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="M133" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="M133" s="6" t="s">
-        <v>811</v>
       </c>
       <c r="N133" s="4">
         <f t="shared" ref="N133:N196" si="2">LEN(M133)</f>
@@ -12120,10 +12101,10 @@
         <v>208</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N134" s="4">
         <f t="shared" si="2"/>
@@ -12166,16 +12147,18 @@
         <v>208</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="N135" s="4">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="O135" s="11"/>
+      <c r="O135" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="4">
@@ -12212,16 +12195,18 @@
         <v>236</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="N136" s="4">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="O136" s="11"/>
+      <c r="O136" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="6">
@@ -12258,10 +12243,10 @@
         <v>236</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="M137" s="6" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="N137" s="4">
         <f t="shared" si="2"/>
@@ -12304,10 +12289,10 @@
         <v>242</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N138" s="4">
         <f t="shared" si="2"/>
@@ -12350,16 +12335,18 @@
         <v>242</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="N139" s="4">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="O139" s="5"/>
+      <c r="O139" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="4">
@@ -12394,16 +12381,18 @@
       </c>
       <c r="K140" s="4"/>
       <c r="L140" s="4" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="N140" s="4">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="O140" s="5"/>
+      <c r="O140" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="6">
@@ -12438,10 +12427,10 @@
       </c>
       <c r="K141" s="6"/>
       <c r="L141" s="6" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="M141" s="6" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="N141" s="4">
         <f t="shared" si="2"/>
@@ -12450,51 +12439,51 @@
       <c r="O141" s="11"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>660468</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="7" t="s">
+      <c r="C142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="6">
         <v>61</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="G142" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="H142" s="7" t="s">
+      <c r="H142" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="I142" s="7">
+      <c r="I142" s="6">
         <v>58</v>
       </c>
-      <c r="J142" s="7" t="s">
+      <c r="J142" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="K142" s="7" t="s">
+      <c r="K142" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="L142" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="M142" s="7" t="s">
-        <v>840</v>
+      <c r="L142" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>835</v>
       </c>
       <c r="N142" s="4">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -12530,16 +12519,18 @@
       </c>
       <c r="K143" s="4"/>
       <c r="L143" s="4" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="N143" s="4">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="O143" s="5"/>
+      <c r="O143" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="4">
@@ -12574,10 +12565,10 @@
       </c>
       <c r="K144" s="4"/>
       <c r="L144" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="M144" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>813</v>
       </c>
       <c r="N144" s="4">
         <f t="shared" si="2"/>
@@ -12620,16 +12611,18 @@
         <v>330</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="N145" s="4">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="O145" s="5"/>
+      <c r="O145" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="4">
@@ -12666,10 +12659,10 @@
         <v>330</v>
       </c>
       <c r="L146" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="M146" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="M146" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="N146" s="4">
         <f t="shared" si="2"/>
@@ -12710,10 +12703,10 @@
       </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N147" s="4">
         <f t="shared" si="2"/>
@@ -12754,16 +12747,18 @@
       </c>
       <c r="K148" s="4"/>
       <c r="L148" s="4" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="N148" s="4">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="O148" s="5"/>
+      <c r="O148" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="4">
@@ -12800,16 +12795,18 @@
         <v>348</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="N149" s="4">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="O149" s="5"/>
+      <c r="O149" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="4">
@@ -12846,10 +12843,10 @@
         <v>349</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N150" s="4">
         <f t="shared" si="2"/>
@@ -12890,16 +12887,18 @@
       </c>
       <c r="K151" s="4"/>
       <c r="L151" s="4" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="N151" s="4">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="O151" s="5"/>
+      <c r="O151" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="4">
@@ -12934,10 +12933,10 @@
       </c>
       <c r="K152" s="4"/>
       <c r="L152" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N152" s="4">
         <f t="shared" si="2"/>
@@ -12978,18 +12977,16 @@
       </c>
       <c r="K153" s="6"/>
       <c r="L153" s="6" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="N153" s="4">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="O153" s="14" t="s">
-        <v>853</v>
-      </c>
+      <c r="O153" s="11"/>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="6">
@@ -13024,17 +13021,17 @@
       </c>
       <c r="K154" s="6"/>
       <c r="L154" s="6" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="N154" s="4">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="O154" s="14" t="s">
-        <v>853</v>
+      <c r="O154" s="8" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -13072,10 +13069,10 @@
         <v>393</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="N155" s="4">
         <f t="shared" si="2"/>
@@ -13118,16 +13115,18 @@
         <v>393</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="N156" s="4">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="O156" s="6"/>
+      <c r="O156" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="4">
@@ -13162,10 +13161,10 @@
       </c>
       <c r="K157" s="4"/>
       <c r="L157" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N157" s="4">
         <f t="shared" si="2"/>
@@ -13206,16 +13205,18 @@
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="N158" s="4">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="O158" s="5"/>
+      <c r="O158" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="4">
@@ -13250,16 +13251,18 @@
       </c>
       <c r="K159" s="4"/>
       <c r="L159" s="4" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="N159" s="4">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="O159" s="5"/>
+      <c r="O159" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="4">
@@ -13294,10 +13297,10 @@
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N160" s="4">
         <f t="shared" si="2"/>
@@ -13305,7 +13308,7 @@
       </c>
       <c r="O160" s="5"/>
     </row>
-    <row r="161" spans="1:15" ht="30">
+    <row r="161" spans="1:15">
       <c r="A161" s="6">
         <v>62862</v>
       </c>
@@ -13340,20 +13343,18 @@
         <v>427</v>
       </c>
       <c r="L161" s="11" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="N161" s="4">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="O161" s="11" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="45">
+      <c r="O161" s="11"/>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="6">
         <v>62859</v>
       </c>
@@ -13388,201 +13389,195 @@
         <v>427</v>
       </c>
       <c r="L162" s="11" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="M162" s="11" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="N162" s="4">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="O162" s="11" t="s">
-        <v>822</v>
+      <c r="O162" s="8" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="13">
+      <c r="A163" s="6">
         <v>62746</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="13" t="s">
+      <c r="C163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="13" t="s">
+      <c r="E163" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="F163" s="13">
+      <c r="F163" s="6">
         <v>15</v>
       </c>
-      <c r="G163" s="13" t="s">
+      <c r="G163" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="H163" s="13" t="s">
+      <c r="H163" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="I163" s="13">
+      <c r="I163" s="6">
         <v>15</v>
       </c>
-      <c r="J163" s="13" t="s">
+      <c r="J163" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="K163" s="13"/>
-      <c r="L163" s="13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M163" s="13" t="s">
-        <v>1028</v>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>1211</v>
       </c>
       <c r="N163" s="4">
         <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="O163" s="14" t="s">
-        <v>854</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="O163" s="11"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="13">
+      <c r="A164" s="6">
         <v>62814</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C164" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="13" t="s">
+      <c r="C164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E164" s="13" t="s">
+      <c r="E164" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="F164" s="13">
+      <c r="F164" s="6">
         <v>15</v>
       </c>
-      <c r="G164" s="13" t="s">
+      <c r="G164" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="H164" s="13" t="s">
+      <c r="H164" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="I164" s="13">
+      <c r="I164" s="6">
         <v>15</v>
       </c>
-      <c r="J164" s="13" t="s">
+      <c r="J164" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="K164" s="13"/>
-      <c r="L164" s="13" t="s">
-        <v>816</v>
-      </c>
-      <c r="M164" s="13" t="s">
-        <v>817</v>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>1212</v>
       </c>
       <c r="N164" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="O164" s="14" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="30">
-      <c r="A165" s="13">
+        <v>70</v>
+      </c>
+      <c r="O164" s="11"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="6">
         <v>62861</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C165" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="13" t="s">
+      <c r="C165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="13" t="s">
+      <c r="E165" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="F165" s="13">
+      <c r="F165" s="6">
         <v>22</v>
       </c>
-      <c r="G165" s="13" t="s">
+      <c r="G165" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="H165" s="13" t="s">
+      <c r="H165" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="I165" s="13">
+      <c r="I165" s="6">
         <v>22</v>
       </c>
-      <c r="J165" s="13" t="s">
+      <c r="J165" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="K165" s="13"/>
-      <c r="L165" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="M165" s="13" t="s">
-        <v>867</v>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="M165" s="6" t="s">
+        <v>856</v>
       </c>
       <c r="N165" s="4">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="O165" s="14" t="s">
+      <c r="O165" s="11"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="6">
+        <v>62858</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F166" s="6">
+        <v>22</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="I166" s="6">
+        <v>22</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="A166" s="13">
-        <v>62858</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="F166" s="13">
-        <v>22</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="H166" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="I166" s="13">
-        <v>22</v>
-      </c>
-      <c r="J166" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="K166" s="13"/>
-      <c r="L166" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="M166" s="13" t="s">
-        <v>868</v>
+      <c r="M166" s="6" t="s">
+        <v>857</v>
       </c>
       <c r="N166" s="4">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="O166" s="14" t="s">
-        <v>852</v>
+      <c r="O166" s="8" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -13618,10 +13613,10 @@
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N167" s="4">
         <f t="shared" si="2"/>
@@ -13662,16 +13657,18 @@
       </c>
       <c r="K168" s="4"/>
       <c r="L168" s="4" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="N168" s="4">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="O168" s="5"/>
+      <c r="O168" s="8" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="4">
@@ -13706,10 +13703,10 @@
       </c>
       <c r="K169" s="4"/>
       <c r="L169" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N169" s="4">
         <f t="shared" si="2"/>
@@ -13750,10 +13747,10 @@
       </c>
       <c r="K170" s="4"/>
       <c r="L170" s="4" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="N170" s="4">
         <f t="shared" si="2"/>
@@ -13796,10 +13793,10 @@
         <v>27</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="N171" s="4">
         <f t="shared" si="2"/>
@@ -13842,10 +13839,10 @@
         <v>27</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N172" s="4">
         <f t="shared" si="2"/>
@@ -13888,10 +13885,10 @@
         <v>29</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N173" s="4">
         <f t="shared" si="2"/>
@@ -13934,10 +13931,10 @@
         <v>29</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="N174" s="4">
         <f t="shared" si="2"/>
@@ -13978,10 +13975,10 @@
       </c>
       <c r="K175" s="4"/>
       <c r="L175" s="4" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="N175" s="4">
         <f t="shared" si="2"/>
@@ -14022,10 +14019,10 @@
       </c>
       <c r="K176" s="4"/>
       <c r="L176" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N176" s="4">
         <f t="shared" si="2"/>
@@ -14034,287 +14031,287 @@
       <c r="O176" s="5"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>62675</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="7" t="s">
+      <c r="C177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E177" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="6">
         <v>32</v>
       </c>
-      <c r="G177" s="7" t="s">
+      <c r="G177" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H177" s="7" t="s">
+      <c r="H177" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I177" s="7">
+      <c r="I177" s="6">
         <v>32</v>
       </c>
-      <c r="J177" s="7" t="s">
+      <c r="J177" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K177" s="7"/>
-      <c r="L177" s="7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M177" s="7" t="s">
-        <v>1040</v>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M177" s="6" t="s">
+        <v>1027</v>
       </c>
       <c r="N177" s="4">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="O177" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>257991</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="7" t="s">
+      <c r="C178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="6">
         <v>32</v>
       </c>
-      <c r="G178" s="7" t="s">
+      <c r="G178" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H178" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I178" s="7">
+      <c r="I178" s="6">
         <v>32</v>
       </c>
-      <c r="J178" s="7" t="s">
+      <c r="J178" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K178" s="7"/>
-      <c r="L178" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="M178" s="7" t="s">
-        <v>558</v>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="M178" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="N178" s="4">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>62707</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="7" t="s">
+      <c r="C179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E179" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="6">
         <v>36</v>
       </c>
-      <c r="G179" s="7" t="s">
+      <c r="G179" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H179" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I179" s="7">
+      <c r="I179" s="6">
         <v>36</v>
       </c>
-      <c r="J179" s="7" t="s">
+      <c r="J179" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K179" s="7" t="s">
+      <c r="K179" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L179" s="7" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M179" s="7" t="s">
-        <v>1042</v>
+      <c r="L179" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>1029</v>
       </c>
       <c r="N179" s="4">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="O179" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>62958</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="7" t="s">
+      <c r="C180" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="E180" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="6">
         <v>36</v>
       </c>
-      <c r="G180" s="7" t="s">
+      <c r="G180" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H180" s="7" t="s">
+      <c r="H180" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I180" s="7">
+      <c r="I180" s="6">
         <v>36</v>
       </c>
-      <c r="J180" s="7" t="s">
+      <c r="J180" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K180" s="7" t="s">
+      <c r="K180" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L180" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="M180" s="7" t="s">
-        <v>559</v>
+      <c r="L180" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="M180" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="N180" s="4">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="O180" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>256491</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D181" s="7" t="s">
+      <c r="C181" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="E181" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="6">
         <v>36</v>
       </c>
-      <c r="G181" s="7" t="s">
+      <c r="G181" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H181" s="7" t="s">
+      <c r="H181" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I181" s="7">
+      <c r="I181" s="6">
         <v>36</v>
       </c>
-      <c r="J181" s="7" t="s">
+      <c r="J181" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K181" s="7" t="s">
+      <c r="K181" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L181" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="M181" s="7" t="s">
-        <v>560</v>
+      <c r="L181" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="M181" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="N181" s="4">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>62906</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" s="7" t="s">
+      <c r="C182" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E182" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="6">
         <v>36</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="G182" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H182" s="7" t="s">
+      <c r="H182" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I182" s="7">
+      <c r="I182" s="6">
         <v>36</v>
       </c>
-      <c r="J182" s="7" t="s">
+      <c r="J182" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K182" s="7" t="s">
+      <c r="K182" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L182" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M182" s="7" t="s">
-        <v>1044</v>
+      <c r="L182" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M182" s="6" t="s">
+        <v>1031</v>
       </c>
       <c r="N182" s="4">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="O182" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="183" spans="1:15">
@@ -14350,10 +14347,10 @@
       </c>
       <c r="K183" s="4"/>
       <c r="L183" s="4" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="N183" s="4">
         <f t="shared" si="2"/>
@@ -14394,10 +14391,10 @@
       </c>
       <c r="K184" s="4"/>
       <c r="L184" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N184" s="4">
         <f t="shared" si="2"/>
@@ -14406,95 +14403,95 @@
       <c r="O184" s="5"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>62940</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="7" t="s">
+      <c r="C185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E185" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" s="6">
         <v>31</v>
       </c>
-      <c r="G185" s="7" t="s">
+      <c r="G185" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H185" s="7" t="s">
+      <c r="H185" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I185" s="7">
+      <c r="I185" s="6">
         <v>31</v>
       </c>
-      <c r="J185" s="7" t="s">
+      <c r="J185" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K185" s="7"/>
-      <c r="L185" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M185" s="7" t="s">
-        <v>1048</v>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M185" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="N185" s="4">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="O185" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>257993</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="7" t="s">
+      <c r="C186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E186" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F186" s="7">
+      <c r="F186" s="6">
         <v>31</v>
       </c>
-      <c r="G186" s="7" t="s">
+      <c r="G186" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H186" s="7" t="s">
+      <c r="H186" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I186" s="7">
+      <c r="I186" s="6">
         <v>31</v>
       </c>
-      <c r="J186" s="7" t="s">
+      <c r="J186" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="M186" s="7" t="s">
-        <v>562</v>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="M186" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="N186" s="4">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="O186" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="187" spans="1:15">
@@ -14530,10 +14527,10 @@
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N187" s="4">
         <f t="shared" si="2"/>
@@ -14574,10 +14571,10 @@
       </c>
       <c r="K188" s="4"/>
       <c r="L188" s="4" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="N188" s="4">
         <f t="shared" si="2"/>
@@ -14618,10 +14615,10 @@
       </c>
       <c r="K189" s="4"/>
       <c r="L189" s="4" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="N189" s="4">
         <f t="shared" si="2"/>
@@ -14662,10 +14659,10 @@
       </c>
       <c r="K190" s="4"/>
       <c r="L190" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N190" s="4">
         <f t="shared" si="2"/>
@@ -14706,10 +14703,10 @@
       </c>
       <c r="K191" s="4"/>
       <c r="L191" s="4" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="N191" s="4">
         <f t="shared" si="2"/>
@@ -14750,10 +14747,10 @@
       </c>
       <c r="K192" s="4"/>
       <c r="L192" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N192" s="4">
         <f t="shared" si="2"/>
@@ -14795,11 +14792,11 @@
       <c r="K193" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L193" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="M193" s="16" t="s">
-        <v>566</v>
+      <c r="L193" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="M193" s="15" t="s">
+        <v>565</v>
       </c>
       <c r="N193" s="4">
         <f t="shared" si="2"/>
@@ -14841,11 +14838,11 @@
       <c r="K194" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L194" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M194" s="16" t="s">
-        <v>1056</v>
+      <c r="L194" s="15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M194" s="15" t="s">
+        <v>1043</v>
       </c>
       <c r="N194" s="4">
         <f t="shared" si="2"/>
@@ -14886,10 +14883,10 @@
       </c>
       <c r="K195" s="4"/>
       <c r="L195" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M195" s="17" t="s">
-        <v>1058</v>
+        <v>1044</v>
+      </c>
+      <c r="M195" s="16" t="s">
+        <v>1045</v>
       </c>
       <c r="N195" s="4">
         <f t="shared" si="2"/>
@@ -14930,10 +14927,10 @@
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="M196" s="17" t="s">
-        <v>567</v>
+        <v>644</v>
+      </c>
+      <c r="M196" s="16" t="s">
+        <v>566</v>
       </c>
       <c r="N196" s="4">
         <f t="shared" si="2"/>
@@ -14974,10 +14971,10 @@
       </c>
       <c r="K197" s="4"/>
       <c r="L197" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N197" s="4">
         <f t="shared" ref="N197:N260" si="3">LEN(M197)</f>
@@ -15018,10 +15015,10 @@
       </c>
       <c r="K198" s="4"/>
       <c r="L198" s="4" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="N198" s="4">
         <f t="shared" si="3"/>
@@ -15064,10 +15061,10 @@
         <v>101</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="N199" s="4">
         <f t="shared" si="3"/>
@@ -15110,10 +15107,10 @@
         <v>101</v>
       </c>
       <c r="L200" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="M200" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="M200" s="4" t="s">
-        <v>651</v>
       </c>
       <c r="N200" s="4">
         <f t="shared" si="3"/>
@@ -15156,10 +15153,10 @@
         <v>104</v>
       </c>
       <c r="L201" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="M201" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="M201" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="N201" s="4">
         <f t="shared" si="3"/>
@@ -15202,10 +15199,10 @@
         <v>104</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="N202" s="4">
         <f t="shared" si="3"/>
@@ -15246,10 +15243,10 @@
       </c>
       <c r="K203" s="4"/>
       <c r="L203" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="M203" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="M203" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="N203" s="4">
         <f t="shared" si="3"/>
@@ -15290,10 +15287,10 @@
       </c>
       <c r="K204" s="4"/>
       <c r="L204" s="4" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="N204" s="4">
         <f t="shared" si="3"/>
@@ -15336,10 +15333,10 @@
         <v>110</v>
       </c>
       <c r="L205" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="M205" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="M205" s="4" t="s">
-        <v>657</v>
       </c>
       <c r="N205" s="4">
         <f t="shared" si="3"/>
@@ -15382,10 +15379,10 @@
         <v>110</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="N206" s="4">
         <f t="shared" si="3"/>
@@ -15426,10 +15423,10 @@
       </c>
       <c r="K207" s="4"/>
       <c r="L207" s="4" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="N207" s="4">
         <f t="shared" si="3"/>
@@ -15470,10 +15467,10 @@
       </c>
       <c r="K208" s="4"/>
       <c r="L208" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="M208" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="M208" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="N208" s="4">
         <f t="shared" si="3"/>
@@ -15516,10 +15513,10 @@
         <v>117</v>
       </c>
       <c r="L209" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="M209" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="M209" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="N209" s="4">
         <f t="shared" si="3"/>
@@ -15562,10 +15559,10 @@
         <v>117</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="N210" s="4">
         <f t="shared" si="3"/>
@@ -15608,10 +15605,10 @@
         <v>122</v>
       </c>
       <c r="L211" s="4" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="N211" s="4">
         <f t="shared" si="3"/>
@@ -15654,10 +15651,10 @@
         <v>122</v>
       </c>
       <c r="L212" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="M212" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="M212" s="4" t="s">
-        <v>663</v>
       </c>
       <c r="N212" s="4">
         <f t="shared" si="3"/>
@@ -15700,10 +15697,10 @@
         <v>125</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="N213" s="4">
         <f t="shared" si="3"/>
@@ -15746,10 +15743,10 @@
         <v>125</v>
       </c>
       <c r="L214" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="M214" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="M214" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="N214" s="4">
         <f t="shared" si="3"/>
@@ -15790,10 +15787,10 @@
       </c>
       <c r="K215" s="4"/>
       <c r="L215" s="4" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="N215" s="4">
         <f t="shared" si="3"/>
@@ -15834,10 +15831,10 @@
       </c>
       <c r="K216" s="4"/>
       <c r="L216" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="M216" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="M216" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="N216" s="4">
         <f t="shared" si="3"/>
@@ -15878,10 +15875,10 @@
       </c>
       <c r="K217" s="4"/>
       <c r="L217" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="M217" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="M217" s="4" t="s">
-        <v>667</v>
       </c>
       <c r="N217" s="4">
         <f t="shared" si="3"/>
@@ -15922,10 +15919,10 @@
       </c>
       <c r="K218" s="4"/>
       <c r="L218" s="4" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="N218" s="4">
         <f t="shared" si="3"/>
@@ -15966,10 +15963,10 @@
       </c>
       <c r="K219" s="4"/>
       <c r="L219" s="4" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="N219" s="4">
         <f t="shared" si="3"/>
@@ -16010,10 +16007,10 @@
       </c>
       <c r="K220" s="4"/>
       <c r="L220" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="M220" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="M220" s="4" t="s">
-        <v>671</v>
       </c>
       <c r="N220" s="4">
         <f t="shared" si="3"/>
@@ -16054,18 +16051,16 @@
       </c>
       <c r="K221" s="6"/>
       <c r="L221" s="6" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="M221" s="6" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="N221" s="4">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="O221" s="14" t="s">
-        <v>856</v>
-      </c>
+      <c r="O221" s="11"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="4">
@@ -16100,10 +16095,10 @@
       </c>
       <c r="K222" s="4"/>
       <c r="L222" s="4" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="N222" s="4">
         <f t="shared" si="3"/>
@@ -16144,10 +16139,10 @@
       </c>
       <c r="K223" s="4"/>
       <c r="L223" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="M223" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="M223" s="4" t="s">
-        <v>673</v>
       </c>
       <c r="N223" s="4">
         <f t="shared" si="3"/>
@@ -16188,10 +16183,10 @@
       </c>
       <c r="K224" s="4"/>
       <c r="L224" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="M224" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="M224" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="N224" s="4">
         <f t="shared" si="3"/>
@@ -16232,10 +16227,10 @@
       </c>
       <c r="K225" s="4"/>
       <c r="L225" s="4" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="M225" s="4" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="N225" s="4">
         <f t="shared" si="3"/>
@@ -16278,10 +16273,10 @@
         <v>140</v>
       </c>
       <c r="L226" s="4" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="N226" s="4">
         <f t="shared" si="3"/>
@@ -16324,10 +16319,10 @@
         <v>140</v>
       </c>
       <c r="L227" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="M227" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="M227" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="N227" s="4">
         <f t="shared" si="3"/>
@@ -16368,10 +16363,10 @@
       </c>
       <c r="K228" s="4"/>
       <c r="L228" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="M228" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="M228" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="N228" s="4">
         <f t="shared" si="3"/>
@@ -16412,10 +16407,10 @@
       </c>
       <c r="K229" s="4"/>
       <c r="L229" s="4" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="N229" s="4">
         <f t="shared" si="3"/>
@@ -16456,10 +16451,10 @@
       </c>
       <c r="K230" s="4"/>
       <c r="L230" s="4" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="N230" s="4">
         <f t="shared" si="3"/>
@@ -16500,10 +16495,10 @@
       </c>
       <c r="K231" s="4"/>
       <c r="L231" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="M231" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="M231" s="4" t="s">
-        <v>681</v>
       </c>
       <c r="N231" s="4">
         <f t="shared" si="3"/>
@@ -16546,10 +16541,10 @@
         <v>146</v>
       </c>
       <c r="L232" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="M232" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="M232" s="4" t="s">
-        <v>683</v>
       </c>
       <c r="N232" s="4">
         <f t="shared" si="3"/>
@@ -16592,10 +16587,10 @@
         <v>146</v>
       </c>
       <c r="L233" s="4" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="N233" s="4">
         <f t="shared" si="3"/>
@@ -16638,10 +16633,10 @@
         <v>150</v>
       </c>
       <c r="L234" s="4" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="N234" s="4">
         <f t="shared" si="3"/>
@@ -16684,10 +16679,10 @@
         <v>150</v>
       </c>
       <c r="L235" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="M235" s="4" t="s">
         <v>684</v>
-      </c>
-      <c r="M235" s="4" t="s">
-        <v>685</v>
       </c>
       <c r="N235" s="4">
         <f t="shared" si="3"/>
@@ -16730,10 +16725,10 @@
         <v>152</v>
       </c>
       <c r="L236" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="M236" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="M236" s="4" t="s">
-        <v>687</v>
       </c>
       <c r="N236" s="4">
         <f t="shared" si="3"/>
@@ -16776,10 +16771,10 @@
         <v>152</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="N237" s="4">
         <f t="shared" si="3"/>
@@ -16820,10 +16815,10 @@
       </c>
       <c r="K238" s="4"/>
       <c r="L238" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="M238" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="M238" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="N238" s="4">
         <f t="shared" si="3"/>
@@ -16864,10 +16859,10 @@
       </c>
       <c r="K239" s="4"/>
       <c r="L239" s="4" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="M239" s="4" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="N239" s="4">
         <f t="shared" si="3"/>
@@ -16908,10 +16903,10 @@
       </c>
       <c r="K240" s="4"/>
       <c r="L240" s="4" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="N240" s="4">
         <f t="shared" si="3"/>
@@ -16952,10 +16947,10 @@
       </c>
       <c r="K241" s="4"/>
       <c r="L241" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="M241" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="M241" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="N241" s="4">
         <f t="shared" si="3"/>
@@ -16996,10 +16991,10 @@
       </c>
       <c r="K242" s="4"/>
       <c r="L242" s="4" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="M242" s="4" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="N242" s="4">
         <f t="shared" si="3"/>
@@ -17040,10 +17035,10 @@
       </c>
       <c r="K243" s="4"/>
       <c r="L243" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="M243" s="4" t="s">
         <v>692</v>
-      </c>
-      <c r="M243" s="4" t="s">
-        <v>693</v>
       </c>
       <c r="N243" s="4">
         <f t="shared" si="3"/>
@@ -17084,10 +17079,10 @@
       </c>
       <c r="K244" s="4"/>
       <c r="L244" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="M244" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="M244" s="4" t="s">
-        <v>695</v>
       </c>
       <c r="N244" s="4">
         <f t="shared" si="3"/>
@@ -17128,10 +17123,10 @@
       </c>
       <c r="K245" s="4"/>
       <c r="L245" s="4" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="M245" s="4" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="N245" s="4">
         <f t="shared" si="3"/>
@@ -17172,10 +17167,10 @@
       </c>
       <c r="K246" s="4"/>
       <c r="L246" s="4" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="M246" s="4" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="N246" s="4">
         <f t="shared" si="3"/>
@@ -17216,10 +17211,10 @@
       </c>
       <c r="K247" s="4"/>
       <c r="L247" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="M247" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="M247" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="N247" s="4">
         <f t="shared" si="3"/>
@@ -17260,10 +17255,10 @@
       </c>
       <c r="K248" s="4"/>
       <c r="L248" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="M248" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="M248" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="N248" s="4">
         <f t="shared" si="3"/>
@@ -17304,10 +17299,10 @@
       </c>
       <c r="K249" s="4"/>
       <c r="L249" s="4" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="M249" s="4" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="N249" s="4">
         <f t="shared" si="3"/>
@@ -17348,10 +17343,10 @@
       </c>
       <c r="K250" s="4"/>
       <c r="L250" s="4" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="M250" s="4" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="N250" s="4">
         <f t="shared" si="3"/>
@@ -17392,10 +17387,10 @@
       </c>
       <c r="K251" s="4"/>
       <c r="L251" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="M251" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="M251" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="N251" s="4">
         <f t="shared" si="3"/>
@@ -17436,10 +17431,10 @@
       </c>
       <c r="K252" s="4"/>
       <c r="L252" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="M252" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="M252" s="4" t="s">
-        <v>703</v>
       </c>
       <c r="N252" s="4">
         <f t="shared" si="3"/>
@@ -17480,10 +17475,10 @@
       </c>
       <c r="K253" s="4"/>
       <c r="L253" s="4" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="M253" s="4" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="N253" s="4">
         <f t="shared" si="3"/>
@@ -17526,18 +17521,16 @@
         <v>206</v>
       </c>
       <c r="L254" s="4" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="M254" s="4" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="N254" s="4">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="O254" s="6" t="s">
-        <v>487</v>
-      </c>
+      <c r="O254" s="6"/>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="4">
@@ -17574,10 +17567,10 @@
         <v>206</v>
       </c>
       <c r="L255" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="M255" s="4" t="s">
         <v>704</v>
-      </c>
-      <c r="M255" s="4" t="s">
-        <v>705</v>
       </c>
       <c r="N255" s="4">
         <f t="shared" si="3"/>
@@ -17620,10 +17613,10 @@
         <v>212</v>
       </c>
       <c r="L256" s="4" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="M256" s="4" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="N256" s="4">
         <f t="shared" si="3"/>
@@ -17666,10 +17659,10 @@
         <v>212</v>
       </c>
       <c r="L257" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="M257" s="4" t="s">
         <v>706</v>
-      </c>
-      <c r="M257" s="4" t="s">
-        <v>707</v>
       </c>
       <c r="N257" s="4">
         <f t="shared" si="3"/>
@@ -17710,10 +17703,10 @@
       </c>
       <c r="K258" s="4"/>
       <c r="L258" s="4" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="N258" s="4">
         <f t="shared" si="3"/>
@@ -17754,10 +17747,10 @@
       </c>
       <c r="K259" s="4"/>
       <c r="L259" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="M259" s="4" t="s">
         <v>708</v>
-      </c>
-      <c r="M259" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="N259" s="4">
         <f t="shared" si="3"/>
@@ -17798,10 +17791,10 @@
       </c>
       <c r="K260" s="4"/>
       <c r="L260" s="4" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="N260" s="4">
         <f t="shared" si="3"/>
@@ -17842,10 +17835,10 @@
       </c>
       <c r="K261" s="4"/>
       <c r="L261" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="M261" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="M261" s="4" t="s">
-        <v>711</v>
       </c>
       <c r="N261" s="4">
         <f t="shared" ref="N261:N324" si="4">LEN(M261)</f>
@@ -17886,10 +17879,10 @@
       </c>
       <c r="K262" s="4"/>
       <c r="L262" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="M262" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="M262" s="4" t="s">
-        <v>713</v>
       </c>
       <c r="N262" s="4">
         <f t="shared" si="4"/>
@@ -17930,10 +17923,10 @@
       </c>
       <c r="K263" s="4"/>
       <c r="L263" s="4" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="N263" s="4">
         <f t="shared" si="4"/>
@@ -17976,10 +17969,10 @@
         <v>251</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="N264" s="4">
         <f t="shared" si="4"/>
@@ -18022,10 +18015,10 @@
         <v>251</v>
       </c>
       <c r="L265" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="M265" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="M265" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="N265" s="4">
         <f t="shared" si="4"/>
@@ -18066,10 +18059,10 @@
       </c>
       <c r="K266" s="4"/>
       <c r="L266" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="M266" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="M266" s="4" t="s">
-        <v>717</v>
       </c>
       <c r="N266" s="4">
         <f t="shared" si="4"/>
@@ -18110,10 +18103,10 @@
       </c>
       <c r="K267" s="4"/>
       <c r="L267" s="4" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="N267" s="4">
         <f t="shared" si="4"/>
@@ -18154,17 +18147,17 @@
       </c>
       <c r="K268" s="4"/>
       <c r="L268" s="4" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="N268" s="4">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="O268" s="5" t="s">
-        <v>720</v>
+      <c r="O268" s="13" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="269" spans="1:15">
@@ -18200,17 +18193,17 @@
       </c>
       <c r="K269" s="4"/>
       <c r="L269" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="M269" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="M269" s="4" t="s">
-        <v>719</v>
       </c>
       <c r="N269" s="4">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="O269" s="5" t="s">
-        <v>720</v>
+      <c r="O269" s="13" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="270" spans="1:15">
@@ -18246,10 +18239,10 @@
       </c>
       <c r="K270" s="4"/>
       <c r="L270" s="4" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="N270" s="4">
         <f t="shared" si="4"/>
@@ -18290,10 +18283,10 @@
       </c>
       <c r="K271" s="4"/>
       <c r="L271" s="4" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="M271" s="4" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="N271" s="4">
         <f t="shared" si="4"/>
@@ -18336,18 +18329,16 @@
         <v>264</v>
       </c>
       <c r="L272" s="6" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="M272" s="6" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="N272" s="4">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="O272" s="14" t="s">
-        <v>857</v>
-      </c>
+      <c r="O272" s="11"/>
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="6">
@@ -18384,65 +18375,63 @@
         <v>264</v>
       </c>
       <c r="L273" s="6" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="M273" s="6" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="N273" s="4">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="O273" s="14" t="s">
-        <v>857</v>
-      </c>
+      <c r="O273" s="11"/>
     </row>
     <row r="274" spans="1:15">
-      <c r="A274" s="7">
+      <c r="A274" s="6">
         <v>62796</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C274" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D274" s="7" t="s">
+      <c r="C274" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E274" s="7" t="s">
+      <c r="E274" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F274" s="7">
+      <c r="F274" s="6">
         <v>67</v>
       </c>
-      <c r="G274" s="7" t="s">
+      <c r="G274" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H274" s="7" t="s">
+      <c r="H274" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I274" s="7">
+      <c r="I274" s="6">
         <v>57</v>
       </c>
-      <c r="J274" s="7" t="s">
+      <c r="J274" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K274" s="7" t="s">
+      <c r="K274" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="L274" s="7" t="s">
+      <c r="L274" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="M274" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="M274" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="N274" s="4">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="O274" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="275" spans="1:15">
@@ -18480,10 +18469,10 @@
         <v>286</v>
       </c>
       <c r="L275" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="M275" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="M275" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="N275" s="4">
         <f t="shared" si="4"/>
@@ -18526,10 +18515,10 @@
         <v>286</v>
       </c>
       <c r="L276" s="4" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="M276" s="4" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="N276" s="4">
         <f t="shared" si="4"/>
@@ -18570,10 +18559,10 @@
       </c>
       <c r="K277" s="4"/>
       <c r="L277" s="4" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="M277" s="4" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="N277" s="4">
         <f t="shared" si="4"/>
@@ -18614,10 +18603,10 @@
       </c>
       <c r="K278" s="4"/>
       <c r="L278" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="M278" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="M278" s="4" t="s">
-        <v>726</v>
       </c>
       <c r="N278" s="4">
         <f t="shared" si="4"/>
@@ -18658,10 +18647,10 @@
       </c>
       <c r="K279" s="4"/>
       <c r="L279" s="4" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="M279" s="4" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="N279" s="4">
         <f t="shared" si="4"/>
@@ -18702,10 +18691,10 @@
       </c>
       <c r="K280" s="4"/>
       <c r="L280" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="M280" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="M280" s="4" t="s">
-        <v>728</v>
       </c>
       <c r="N280" s="4">
         <f t="shared" si="4"/>
@@ -18746,10 +18735,10 @@
       </c>
       <c r="K281" s="4"/>
       <c r="L281" s="4" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="M281" s="4" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="N281" s="4">
         <f t="shared" si="4"/>
@@ -18790,10 +18779,10 @@
       </c>
       <c r="K282" s="4"/>
       <c r="L282" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="M282" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="M282" s="4" t="s">
-        <v>730</v>
       </c>
       <c r="N282" s="4">
         <f t="shared" si="4"/>
@@ -18834,10 +18823,10 @@
       </c>
       <c r="K283" s="4"/>
       <c r="L283" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="M283" s="4" t="s">
         <v>731</v>
-      </c>
-      <c r="M283" s="4" t="s">
-        <v>732</v>
       </c>
       <c r="N283" s="4">
         <f t="shared" si="4"/>
@@ -18878,10 +18867,10 @@
       </c>
       <c r="K284" s="4"/>
       <c r="L284" s="4" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="M284" s="4" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="N284" s="4">
         <f t="shared" si="4"/>
@@ -18890,42 +18879,42 @@
       <c r="O284" s="5"/>
     </row>
     <row r="285" spans="1:15">
-      <c r="A285" s="9">
+      <c r="A285" s="6">
         <v>258020</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C285" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D285" s="9" t="s">
+      <c r="C285" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E285" s="9" t="s">
+      <c r="E285" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F285" s="9">
+      <c r="F285" s="6">
         <v>61</v>
       </c>
-      <c r="G285" s="9" t="s">
+      <c r="G285" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="H285" s="9" t="s">
+      <c r="H285" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="I285" s="9">
+      <c r="I285" s="6">
         <v>61</v>
       </c>
-      <c r="J285" s="9" t="s">
+      <c r="J285" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K285" s="9"/>
-      <c r="L285" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="M285" s="9" t="s">
-        <v>831</v>
+      <c r="K285" s="6"/>
+      <c r="L285" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="M285" s="6" t="s">
+        <v>826</v>
       </c>
       <c r="N285" s="4">
         <f t="shared" si="4"/>
@@ -18936,42 +18925,42 @@
       </c>
     </row>
     <row r="286" spans="1:15">
-      <c r="A286" s="9">
+      <c r="A286" s="6">
         <v>62919</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C286" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D286" s="9" t="s">
+      <c r="C286" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E286" s="9" t="s">
+      <c r="E286" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F286" s="9">
+      <c r="F286" s="6">
         <v>61</v>
       </c>
-      <c r="G286" s="9" t="s">
+      <c r="G286" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="H286" s="9" t="s">
+      <c r="H286" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="I286" s="9">
+      <c r="I286" s="6">
         <v>61</v>
       </c>
-      <c r="J286" s="9" t="s">
+      <c r="J286" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K286" s="9"/>
-      <c r="L286" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="M286" s="9" t="s">
-        <v>1144</v>
+      <c r="K286" s="6"/>
+      <c r="L286" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M286" s="6" t="s">
+        <v>1131</v>
       </c>
       <c r="N286" s="4">
         <f t="shared" si="4"/>
@@ -19014,10 +19003,10 @@
         <v>318</v>
       </c>
       <c r="L287" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="M287" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="M287" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="N287" s="4">
         <f t="shared" si="4"/>
@@ -19060,10 +19049,10 @@
         <v>318</v>
       </c>
       <c r="L288" s="4" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="M288" s="4" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="N288" s="4">
         <f t="shared" si="4"/>
@@ -19104,10 +19093,10 @@
       </c>
       <c r="K289" s="4"/>
       <c r="L289" s="4" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="M289" s="4" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="N289" s="4">
         <f t="shared" si="4"/>
@@ -19148,10 +19137,10 @@
       </c>
       <c r="K290" s="4"/>
       <c r="L290" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="M290" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="M290" s="4" t="s">
-        <v>736</v>
       </c>
       <c r="N290" s="4">
         <f t="shared" si="4"/>
@@ -19194,10 +19183,10 @@
         <v>324</v>
       </c>
       <c r="L291" s="4" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="M291" s="4" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="N291" s="4">
         <f t="shared" si="4"/>
@@ -19240,10 +19229,10 @@
         <v>324</v>
       </c>
       <c r="L292" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="M292" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="M292" s="4" t="s">
-        <v>738</v>
       </c>
       <c r="N292" s="4">
         <f t="shared" si="4"/>
@@ -19284,10 +19273,10 @@
       </c>
       <c r="K293" s="4"/>
       <c r="L293" s="4" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="M293" s="4" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="N293" s="4">
         <f t="shared" si="4"/>
@@ -19328,10 +19317,10 @@
       </c>
       <c r="K294" s="4"/>
       <c r="L294" s="4" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="M294" s="4" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="N294" s="4">
         <f t="shared" si="4"/>
@@ -19372,10 +19361,10 @@
       </c>
       <c r="K295" s="4"/>
       <c r="L295" s="4" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="M295" s="4" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="N295" s="4">
         <f t="shared" si="4"/>
@@ -19416,10 +19405,10 @@
       </c>
       <c r="K296" s="4"/>
       <c r="L296" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="M296" s="4" t="s">
         <v>739</v>
-      </c>
-      <c r="M296" s="4" t="s">
-        <v>740</v>
       </c>
       <c r="N296" s="4">
         <f t="shared" si="4"/>
@@ -19460,10 +19449,10 @@
       </c>
       <c r="K297" s="4"/>
       <c r="L297" s="4" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="M297" s="4" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="N297" s="4">
         <f t="shared" si="4"/>
@@ -19504,10 +19493,10 @@
       </c>
       <c r="K298" s="4"/>
       <c r="L298" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="M298" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="M298" s="4" t="s">
-        <v>777</v>
       </c>
       <c r="N298" s="4">
         <f t="shared" si="4"/>
@@ -19548,10 +19537,10 @@
       </c>
       <c r="K299" s="4"/>
       <c r="L299" s="4" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="M299" s="4" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="N299" s="4">
         <f t="shared" si="4"/>
@@ -19592,10 +19581,10 @@
       </c>
       <c r="K300" s="4"/>
       <c r="L300" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="M300" s="4" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="N300" s="4">
         <f t="shared" si="4"/>
@@ -19638,10 +19627,10 @@
         <v>354</v>
       </c>
       <c r="L301" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="M301" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="M301" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="N301" s="4">
         <f t="shared" si="4"/>
@@ -19684,10 +19673,10 @@
         <v>354</v>
       </c>
       <c r="L302" s="4" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="M302" s="4" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="N302" s="4">
         <f t="shared" si="4"/>
@@ -19730,10 +19719,10 @@
         <v>362</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="M303" s="6" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="N303" s="4">
         <f t="shared" si="4"/>
@@ -19778,10 +19767,10 @@
         <v>362</v>
       </c>
       <c r="L304" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="M304" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="M304" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="N304" s="4">
         <f t="shared" si="4"/>
@@ -19822,10 +19811,10 @@
       </c>
       <c r="K305" s="4"/>
       <c r="L305" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="M305" s="6" t="s">
         <v>745</v>
-      </c>
-      <c r="M305" s="6" t="s">
-        <v>746</v>
       </c>
       <c r="N305" s="4">
         <f t="shared" si="4"/>
@@ -19866,10 +19855,10 @@
       </c>
       <c r="K306" s="4"/>
       <c r="L306" s="6" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="M306" s="6" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="N306" s="4">
         <f t="shared" si="4"/>
@@ -19910,10 +19899,10 @@
       </c>
       <c r="K307" s="6"/>
       <c r="L307" s="6" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="M307" s="6" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="N307" s="4">
         <f t="shared" si="4"/>
@@ -19954,10 +19943,10 @@
       </c>
       <c r="K308" s="4"/>
       <c r="L308" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="M308" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="M308" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="N308" s="4">
         <f t="shared" si="4"/>
@@ -19998,10 +19987,10 @@
       </c>
       <c r="K309" s="4"/>
       <c r="L309" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="M309" s="4" t="s">
         <v>749</v>
-      </c>
-      <c r="M309" s="4" t="s">
-        <v>750</v>
       </c>
       <c r="N309" s="4">
         <f t="shared" si="4"/>
@@ -20042,10 +20031,10 @@
       </c>
       <c r="K310" s="4"/>
       <c r="L310" s="4" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="M310" s="4" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="N310" s="4">
         <f t="shared" si="4"/>
@@ -20088,10 +20077,10 @@
         <v>373</v>
       </c>
       <c r="L311" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="M311" s="4" t="s">
         <v>751</v>
-      </c>
-      <c r="M311" s="4" t="s">
-        <v>752</v>
       </c>
       <c r="N311" s="4">
         <f t="shared" si="4"/>
@@ -20134,10 +20123,10 @@
         <v>373</v>
       </c>
       <c r="L312" s="4" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="M312" s="4" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="N312" s="4">
         <f t="shared" si="4"/>
@@ -20180,10 +20169,10 @@
         <v>378</v>
       </c>
       <c r="L313" s="4" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="M313" s="4" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="N313" s="4">
         <f t="shared" si="4"/>
@@ -20226,10 +20215,10 @@
         <v>378</v>
       </c>
       <c r="L314" s="4" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="M314" s="4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="N314" s="4">
         <f t="shared" si="4"/>
@@ -20270,10 +20259,10 @@
       </c>
       <c r="K315" s="4"/>
       <c r="L315" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="M315" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="M315" s="4" t="s">
-        <v>754</v>
       </c>
       <c r="N315" s="4">
         <f t="shared" si="4"/>
@@ -20314,10 +20303,10 @@
       </c>
       <c r="K316" s="4"/>
       <c r="L316" s="4" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="M316" s="4" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="N316" s="4">
         <f t="shared" si="4"/>
@@ -20358,10 +20347,10 @@
       </c>
       <c r="K317" s="4"/>
       <c r="L317" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="M317" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="M317" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="N317" s="4">
         <f t="shared" si="4"/>
@@ -20402,10 +20391,10 @@
       </c>
       <c r="K318" s="4"/>
       <c r="L318" s="4" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="M318" s="4" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="N318" s="4">
         <f t="shared" si="4"/>
@@ -20448,10 +20437,10 @@
         <v>389</v>
       </c>
       <c r="L319" s="4" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="M319" s="4" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="N319" s="4">
         <f t="shared" si="4"/>
@@ -20494,10 +20483,10 @@
         <v>389</v>
       </c>
       <c r="L320" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="M320" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="M320" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="N320" s="4">
         <f t="shared" si="4"/>
@@ -20538,10 +20527,10 @@
       </c>
       <c r="K321" s="4"/>
       <c r="L321" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="M321" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="M321" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="N321" s="4">
         <f t="shared" si="4"/>
@@ -20582,10 +20571,10 @@
       </c>
       <c r="K322" s="4"/>
       <c r="L322" s="4" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="M322" s="4" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="N322" s="4">
         <f t="shared" si="4"/>
@@ -20628,10 +20617,10 @@
         <v>398</v>
       </c>
       <c r="L323" s="4" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="M323" s="4" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="N323" s="4">
         <f t="shared" si="4"/>
@@ -20674,10 +20663,10 @@
         <v>398</v>
       </c>
       <c r="L324" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="M324" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="M324" s="4" t="s">
-        <v>762</v>
       </c>
       <c r="N324" s="4">
         <f t="shared" si="4"/>
@@ -20718,10 +20707,10 @@
       </c>
       <c r="K325" s="4"/>
       <c r="L325" s="4" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="M325" s="4" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="N325" s="4">
         <f t="shared" ref="N325:N362" si="5">LEN(M325)</f>
@@ -20762,10 +20751,10 @@
       </c>
       <c r="K326" s="4"/>
       <c r="L326" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="M326" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="M326" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="N326" s="4">
         <f t="shared" si="5"/>
@@ -20806,10 +20795,10 @@
       </c>
       <c r="K327" s="4"/>
       <c r="L327" s="4" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="M327" s="4" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="N327" s="4">
         <f t="shared" si="5"/>
@@ -20850,10 +20839,10 @@
       </c>
       <c r="K328" s="4"/>
       <c r="L328" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="M328" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="M328" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="N328" s="4">
         <f t="shared" si="5"/>
@@ -20894,10 +20883,10 @@
       </c>
       <c r="K329" s="4"/>
       <c r="L329" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="M329" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="M329" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="N329" s="4">
         <f t="shared" si="5"/>
@@ -20938,10 +20927,10 @@
       </c>
       <c r="K330" s="4"/>
       <c r="L330" s="4" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="M330" s="4" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="N330" s="4">
         <f t="shared" si="5"/>
@@ -20982,10 +20971,10 @@
       </c>
       <c r="K331" s="4"/>
       <c r="L331" s="4" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="M331" s="4" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="N331" s="4">
         <f t="shared" si="5"/>
@@ -21026,10 +21015,10 @@
       </c>
       <c r="K332" s="4"/>
       <c r="L332" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="M332" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="M332" s="4" t="s">
-        <v>770</v>
       </c>
       <c r="N332" s="4">
         <f t="shared" si="5"/>
@@ -21070,10 +21059,10 @@
       </c>
       <c r="K333" s="4"/>
       <c r="L333" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="M333" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="M333" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="N333" s="4">
         <f t="shared" si="5"/>
@@ -21114,10 +21103,10 @@
       </c>
       <c r="K334" s="4"/>
       <c r="L334" s="4" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="M334" s="4" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="N334" s="4">
         <f t="shared" si="5"/>
@@ -21158,10 +21147,10 @@
       </c>
       <c r="K335" s="4"/>
       <c r="L335" s="4" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="M335" s="4" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="N335" s="4">
         <f t="shared" si="5"/>
@@ -21202,10 +21191,10 @@
       </c>
       <c r="K336" s="4"/>
       <c r="L336" s="4" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="M336" s="4" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="N336" s="4">
         <f t="shared" si="5"/>
@@ -21246,10 +21235,10 @@
       </c>
       <c r="K337" s="4"/>
       <c r="L337" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="M337" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="M337" s="4" t="s">
-        <v>774</v>
       </c>
       <c r="N337" s="4">
         <f t="shared" si="5"/>
@@ -21290,10 +21279,10 @@
       </c>
       <c r="K338" s="4"/>
       <c r="L338" s="4" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="M338" s="4" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="N338" s="4">
         <f t="shared" si="5"/>
@@ -21334,10 +21323,10 @@
       </c>
       <c r="K339" s="4"/>
       <c r="L339" s="4" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="M339" s="4" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="N339" s="4">
         <f t="shared" si="5"/>
@@ -21378,10 +21367,10 @@
       </c>
       <c r="K340" s="4"/>
       <c r="L340" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M340" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="N340" s="4">
         <f t="shared" si="5"/>
@@ -21422,10 +21411,10 @@
       </c>
       <c r="K341" s="4"/>
       <c r="L341" s="4" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="M341" s="4" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="N341" s="4">
         <f t="shared" si="5"/>
@@ -21466,10 +21455,10 @@
       </c>
       <c r="K342" s="4"/>
       <c r="L342" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M342" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N342" s="4">
         <f t="shared" si="5"/>
@@ -21510,10 +21499,10 @@
       </c>
       <c r="K343" s="4"/>
       <c r="L343" s="4" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="M343" s="4" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="N343" s="4">
         <f t="shared" si="5"/>
@@ -21554,10 +21543,10 @@
       </c>
       <c r="K344" s="4"/>
       <c r="L344" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M344" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N344" s="4">
         <f t="shared" si="5"/>
@@ -21600,10 +21589,10 @@
         <v>456</v>
       </c>
       <c r="L345" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M345" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N345" s="4">
         <f t="shared" si="5"/>
@@ -21646,10 +21635,10 @@
         <v>456</v>
       </c>
       <c r="L346" s="4" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="M346" s="4" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="N346" s="4">
         <f t="shared" si="5"/>
@@ -21690,10 +21679,10 @@
       </c>
       <c r="K347" s="4"/>
       <c r="L347" s="4" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="M347" s="4" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="N347" s="4">
         <f t="shared" si="5"/>
@@ -21734,10 +21723,10 @@
       </c>
       <c r="K348" s="4"/>
       <c r="L348" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M348" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N348" s="4">
         <f t="shared" si="5"/>
@@ -21780,10 +21769,10 @@
         <v>467</v>
       </c>
       <c r="L349" s="4" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="M349" s="4" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="N349" s="4">
         <f t="shared" si="5"/>
@@ -21826,10 +21815,10 @@
         <v>467</v>
       </c>
       <c r="L350" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M350" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N350" s="4">
         <f t="shared" si="5"/>
@@ -21870,10 +21859,10 @@
       </c>
       <c r="K351" s="6"/>
       <c r="L351" s="6" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="M351" s="6" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="N351" s="4">
         <f t="shared" si="5"/>
@@ -21914,10 +21903,10 @@
       </c>
       <c r="K352" s="6"/>
       <c r="L352" s="6" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="M352" s="6" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="N352" s="4">
         <f t="shared" si="5"/>
@@ -21958,10 +21947,10 @@
       </c>
       <c r="K353" s="4"/>
       <c r="L353" s="4" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="M353" s="4" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="N353" s="4">
         <f t="shared" si="5"/>
@@ -22002,10 +21991,10 @@
       </c>
       <c r="K354" s="4"/>
       <c r="L354" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M354" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N354" s="4">
         <f t="shared" si="5"/>
@@ -22046,10 +22035,10 @@
       </c>
       <c r="K355" s="4"/>
       <c r="L355" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M355" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N355" s="4">
         <f t="shared" si="5"/>
@@ -22090,10 +22079,10 @@
       </c>
       <c r="K356" s="4"/>
       <c r="L356" s="4" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="M356" s="4" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="N356" s="4">
         <f t="shared" si="5"/>
@@ -22134,10 +22123,10 @@
       </c>
       <c r="K357" s="4"/>
       <c r="L357" s="4" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="M357" s="4" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="N357" s="4">
         <f t="shared" si="5"/>
@@ -22178,10 +22167,10 @@
       </c>
       <c r="K358" s="4"/>
       <c r="L358" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M358" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N358" s="4">
         <f t="shared" si="5"/>
@@ -22222,10 +22211,10 @@
       </c>
       <c r="K359" s="4"/>
       <c r="L359" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M359" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N359" s="4">
         <f t="shared" si="5"/>
@@ -22266,10 +22255,10 @@
       </c>
       <c r="K360" s="4"/>
       <c r="L360" s="4" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="M360" s="4" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="N360" s="4">
         <f t="shared" si="5"/>
@@ -22312,10 +22301,10 @@
         <v>481</v>
       </c>
       <c r="L361" s="4" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="M361" s="4" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="N361" s="4">
         <f t="shared" si="5"/>
@@ -22358,10 +22347,10 @@
         <v>481</v>
       </c>
       <c r="L362" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M362" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N362" s="4">
         <f t="shared" si="5"/>

--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12940" uniqueCount="2429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="2446">
   <si>
     <t>CDR-ID</t>
   </si>
@@ -7350,6 +7350,58 @@
   </si>
   <si>
     <t>/espanol/tipos/tumores-carcinoides-gi/paciente/</t>
+  </si>
+  <si>
+    <t>Acupuntura</t>
+  </si>
+  <si>
+    <t>Acupuntura-para profesionales de salud</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/tratamiento/cam/pro/acupuntura-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/tratamiento/cam/acupuntura-pdq</t>
+  </si>
+  <si>
+    <t>Aromaterapia y aceites esenciales</t>
+  </si>
+  <si>
+    <t>Aromaterapia y aceites esenciales-para profesionales de salud</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/tratamiento/cam/pro/aromaterapia-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/tratamiento/cam/aromaterapia-pdq</t>
+  </si>
+  <si>
+    <t>Planificación de la transición a la atención en la etapa final de la vida para los pacientes de cáncer en estadio avanzado</t>
+  </si>
+  <si>
+    <t>Planificación de la transición a la atención</t>
+  </si>
+  <si>
+    <t>Planificación de la transición a la atención en la etapa final de la vida para los pacientes de cáncer en estadio avanzado-para profesionales de salud</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/cancer-avanzado/planes/etapa-final-pro-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/cancer-avanzado/planes/etapa-final-pdq</t>
+  </si>
+  <si>
+    <t>Grados de comprobación científica de los estudios de medicina complementaria y alternativa en seres humanos con cáncer</t>
+  </si>
+  <si>
+    <t>Grados de comprobación científica de los estudios de medicina complementaria y alternativa en seres humanos con cáncer-para profesionales de salud</t>
+  </si>
+  <si>
+    <t>Grados de comprobación: CAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+765473 </t>
   </si>
 </sst>
 </file>
@@ -8435,7 +8487,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -8482,6 +8534,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="956">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -39845,11 +39900,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N666"/>
+  <dimension ref="A1:N672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B671" sqref="B671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -66022,7 +66077,7 @@
       </c>
     </row>
     <row r="664" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="17">
+      <c r="A664" s="13">
         <v>448614</v>
       </c>
       <c r="B664" s="17"/>
@@ -66056,7 +66111,7 @@
       </c>
     </row>
     <row r="665" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="17">
+      <c r="A665" s="13">
         <v>643303</v>
       </c>
       <c r="B665" s="17"/>
@@ -66092,7 +66147,237 @@
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E666" s="3"/>
+      <c r="A666" s="13">
+        <v>765468</v>
+      </c>
+      <c r="C666" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E666" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F666" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G666" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H666" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J666" s="13" t="s">
+        <v>2429</v>
+      </c>
+      <c r="K666" s="13" t="s">
+        <v>2429</v>
+      </c>
+      <c r="M666" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N666" s="28" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A667" s="13">
+        <v>765469</v>
+      </c>
+      <c r="C667" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E667" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F667" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G667" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H667" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J667" s="13" t="s">
+        <v>2429</v>
+      </c>
+      <c r="K667" s="13" t="s">
+        <v>2429</v>
+      </c>
+      <c r="M667" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N667" s="28" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A668" s="13">
+        <v>765718</v>
+      </c>
+      <c r="C668" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E668" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F668" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G668" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H668" s="28" t="s">
+        <v>2434</v>
+      </c>
+      <c r="J668" s="13" t="s">
+        <v>2433</v>
+      </c>
+      <c r="K668" s="28" t="s">
+        <v>2433</v>
+      </c>
+      <c r="M668" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N668" s="28" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A669" s="13">
+        <v>765470</v>
+      </c>
+      <c r="C669" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E669" t="s">
+        <v>2436</v>
+      </c>
+      <c r="F669" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G669" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H669" s="28" t="s">
+        <v>2433</v>
+      </c>
+      <c r="J669" s="13" t="s">
+        <v>2433</v>
+      </c>
+      <c r="K669" s="28" t="s">
+        <v>2433</v>
+      </c>
+      <c r="M669" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N669" s="28" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A670" s="13">
+        <v>765474</v>
+      </c>
+      <c r="C670" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E670" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F670" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G670" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H670" s="28" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I670" s="28" t="s">
+        <v>2437</v>
+      </c>
+      <c r="J670" s="13" t="s">
+        <v>2437</v>
+      </c>
+      <c r="K670" s="28" t="s">
+        <v>2438</v>
+      </c>
+      <c r="M670" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N670" s="28" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A671" s="13" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C671" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E671" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F671" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G671" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H671" s="28" t="s">
+        <v>2437</v>
+      </c>
+      <c r="I671" s="28" t="s">
+        <v>2437</v>
+      </c>
+      <c r="J671" s="13" t="s">
+        <v>2437</v>
+      </c>
+      <c r="K671" s="28" t="s">
+        <v>2438</v>
+      </c>
+      <c r="M671" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N671" s="28" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A672" s="13">
+        <v>765703</v>
+      </c>
+      <c r="C672" s="30" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F672" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G672" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H672" s="28" t="s">
+        <v>2443</v>
+      </c>
+      <c r="I672" s="28" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J672" s="13" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K672" s="28" t="s">
+        <v>2444</v>
+      </c>
+      <c r="M672" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N672" s="28" t="s">
+        <v>2442</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N665">
@@ -66108,7 +66393,7 @@
     <hyperlink ref="E388" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -6560,9 +6560,6 @@
     <t>/espanol/tipos/cuello-uterino/pro/</t>
   </si>
   <si>
-    <t>/espanol/tipos/endometrio/pro/</t>
-  </si>
-  <si>
     <t>/espanol/tipos/esofago/pro/</t>
   </si>
   <si>
@@ -6678,9 +6675,6 @@
   </si>
   <si>
     <t>/espanol/tipos/cuello-uterino/paciente/</t>
-  </si>
-  <si>
-    <t>/espanol/tipos/endometrio/paciente/</t>
   </si>
   <si>
     <t>/espanol/tipos/esofago/paciente/</t>
@@ -7402,6 +7396,12 @@
   <si>
     <t xml:space="preserve">
 765473 </t>
+  </si>
+  <si>
+    <t>/espanol/tipos/uterino/pro/</t>
+  </si>
+  <si>
+    <t>/espanol/tipos/uterino/paciente/</t>
   </si>
 </sst>
 </file>
@@ -13851,7 +13851,7 @@
         <v>1896</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="N90" s="3">
         <f t="shared" si="1"/>
@@ -13897,7 +13897,7 @@
         <v>1897</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="N91" s="3">
         <f t="shared" si="1"/>
@@ -19776,10 +19776,10 @@
       </c>
       <c r="K221" s="3"/>
       <c r="L221" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="M221" s="3" t="s">
         <v>2238</v>
-      </c>
-      <c r="M221" s="3" t="s">
-        <v>2240</v>
       </c>
       <c r="N221" s="3">
         <f t="shared" si="3"/>
@@ -19820,10 +19820,10 @@
       </c>
       <c r="K222" s="3"/>
       <c r="L222" s="3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="M222" s="3" t="s">
         <v>2239</v>
-      </c>
-      <c r="M222" s="3" t="s">
-        <v>2241</v>
       </c>
       <c r="N222" s="3">
         <f t="shared" si="3"/>
@@ -24391,7 +24391,7 @@
         <v>1172</v>
       </c>
       <c r="M324" s="3" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="N324" s="3">
         <f t="shared" ref="N324:N361" si="5">LEN(M324)</f>
@@ -24435,7 +24435,7 @@
         <v>1173</v>
       </c>
       <c r="M325" s="3" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="N325" s="3">
         <f t="shared" si="5"/>
@@ -26164,7 +26164,7 @@
       </c>
       <c r="L364" s="3"/>
       <c r="M364" s="3" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="N364" s="3">
         <f t="shared" si="8"/>
@@ -27500,7 +27500,7 @@
       </c>
       <c r="L394" s="3"/>
       <c r="M394" s="5" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="N394" s="3">
         <f t="shared" si="8"/>
@@ -29142,7 +29142,7 @@
       </c>
       <c r="L431" s="3"/>
       <c r="M431" s="3" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="N431" s="3">
         <f t="shared" si="11"/>
@@ -29186,7 +29186,7 @@
       <c r="K432" s="13"/>
       <c r="L432" s="3"/>
       <c r="M432" s="3" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="N432" s="3">
         <f t="shared" si="11"/>
@@ -29274,7 +29274,7 @@
       <c r="K434" s="13"/>
       <c r="L434" s="3"/>
       <c r="M434" s="3" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="N434" s="3">
         <f t="shared" si="11"/>
@@ -29406,7 +29406,7 @@
       <c r="K437" s="13"/>
       <c r="L437" s="3"/>
       <c r="M437" s="3" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N437" s="3">
         <f t="shared" si="11"/>
@@ -29538,7 +29538,7 @@
       <c r="K440" s="13"/>
       <c r="L440" s="3"/>
       <c r="M440" s="3" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="N440" s="3">
         <f t="shared" si="11"/>
@@ -29714,7 +29714,7 @@
       <c r="K444" s="13"/>
       <c r="L444" s="3"/>
       <c r="M444" s="3" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="N444" s="3">
         <f t="shared" si="11"/>
@@ -29938,7 +29938,7 @@
       <c r="K449" s="13"/>
       <c r="L449" s="3"/>
       <c r="M449" s="5" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="N449" s="3">
         <f t="shared" si="11"/>
@@ -30254,7 +30254,7 @@
       </c>
       <c r="L456" s="3"/>
       <c r="M456" s="5" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="N456" s="3">
         <f t="shared" si="11"/>
@@ -30346,7 +30346,7 @@
       </c>
       <c r="L458" s="3"/>
       <c r="M458" s="5" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="N458" s="3">
         <f t="shared" si="11"/>
@@ -30480,7 +30480,7 @@
       <c r="K461" s="13"/>
       <c r="L461" s="3"/>
       <c r="M461" s="5" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="N461" s="3">
         <f t="shared" si="11"/>
@@ -30568,7 +30568,7 @@
       <c r="K463" s="13"/>
       <c r="L463" s="3"/>
       <c r="M463" s="5" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="N463" s="3">
         <f t="shared" si="11"/>
@@ -30612,7 +30612,7 @@
       <c r="K464" s="13"/>
       <c r="L464" s="3"/>
       <c r="M464" s="5" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="N464" s="3">
         <f t="shared" si="11"/>
@@ -30744,7 +30744,7 @@
       <c r="K467" s="13"/>
       <c r="L467" s="3"/>
       <c r="M467" s="5" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="N467" s="3">
         <f t="shared" si="11"/>
@@ -30920,7 +30920,7 @@
       <c r="K471" s="13"/>
       <c r="L471" s="3"/>
       <c r="M471" s="5" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="N471" s="3">
         <f t="shared" si="11"/>
@@ -34002,7 +34002,7 @@
       </c>
       <c r="L538" s="3"/>
       <c r="M538" s="3" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="N538" s="3">
         <f t="shared" si="14"/>
@@ -34232,7 +34232,7 @@
       </c>
       <c r="L543" s="3"/>
       <c r="M543" s="3" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N543" s="3">
         <f t="shared" si="14"/>
@@ -34830,7 +34830,7 @@
       </c>
       <c r="L556" s="3"/>
       <c r="M556" s="3" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N556" s="3">
         <f t="shared" si="17"/>
@@ -35146,7 +35146,7 @@
       <c r="K563" s="13"/>
       <c r="L563" s="3"/>
       <c r="M563" s="5" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="N563" s="3">
         <f t="shared" si="17"/>
@@ -35236,7 +35236,7 @@
       </c>
       <c r="L565" s="3"/>
       <c r="M565" s="5" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N565" s="3">
         <f t="shared" si="17"/>
@@ -35466,7 +35466,7 @@
       </c>
       <c r="L570" s="3"/>
       <c r="M570" s="5" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="N570" s="3">
         <f t="shared" si="17"/>
@@ -35788,7 +35788,7 @@
       </c>
       <c r="L577" s="3"/>
       <c r="M577" s="5" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="N577" s="3">
         <f t="shared" si="17"/>
@@ -35834,7 +35834,7 @@
       </c>
       <c r="L578" s="3"/>
       <c r="M578" s="5" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="N578" s="3">
         <f t="shared" si="17"/>
@@ -35972,7 +35972,7 @@
       </c>
       <c r="L581" s="3"/>
       <c r="M581" s="5" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="N581" s="3">
         <f t="shared" si="17"/>
@@ -36018,7 +36018,7 @@
       </c>
       <c r="L582" s="3"/>
       <c r="M582" s="5" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="N582" s="3">
         <f t="shared" si="17"/>
@@ -36156,7 +36156,7 @@
       </c>
       <c r="L585" s="3"/>
       <c r="M585" s="5" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="N585" s="3">
         <f t="shared" si="17"/>
@@ -36202,7 +36202,7 @@
       </c>
       <c r="L586" s="3"/>
       <c r="M586" s="5" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="N586" s="3">
         <f t="shared" si="17"/>
@@ -36340,7 +36340,7 @@
       </c>
       <c r="L589" s="3"/>
       <c r="M589" s="5" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="N589" s="3">
         <f t="shared" si="17"/>
@@ -36386,7 +36386,7 @@
       </c>
       <c r="L590" s="3"/>
       <c r="M590" s="5" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="N590" s="3">
         <f t="shared" si="17"/>
@@ -36524,7 +36524,7 @@
       </c>
       <c r="L593" s="3"/>
       <c r="M593" s="5" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="N593" s="3">
         <f t="shared" si="17"/>
@@ -36570,7 +36570,7 @@
       </c>
       <c r="L594" s="3"/>
       <c r="M594" s="5" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="N594" s="3">
         <f t="shared" si="17"/>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="L597" s="3"/>
       <c r="M597" s="5" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="N597" s="3">
         <f t="shared" si="17"/>
@@ -36754,7 +36754,7 @@
       </c>
       <c r="L598" s="3"/>
       <c r="M598" s="5" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="N598" s="3">
         <f t="shared" si="17"/>
@@ -36892,7 +36892,7 @@
       </c>
       <c r="L601" s="3"/>
       <c r="M601" s="5" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="N601" s="3">
         <f t="shared" si="17"/>
@@ -36984,7 +36984,7 @@
       </c>
       <c r="L603" s="3"/>
       <c r="M603" s="5" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="N603" s="3">
         <f t="shared" si="17"/>
@@ -37122,7 +37122,7 @@
       </c>
       <c r="L606" s="3"/>
       <c r="M606" s="5" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="N606" s="3">
         <f t="shared" si="17"/>
@@ -37214,7 +37214,7 @@
       </c>
       <c r="L608" s="3"/>
       <c r="M608" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="N608" s="3">
         <f t="shared" si="17"/>
@@ -37352,7 +37352,7 @@
       </c>
       <c r="L611" s="3"/>
       <c r="M611" s="5" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="N611" s="3">
         <f t="shared" si="17"/>
@@ -37444,7 +37444,7 @@
       </c>
       <c r="L613" s="3"/>
       <c r="M613" s="5" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="N613" s="3">
         <f t="shared" si="17"/>
@@ -37536,7 +37536,7 @@
       </c>
       <c r="L615" s="3"/>
       <c r="M615" s="5" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="N615" s="3">
         <f t="shared" si="17"/>
@@ -37766,7 +37766,7 @@
       </c>
       <c r="L620" s="3"/>
       <c r="M620" s="5" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="N620" s="3">
         <f t="shared" si="20"/>
@@ -38088,7 +38088,7 @@
       </c>
       <c r="L627" s="3"/>
       <c r="M627" s="5" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="N627" s="3">
         <f t="shared" si="20"/>
@@ -38134,7 +38134,7 @@
       </c>
       <c r="L628" s="3"/>
       <c r="M628" s="5" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="N628" s="3">
         <f t="shared" si="20"/>
@@ -38272,7 +38272,7 @@
       </c>
       <c r="L631" s="3"/>
       <c r="M631" s="5" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="N631" s="3">
         <f t="shared" si="20"/>
@@ -38452,7 +38452,7 @@
       <c r="K635" s="13"/>
       <c r="L635" s="3"/>
       <c r="M635" s="5" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="N635" s="3">
         <f t="shared" si="20"/>
@@ -38544,7 +38544,7 @@
       </c>
       <c r="L637" s="3"/>
       <c r="M637" s="5" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="N637" s="3">
         <f t="shared" si="20"/>
@@ -38588,7 +38588,7 @@
       <c r="K638" s="13"/>
       <c r="L638" s="3"/>
       <c r="M638" s="5" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="N638" s="3">
         <f t="shared" si="20"/>
@@ -38956,7 +38956,7 @@
       </c>
       <c r="L646" s="3"/>
       <c r="M646" s="5" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="N646" s="3">
         <f t="shared" si="20"/>
@@ -39278,7 +39278,7 @@
       </c>
       <c r="L653" s="3"/>
       <c r="M653" s="5" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N653" s="3">
         <f t="shared" si="20"/>
@@ -39370,7 +39370,7 @@
       </c>
       <c r="L655" s="3"/>
       <c r="M655" s="5" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="N655" s="3">
         <f t="shared" si="20"/>
@@ -39903,8 +39903,8 @@
   <dimension ref="A1:N672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B671" sqref="B671"/>
+      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -43030,7 +43030,7 @@
         <v>2070</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="12" t="s">
@@ -43068,7 +43068,7 @@
         <v>2071</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="12" t="s">
@@ -43106,7 +43106,7 @@
         <v>2070</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="12" t="s">
@@ -43146,7 +43146,7 @@
         <v>2070</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="12" t="s">
@@ -45164,7 +45164,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>10</v>
@@ -45288,7 +45288,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>10</v>
@@ -47501,7 +47501,7 @@
         <v>454520</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>2045</v>
@@ -50094,7 +50094,7 @@
         <v>2070</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D259" s="22"/>
       <c r="E259" s="12" t="s">
@@ -50134,7 +50134,7 @@
         <v>2118</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D260" s="22"/>
       <c r="E260" s="12" t="s">
@@ -50172,7 +50172,7 @@
         <v>2070</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D261" s="22"/>
       <c r="E261" s="12" t="s">
@@ -52108,7 +52108,7 @@
         <v>2</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="F308" s="5" t="s">
         <v>15</v>
@@ -52232,7 +52232,7 @@
         <v>5</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>15</v>
@@ -54246,7 +54246,7 @@
       </c>
       <c r="D361" s="25"/>
       <c r="E361" s="3" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F361" s="13" t="s">
         <v>10</v>
@@ -54282,7 +54282,7 @@
       </c>
       <c r="D362" s="25"/>
       <c r="E362" s="3" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="F362" s="13" t="s">
         <v>10</v>
@@ -54318,7 +54318,7 @@
       </c>
       <c r="D363" s="25"/>
       <c r="E363" s="3" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F363" s="13" t="s">
         <v>10</v>
@@ -54428,7 +54428,7 @@
       </c>
       <c r="D366" s="25"/>
       <c r="E366" s="3" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="F366" s="13" t="s">
         <v>10</v>
@@ -54688,7 +54688,7 @@
       </c>
       <c r="D373" s="25"/>
       <c r="E373" s="3" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F373" s="13" t="s">
         <v>10</v>
@@ -54798,7 +54798,7 @@
       </c>
       <c r="D376" s="25"/>
       <c r="E376" s="3" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F376" s="13" t="s">
         <v>10</v>
@@ -54834,7 +54834,7 @@
       </c>
       <c r="D377" s="25"/>
       <c r="E377" s="3" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F377" s="13" t="s">
         <v>10</v>
@@ -54906,7 +54906,7 @@
       </c>
       <c r="D379" s="25"/>
       <c r="E379" s="3" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F379" s="13" t="s">
         <v>10</v>
@@ -55052,7 +55052,7 @@
       </c>
       <c r="D383" s="25"/>
       <c r="E383" s="3" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F383" s="13" t="s">
         <v>10</v>
@@ -55088,7 +55088,7 @@
       </c>
       <c r="D384" s="25"/>
       <c r="E384" s="3" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="F384" s="13" t="s">
         <v>10</v>
@@ -55126,7 +55126,7 @@
       </c>
       <c r="D385" s="25"/>
       <c r="E385" s="3" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="F385" s="13" t="s">
         <v>10</v>
@@ -55238,7 +55238,7 @@
       </c>
       <c r="D388" s="25"/>
       <c r="E388" s="3" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="F388" s="13" t="s">
         <v>10</v>
@@ -55278,7 +55278,7 @@
       </c>
       <c r="D389" s="25"/>
       <c r="E389" s="3" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F389" s="13" t="s">
         <v>10</v>
@@ -55469,14 +55469,14 @@
         <v>256753</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="C394" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D394" s="25"/>
       <c r="E394" s="3" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="F394" s="13" t="s">
         <v>10</v>
@@ -55509,14 +55509,14 @@
         <v>256752</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="C395" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D395" s="25"/>
       <c r="E395" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="F395" s="13" t="s">
         <v>10</v>
@@ -55912,7 +55912,7 @@
       </c>
       <c r="D405" s="25"/>
       <c r="E405" s="3" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="F405" s="13" t="s">
         <v>10</v>
@@ -55952,7 +55952,7 @@
       </c>
       <c r="D406" s="25"/>
       <c r="E406" s="3" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="F406" s="13" t="s">
         <v>10</v>
@@ -56072,7 +56072,7 @@
       </c>
       <c r="D409" s="25"/>
       <c r="E409" s="3" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="F409" s="13" t="s">
         <v>10</v>
@@ -56152,7 +56152,7 @@
       </c>
       <c r="D411" s="25"/>
       <c r="E411" s="3" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="F411" s="13" t="s">
         <v>10</v>
@@ -56192,7 +56192,7 @@
       </c>
       <c r="D412" s="25"/>
       <c r="E412" s="3" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="F412" s="13" t="s">
         <v>10</v>
@@ -56348,7 +56348,7 @@
       </c>
       <c r="D416" s="25"/>
       <c r="E416" s="3" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F416" s="13" t="s">
         <v>10</v>
@@ -56497,14 +56497,14 @@
         <v>756922</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>2165</v>
+        <v>2444</v>
       </c>
       <c r="C420" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D420" s="25"/>
       <c r="E420" s="3" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="F420" s="13" t="s">
         <v>10</v>
@@ -56535,14 +56535,14 @@
         <v>756921</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>2165</v>
+        <v>2444</v>
       </c>
       <c r="C421" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D421" s="25"/>
       <c r="E421" s="3" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="F421" s="13" t="s">
         <v>10</v>
@@ -56573,14 +56573,14 @@
         <v>256709</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>2165</v>
+        <v>2444</v>
       </c>
       <c r="C422" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D422" s="25"/>
       <c r="E422" s="3" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F422" s="13" t="s">
         <v>10</v>
@@ -56613,14 +56613,14 @@
         <v>256741</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>2165</v>
+        <v>2444</v>
       </c>
       <c r="C423" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="3" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="F423" s="13" t="s">
         <v>10</v>
@@ -56653,7 +56653,7 @@
         <v>757230</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C424" s="13" t="s">
         <v>2045</v>
@@ -56691,7 +56691,7 @@
         <v>757228</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C425" s="13" t="s">
         <v>2045</v>
@@ -56729,7 +56729,7 @@
         <v>256679</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C426" s="13" t="s">
         <v>2045</v>
@@ -56769,7 +56769,7 @@
         <v>760619</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C427" s="13" t="s">
         <v>2045</v>
@@ -56809,7 +56809,7 @@
         <v>760617</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C428" s="13" t="s">
         <v>2045</v>
@@ -56849,7 +56849,7 @@
         <v>256670</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C429" s="13" t="s">
         <v>2045</v>
@@ -56889,14 +56889,14 @@
         <v>256755</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="C430" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D430" s="25"/>
       <c r="E430" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="F430" s="13" t="s">
         <v>10</v>
@@ -56929,14 +56929,14 @@
         <v>256742</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="C431" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D431" s="25"/>
       <c r="E431" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="F431" s="13" t="s">
         <v>10</v>
@@ -56969,7 +56969,7 @@
         <v>687776</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C432" s="13" t="s">
         <v>2045</v>
@@ -57009,14 +57009,14 @@
         <v>256710</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="C433" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D433" s="25"/>
       <c r="E433" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F433" s="13" t="s">
         <v>10</v>
@@ -57049,14 +57049,14 @@
         <v>759063</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C434" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D434" s="25"/>
       <c r="E434" s="3" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="F434" s="13" t="s">
         <v>10</v>
@@ -57087,7 +57087,7 @@
         <v>759357</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C435" s="13" t="s">
         <v>2045</v>
@@ -57127,7 +57127,7 @@
         <v>256692</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C436" s="13" t="s">
         <v>2045</v>
@@ -57167,7 +57167,7 @@
         <v>256711</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C437" s="13" t="s">
         <v>2045</v>
@@ -57207,14 +57207,14 @@
         <v>256712</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C438" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D438" s="25"/>
       <c r="E438" s="3" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F438" s="13" t="s">
         <v>10</v>
@@ -57247,7 +57247,7 @@
         <v>256720</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C439" s="13" t="s">
         <v>2045</v>
@@ -57287,14 +57287,14 @@
         <v>598505</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C440" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D440" s="25"/>
       <c r="E440" s="3" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F440" s="13" t="s">
         <v>10</v>
@@ -57325,14 +57325,14 @@
         <v>371825</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C441" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D441" s="25"/>
       <c r="E441" s="3" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F441" s="13" t="s">
         <v>10</v>
@@ -57363,14 +57363,14 @@
         <v>728604</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C442" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D442" s="25"/>
       <c r="E442" s="3" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="F442" s="13" t="s">
         <v>10</v>
@@ -57401,14 +57401,14 @@
         <v>256757</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C443" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D443" s="25"/>
       <c r="E443" s="3" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F443" s="13" t="s">
         <v>10</v>
@@ -57441,14 +57441,14 @@
         <v>256708</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C444" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="3" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F444" s="13" t="s">
         <v>10</v>
@@ -57481,14 +57481,14 @@
         <v>641243</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C445" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D445" s="25"/>
       <c r="E445" s="3" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="F445" s="13" t="s">
         <v>10</v>
@@ -57521,7 +57521,7 @@
         <v>256695</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C446" s="13" t="s">
         <v>2045</v>
@@ -57561,14 +57561,14 @@
         <v>256671</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C447" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D447" s="25"/>
       <c r="E447" s="3" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="F447" s="13" t="s">
         <v>10</v>
@@ -57601,14 +57601,14 @@
         <v>256696</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C448" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D448" s="25"/>
       <c r="E448" s="3" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="F448" s="13" t="s">
         <v>10</v>
@@ -57641,14 +57641,14 @@
         <v>256703</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C449" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D449" s="25"/>
       <c r="E449" s="3" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="F449" s="13" t="s">
         <v>10</v>
@@ -57681,7 +57681,7 @@
         <v>256730</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C450" s="13" t="s">
         <v>2045</v>
@@ -57721,14 +57721,14 @@
         <v>256694</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C451" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D451" s="25"/>
       <c r="E451" s="3" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="F451" s="13" t="s">
         <v>10</v>
@@ -57761,14 +57761,14 @@
         <v>256697</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C452" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D452" s="25"/>
       <c r="E452" s="3" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="F452" s="13" t="s">
         <v>10</v>
@@ -57801,7 +57801,7 @@
         <v>256736</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C453" s="13" t="s">
         <v>2045</v>
@@ -57841,14 +57841,14 @@
         <v>256689</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C454" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D454" s="25"/>
       <c r="E454" s="3" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="F454" s="13" t="s">
         <v>10</v>
@@ -57881,14 +57881,14 @@
         <v>256666</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C455" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D455" s="25"/>
       <c r="E455" s="3" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="F455" s="13" t="s">
         <v>10</v>
@@ -57921,14 +57921,14 @@
         <v>256746</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C456" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D456" s="25"/>
       <c r="E456" s="3" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="F456" s="13" t="s">
         <v>10</v>
@@ -57961,7 +57961,7 @@
         <v>256758</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C457" s="13" t="s">
         <v>2045</v>
@@ -58001,14 +58001,14 @@
         <v>256677</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C458" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D458" s="25"/>
       <c r="E458" s="3" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="F458" s="13" t="s">
         <v>10</v>
@@ -58041,7 +58041,7 @@
         <v>256743</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C459" s="13" t="s">
         <v>2045</v>
@@ -58081,7 +58081,7 @@
         <v>256702</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C460" s="13" t="s">
         <v>2045</v>
@@ -58121,14 +58121,14 @@
         <v>256756</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C461" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="3" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="F461" s="13" t="s">
         <v>10</v>
@@ -58161,14 +58161,14 @@
         <v>256731</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C462" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D462" s="25"/>
       <c r="E462" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="F462" s="13" t="s">
         <v>10</v>
@@ -58201,14 +58201,14 @@
         <v>341116</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C463" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="3" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="F463" s="13" t="s">
         <v>10</v>
@@ -58241,14 +58241,14 @@
         <v>256733</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C464" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D464" s="25"/>
       <c r="E464" s="3" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="F464" s="13" t="s">
         <v>10</v>
@@ -58279,7 +58279,7 @@
         <v>760795</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C465" s="13" t="s">
         <v>2045</v>
@@ -58317,7 +58317,7 @@
         <v>256683</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C466" s="13" t="s">
         <v>2045</v>
@@ -58357,7 +58357,7 @@
         <v>256721</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C467" s="13" t="s">
         <v>2045</v>
@@ -58397,7 +58397,7 @@
         <v>755032</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C468" s="13" t="s">
         <v>2045</v>
@@ -58435,7 +58435,7 @@
         <v>755030</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C469" s="13" t="s">
         <v>2045</v>
@@ -58473,7 +58473,7 @@
         <v>256738</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C470" s="13" t="s">
         <v>2045</v>
@@ -58513,7 +58513,7 @@
         <v>256691</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C471" s="13" t="s">
         <v>2045</v>
@@ -58553,7 +58553,7 @@
         <v>256745</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C472" s="13" t="s">
         <v>2045</v>
@@ -58593,7 +58593,7 @@
         <v>256674</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C473" s="13" t="s">
         <v>2045</v>
@@ -58633,14 +58633,14 @@
         <v>256687</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C474" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D474" s="25"/>
       <c r="E474" s="3" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="F474" s="13" t="s">
         <v>10</v>
@@ -58673,7 +58673,7 @@
         <v>256684</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C475" s="13" t="s">
         <v>2045</v>
@@ -58713,14 +58713,14 @@
         <v>256704</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C476" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D476" s="25"/>
       <c r="E476" s="3" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F476" s="13" t="s">
         <v>10</v>
@@ -58753,7 +58753,7 @@
         <v>751557</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C477" s="13" t="s">
         <v>2045</v>
@@ -58791,7 +58791,7 @@
         <v>751555</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C478" s="13" t="s">
         <v>2045</v>
@@ -58829,7 +58829,7 @@
         <v>256759</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C479" s="13" t="s">
         <v>2045</v>
@@ -58869,7 +58869,7 @@
         <v>256722</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C480" s="13" t="s">
         <v>2045</v>
@@ -58909,7 +58909,7 @@
         <v>256715</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C481" s="13" t="s">
         <v>2045</v>
@@ -58949,7 +58949,7 @@
         <v>256739</v>
       </c>
       <c r="B482" s="13" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C482" s="13" t="s">
         <v>2045</v>
@@ -58989,7 +58989,7 @@
         <v>747922</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C483" s="13" t="s">
         <v>2045</v>
@@ -59027,7 +59027,7 @@
         <v>747947</v>
       </c>
       <c r="B484" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C484" s="13" t="s">
         <v>2045</v>
@@ -59065,7 +59065,7 @@
         <v>256716</v>
       </c>
       <c r="B485" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C485" s="13" t="s">
         <v>2045</v>
@@ -59105,7 +59105,7 @@
         <v>700433</v>
       </c>
       <c r="B486" s="13" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C486" s="13" t="s">
         <v>2045</v>
@@ -59143,7 +59143,7 @@
         <v>733624</v>
       </c>
       <c r="B487" s="13" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C487" s="13" t="s">
         <v>2045</v>
@@ -59181,7 +59181,7 @@
         <v>256672</v>
       </c>
       <c r="B488" s="13" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C488" s="13" t="s">
         <v>2045</v>
@@ -59221,7 +59221,7 @@
         <v>256673</v>
       </c>
       <c r="B489" s="13" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C489" s="13" t="s">
         <v>2045</v>
@@ -59261,7 +59261,7 @@
         <v>256693</v>
       </c>
       <c r="B490" s="13" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C490" s="13" t="s">
         <v>2045</v>
@@ -59301,14 +59301,14 @@
         <v>256740</v>
       </c>
       <c r="B491" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C491" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D491" s="25"/>
       <c r="E491" s="3" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F491" s="13" t="s">
         <v>10</v>
@@ -59341,7 +59341,7 @@
         <v>256701</v>
       </c>
       <c r="B492" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C492" s="13" t="s">
         <v>2045</v>
@@ -59381,7 +59381,7 @@
         <v>256685</v>
       </c>
       <c r="B493" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C493" s="13" t="s">
         <v>2045</v>
@@ -59421,14 +59421,14 @@
         <v>697331</v>
       </c>
       <c r="B494" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C494" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D494" s="25"/>
       <c r="E494" s="3" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="F494" s="13" t="s">
         <v>10</v>
@@ -59461,7 +59461,7 @@
         <v>256719</v>
       </c>
       <c r="B495" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C495" s="13" t="s">
         <v>2045</v>
@@ -59501,7 +59501,7 @@
         <v>256686</v>
       </c>
       <c r="B496" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C496" s="13" t="s">
         <v>2045</v>
@@ -59541,14 +59541,14 @@
         <v>256690</v>
       </c>
       <c r="B497" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C497" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D497" s="25"/>
       <c r="E497" s="3" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="F497" s="13" t="s">
         <v>10</v>
@@ -59581,7 +59581,7 @@
         <v>256737</v>
       </c>
       <c r="B498" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C498" s="13" t="s">
         <v>2045</v>
@@ -59621,14 +59621,14 @@
         <v>744470</v>
       </c>
       <c r="B499" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C499" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D499" s="25"/>
       <c r="E499" s="3" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="F499" s="13" t="s">
         <v>10</v>
@@ -59659,7 +59659,7 @@
         <v>744468</v>
       </c>
       <c r="B500" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C500" s="13" t="s">
         <v>2045</v>
@@ -59699,14 +59699,14 @@
         <v>256749</v>
       </c>
       <c r="B501" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C501" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D501" s="25"/>
       <c r="E501" s="3" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="F501" s="13" t="s">
         <v>10</v>
@@ -59739,7 +59739,7 @@
         <v>256747</v>
       </c>
       <c r="B502" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C502" s="13" t="s">
         <v>2045</v>
@@ -59779,7 +59779,7 @@
         <v>256668</v>
       </c>
       <c r="B503" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C503" s="13" t="s">
         <v>2045</v>
@@ -59819,7 +59819,7 @@
         <v>756926</v>
       </c>
       <c r="B504" s="13" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C504" s="13" t="s">
         <v>2045</v>
@@ -59857,7 +59857,7 @@
         <v>256705</v>
       </c>
       <c r="B505" s="13" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C505" s="13" t="s">
         <v>2045</v>
@@ -59897,14 +59897,14 @@
         <v>256717</v>
       </c>
       <c r="B506" s="13" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C506" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D506" s="25"/>
       <c r="E506" s="3" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="F506" s="13" t="s">
         <v>10</v>
@@ -59937,7 +59937,7 @@
         <v>256718</v>
       </c>
       <c r="B507" s="13" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C507" s="13" t="s">
         <v>2045</v>
@@ -59977,14 +59977,14 @@
         <v>256707</v>
       </c>
       <c r="B508" s="13" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C508" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D508" s="25"/>
       <c r="E508" s="3" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="F508" s="13" t="s">
         <v>10</v>
@@ -60017,14 +60017,14 @@
         <v>256700</v>
       </c>
       <c r="B509" s="13" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="C509" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D509" s="25"/>
       <c r="E509" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="F509" s="13" t="s">
         <v>10</v>
@@ -60057,7 +60057,7 @@
         <v>256729</v>
       </c>
       <c r="B510" s="13" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C510" s="13" t="s">
         <v>2045</v>
@@ -60097,7 +60097,7 @@
         <v>256699</v>
       </c>
       <c r="B511" s="13" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C511" s="13" t="s">
         <v>2045</v>
@@ -60137,7 +60137,7 @@
         <v>752812</v>
       </c>
       <c r="B512" s="13" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C512" s="13" t="s">
         <v>2045</v>
@@ -60175,7 +60175,7 @@
         <v>256714</v>
       </c>
       <c r="B513" s="13" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C513" s="13" t="s">
         <v>2045</v>
@@ -60215,7 +60215,7 @@
         <v>256698</v>
       </c>
       <c r="B514" s="13" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C514" s="13" t="s">
         <v>2045</v>
@@ -60260,7 +60260,7 @@
       </c>
       <c r="D515" s="25"/>
       <c r="E515" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="F515" s="13" t="s">
         <v>15</v>
@@ -60296,7 +60296,7 @@
       </c>
       <c r="D516" s="25"/>
       <c r="E516" s="3" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="F516" s="13" t="s">
         <v>15</v>
@@ -60332,7 +60332,7 @@
       </c>
       <c r="D517" s="25"/>
       <c r="E517" s="3" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="F517" s="13" t="s">
         <v>15</v>
@@ -60442,7 +60442,7 @@
       </c>
       <c r="D520" s="25"/>
       <c r="E520" s="3" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="F520" s="13" t="s">
         <v>15</v>
@@ -60666,7 +60666,7 @@
       </c>
       <c r="D526" s="25"/>
       <c r="E526" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="F526" s="13" t="s">
         <v>15</v>
@@ -60776,7 +60776,7 @@
       </c>
       <c r="D529" s="25"/>
       <c r="E529" s="3" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F529" s="13" t="s">
         <v>15</v>
@@ -60884,7 +60884,7 @@
       </c>
       <c r="D532" s="25"/>
       <c r="E532" s="3" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="F532" s="13" t="s">
         <v>15</v>
@@ -61030,7 +61030,7 @@
       </c>
       <c r="D536" s="25"/>
       <c r="E536" s="3" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="F536" s="13" t="s">
         <v>15</v>
@@ -61066,7 +61066,7 @@
       </c>
       <c r="D537" s="25"/>
       <c r="E537" s="3" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="F537" s="13" t="s">
         <v>15</v>
@@ -61104,7 +61104,7 @@
       </c>
       <c r="D538" s="25"/>
       <c r="E538" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="F538" s="13" t="s">
         <v>15</v>
@@ -61135,14 +61135,14 @@
         <v>559804</v>
       </c>
       <c r="B539" s="13" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C539" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D539" s="25"/>
       <c r="E539" s="3" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="F539" s="13" t="s">
         <v>15</v>
@@ -61175,7 +61175,7 @@
         <v>761654</v>
       </c>
       <c r="B540" s="13" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C540" s="13" t="s">
         <v>2045</v>
@@ -61213,7 +61213,7 @@
         <v>256763</v>
       </c>
       <c r="B541" s="13" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C541" s="13" t="s">
         <v>2045</v>
@@ -61253,7 +61253,7 @@
         <v>256820</v>
       </c>
       <c r="B542" s="13" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C542" s="13" t="s">
         <v>2045</v>
@@ -61293,7 +61293,7 @@
         <v>486932</v>
       </c>
       <c r="B543" s="13" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C543" s="13" t="s">
         <v>2045</v>
@@ -61333,14 +61333,14 @@
         <v>583660</v>
       </c>
       <c r="B544" s="13" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C544" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D544" s="25"/>
       <c r="E544" s="3" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="F544" s="13" t="s">
         <v>15</v>
@@ -61373,14 +61373,14 @@
         <v>256846</v>
       </c>
       <c r="B545" s="13" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C545" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D545" s="25"/>
       <c r="E545" s="3" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="F545" s="13" t="s">
         <v>15</v>
@@ -61413,7 +61413,7 @@
         <v>760928</v>
       </c>
       <c r="B546" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C546" s="13" t="s">
         <v>2045</v>
@@ -61451,7 +61451,7 @@
         <v>760926</v>
       </c>
       <c r="B547" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C547" s="13" t="s">
         <v>2045</v>
@@ -61489,7 +61489,7 @@
         <v>509727</v>
       </c>
       <c r="B548" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C548" s="13" t="s">
         <v>2045</v>
@@ -61529,7 +61529,7 @@
         <v>530606</v>
       </c>
       <c r="B549" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C549" s="13" t="s">
         <v>2045</v>
@@ -61569,7 +61569,7 @@
         <v>393556</v>
       </c>
       <c r="B550" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C550" s="13" t="s">
         <v>2045</v>
@@ -61609,7 +61609,7 @@
         <v>256817</v>
       </c>
       <c r="B551" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C551" s="13" t="s">
         <v>2045</v>
@@ -61649,7 +61649,7 @@
         <v>525763</v>
       </c>
       <c r="B552" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C552" s="13" t="s">
         <v>2045</v>
@@ -61689,7 +61689,7 @@
         <v>558933</v>
       </c>
       <c r="B553" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C553" s="13" t="s">
         <v>2045</v>
@@ -61729,7 +61729,7 @@
         <v>665736</v>
       </c>
       <c r="B554" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C554" s="13" t="s">
         <v>2045</v>
@@ -61769,14 +61769,14 @@
         <v>730016</v>
       </c>
       <c r="B555" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C555" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D555" s="25"/>
       <c r="E555" s="3" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="F555" s="13" t="s">
         <v>15</v>
@@ -61809,14 +61809,14 @@
         <v>256800</v>
       </c>
       <c r="B556" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C556" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D556" s="25"/>
       <c r="E556" s="3" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="F556" s="13" t="s">
         <v>15</v>
@@ -61849,7 +61849,7 @@
         <v>600419</v>
       </c>
       <c r="B557" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C557" s="13" t="s">
         <v>2045</v>
@@ -61889,7 +61889,7 @@
         <v>632970</v>
       </c>
       <c r="B558" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C558" s="13" t="s">
         <v>2045</v>
@@ -61929,14 +61929,14 @@
         <v>611985</v>
       </c>
       <c r="B559" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C559" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D559" s="25"/>
       <c r="E559" s="3" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="F559" s="13" t="s">
         <v>15</v>
@@ -61969,7 +61969,7 @@
         <v>256776</v>
       </c>
       <c r="B560" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C560" s="13" t="s">
         <v>2045</v>
@@ -62009,14 +62009,14 @@
         <v>632891</v>
       </c>
       <c r="B561" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C561" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D561" s="25"/>
       <c r="E561" s="3" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="F561" s="13" t="s">
         <v>15</v>
@@ -62049,14 +62049,14 @@
         <v>256848</v>
       </c>
       <c r="B562" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C562" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D562" s="25"/>
       <c r="E562" s="3" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="F562" s="13" t="s">
         <v>15</v>
@@ -62089,7 +62089,7 @@
         <v>744474</v>
       </c>
       <c r="B563" s="13" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C563" s="13" t="s">
         <v>2045</v>
@@ -62127,7 +62127,7 @@
         <v>744473</v>
       </c>
       <c r="B564" s="13" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C564" s="13" t="s">
         <v>2045</v>
@@ -62165,7 +62165,7 @@
         <v>256761</v>
       </c>
       <c r="B565" s="13" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C565" s="13" t="s">
         <v>2045</v>
@@ -62205,14 +62205,14 @@
         <v>256772</v>
       </c>
       <c r="B566" s="13" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C566" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D566" s="25"/>
       <c r="E566" s="3" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="F566" s="13" t="s">
         <v>15</v>
@@ -62245,7 +62245,7 @@
         <v>740255</v>
       </c>
       <c r="B567" s="13" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C567" s="13" t="s">
         <v>2045</v>
@@ -62283,7 +62283,7 @@
         <v>738369</v>
       </c>
       <c r="B568" s="13" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C568" s="13" t="s">
         <v>2045</v>
@@ -62321,7 +62321,7 @@
         <v>256774</v>
       </c>
       <c r="B569" s="13" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C569" s="13" t="s">
         <v>2045</v>
@@ -62361,14 +62361,14 @@
         <v>756923</v>
       </c>
       <c r="B570" s="13" t="s">
-        <v>2205</v>
+        <v>2445</v>
       </c>
       <c r="C570" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D570" s="25"/>
       <c r="E570" s="3" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="F570" s="13" t="s">
         <v>15</v>
@@ -62399,14 +62399,14 @@
         <v>757227</v>
       </c>
       <c r="B571" s="13" t="s">
-        <v>2205</v>
+        <v>2445</v>
       </c>
       <c r="C571" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D571" s="25"/>
       <c r="E571" s="3" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="F571" s="13" t="s">
         <v>15</v>
@@ -62437,14 +62437,14 @@
         <v>256803</v>
       </c>
       <c r="B572" s="13" t="s">
-        <v>2205</v>
+        <v>2445</v>
       </c>
       <c r="C572" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D572" s="25"/>
       <c r="E572" s="3" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="F572" s="13" t="s">
         <v>15</v>
@@ -62477,14 +62477,14 @@
         <v>452962</v>
       </c>
       <c r="B573" s="13" t="s">
-        <v>2205</v>
+        <v>2445</v>
       </c>
       <c r="C573" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D573" s="25"/>
       <c r="E573" s="3" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="F573" s="13" t="s">
         <v>15</v>
@@ -62517,7 +62517,7 @@
         <v>757231</v>
       </c>
       <c r="B574" s="13" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="C574" s="13" t="s">
         <v>2045</v>
@@ -62555,7 +62555,7 @@
         <v>757229</v>
       </c>
       <c r="B575" s="13" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="C575" s="13" t="s">
         <v>2045</v>
@@ -62593,7 +62593,7 @@
         <v>256773</v>
       </c>
       <c r="B576" s="13" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="C576" s="13" t="s">
         <v>2045</v>
@@ -62633,7 +62633,7 @@
         <v>760620</v>
       </c>
       <c r="B577" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C577" s="13" t="s">
         <v>2045</v>
@@ -62673,7 +62673,7 @@
         <v>760618</v>
       </c>
       <c r="B578" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C578" s="13" t="s">
         <v>2045</v>
@@ -62713,7 +62713,7 @@
         <v>256764</v>
       </c>
       <c r="B579" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C579" s="13" t="s">
         <v>2045</v>
@@ -62753,14 +62753,14 @@
         <v>256849</v>
       </c>
       <c r="B580" s="13" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C580" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D580" s="25"/>
       <c r="E580" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="F580" s="13" t="s">
         <v>15</v>
@@ -62793,14 +62793,14 @@
         <v>410912</v>
       </c>
       <c r="B581" s="13" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="C581" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D581" s="25"/>
       <c r="E581" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="F581" s="13" t="s">
         <v>15</v>
@@ -62833,7 +62833,7 @@
         <v>722489</v>
       </c>
       <c r="B582" s="13" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="C582" s="13" t="s">
         <v>2045</v>
@@ -62873,14 +62873,14 @@
         <v>256804</v>
       </c>
       <c r="B583" s="13" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C583" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D583" s="25"/>
       <c r="E583" s="3" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="F583" s="13" t="s">
         <v>15</v>
@@ -62913,14 +62913,14 @@
         <v>759064</v>
       </c>
       <c r="B584" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C584" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D584" s="25"/>
       <c r="E584" s="3" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="F584" s="13" t="s">
         <v>15</v>
@@ -62951,7 +62951,7 @@
         <v>759062</v>
       </c>
       <c r="B585" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C585" s="13" t="s">
         <v>2045</v>
@@ -62991,7 +62991,7 @@
         <v>256786</v>
       </c>
       <c r="B586" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C586" s="13" t="s">
         <v>2045</v>
@@ -63031,7 +63031,7 @@
         <v>256805</v>
       </c>
       <c r="B587" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C587" s="13" t="s">
         <v>2045</v>
@@ -63071,14 +63071,14 @@
         <v>256806</v>
       </c>
       <c r="B588" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C588" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D588" s="25"/>
       <c r="E588" s="3" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="F588" s="13" t="s">
         <v>15</v>
@@ -63111,7 +63111,7 @@
         <v>615278</v>
       </c>
       <c r="B589" s="13" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="C589" s="13" t="s">
         <v>2045</v>
@@ -63151,14 +63151,14 @@
         <v>617025</v>
       </c>
       <c r="B590" s="13" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C590" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D590" s="25"/>
       <c r="E590" s="3" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="F590" s="13" t="s">
         <v>15</v>
@@ -63189,14 +63189,14 @@
         <v>429650</v>
       </c>
       <c r="B591" s="13" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C591" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D591" s="25"/>
       <c r="E591" s="3" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="F591" s="13" t="s">
         <v>15</v>
@@ -63227,14 +63227,14 @@
         <v>256851</v>
       </c>
       <c r="B592" s="13" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C592" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D592" s="25"/>
       <c r="E592" s="3" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="F592" s="13" t="s">
         <v>15</v>
@@ -63267,14 +63267,14 @@
         <v>256802</v>
       </c>
       <c r="B593" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C593" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D593" s="25"/>
       <c r="E593" s="3" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="F593" s="13" t="s">
         <v>15</v>
@@ -63307,14 +63307,14 @@
         <v>682078</v>
       </c>
       <c r="B594" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C594" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D594" s="25"/>
       <c r="E594" s="3" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="F594" s="13" t="s">
         <v>15</v>
@@ -63347,14 +63347,14 @@
         <v>256789</v>
       </c>
       <c r="B595" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C595" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D595" s="25"/>
       <c r="E595" s="3" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="F595" s="13" t="s">
         <v>15</v>
@@ -63387,14 +63387,14 @@
         <v>256765</v>
       </c>
       <c r="B596" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C596" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D596" s="25"/>
       <c r="E596" s="3" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="F596" s="13" t="s">
         <v>15</v>
@@ -63427,14 +63427,14 @@
         <v>256790</v>
       </c>
       <c r="B597" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C597" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D597" s="25"/>
       <c r="E597" s="3" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="F597" s="13" t="s">
         <v>15</v>
@@ -63467,14 +63467,14 @@
         <v>256797</v>
       </c>
       <c r="B598" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C598" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D598" s="25"/>
       <c r="E598" s="3" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="F598" s="13" t="s">
         <v>15</v>
@@ -63507,7 +63507,7 @@
         <v>256824</v>
       </c>
       <c r="B599" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C599" s="13" t="s">
         <v>2045</v>
@@ -63547,14 +63547,14 @@
         <v>256788</v>
       </c>
       <c r="B600" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C600" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D600" s="25"/>
       <c r="E600" s="3" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="F600" s="13" t="s">
         <v>15</v>
@@ -63587,14 +63587,14 @@
         <v>256791</v>
       </c>
       <c r="B601" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C601" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D601" s="25"/>
       <c r="E601" s="3" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="F601" s="13" t="s">
         <v>15</v>
@@ -63627,14 +63627,14 @@
         <v>256760</v>
       </c>
       <c r="B602" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C602" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D602" s="25"/>
       <c r="E602" s="3" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="F602" s="13" t="s">
         <v>15</v>
@@ -63667,14 +63667,14 @@
         <v>426390</v>
       </c>
       <c r="B603" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C603" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D603" s="25"/>
       <c r="E603" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="F603" s="13" t="s">
         <v>15</v>
@@ -63707,7 +63707,7 @@
         <v>433316</v>
       </c>
       <c r="B604" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C604" s="13" t="s">
         <v>2045</v>
@@ -63747,14 +63747,14 @@
         <v>256771</v>
       </c>
       <c r="B605" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C605" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D605" s="25"/>
       <c r="E605" s="3" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="F605" s="13" t="s">
         <v>15</v>
@@ -63787,7 +63787,7 @@
         <v>420913</v>
       </c>
       <c r="B606" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C606" s="13" t="s">
         <v>2045</v>
@@ -63827,7 +63827,7 @@
         <v>256830</v>
       </c>
       <c r="B607" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C607" s="13" t="s">
         <v>2045</v>
@@ -63867,14 +63867,14 @@
         <v>256783</v>
       </c>
       <c r="B608" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C608" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D608" s="25"/>
       <c r="E608" s="3" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="F608" s="13" t="s">
         <v>15</v>
@@ -63907,7 +63907,7 @@
         <v>433305</v>
       </c>
       <c r="B609" s="13" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C609" s="13" t="s">
         <v>2045</v>
@@ -63947,14 +63947,14 @@
         <v>429622</v>
       </c>
       <c r="B610" s="13" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="C610" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D610" s="25"/>
       <c r="E610" s="3" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="F610" s="13" t="s">
         <v>15</v>
@@ -63987,14 +63987,14 @@
         <v>420952</v>
       </c>
       <c r="B611" s="13" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C611" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D611" s="25"/>
       <c r="E611" s="3" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="F611" s="13" t="s">
         <v>15</v>
@@ -64027,14 +64027,14 @@
         <v>453835</v>
       </c>
       <c r="B612" s="13" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C612" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D612" s="25"/>
       <c r="E612" s="3" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="F612" s="13" t="s">
         <v>15</v>
@@ -64067,14 +64067,14 @@
         <v>426393</v>
       </c>
       <c r="B613" s="13" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C613" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D613" s="25"/>
       <c r="E613" s="3" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="F613" s="13" t="s">
         <v>15</v>
@@ -64105,7 +64105,7 @@
         <v>760794</v>
       </c>
       <c r="B614" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C614" s="13" t="s">
         <v>2045</v>
@@ -64143,7 +64143,7 @@
         <v>391227</v>
       </c>
       <c r="B615" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C615" s="13" t="s">
         <v>2045</v>
@@ -64183,7 +64183,7 @@
         <v>537037</v>
       </c>
       <c r="B616" s="13" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="C616" s="13" t="s">
         <v>2045</v>
@@ -64223,7 +64223,7 @@
         <v>755033</v>
       </c>
       <c r="B617" s="13" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C617" s="13" t="s">
         <v>2045</v>
@@ -64261,7 +64261,7 @@
         <v>755031</v>
       </c>
       <c r="B618" s="13" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C618" s="13" t="s">
         <v>2045</v>
@@ -64299,7 +64299,7 @@
         <v>256832</v>
       </c>
       <c r="B619" s="13" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C619" s="13" t="s">
         <v>2045</v>
@@ -64339,7 +64339,7 @@
         <v>256785</v>
       </c>
       <c r="B620" s="13" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C620" s="13" t="s">
         <v>2045</v>
@@ -64379,7 +64379,7 @@
         <v>256839</v>
       </c>
       <c r="B621" s="13" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C621" s="13" t="s">
         <v>2045</v>
@@ -64419,7 +64419,7 @@
         <v>256768</v>
       </c>
       <c r="B622" s="13" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="C622" s="13" t="s">
         <v>2045</v>
@@ -64459,14 +64459,14 @@
         <v>256781</v>
       </c>
       <c r="B623" s="13" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="C623" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D623" s="25"/>
       <c r="E623" s="3" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="F623" s="13" t="s">
         <v>15</v>
@@ -64499,7 +64499,7 @@
         <v>521878</v>
       </c>
       <c r="B624" s="13" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C624" s="13" t="s">
         <v>2045</v>
@@ -64539,7 +64539,7 @@
         <v>502300</v>
       </c>
       <c r="B625" s="13" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="C625" s="13" t="s">
         <v>2045</v>
@@ -64579,7 +64579,7 @@
         <v>751558</v>
       </c>
       <c r="B626" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C626" s="13" t="s">
         <v>2045</v>
@@ -64617,7 +64617,7 @@
         <v>751556</v>
       </c>
       <c r="B627" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C627" s="13" t="s">
         <v>2045</v>
@@ -64655,7 +64655,7 @@
         <v>470863</v>
       </c>
       <c r="B628" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C628" s="13" t="s">
         <v>2045</v>
@@ -64695,7 +64695,7 @@
         <v>256816</v>
       </c>
       <c r="B629" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C629" s="13" t="s">
         <v>2045</v>
@@ -64735,7 +64735,7 @@
         <v>256809</v>
       </c>
       <c r="B630" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C630" s="13" t="s">
         <v>2045</v>
@@ -64775,7 +64775,7 @@
         <v>256833</v>
       </c>
       <c r="B631" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="C631" s="13" t="s">
         <v>2045</v>
@@ -64815,7 +64815,7 @@
         <v>750632</v>
       </c>
       <c r="B632" s="13" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C632" s="13" t="s">
         <v>2045</v>
@@ -64853,7 +64853,7 @@
         <v>750593</v>
       </c>
       <c r="B633" s="13" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C633" s="13" t="s">
         <v>2045</v>
@@ -64891,7 +64891,7 @@
         <v>256810</v>
       </c>
       <c r="B634" s="13" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C634" s="13" t="s">
         <v>2045</v>
@@ -64931,7 +64931,7 @@
         <v>700560</v>
       </c>
       <c r="B635" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C635" s="13" t="s">
         <v>2045</v>
@@ -64969,7 +64969,7 @@
         <v>729199</v>
       </c>
       <c r="B636" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C636" s="13" t="s">
         <v>2045</v>
@@ -65007,7 +65007,7 @@
         <v>256766</v>
       </c>
       <c r="B637" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C637" s="13" t="s">
         <v>2045</v>
@@ -65047,7 +65047,7 @@
         <v>256767</v>
       </c>
       <c r="B638" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C638" s="13" t="s">
         <v>2045</v>
@@ -65087,7 +65087,7 @@
         <v>448617</v>
       </c>
       <c r="B639" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C639" s="13" t="s">
         <v>2045</v>
@@ -65127,14 +65127,14 @@
         <v>256834</v>
       </c>
       <c r="B640" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C640" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D640" s="25"/>
       <c r="E640" s="3" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="F640" s="13" t="s">
         <v>15</v>
@@ -65167,7 +65167,7 @@
         <v>256795</v>
       </c>
       <c r="B641" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C641" s="13" t="s">
         <v>2045</v>
@@ -65207,7 +65207,7 @@
         <v>483772</v>
       </c>
       <c r="B642" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C642" s="13" t="s">
         <v>2045</v>
@@ -65247,14 +65247,14 @@
         <v>710915</v>
       </c>
       <c r="B643" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C643" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D643" s="25"/>
       <c r="E643" s="3" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="F643" s="13" t="s">
         <v>15</v>
@@ -65287,7 +65287,7 @@
         <v>529998</v>
       </c>
       <c r="B644" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C644" s="13" t="s">
         <v>2045</v>
@@ -65327,7 +65327,7 @@
         <v>579418</v>
       </c>
       <c r="B645" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C645" s="13" t="s">
         <v>2045</v>
@@ -65367,14 +65367,14 @@
         <v>520407</v>
       </c>
       <c r="B646" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C646" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D646" s="25"/>
       <c r="E646" s="3" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="F646" s="13" t="s">
         <v>15</v>
@@ -65407,7 +65407,7 @@
         <v>561391</v>
       </c>
       <c r="B647" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C647" s="13" t="s">
         <v>2045</v>
@@ -65447,14 +65447,14 @@
         <v>744471</v>
       </c>
       <c r="B648" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C648" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D648" s="25"/>
       <c r="E648" s="3" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="F648" s="13" t="s">
         <v>15</v>
@@ -65485,7 +65485,7 @@
         <v>744469</v>
       </c>
       <c r="B649" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C649" s="13" t="s">
         <v>2045</v>
@@ -65525,14 +65525,14 @@
         <v>256843</v>
       </c>
       <c r="B650" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C650" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D650" s="25"/>
       <c r="E650" s="3" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="F650" s="13" t="s">
         <v>15</v>
@@ -65565,7 +65565,7 @@
         <v>256841</v>
       </c>
       <c r="B651" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C651" s="13" t="s">
         <v>2045</v>
@@ -65605,7 +65605,7 @@
         <v>256762</v>
       </c>
       <c r="B652" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C652" s="13" t="s">
         <v>2045</v>
@@ -65645,7 +65645,7 @@
         <v>756927</v>
       </c>
       <c r="B653" s="13" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="C653" s="13" t="s">
         <v>2045</v>
@@ -65683,7 +65683,7 @@
         <v>256799</v>
       </c>
       <c r="B654" s="13" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="C654" s="13" t="s">
         <v>2045</v>
@@ -65723,14 +65723,14 @@
         <v>441068</v>
       </c>
       <c r="B655" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="C655" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D655" s="25"/>
       <c r="E655" s="3" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="F655" s="13" t="s">
         <v>15</v>
@@ -65763,7 +65763,7 @@
         <v>584552</v>
       </c>
       <c r="B656" s="13" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="C656" s="13" t="s">
         <v>2045</v>
@@ -65803,14 +65803,14 @@
         <v>256801</v>
       </c>
       <c r="B657" s="13" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="C657" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D657" s="25"/>
       <c r="E657" s="3" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="F657" s="13" t="s">
         <v>15</v>
@@ -65843,14 +65843,14 @@
         <v>256794</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="C658" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D658" s="25"/>
       <c r="E658" s="3" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="F658" s="13" t="s">
         <v>15</v>
@@ -65883,7 +65883,7 @@
         <v>482337</v>
       </c>
       <c r="B659" s="13" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="C659" s="13" t="s">
         <v>2045</v>
@@ -65923,7 +65923,7 @@
         <v>452956</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="C660" s="13" t="s">
         <v>2045</v>
@@ -65963,7 +65963,7 @@
         <v>752320</v>
       </c>
       <c r="B661" s="13" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="C661" s="13" t="s">
         <v>2045</v>
@@ -66001,7 +66001,7 @@
         <v>256808</v>
       </c>
       <c r="B662" s="13" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="C662" s="13" t="s">
         <v>2045</v>
@@ -66041,7 +66041,7 @@
         <v>452963</v>
       </c>
       <c r="B663" s="13" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="C663" s="13" t="s">
         <v>2045</v>
@@ -66120,7 +66120,7 @@
       </c>
       <c r="D665" s="26"/>
       <c r="E665" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="F665" s="17" t="s">
         <v>15</v>
@@ -66154,7 +66154,7 @@
         <v>2044</v>
       </c>
       <c r="E666" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="F666" s="13" t="s">
         <v>10</v>
@@ -66163,19 +66163,19 @@
         <v>1181</v>
       </c>
       <c r="H666" s="2" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="J666" s="13" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="K666" s="13" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="M666" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N666" s="28" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.25">
@@ -66186,7 +66186,7 @@
         <v>2044</v>
       </c>
       <c r="E667" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="F667" s="13" t="s">
         <v>15</v>
@@ -66195,19 +66195,19 @@
         <v>1181</v>
       </c>
       <c r="H667" s="2" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="J667" s="13" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="K667" s="13" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="M667" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N667" s="28" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.25">
@@ -66218,7 +66218,7 @@
         <v>2044</v>
       </c>
       <c r="E668" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="F668" s="13" t="s">
         <v>10</v>
@@ -66227,19 +66227,19 @@
         <v>1181</v>
       </c>
       <c r="H668" s="28" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="J668" s="13" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="K668" s="28" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="M668" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N668" s="28" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.25">
@@ -66250,7 +66250,7 @@
         <v>2044</v>
       </c>
       <c r="E669" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="F669" s="13" t="s">
         <v>15</v>
@@ -66259,19 +66259,19 @@
         <v>1181</v>
       </c>
       <c r="H669" s="28" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="J669" s="13" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="K669" s="28" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="M669" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N669" s="28" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.25">
@@ -66282,7 +66282,7 @@
         <v>2044</v>
       </c>
       <c r="E670" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="F670" s="13" t="s">
         <v>10</v>
@@ -66291,33 +66291,33 @@
         <v>1181</v>
       </c>
       <c r="H670" s="28" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="I670" s="28" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="J670" s="13" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="K670" s="28" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="M670" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N670" s="28" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A671" s="13" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C671" s="28" t="s">
         <v>2044</v>
       </c>
       <c r="E671" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="F671" s="13" t="s">
         <v>15</v>
@@ -66326,22 +66326,22 @@
         <v>1181</v>
       </c>
       <c r="H671" s="28" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="I671" s="28" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="J671" s="13" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="K671" s="28" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="M671" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N671" s="28" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.25">
@@ -66361,22 +66361,22 @@
         <v>1181</v>
       </c>
       <c r="H672" s="28" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="I672" s="28" t="s">
+        <v>2440</v>
+      </c>
+      <c r="J672" s="13" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K672" s="28" t="s">
         <v>2442</v>
-      </c>
-      <c r="J672" s="13" t="s">
-        <v>2442</v>
-      </c>
-      <c r="K672" s="28" t="s">
-        <v>2444</v>
       </c>
       <c r="M672" s="29" t="s">
         <v>12</v>
       </c>
       <c r="N672" s="28" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
   </sheetData>

--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="2446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="2448">
   <si>
     <t>CDR-ID</t>
   </si>
@@ -6545,9 +6545,6 @@
     <t>/espanol/tipos/ano/pro/</t>
   </si>
   <si>
-    <t>/espanol/tipos/boca/pro/</t>
-  </si>
-  <si>
     <t>/espanol/tipos/cabeza-cuello/pro/</t>
   </si>
   <si>
@@ -6660,9 +6657,6 @@
   </si>
   <si>
     <t>/espanol/tipos/ano/paciente/</t>
-  </si>
-  <si>
-    <t>/espanol/tipos/boca/paciente/</t>
   </si>
   <si>
     <t>/espanol/tipos/cabeza-cuello/paciente/</t>
@@ -7402,6 +7396,18 @@
   </si>
   <si>
     <t>/espanol/tipos/uterino/paciente/</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/tipos/cabeza-cuello/pro/tratamiento-hipofaringe-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/tipos/cabeza-cuello/pro/tratamiento-labio-boca-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/tipos/cabeza-cuello/paciente/tratamiento-hipofaringe-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/tipos/cabeza-cuello/paciente/tratamiento-labio-boca-pdq</t>
   </si>
 </sst>
 </file>
@@ -13851,7 +13857,7 @@
         <v>1896</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="N90" s="3">
         <f t="shared" si="1"/>
@@ -13897,7 +13903,7 @@
         <v>1897</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="N91" s="3">
         <f t="shared" si="1"/>
@@ -19776,10 +19782,10 @@
       </c>
       <c r="K221" s="3"/>
       <c r="L221" s="3" t="s">
+        <v>2234</v>
+      </c>
+      <c r="M221" s="3" t="s">
         <v>2236</v>
-      </c>
-      <c r="M221" s="3" t="s">
-        <v>2238</v>
       </c>
       <c r="N221" s="3">
         <f t="shared" si="3"/>
@@ -19820,10 +19826,10 @@
       </c>
       <c r="K222" s="3"/>
       <c r="L222" s="3" t="s">
+        <v>2235</v>
+      </c>
+      <c r="M222" s="3" t="s">
         <v>2237</v>
-      </c>
-      <c r="M222" s="3" t="s">
-        <v>2239</v>
       </c>
       <c r="N222" s="3">
         <f t="shared" si="3"/>
@@ -24391,7 +24397,7 @@
         <v>1172</v>
       </c>
       <c r="M324" s="3" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="N324" s="3">
         <f t="shared" ref="N324:N361" si="5">LEN(M324)</f>
@@ -24435,7 +24441,7 @@
         <v>1173</v>
       </c>
       <c r="M325" s="3" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="N325" s="3">
         <f t="shared" si="5"/>
@@ -26164,7 +26170,7 @@
       </c>
       <c r="L364" s="3"/>
       <c r="M364" s="3" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="N364" s="3">
         <f t="shared" si="8"/>
@@ -27500,7 +27506,7 @@
       </c>
       <c r="L394" s="3"/>
       <c r="M394" s="5" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="N394" s="3">
         <f t="shared" si="8"/>
@@ -29142,7 +29148,7 @@
       </c>
       <c r="L431" s="3"/>
       <c r="M431" s="3" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N431" s="3">
         <f t="shared" si="11"/>
@@ -29186,7 +29192,7 @@
       <c r="K432" s="13"/>
       <c r="L432" s="3"/>
       <c r="M432" s="3" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="N432" s="3">
         <f t="shared" si="11"/>
@@ -29274,7 +29280,7 @@
       <c r="K434" s="13"/>
       <c r="L434" s="3"/>
       <c r="M434" s="3" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="N434" s="3">
         <f t="shared" si="11"/>
@@ -29406,7 +29412,7 @@
       <c r="K437" s="13"/>
       <c r="L437" s="3"/>
       <c r="M437" s="3" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="N437" s="3">
         <f t="shared" si="11"/>
@@ -29538,7 +29544,7 @@
       <c r="K440" s="13"/>
       <c r="L440" s="3"/>
       <c r="M440" s="3" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="N440" s="3">
         <f t="shared" si="11"/>
@@ -29714,7 +29720,7 @@
       <c r="K444" s="13"/>
       <c r="L444" s="3"/>
       <c r="M444" s="3" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N444" s="3">
         <f t="shared" si="11"/>
@@ -29938,7 +29944,7 @@
       <c r="K449" s="13"/>
       <c r="L449" s="3"/>
       <c r="M449" s="5" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="N449" s="3">
         <f t="shared" si="11"/>
@@ -30254,7 +30260,7 @@
       </c>
       <c r="L456" s="3"/>
       <c r="M456" s="5" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="N456" s="3">
         <f t="shared" si="11"/>
@@ -30346,7 +30352,7 @@
       </c>
       <c r="L458" s="3"/>
       <c r="M458" s="5" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="N458" s="3">
         <f t="shared" si="11"/>
@@ -30480,7 +30486,7 @@
       <c r="K461" s="13"/>
       <c r="L461" s="3"/>
       <c r="M461" s="5" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="N461" s="3">
         <f t="shared" si="11"/>
@@ -30568,7 +30574,7 @@
       <c r="K463" s="13"/>
       <c r="L463" s="3"/>
       <c r="M463" s="5" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N463" s="3">
         <f t="shared" si="11"/>
@@ -30612,7 +30618,7 @@
       <c r="K464" s="13"/>
       <c r="L464" s="3"/>
       <c r="M464" s="5" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="N464" s="3">
         <f t="shared" si="11"/>
@@ -30744,7 +30750,7 @@
       <c r="K467" s="13"/>
       <c r="L467" s="3"/>
       <c r="M467" s="5" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="N467" s="3">
         <f t="shared" si="11"/>
@@ -30920,7 +30926,7 @@
       <c r="K471" s="13"/>
       <c r="L471" s="3"/>
       <c r="M471" s="5" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="N471" s="3">
         <f t="shared" si="11"/>
@@ -34002,7 +34008,7 @@
       </c>
       <c r="L538" s="3"/>
       <c r="M538" s="3" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="N538" s="3">
         <f t="shared" si="14"/>
@@ -34232,7 +34238,7 @@
       </c>
       <c r="L543" s="3"/>
       <c r="M543" s="3" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="N543" s="3">
         <f t="shared" si="14"/>
@@ -34830,7 +34836,7 @@
       </c>
       <c r="L556" s="3"/>
       <c r="M556" s="3" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="N556" s="3">
         <f t="shared" si="17"/>
@@ -35146,7 +35152,7 @@
       <c r="K563" s="13"/>
       <c r="L563" s="3"/>
       <c r="M563" s="5" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="N563" s="3">
         <f t="shared" si="17"/>
@@ -35236,7 +35242,7 @@
       </c>
       <c r="L565" s="3"/>
       <c r="M565" s="5" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N565" s="3">
         <f t="shared" si="17"/>
@@ -35466,7 +35472,7 @@
       </c>
       <c r="L570" s="3"/>
       <c r="M570" s="5" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N570" s="3">
         <f t="shared" si="17"/>
@@ -35788,7 +35794,7 @@
       </c>
       <c r="L577" s="3"/>
       <c r="M577" s="5" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N577" s="3">
         <f t="shared" si="17"/>
@@ -35834,7 +35840,7 @@
       </c>
       <c r="L578" s="3"/>
       <c r="M578" s="5" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="N578" s="3">
         <f t="shared" si="17"/>
@@ -35972,7 +35978,7 @@
       </c>
       <c r="L581" s="3"/>
       <c r="M581" s="5" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="N581" s="3">
         <f t="shared" si="17"/>
@@ -36018,7 +36024,7 @@
       </c>
       <c r="L582" s="3"/>
       <c r="M582" s="5" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="N582" s="3">
         <f t="shared" si="17"/>
@@ -36156,7 +36162,7 @@
       </c>
       <c r="L585" s="3"/>
       <c r="M585" s="5" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="N585" s="3">
         <f t="shared" si="17"/>
@@ -36202,7 +36208,7 @@
       </c>
       <c r="L586" s="3"/>
       <c r="M586" s="5" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="N586" s="3">
         <f t="shared" si="17"/>
@@ -36340,7 +36346,7 @@
       </c>
       <c r="L589" s="3"/>
       <c r="M589" s="5" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="N589" s="3">
         <f t="shared" si="17"/>
@@ -36386,7 +36392,7 @@
       </c>
       <c r="L590" s="3"/>
       <c r="M590" s="5" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="N590" s="3">
         <f t="shared" si="17"/>
@@ -36524,7 +36530,7 @@
       </c>
       <c r="L593" s="3"/>
       <c r="M593" s="5" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="N593" s="3">
         <f t="shared" si="17"/>
@@ -36570,7 +36576,7 @@
       </c>
       <c r="L594" s="3"/>
       <c r="M594" s="5" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="N594" s="3">
         <f t="shared" si="17"/>
@@ -36708,7 +36714,7 @@
       </c>
       <c r="L597" s="3"/>
       <c r="M597" s="5" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="N597" s="3">
         <f t="shared" si="17"/>
@@ -36754,7 +36760,7 @@
       </c>
       <c r="L598" s="3"/>
       <c r="M598" s="5" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="N598" s="3">
         <f t="shared" si="17"/>
@@ -36892,7 +36898,7 @@
       </c>
       <c r="L601" s="3"/>
       <c r="M601" s="5" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="N601" s="3">
         <f t="shared" si="17"/>
@@ -36984,7 +36990,7 @@
       </c>
       <c r="L603" s="3"/>
       <c r="M603" s="5" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="N603" s="3">
         <f t="shared" si="17"/>
@@ -37122,7 +37128,7 @@
       </c>
       <c r="L606" s="3"/>
       <c r="M606" s="5" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="N606" s="3">
         <f t="shared" si="17"/>
@@ -37214,7 +37220,7 @@
       </c>
       <c r="L608" s="3"/>
       <c r="M608" s="5" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="N608" s="3">
         <f t="shared" si="17"/>
@@ -37352,7 +37358,7 @@
       </c>
       <c r="L611" s="3"/>
       <c r="M611" s="5" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="N611" s="3">
         <f t="shared" si="17"/>
@@ -37444,7 +37450,7 @@
       </c>
       <c r="L613" s="3"/>
       <c r="M613" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="N613" s="3">
         <f t="shared" si="17"/>
@@ -37536,7 +37542,7 @@
       </c>
       <c r="L615" s="3"/>
       <c r="M615" s="5" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="N615" s="3">
         <f t="shared" si="17"/>
@@ -37766,7 +37772,7 @@
       </c>
       <c r="L620" s="3"/>
       <c r="M620" s="5" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="N620" s="3">
         <f t="shared" si="20"/>
@@ -38088,7 +38094,7 @@
       </c>
       <c r="L627" s="3"/>
       <c r="M627" s="5" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="N627" s="3">
         <f t="shared" si="20"/>
@@ -38134,7 +38140,7 @@
       </c>
       <c r="L628" s="3"/>
       <c r="M628" s="5" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="N628" s="3">
         <f t="shared" si="20"/>
@@ -38272,7 +38278,7 @@
       </c>
       <c r="L631" s="3"/>
       <c r="M631" s="5" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="N631" s="3">
         <f t="shared" si="20"/>
@@ -38452,7 +38458,7 @@
       <c r="K635" s="13"/>
       <c r="L635" s="3"/>
       <c r="M635" s="5" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="N635" s="3">
         <f t="shared" si="20"/>
@@ -38544,7 +38550,7 @@
       </c>
       <c r="L637" s="3"/>
       <c r="M637" s="5" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="N637" s="3">
         <f t="shared" si="20"/>
@@ -38588,7 +38594,7 @@
       <c r="K638" s="13"/>
       <c r="L638" s="3"/>
       <c r="M638" s="5" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="N638" s="3">
         <f t="shared" si="20"/>
@@ -38956,7 +38962,7 @@
       </c>
       <c r="L646" s="3"/>
       <c r="M646" s="5" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="N646" s="3">
         <f t="shared" si="20"/>
@@ -39278,7 +39284,7 @@
       </c>
       <c r="L653" s="3"/>
       <c r="M653" s="5" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="N653" s="3">
         <f t="shared" si="20"/>
@@ -39370,7 +39376,7 @@
       </c>
       <c r="L655" s="3"/>
       <c r="M655" s="5" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="N655" s="3">
         <f t="shared" si="20"/>
@@ -39903,8 +39909,8 @@
   <dimension ref="A1:N672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B536" sqref="B536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -43030,7 +43036,7 @@
         <v>2070</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="12" t="s">
@@ -43068,7 +43074,7 @@
         <v>2071</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="12" t="s">
@@ -43106,7 +43112,7 @@
         <v>2070</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="12" t="s">
@@ -43146,7 +43152,7 @@
         <v>2070</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="12" t="s">
@@ -45164,7 +45170,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>10</v>
@@ -45288,7 +45294,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>10</v>
@@ -47501,7 +47507,7 @@
         <v>454520</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>2045</v>
@@ -50094,7 +50100,7 @@
         <v>2070</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D259" s="22"/>
       <c r="E259" s="12" t="s">
@@ -50134,7 +50140,7 @@
         <v>2118</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D260" s="22"/>
       <c r="E260" s="12" t="s">
@@ -50172,7 +50178,7 @@
         <v>2070</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D261" s="22"/>
       <c r="E261" s="12" t="s">
@@ -52108,7 +52114,7 @@
         <v>2</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="F308" s="5" t="s">
         <v>15</v>
@@ -52232,7 +52238,7 @@
         <v>5</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>15</v>
@@ -54246,7 +54252,7 @@
       </c>
       <c r="D361" s="25"/>
       <c r="E361" s="3" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F361" s="13" t="s">
         <v>10</v>
@@ -54282,7 +54288,7 @@
       </c>
       <c r="D362" s="25"/>
       <c r="E362" s="3" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="F362" s="13" t="s">
         <v>10</v>
@@ -54318,7 +54324,7 @@
       </c>
       <c r="D363" s="25"/>
       <c r="E363" s="3" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="F363" s="13" t="s">
         <v>10</v>
@@ -54428,7 +54434,7 @@
       </c>
       <c r="D366" s="25"/>
       <c r="E366" s="3" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="F366" s="13" t="s">
         <v>10</v>
@@ -54688,7 +54694,7 @@
       </c>
       <c r="D373" s="25"/>
       <c r="E373" s="3" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F373" s="13" t="s">
         <v>10</v>
@@ -54798,7 +54804,7 @@
       </c>
       <c r="D376" s="25"/>
       <c r="E376" s="3" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="F376" s="13" t="s">
         <v>10</v>
@@ -54834,7 +54840,7 @@
       </c>
       <c r="D377" s="25"/>
       <c r="E377" s="3" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F377" s="13" t="s">
         <v>10</v>
@@ -54906,7 +54912,7 @@
       </c>
       <c r="D379" s="25"/>
       <c r="E379" s="3" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F379" s="13" t="s">
         <v>10</v>
@@ -55052,7 +55058,7 @@
       </c>
       <c r="D383" s="25"/>
       <c r="E383" s="3" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F383" s="13" t="s">
         <v>10</v>
@@ -55088,7 +55094,7 @@
       </c>
       <c r="D384" s="25"/>
       <c r="E384" s="3" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="F384" s="13" t="s">
         <v>10</v>
@@ -55126,7 +55132,7 @@
       </c>
       <c r="D385" s="25"/>
       <c r="E385" s="3" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F385" s="13" t="s">
         <v>10</v>
@@ -55238,7 +55244,7 @@
       </c>
       <c r="D388" s="25"/>
       <c r="E388" s="3" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="F388" s="13" t="s">
         <v>10</v>
@@ -55278,7 +55284,7 @@
       </c>
       <c r="D389" s="25"/>
       <c r="E389" s="3" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F389" s="13" t="s">
         <v>10</v>
@@ -55395,8 +55401,8 @@
         <v>2045</v>
       </c>
       <c r="D392" s="25"/>
-      <c r="E392" s="3" t="s">
-        <v>1956</v>
+      <c r="E392" t="s">
+        <v>2444</v>
       </c>
       <c r="F392" s="13" t="s">
         <v>10</v>
@@ -55435,8 +55441,8 @@
         <v>2045</v>
       </c>
       <c r="D393" s="25"/>
-      <c r="E393" s="3" t="s">
-        <v>1958</v>
+      <c r="E393" t="s">
+        <v>2445</v>
       </c>
       <c r="F393" s="13" t="s">
         <v>10</v>
@@ -55469,14 +55475,14 @@
         <v>256753</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="C394" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D394" s="25"/>
       <c r="E394" s="3" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="F394" s="13" t="s">
         <v>10</v>
@@ -55509,14 +55515,14 @@
         <v>256752</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="C395" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D395" s="25"/>
       <c r="E395" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="F395" s="13" t="s">
         <v>10</v>
@@ -55549,7 +55555,7 @@
         <v>760927</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C396" s="13" t="s">
         <v>2045</v>
@@ -55587,7 +55593,7 @@
         <v>760925</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C397" s="13" t="s">
         <v>2045</v>
@@ -55625,7 +55631,7 @@
         <v>256724</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C398" s="13" t="s">
         <v>2045</v>
@@ -55665,7 +55671,7 @@
         <v>256725</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C399" s="13" t="s">
         <v>2045</v>
@@ -55705,7 +55711,7 @@
         <v>256727</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C400" s="13" t="s">
         <v>2045</v>
@@ -55745,7 +55751,7 @@
         <v>256723</v>
       </c>
       <c r="B401" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C401" s="13" t="s">
         <v>2045</v>
@@ -55785,7 +55791,7 @@
         <v>256728</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C402" s="13" t="s">
         <v>2045</v>
@@ -55825,7 +55831,7 @@
         <v>256735</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C403" s="13" t="s">
         <v>2045</v>
@@ -55865,7 +55871,7 @@
         <v>655358</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C404" s="13" t="s">
         <v>2045</v>
@@ -55905,14 +55911,14 @@
         <v>722293</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C405" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D405" s="25"/>
       <c r="E405" s="3" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="F405" s="13" t="s">
         <v>10</v>
@@ -55945,14 +55951,14 @@
         <v>256706</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C406" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D406" s="25"/>
       <c r="E406" s="3" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="F406" s="13" t="s">
         <v>10</v>
@@ -55985,7 +55991,7 @@
         <v>256675</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C407" s="13" t="s">
         <v>2045</v>
@@ -56025,7 +56031,7 @@
         <v>632986</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C408" s="13" t="s">
         <v>2045</v>
@@ -56065,14 +56071,14 @@
         <v>588641</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C409" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D409" s="25"/>
       <c r="E409" s="3" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="F409" s="13" t="s">
         <v>10</v>
@@ -56105,7 +56111,7 @@
         <v>256682</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C410" s="13" t="s">
         <v>2045</v>
@@ -56145,14 +56151,14 @@
         <v>632470</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C411" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D411" s="25"/>
       <c r="E411" s="3" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="F411" s="13" t="s">
         <v>10</v>
@@ -56185,14 +56191,14 @@
         <v>256754</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C412" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D412" s="25"/>
       <c r="E412" s="3" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F412" s="13" t="s">
         <v>10</v>
@@ -56225,7 +56231,7 @@
         <v>744628</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C413" s="13" t="s">
         <v>2045</v>
@@ -56263,7 +56269,7 @@
         <v>744472</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C414" s="13" t="s">
         <v>2045</v>
@@ -56301,7 +56307,7 @@
         <v>256667</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C415" s="13" t="s">
         <v>2045</v>
@@ -56341,14 +56347,14 @@
         <v>256678</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C416" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D416" s="25"/>
       <c r="E416" s="3" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F416" s="13" t="s">
         <v>10</v>
@@ -56381,7 +56387,7 @@
         <v>736855</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C417" s="13" t="s">
         <v>2045</v>
@@ -56419,7 +56425,7 @@
         <v>737638</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C418" s="13" t="s">
         <v>2045</v>
@@ -56457,7 +56463,7 @@
         <v>256680</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C419" s="13" t="s">
         <v>2045</v>
@@ -56497,14 +56503,14 @@
         <v>756922</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C420" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D420" s="25"/>
       <c r="E420" s="3" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F420" s="13" t="s">
         <v>10</v>
@@ -56535,14 +56541,14 @@
         <v>756921</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C421" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D421" s="25"/>
       <c r="E421" s="3" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="F421" s="13" t="s">
         <v>10</v>
@@ -56573,14 +56579,14 @@
         <v>256709</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C422" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D422" s="25"/>
       <c r="E422" s="3" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F422" s="13" t="s">
         <v>10</v>
@@ -56613,14 +56619,14 @@
         <v>256741</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C423" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="3" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="F423" s="13" t="s">
         <v>10</v>
@@ -56653,7 +56659,7 @@
         <v>757230</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C424" s="13" t="s">
         <v>2045</v>
@@ -56691,7 +56697,7 @@
         <v>757228</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C425" s="13" t="s">
         <v>2045</v>
@@ -56729,7 +56735,7 @@
         <v>256679</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C426" s="13" t="s">
         <v>2045</v>
@@ -56769,7 +56775,7 @@
         <v>760619</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C427" s="13" t="s">
         <v>2045</v>
@@ -56809,7 +56815,7 @@
         <v>760617</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C428" s="13" t="s">
         <v>2045</v>
@@ -56849,7 +56855,7 @@
         <v>256670</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C429" s="13" t="s">
         <v>2045</v>
@@ -56889,14 +56895,14 @@
         <v>256755</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="C430" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D430" s="25"/>
       <c r="E430" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="F430" s="13" t="s">
         <v>10</v>
@@ -56929,14 +56935,14 @@
         <v>256742</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="C431" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D431" s="25"/>
       <c r="E431" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="F431" s="13" t="s">
         <v>10</v>
@@ -56969,7 +56975,7 @@
         <v>687776</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C432" s="13" t="s">
         <v>2045</v>
@@ -57009,14 +57015,14 @@
         <v>256710</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="C433" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D433" s="25"/>
       <c r="E433" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="F433" s="13" t="s">
         <v>10</v>
@@ -57049,14 +57055,14 @@
         <v>759063</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C434" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D434" s="25"/>
       <c r="E434" s="3" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="F434" s="13" t="s">
         <v>10</v>
@@ -57087,7 +57093,7 @@
         <v>759357</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C435" s="13" t="s">
         <v>2045</v>
@@ -57127,7 +57133,7 @@
         <v>256692</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C436" s="13" t="s">
         <v>2045</v>
@@ -57167,7 +57173,7 @@
         <v>256711</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C437" s="13" t="s">
         <v>2045</v>
@@ -57207,14 +57213,14 @@
         <v>256712</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C438" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D438" s="25"/>
       <c r="E438" s="3" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F438" s="13" t="s">
         <v>10</v>
@@ -57247,7 +57253,7 @@
         <v>256720</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C439" s="13" t="s">
         <v>2045</v>
@@ -57287,14 +57293,14 @@
         <v>598505</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C440" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D440" s="25"/>
       <c r="E440" s="3" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="F440" s="13" t="s">
         <v>10</v>
@@ -57325,14 +57331,14 @@
         <v>371825</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C441" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D441" s="25"/>
       <c r="E441" s="3" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F441" s="13" t="s">
         <v>10</v>
@@ -57363,14 +57369,14 @@
         <v>728604</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C442" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D442" s="25"/>
       <c r="E442" s="3" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="F442" s="13" t="s">
         <v>10</v>
@@ -57401,14 +57407,14 @@
         <v>256757</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C443" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D443" s="25"/>
       <c r="E443" s="3" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F443" s="13" t="s">
         <v>10</v>
@@ -57441,14 +57447,14 @@
         <v>256708</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C444" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="3" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F444" s="13" t="s">
         <v>10</v>
@@ -57481,14 +57487,14 @@
         <v>641243</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C445" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D445" s="25"/>
       <c r="E445" s="3" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="F445" s="13" t="s">
         <v>10</v>
@@ -57521,7 +57527,7 @@
         <v>256695</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C446" s="13" t="s">
         <v>2045</v>
@@ -57561,14 +57567,14 @@
         <v>256671</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C447" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D447" s="25"/>
       <c r="E447" s="3" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="F447" s="13" t="s">
         <v>10</v>
@@ -57601,14 +57607,14 @@
         <v>256696</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C448" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D448" s="25"/>
       <c r="E448" s="3" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="F448" s="13" t="s">
         <v>10</v>
@@ -57641,14 +57647,14 @@
         <v>256703</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C449" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D449" s="25"/>
       <c r="E449" s="3" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="F449" s="13" t="s">
         <v>10</v>
@@ -57681,7 +57687,7 @@
         <v>256730</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C450" s="13" t="s">
         <v>2045</v>
@@ -57721,14 +57727,14 @@
         <v>256694</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C451" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D451" s="25"/>
       <c r="E451" s="3" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="F451" s="13" t="s">
         <v>10</v>
@@ -57761,14 +57767,14 @@
         <v>256697</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C452" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D452" s="25"/>
       <c r="E452" s="3" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="F452" s="13" t="s">
         <v>10</v>
@@ -57801,7 +57807,7 @@
         <v>256736</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C453" s="13" t="s">
         <v>2045</v>
@@ -57841,14 +57847,14 @@
         <v>256689</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C454" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D454" s="25"/>
       <c r="E454" s="3" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="F454" s="13" t="s">
         <v>10</v>
@@ -57881,14 +57887,14 @@
         <v>256666</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C455" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D455" s="25"/>
       <c r="E455" s="3" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="F455" s="13" t="s">
         <v>10</v>
@@ -57921,14 +57927,14 @@
         <v>256746</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C456" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D456" s="25"/>
       <c r="E456" s="3" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="F456" s="13" t="s">
         <v>10</v>
@@ -57961,7 +57967,7 @@
         <v>256758</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C457" s="13" t="s">
         <v>2045</v>
@@ -58001,14 +58007,14 @@
         <v>256677</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C458" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D458" s="25"/>
       <c r="E458" s="3" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="F458" s="13" t="s">
         <v>10</v>
@@ -58041,7 +58047,7 @@
         <v>256743</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C459" s="13" t="s">
         <v>2045</v>
@@ -58081,7 +58087,7 @@
         <v>256702</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C460" s="13" t="s">
         <v>2045</v>
@@ -58121,14 +58127,14 @@
         <v>256756</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="C461" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="3" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="F461" s="13" t="s">
         <v>10</v>
@@ -58161,14 +58167,14 @@
         <v>256731</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="C462" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D462" s="25"/>
       <c r="E462" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="F462" s="13" t="s">
         <v>10</v>
@@ -58201,14 +58207,14 @@
         <v>341116</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="C463" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="3" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="F463" s="13" t="s">
         <v>10</v>
@@ -58241,14 +58247,14 @@
         <v>256733</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="C464" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D464" s="25"/>
       <c r="E464" s="3" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="F464" s="13" t="s">
         <v>10</v>
@@ -58279,7 +58285,7 @@
         <v>760795</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C465" s="13" t="s">
         <v>2045</v>
@@ -58317,7 +58323,7 @@
         <v>256683</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C466" s="13" t="s">
         <v>2045</v>
@@ -58357,7 +58363,7 @@
         <v>256721</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C467" s="13" t="s">
         <v>2045</v>
@@ -58397,7 +58403,7 @@
         <v>755032</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C468" s="13" t="s">
         <v>2045</v>
@@ -58435,7 +58441,7 @@
         <v>755030</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C469" s="13" t="s">
         <v>2045</v>
@@ -58473,7 +58479,7 @@
         <v>256738</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C470" s="13" t="s">
         <v>2045</v>
@@ -58513,7 +58519,7 @@
         <v>256691</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C471" s="13" t="s">
         <v>2045</v>
@@ -58553,7 +58559,7 @@
         <v>256745</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C472" s="13" t="s">
         <v>2045</v>
@@ -58593,7 +58599,7 @@
         <v>256674</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C473" s="13" t="s">
         <v>2045</v>
@@ -58633,14 +58639,14 @@
         <v>256687</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C474" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D474" s="25"/>
       <c r="E474" s="3" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="F474" s="13" t="s">
         <v>10</v>
@@ -58673,7 +58679,7 @@
         <v>256684</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C475" s="13" t="s">
         <v>2045</v>
@@ -58713,14 +58719,14 @@
         <v>256704</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C476" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D476" s="25"/>
       <c r="E476" s="3" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F476" s="13" t="s">
         <v>10</v>
@@ -58753,7 +58759,7 @@
         <v>751557</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C477" s="13" t="s">
         <v>2045</v>
@@ -58791,7 +58797,7 @@
         <v>751555</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C478" s="13" t="s">
         <v>2045</v>
@@ -58829,7 +58835,7 @@
         <v>256759</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C479" s="13" t="s">
         <v>2045</v>
@@ -58869,7 +58875,7 @@
         <v>256722</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C480" s="13" t="s">
         <v>2045</v>
@@ -58909,7 +58915,7 @@
         <v>256715</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C481" s="13" t="s">
         <v>2045</v>
@@ -58949,7 +58955,7 @@
         <v>256739</v>
       </c>
       <c r="B482" s="13" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C482" s="13" t="s">
         <v>2045</v>
@@ -58989,7 +58995,7 @@
         <v>747922</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C483" s="13" t="s">
         <v>2045</v>
@@ -59027,7 +59033,7 @@
         <v>747947</v>
       </c>
       <c r="B484" s="13" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C484" s="13" t="s">
         <v>2045</v>
@@ -59065,7 +59071,7 @@
         <v>256716</v>
       </c>
       <c r="B485" s="13" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C485" s="13" t="s">
         <v>2045</v>
@@ -59105,7 +59111,7 @@
         <v>700433</v>
       </c>
       <c r="B486" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C486" s="13" t="s">
         <v>2045</v>
@@ -59143,7 +59149,7 @@
         <v>733624</v>
       </c>
       <c r="B487" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C487" s="13" t="s">
         <v>2045</v>
@@ -59181,7 +59187,7 @@
         <v>256672</v>
       </c>
       <c r="B488" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C488" s="13" t="s">
         <v>2045</v>
@@ -59221,7 +59227,7 @@
         <v>256673</v>
       </c>
       <c r="B489" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C489" s="13" t="s">
         <v>2045</v>
@@ -59261,7 +59267,7 @@
         <v>256693</v>
       </c>
       <c r="B490" s="13" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C490" s="13" t="s">
         <v>2045</v>
@@ -59301,14 +59307,14 @@
         <v>256740</v>
       </c>
       <c r="B491" s="13" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C491" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D491" s="25"/>
       <c r="E491" s="3" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F491" s="13" t="s">
         <v>10</v>
@@ -59341,7 +59347,7 @@
         <v>256701</v>
       </c>
       <c r="B492" s="13" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C492" s="13" t="s">
         <v>2045</v>
@@ -59381,7 +59387,7 @@
         <v>256685</v>
       </c>
       <c r="B493" s="13" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C493" s="13" t="s">
         <v>2045</v>
@@ -59421,14 +59427,14 @@
         <v>697331</v>
       </c>
       <c r="B494" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C494" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D494" s="25"/>
       <c r="E494" s="3" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="F494" s="13" t="s">
         <v>10</v>
@@ -59461,7 +59467,7 @@
         <v>256719</v>
       </c>
       <c r="B495" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C495" s="13" t="s">
         <v>2045</v>
@@ -59501,7 +59507,7 @@
         <v>256686</v>
       </c>
       <c r="B496" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C496" s="13" t="s">
         <v>2045</v>
@@ -59541,14 +59547,14 @@
         <v>256690</v>
       </c>
       <c r="B497" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C497" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D497" s="25"/>
       <c r="E497" s="3" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="F497" s="13" t="s">
         <v>10</v>
@@ -59581,7 +59587,7 @@
         <v>256737</v>
       </c>
       <c r="B498" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C498" s="13" t="s">
         <v>2045</v>
@@ -59621,14 +59627,14 @@
         <v>744470</v>
       </c>
       <c r="B499" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C499" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D499" s="25"/>
       <c r="E499" s="3" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="F499" s="13" t="s">
         <v>10</v>
@@ -59659,7 +59665,7 @@
         <v>744468</v>
       </c>
       <c r="B500" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C500" s="13" t="s">
         <v>2045</v>
@@ -59699,14 +59705,14 @@
         <v>256749</v>
       </c>
       <c r="B501" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C501" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D501" s="25"/>
       <c r="E501" s="3" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="F501" s="13" t="s">
         <v>10</v>
@@ -59739,7 +59745,7 @@
         <v>256747</v>
       </c>
       <c r="B502" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C502" s="13" t="s">
         <v>2045</v>
@@ -59779,7 +59785,7 @@
         <v>256668</v>
       </c>
       <c r="B503" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C503" s="13" t="s">
         <v>2045</v>
@@ -59819,7 +59825,7 @@
         <v>756926</v>
       </c>
       <c r="B504" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C504" s="13" t="s">
         <v>2045</v>
@@ -59857,7 +59863,7 @@
         <v>256705</v>
       </c>
       <c r="B505" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C505" s="13" t="s">
         <v>2045</v>
@@ -59897,14 +59903,14 @@
         <v>256717</v>
       </c>
       <c r="B506" s="13" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C506" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D506" s="25"/>
       <c r="E506" s="3" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="F506" s="13" t="s">
         <v>10</v>
@@ -59937,7 +59943,7 @@
         <v>256718</v>
       </c>
       <c r="B507" s="13" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C507" s="13" t="s">
         <v>2045</v>
@@ -59977,14 +59983,14 @@
         <v>256707</v>
       </c>
       <c r="B508" s="13" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C508" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D508" s="25"/>
       <c r="E508" s="3" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F508" s="13" t="s">
         <v>10</v>
@@ -60017,14 +60023,14 @@
         <v>256700</v>
       </c>
       <c r="B509" s="13" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C509" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D509" s="25"/>
       <c r="E509" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="F509" s="13" t="s">
         <v>10</v>
@@ -60057,7 +60063,7 @@
         <v>256729</v>
       </c>
       <c r="B510" s="13" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C510" s="13" t="s">
         <v>2045</v>
@@ -60097,7 +60103,7 @@
         <v>256699</v>
       </c>
       <c r="B511" s="13" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C511" s="13" t="s">
         <v>2045</v>
@@ -60137,7 +60143,7 @@
         <v>752812</v>
       </c>
       <c r="B512" s="13" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C512" s="13" t="s">
         <v>2045</v>
@@ -60175,7 +60181,7 @@
         <v>256714</v>
       </c>
       <c r="B513" s="13" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C513" s="13" t="s">
         <v>2045</v>
@@ -60215,7 +60221,7 @@
         <v>256698</v>
       </c>
       <c r="B514" s="13" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C514" s="13" t="s">
         <v>2045</v>
@@ -60260,7 +60266,7 @@
       </c>
       <c r="D515" s="25"/>
       <c r="E515" s="3" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F515" s="13" t="s">
         <v>15</v>
@@ -60296,7 +60302,7 @@
       </c>
       <c r="D516" s="25"/>
       <c r="E516" s="3" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="F516" s="13" t="s">
         <v>15</v>
@@ -60332,7 +60338,7 @@
       </c>
       <c r="D517" s="25"/>
       <c r="E517" s="3" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="F517" s="13" t="s">
         <v>15</v>
@@ -60442,7 +60448,7 @@
       </c>
       <c r="D520" s="25"/>
       <c r="E520" s="3" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="F520" s="13" t="s">
         <v>15</v>
@@ -60666,7 +60672,7 @@
       </c>
       <c r="D526" s="25"/>
       <c r="E526" s="3" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="F526" s="13" t="s">
         <v>15</v>
@@ -60776,7 +60782,7 @@
       </c>
       <c r="D529" s="25"/>
       <c r="E529" s="3" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="F529" s="13" t="s">
         <v>15</v>
@@ -60884,7 +60890,7 @@
       </c>
       <c r="D532" s="25"/>
       <c r="E532" s="3" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="F532" s="13" t="s">
         <v>15</v>
@@ -61030,7 +61036,7 @@
       </c>
       <c r="D536" s="25"/>
       <c r="E536" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="F536" s="13" t="s">
         <v>15</v>
@@ -61066,7 +61072,7 @@
       </c>
       <c r="D537" s="25"/>
       <c r="E537" s="3" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="F537" s="13" t="s">
         <v>15</v>
@@ -61104,7 +61110,7 @@
       </c>
       <c r="D538" s="25"/>
       <c r="E538" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="F538" s="13" t="s">
         <v>15</v>
@@ -61135,14 +61141,14 @@
         <v>559804</v>
       </c>
       <c r="B539" s="13" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C539" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D539" s="25"/>
       <c r="E539" s="3" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="F539" s="13" t="s">
         <v>15</v>
@@ -61175,7 +61181,7 @@
         <v>761654</v>
       </c>
       <c r="B540" s="13" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C540" s="13" t="s">
         <v>2045</v>
@@ -61213,7 +61219,7 @@
         <v>256763</v>
       </c>
       <c r="B541" s="13" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C541" s="13" t="s">
         <v>2045</v>
@@ -61253,14 +61259,14 @@
         <v>256820</v>
       </c>
       <c r="B542" s="13" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C542" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D542" s="25"/>
-      <c r="E542" s="3" t="s">
-        <v>1810</v>
+      <c r="E542" t="s">
+        <v>2446</v>
       </c>
       <c r="F542" s="13" t="s">
         <v>15</v>
@@ -61293,14 +61299,14 @@
         <v>486932</v>
       </c>
       <c r="B543" s="13" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C543" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D543" s="25"/>
-      <c r="E543" s="3" t="s">
-        <v>1812</v>
+      <c r="E543" t="s">
+        <v>2447</v>
       </c>
       <c r="F543" s="13" t="s">
         <v>15</v>
@@ -61333,14 +61339,14 @@
         <v>583660</v>
       </c>
       <c r="B544" s="13" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C544" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D544" s="25"/>
       <c r="E544" s="3" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="F544" s="13" t="s">
         <v>15</v>
@@ -61373,14 +61379,14 @@
         <v>256846</v>
       </c>
       <c r="B545" s="13" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C545" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D545" s="25"/>
       <c r="E545" s="3" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="F545" s="13" t="s">
         <v>15</v>
@@ -61413,7 +61419,7 @@
         <v>760928</v>
       </c>
       <c r="B546" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C546" s="13" t="s">
         <v>2045</v>
@@ -61451,7 +61457,7 @@
         <v>760926</v>
       </c>
       <c r="B547" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C547" s="13" t="s">
         <v>2045</v>
@@ -61489,7 +61495,7 @@
         <v>509727</v>
       </c>
       <c r="B548" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C548" s="13" t="s">
         <v>2045</v>
@@ -61529,7 +61535,7 @@
         <v>530606</v>
       </c>
       <c r="B549" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C549" s="13" t="s">
         <v>2045</v>
@@ -61569,7 +61575,7 @@
         <v>393556</v>
       </c>
       <c r="B550" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C550" s="13" t="s">
         <v>2045</v>
@@ -61609,7 +61615,7 @@
         <v>256817</v>
       </c>
       <c r="B551" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C551" s="13" t="s">
         <v>2045</v>
@@ -61649,7 +61655,7 @@
         <v>525763</v>
       </c>
       <c r="B552" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C552" s="13" t="s">
         <v>2045</v>
@@ -61689,7 +61695,7 @@
         <v>558933</v>
       </c>
       <c r="B553" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C553" s="13" t="s">
         <v>2045</v>
@@ -61729,7 +61735,7 @@
         <v>665736</v>
       </c>
       <c r="B554" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C554" s="13" t="s">
         <v>2045</v>
@@ -61769,14 +61775,14 @@
         <v>730016</v>
       </c>
       <c r="B555" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C555" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D555" s="25"/>
       <c r="E555" s="3" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="F555" s="13" t="s">
         <v>15</v>
@@ -61809,14 +61815,14 @@
         <v>256800</v>
       </c>
       <c r="B556" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C556" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D556" s="25"/>
       <c r="E556" s="3" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="F556" s="13" t="s">
         <v>15</v>
@@ -61849,7 +61855,7 @@
         <v>600419</v>
       </c>
       <c r="B557" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C557" s="13" t="s">
         <v>2045</v>
@@ -61889,7 +61895,7 @@
         <v>632970</v>
       </c>
       <c r="B558" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C558" s="13" t="s">
         <v>2045</v>
@@ -61929,14 +61935,14 @@
         <v>611985</v>
       </c>
       <c r="B559" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C559" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D559" s="25"/>
       <c r="E559" s="3" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="F559" s="13" t="s">
         <v>15</v>
@@ -61969,7 +61975,7 @@
         <v>256776</v>
       </c>
       <c r="B560" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C560" s="13" t="s">
         <v>2045</v>
@@ -62009,14 +62015,14 @@
         <v>632891</v>
       </c>
       <c r="B561" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C561" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D561" s="25"/>
       <c r="E561" s="3" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="F561" s="13" t="s">
         <v>15</v>
@@ -62049,14 +62055,14 @@
         <v>256848</v>
       </c>
       <c r="B562" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C562" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D562" s="25"/>
       <c r="E562" s="3" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="F562" s="13" t="s">
         <v>15</v>
@@ -62089,7 +62095,7 @@
         <v>744474</v>
       </c>
       <c r="B563" s="13" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C563" s="13" t="s">
         <v>2045</v>
@@ -62127,7 +62133,7 @@
         <v>744473</v>
       </c>
       <c r="B564" s="13" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C564" s="13" t="s">
         <v>2045</v>
@@ -62165,7 +62171,7 @@
         <v>256761</v>
       </c>
       <c r="B565" s="13" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C565" s="13" t="s">
         <v>2045</v>
@@ -62205,14 +62211,14 @@
         <v>256772</v>
       </c>
       <c r="B566" s="13" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C566" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D566" s="25"/>
       <c r="E566" s="3" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="F566" s="13" t="s">
         <v>15</v>
@@ -62245,7 +62251,7 @@
         <v>740255</v>
       </c>
       <c r="B567" s="13" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C567" s="13" t="s">
         <v>2045</v>
@@ -62283,7 +62289,7 @@
         <v>738369</v>
       </c>
       <c r="B568" s="13" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C568" s="13" t="s">
         <v>2045</v>
@@ -62321,7 +62327,7 @@
         <v>256774</v>
       </c>
       <c r="B569" s="13" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C569" s="13" t="s">
         <v>2045</v>
@@ -62361,14 +62367,14 @@
         <v>756923</v>
       </c>
       <c r="B570" s="13" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C570" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D570" s="25"/>
       <c r="E570" s="3" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="F570" s="13" t="s">
         <v>15</v>
@@ -62399,14 +62405,14 @@
         <v>757227</v>
       </c>
       <c r="B571" s="13" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C571" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D571" s="25"/>
       <c r="E571" s="3" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="F571" s="13" t="s">
         <v>15</v>
@@ -62437,14 +62443,14 @@
         <v>256803</v>
       </c>
       <c r="B572" s="13" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C572" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D572" s="25"/>
       <c r="E572" s="3" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="F572" s="13" t="s">
         <v>15</v>
@@ -62477,14 +62483,14 @@
         <v>452962</v>
       </c>
       <c r="B573" s="13" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C573" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D573" s="25"/>
       <c r="E573" s="3" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="F573" s="13" t="s">
         <v>15</v>
@@ -62517,7 +62523,7 @@
         <v>757231</v>
       </c>
       <c r="B574" s="13" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="C574" s="13" t="s">
         <v>2045</v>
@@ -62555,7 +62561,7 @@
         <v>757229</v>
       </c>
       <c r="B575" s="13" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="C575" s="13" t="s">
         <v>2045</v>
@@ -62593,7 +62599,7 @@
         <v>256773</v>
       </c>
       <c r="B576" s="13" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="C576" s="13" t="s">
         <v>2045</v>
@@ -62633,7 +62639,7 @@
         <v>760620</v>
       </c>
       <c r="B577" s="13" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="C577" s="13" t="s">
         <v>2045</v>
@@ -62673,7 +62679,7 @@
         <v>760618</v>
       </c>
       <c r="B578" s="13" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="C578" s="13" t="s">
         <v>2045</v>
@@ -62713,7 +62719,7 @@
         <v>256764</v>
       </c>
       <c r="B579" s="13" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="C579" s="13" t="s">
         <v>2045</v>
@@ -62753,14 +62759,14 @@
         <v>256849</v>
       </c>
       <c r="B580" s="13" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="C580" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D580" s="25"/>
       <c r="E580" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="F580" s="13" t="s">
         <v>15</v>
@@ -62793,14 +62799,14 @@
         <v>410912</v>
       </c>
       <c r="B581" s="13" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C581" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D581" s="25"/>
       <c r="E581" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="F581" s="13" t="s">
         <v>15</v>
@@ -62833,7 +62839,7 @@
         <v>722489</v>
       </c>
       <c r="B582" s="13" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="C582" s="13" t="s">
         <v>2045</v>
@@ -62873,14 +62879,14 @@
         <v>256804</v>
       </c>
       <c r="B583" s="13" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C583" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D583" s="25"/>
       <c r="E583" s="3" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="F583" s="13" t="s">
         <v>15</v>
@@ -62913,14 +62919,14 @@
         <v>759064</v>
       </c>
       <c r="B584" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C584" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D584" s="25"/>
       <c r="E584" s="3" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="F584" s="13" t="s">
         <v>15</v>
@@ -62951,7 +62957,7 @@
         <v>759062</v>
       </c>
       <c r="B585" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C585" s="13" t="s">
         <v>2045</v>
@@ -62991,7 +62997,7 @@
         <v>256786</v>
       </c>
       <c r="B586" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C586" s="13" t="s">
         <v>2045</v>
@@ -63031,7 +63037,7 @@
         <v>256805</v>
       </c>
       <c r="B587" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C587" s="13" t="s">
         <v>2045</v>
@@ -63071,14 +63077,14 @@
         <v>256806</v>
       </c>
       <c r="B588" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C588" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D588" s="25"/>
       <c r="E588" s="3" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="F588" s="13" t="s">
         <v>15</v>
@@ -63111,7 +63117,7 @@
         <v>615278</v>
       </c>
       <c r="B589" s="13" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="C589" s="13" t="s">
         <v>2045</v>
@@ -63151,14 +63157,14 @@
         <v>617025</v>
       </c>
       <c r="B590" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C590" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D590" s="25"/>
       <c r="E590" s="3" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="F590" s="13" t="s">
         <v>15</v>
@@ -63189,14 +63195,14 @@
         <v>429650</v>
       </c>
       <c r="B591" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C591" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D591" s="25"/>
       <c r="E591" s="3" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="F591" s="13" t="s">
         <v>15</v>
@@ -63227,14 +63233,14 @@
         <v>256851</v>
       </c>
       <c r="B592" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C592" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D592" s="25"/>
       <c r="E592" s="3" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="F592" s="13" t="s">
         <v>15</v>
@@ -63267,14 +63273,14 @@
         <v>256802</v>
       </c>
       <c r="B593" s="13" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="C593" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D593" s="25"/>
       <c r="E593" s="3" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="F593" s="13" t="s">
         <v>15</v>
@@ -63307,14 +63313,14 @@
         <v>682078</v>
       </c>
       <c r="B594" s="13" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C594" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D594" s="25"/>
       <c r="E594" s="3" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="F594" s="13" t="s">
         <v>15</v>
@@ -63347,14 +63353,14 @@
         <v>256789</v>
       </c>
       <c r="B595" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C595" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D595" s="25"/>
       <c r="E595" s="3" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="F595" s="13" t="s">
         <v>15</v>
@@ -63387,14 +63393,14 @@
         <v>256765</v>
       </c>
       <c r="B596" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C596" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D596" s="25"/>
       <c r="E596" s="3" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="F596" s="13" t="s">
         <v>15</v>
@@ -63427,14 +63433,14 @@
         <v>256790</v>
       </c>
       <c r="B597" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C597" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D597" s="25"/>
       <c r="E597" s="3" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="F597" s="13" t="s">
         <v>15</v>
@@ -63467,14 +63473,14 @@
         <v>256797</v>
       </c>
       <c r="B598" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C598" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D598" s="25"/>
       <c r="E598" s="3" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="F598" s="13" t="s">
         <v>15</v>
@@ -63507,7 +63513,7 @@
         <v>256824</v>
       </c>
       <c r="B599" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C599" s="13" t="s">
         <v>2045</v>
@@ -63547,14 +63553,14 @@
         <v>256788</v>
       </c>
       <c r="B600" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C600" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D600" s="25"/>
       <c r="E600" s="3" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="F600" s="13" t="s">
         <v>15</v>
@@ -63587,14 +63593,14 @@
         <v>256791</v>
       </c>
       <c r="B601" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C601" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D601" s="25"/>
       <c r="E601" s="3" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="F601" s="13" t="s">
         <v>15</v>
@@ -63627,14 +63633,14 @@
         <v>256760</v>
       </c>
       <c r="B602" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C602" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D602" s="25"/>
       <c r="E602" s="3" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="F602" s="13" t="s">
         <v>15</v>
@@ -63667,14 +63673,14 @@
         <v>426390</v>
       </c>
       <c r="B603" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C603" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D603" s="25"/>
       <c r="E603" s="3" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="F603" s="13" t="s">
         <v>15</v>
@@ -63707,7 +63713,7 @@
         <v>433316</v>
       </c>
       <c r="B604" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C604" s="13" t="s">
         <v>2045</v>
@@ -63747,14 +63753,14 @@
         <v>256771</v>
       </c>
       <c r="B605" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C605" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D605" s="25"/>
       <c r="E605" s="3" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="F605" s="13" t="s">
         <v>15</v>
@@ -63787,7 +63793,7 @@
         <v>420913</v>
       </c>
       <c r="B606" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C606" s="13" t="s">
         <v>2045</v>
@@ -63827,7 +63833,7 @@
         <v>256830</v>
       </c>
       <c r="B607" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C607" s="13" t="s">
         <v>2045</v>
@@ -63867,14 +63873,14 @@
         <v>256783</v>
       </c>
       <c r="B608" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C608" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D608" s="25"/>
       <c r="E608" s="3" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="F608" s="13" t="s">
         <v>15</v>
@@ -63907,7 +63913,7 @@
         <v>433305</v>
       </c>
       <c r="B609" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C609" s="13" t="s">
         <v>2045</v>
@@ -63947,14 +63953,14 @@
         <v>429622</v>
       </c>
       <c r="B610" s="13" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="C610" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D610" s="25"/>
       <c r="E610" s="3" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="F610" s="13" t="s">
         <v>15</v>
@@ -63987,14 +63993,14 @@
         <v>420952</v>
       </c>
       <c r="B611" s="13" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C611" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D611" s="25"/>
       <c r="E611" s="3" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="F611" s="13" t="s">
         <v>15</v>
@@ -64027,14 +64033,14 @@
         <v>453835</v>
       </c>
       <c r="B612" s="13" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C612" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D612" s="25"/>
       <c r="E612" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="F612" s="13" t="s">
         <v>15</v>
@@ -64067,14 +64073,14 @@
         <v>426393</v>
       </c>
       <c r="B613" s="13" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C613" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D613" s="25"/>
       <c r="E613" s="3" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="F613" s="13" t="s">
         <v>15</v>
@@ -64105,7 +64111,7 @@
         <v>760794</v>
       </c>
       <c r="B614" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C614" s="13" t="s">
         <v>2045</v>
@@ -64143,7 +64149,7 @@
         <v>391227</v>
       </c>
       <c r="B615" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C615" s="13" t="s">
         <v>2045</v>
@@ -64183,7 +64189,7 @@
         <v>537037</v>
       </c>
       <c r="B616" s="13" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C616" s="13" t="s">
         <v>2045</v>
@@ -64223,7 +64229,7 @@
         <v>755033</v>
       </c>
       <c r="B617" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C617" s="13" t="s">
         <v>2045</v>
@@ -64261,7 +64267,7 @@
         <v>755031</v>
       </c>
       <c r="B618" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C618" s="13" t="s">
         <v>2045</v>
@@ -64299,7 +64305,7 @@
         <v>256832</v>
       </c>
       <c r="B619" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C619" s="13" t="s">
         <v>2045</v>
@@ -64339,7 +64345,7 @@
         <v>256785</v>
       </c>
       <c r="B620" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C620" s="13" t="s">
         <v>2045</v>
@@ -64379,7 +64385,7 @@
         <v>256839</v>
       </c>
       <c r="B621" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C621" s="13" t="s">
         <v>2045</v>
@@ -64419,7 +64425,7 @@
         <v>256768</v>
       </c>
       <c r="B622" s="13" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="C622" s="13" t="s">
         <v>2045</v>
@@ -64459,14 +64465,14 @@
         <v>256781</v>
       </c>
       <c r="B623" s="13" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="C623" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D623" s="25"/>
       <c r="E623" s="3" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="F623" s="13" t="s">
         <v>15</v>
@@ -64499,7 +64505,7 @@
         <v>521878</v>
       </c>
       <c r="B624" s="13" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C624" s="13" t="s">
         <v>2045</v>
@@ -64539,7 +64545,7 @@
         <v>502300</v>
       </c>
       <c r="B625" s="13" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="C625" s="13" t="s">
         <v>2045</v>
@@ -64579,7 +64585,7 @@
         <v>751558</v>
       </c>
       <c r="B626" s="13" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C626" s="13" t="s">
         <v>2045</v>
@@ -64617,7 +64623,7 @@
         <v>751556</v>
       </c>
       <c r="B627" s="13" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C627" s="13" t="s">
         <v>2045</v>
@@ -64655,7 +64661,7 @@
         <v>470863</v>
       </c>
       <c r="B628" s="13" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C628" s="13" t="s">
         <v>2045</v>
@@ -64695,7 +64701,7 @@
         <v>256816</v>
       </c>
       <c r="B629" s="13" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C629" s="13" t="s">
         <v>2045</v>
@@ -64735,7 +64741,7 @@
         <v>256809</v>
       </c>
       <c r="B630" s="13" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C630" s="13" t="s">
         <v>2045</v>
@@ -64775,7 +64781,7 @@
         <v>256833</v>
       </c>
       <c r="B631" s="13" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="C631" s="13" t="s">
         <v>2045</v>
@@ -64815,7 +64821,7 @@
         <v>750632</v>
       </c>
       <c r="B632" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C632" s="13" t="s">
         <v>2045</v>
@@ -64853,7 +64859,7 @@
         <v>750593</v>
       </c>
       <c r="B633" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C633" s="13" t="s">
         <v>2045</v>
@@ -64891,7 +64897,7 @@
         <v>256810</v>
       </c>
       <c r="B634" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C634" s="13" t="s">
         <v>2045</v>
@@ -64931,7 +64937,7 @@
         <v>700560</v>
       </c>
       <c r="B635" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="C635" s="13" t="s">
         <v>2045</v>
@@ -64969,7 +64975,7 @@
         <v>729199</v>
       </c>
       <c r="B636" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="C636" s="13" t="s">
         <v>2045</v>
@@ -65007,7 +65013,7 @@
         <v>256766</v>
       </c>
       <c r="B637" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="C637" s="13" t="s">
         <v>2045</v>
@@ -65047,7 +65053,7 @@
         <v>256767</v>
       </c>
       <c r="B638" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="C638" s="13" t="s">
         <v>2045</v>
@@ -65087,7 +65093,7 @@
         <v>448617</v>
       </c>
       <c r="B639" s="13" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C639" s="13" t="s">
         <v>2045</v>
@@ -65127,14 +65133,14 @@
         <v>256834</v>
       </c>
       <c r="B640" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C640" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D640" s="25"/>
       <c r="E640" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="F640" s="13" t="s">
         <v>15</v>
@@ -65167,7 +65173,7 @@
         <v>256795</v>
       </c>
       <c r="B641" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C641" s="13" t="s">
         <v>2045</v>
@@ -65207,7 +65213,7 @@
         <v>483772</v>
       </c>
       <c r="B642" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C642" s="13" t="s">
         <v>2045</v>
@@ -65247,14 +65253,14 @@
         <v>710915</v>
       </c>
       <c r="B643" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C643" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D643" s="25"/>
       <c r="E643" s="3" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="F643" s="13" t="s">
         <v>15</v>
@@ -65287,7 +65293,7 @@
         <v>529998</v>
       </c>
       <c r="B644" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C644" s="13" t="s">
         <v>2045</v>
@@ -65327,7 +65333,7 @@
         <v>579418</v>
       </c>
       <c r="B645" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C645" s="13" t="s">
         <v>2045</v>
@@ -65367,14 +65373,14 @@
         <v>520407</v>
       </c>
       <c r="B646" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C646" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D646" s="25"/>
       <c r="E646" s="3" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="F646" s="13" t="s">
         <v>15</v>
@@ -65407,7 +65413,7 @@
         <v>561391</v>
       </c>
       <c r="B647" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C647" s="13" t="s">
         <v>2045</v>
@@ -65447,14 +65453,14 @@
         <v>744471</v>
       </c>
       <c r="B648" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C648" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D648" s="25"/>
       <c r="E648" s="3" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="F648" s="13" t="s">
         <v>15</v>
@@ -65485,7 +65491,7 @@
         <v>744469</v>
       </c>
       <c r="B649" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C649" s="13" t="s">
         <v>2045</v>
@@ -65525,14 +65531,14 @@
         <v>256843</v>
       </c>
       <c r="B650" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C650" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D650" s="25"/>
       <c r="E650" s="3" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="F650" s="13" t="s">
         <v>15</v>
@@ -65565,7 +65571,7 @@
         <v>256841</v>
       </c>
       <c r="B651" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C651" s="13" t="s">
         <v>2045</v>
@@ -65605,7 +65611,7 @@
         <v>256762</v>
       </c>
       <c r="B652" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C652" s="13" t="s">
         <v>2045</v>
@@ -65645,7 +65651,7 @@
         <v>756927</v>
       </c>
       <c r="B653" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C653" s="13" t="s">
         <v>2045</v>
@@ -65683,7 +65689,7 @@
         <v>256799</v>
       </c>
       <c r="B654" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C654" s="13" t="s">
         <v>2045</v>
@@ -65723,14 +65729,14 @@
         <v>441068</v>
       </c>
       <c r="B655" s="13" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="C655" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D655" s="25"/>
       <c r="E655" s="3" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="F655" s="13" t="s">
         <v>15</v>
@@ -65763,7 +65769,7 @@
         <v>584552</v>
       </c>
       <c r="B656" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C656" s="13" t="s">
         <v>2045</v>
@@ -65803,14 +65809,14 @@
         <v>256801</v>
       </c>
       <c r="B657" s="13" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="C657" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D657" s="25"/>
       <c r="E657" s="3" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="F657" s="13" t="s">
         <v>15</v>
@@ -65843,14 +65849,14 @@
         <v>256794</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C658" s="13" t="s">
         <v>2045</v>
       </c>
       <c r="D658" s="25"/>
       <c r="E658" s="3" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="F658" s="13" t="s">
         <v>15</v>
@@ -65883,7 +65889,7 @@
         <v>482337</v>
       </c>
       <c r="B659" s="13" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="C659" s="13" t="s">
         <v>2045</v>
@@ -65923,7 +65929,7 @@
         <v>452956</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="C660" s="13" t="s">
         <v>2045</v>
@@ -65963,7 +65969,7 @@
         <v>752320</v>
       </c>
       <c r="B661" s="13" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="C661" s="13" t="s">
         <v>2045</v>
@@ -66001,7 +66007,7 @@
         <v>256808</v>
       </c>
       <c r="B662" s="13" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="C662" s="13" t="s">
         <v>2045</v>
@@ -66041,7 +66047,7 @@
         <v>452963</v>
       </c>
       <c r="B663" s="13" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="C663" s="13" t="s">
         <v>2045</v>
@@ -66120,7 +66126,7 @@
       </c>
       <c r="D665" s="26"/>
       <c r="E665" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="F665" s="17" t="s">
         <v>15</v>
@@ -66154,7 +66160,7 @@
         <v>2044</v>
       </c>
       <c r="E666" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="F666" s="13" t="s">
         <v>10</v>
@@ -66163,19 +66169,19 @@
         <v>1181</v>
       </c>
       <c r="H666" s="2" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="J666" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="K666" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="M666" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N666" s="28" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.25">
@@ -66186,7 +66192,7 @@
         <v>2044</v>
       </c>
       <c r="E667" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="F667" s="13" t="s">
         <v>15</v>
@@ -66195,19 +66201,19 @@
         <v>1181</v>
       </c>
       <c r="H667" s="2" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="J667" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="K667" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="M667" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N667" s="28" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.25">
@@ -66218,7 +66224,7 @@
         <v>2044</v>
       </c>
       <c r="E668" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="F668" s="13" t="s">
         <v>10</v>
@@ -66227,19 +66233,19 @@
         <v>1181</v>
       </c>
       <c r="H668" s="28" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="J668" s="13" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="K668" s="28" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="M668" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N668" s="28" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.25">
@@ -66250,7 +66256,7 @@
         <v>2044</v>
       </c>
       <c r="E669" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="F669" s="13" t="s">
         <v>15</v>
@@ -66259,19 +66265,19 @@
         <v>1181</v>
       </c>
       <c r="H669" s="28" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="J669" s="13" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="K669" s="28" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="M669" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N669" s="28" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.25">
@@ -66282,7 +66288,7 @@
         <v>2044</v>
       </c>
       <c r="E670" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="F670" s="13" t="s">
         <v>10</v>
@@ -66291,33 +66297,33 @@
         <v>1181</v>
       </c>
       <c r="H670" s="28" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="I670" s="28" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="J670" s="13" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="K670" s="28" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="M670" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N670" s="28" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A671" s="13" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="C671" s="28" t="s">
         <v>2044</v>
       </c>
       <c r="E671" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="F671" s="13" t="s">
         <v>15</v>
@@ -66326,22 +66332,22 @@
         <v>1181</v>
       </c>
       <c r="H671" s="28" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="I671" s="28" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="J671" s="13" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="K671" s="28" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="M671" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N671" s="28" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.25">
@@ -66361,22 +66367,22 @@
         <v>1181</v>
       </c>
       <c r="H672" s="28" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="I672" s="28" t="s">
+        <v>2438</v>
+      </c>
+      <c r="J672" s="13" t="s">
+        <v>2438</v>
+      </c>
+      <c r="K672" s="28" t="s">
         <v>2440</v>
-      </c>
-      <c r="J672" s="13" t="s">
-        <v>2440</v>
-      </c>
-      <c r="K672" s="28" t="s">
-        <v>2442</v>
       </c>
       <c r="M672" s="29" t="s">
         <v>12</v>
       </c>
       <c r="N672" s="28" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
   </sheetData>

--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sort_Rank for Min" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sort_Rank for Min'!$A$1:$N$665</definedName>
     <definedName name="NVCG_Titles" localSheetId="0">'Sort_Rank for Min'!$A$1:$J$360</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6950" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6954" uniqueCount="1932">
   <si>
     <t>CDR-ID</t>
   </si>
@@ -5332,18 +5332,12 @@
     <t>No?</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/cancer/deteccion/aspectos-generales-pdq/pro</t>
-  </si>
-  <si>
     <t>www.cancer.gov/types/lymphoma/hp/primary-cns-lymphoma-treatment-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/types/lymphoma/patient/primary-cns-lymphoma-treatment-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/cancer/causas-prevencion/aspectos-generales-prevencion-pdq/pro</t>
-  </si>
-  <si>
     <t>www.cancer.gov/espanol/tipos/uterino/pro/prevencion-endometrio-pdq</t>
   </si>
   <si>
@@ -5515,13 +5509,7 @@
     <t>www.cancer.gov/espanol/tipos/hueso/pro/tratamiento-osteosarcoma-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/cancer/causas-prevencion/aspectos-generales-prevencion-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/espanol/tipos/uterino/paciente/prevencion-endometrio-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/espanol/cancer/deteccion/aspectos-generales-deteccion-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/espanol/tipos/uterino/paciente/deteccion-endometrio-pdq</t>
@@ -5835,6 +5823,24 @@
   </si>
   <si>
     <t>Ovarian, Fallopian Tube, &amp; Primary Peritoneal Cancer Screening</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/causas-prevencion/aspectos-generales-prevencion-paciente-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/causas-prevencion/aspectos-generales-prevencion-pro-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/deteccion/aspectos-generales-deteccion-paciente-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/deteccion/aspectos-generales-deteccion-pro-pdq</t>
+  </si>
+  <si>
+    <t>Exámenes de detección del cáncer de ovario, de trompas de Falopio y primario de peritoneo</t>
+  </si>
+  <si>
+    <t>Prevención del cáncer de ovario, de trompas de Falopio y primario de peritoneo</t>
   </si>
 </sst>
 </file>
@@ -8322,34 +8328,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E590" sqref="E590"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K314" sqref="K314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="33.125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="64.75" style="14" customWidth="1"/>
+    <col min="13" max="13" width="6.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="14" customWidth="1"/>
     <col min="16" max="16" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="14" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -8402,7 +8408,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>62821</v>
       </c>
@@ -8454,7 +8460,7 @@
       </c>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>62828</v>
       </c>
@@ -8504,7 +8510,7 @@
       </c>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>543592</v>
       </c>
@@ -8554,7 +8560,7 @@
       </c>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>577190</v>
       </c>
@@ -8602,7 +8608,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>755559</v>
       </c>
@@ -8654,7 +8660,7 @@
       </c>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>757898</v>
       </c>
@@ -8704,7 +8710,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>517309</v>
       </c>
@@ -8752,7 +8758,7 @@
       </c>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>62865</v>
       </c>
@@ -8804,7 +8810,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>454520</v>
       </c>
@@ -8841,7 +8847,7 @@
         <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="2"/>
@@ -8856,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>62765</v>
       </c>
@@ -8893,7 +8899,7 @@
         <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="2"/>
@@ -8908,7 +8914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>62879</v>
       </c>
@@ -8958,7 +8964,7 @@
       </c>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>62889</v>
       </c>
@@ -9010,7 +9016,7 @@
       </c>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>62858</v>
       </c>
@@ -9060,7 +9066,7 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>62861</v>
       </c>
@@ -9108,7 +9114,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>618162</v>
       </c>
@@ -9158,7 +9164,7 @@
       </c>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>630144</v>
       </c>
@@ -9206,7 +9212,7 @@
       </c>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>328116</v>
       </c>
@@ -9256,7 +9262,7 @@
       </c>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>301599</v>
       </c>
@@ -9304,7 +9310,7 @@
       </c>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>681705</v>
       </c>
@@ -9356,7 +9362,7 @@
       </c>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>682690</v>
       </c>
@@ -9404,7 +9410,7 @@
       </c>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>62891</v>
       </c>
@@ -9454,7 +9460,7 @@
       </c>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>269124</v>
       </c>
@@ -9504,7 +9510,7 @@
       </c>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>62739</v>
       </c>
@@ -9554,7 +9560,7 @@
       </c>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>62806</v>
       </c>
@@ -9602,7 +9608,7 @@
       </c>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>62793</v>
       </c>
@@ -9652,7 +9658,7 @@
       </c>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>62831</v>
       </c>
@@ -9700,7 +9706,7 @@
       </c>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:17" ht="15">
+    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>453888</v>
       </c>
@@ -9737,7 +9743,7 @@
         <v>80</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="2"/>
@@ -9752,7 +9758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>62758</v>
       </c>
@@ -9789,7 +9795,7 @@
         <v>80</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="2"/>
@@ -9804,7 +9810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>62972</v>
       </c>
@@ -9852,7 +9858,7 @@
       </c>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>445441</v>
       </c>
@@ -9900,7 +9906,7 @@
       </c>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>570132</v>
       </c>
@@ -9948,7 +9954,7 @@
       </c>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>441069</v>
       </c>
@@ -9998,7 +10004,7 @@
       </c>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>745420</v>
       </c>
@@ -10048,7 +10054,7 @@
       </c>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>683767</v>
       </c>
@@ -10098,7 +10104,7 @@
       </c>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>62973</v>
       </c>
@@ -10146,7 +10152,7 @@
       </c>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>62974</v>
       </c>
@@ -10196,7 +10202,7 @@
       </c>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>62979</v>
       </c>
@@ -10244,7 +10250,7 @@
       </c>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>301806</v>
       </c>
@@ -10292,7 +10298,7 @@
       </c>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>538268</v>
       </c>
@@ -10340,7 +10346,7 @@
       </c>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>410719</v>
       </c>
@@ -10388,7 +10394,7 @@
       </c>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>62975</v>
       </c>
@@ -10436,7 +10442,7 @@
       </c>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>62976</v>
       </c>
@@ -10484,7 +10490,7 @@
       </c>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>347008</v>
       </c>
@@ -10532,7 +10538,7 @@
       </c>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>269596</v>
       </c>
@@ -10580,7 +10586,7 @@
       </c>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>62978</v>
       </c>
@@ -10628,7 +10634,7 @@
       </c>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>404384</v>
       </c>
@@ -10676,7 +10682,7 @@
       </c>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>719335</v>
       </c>
@@ -10726,7 +10732,7 @@
       </c>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>285728</v>
       </c>
@@ -10774,7 +10780,7 @@
       </c>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>742114</v>
       </c>
@@ -10822,7 +10828,7 @@
       </c>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>446580</v>
       </c>
@@ -10870,7 +10876,7 @@
       </c>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>458088</v>
       </c>
@@ -10918,7 +10924,7 @@
       </c>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>539333</v>
       </c>
@@ -10966,7 +10972,7 @@
       </c>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>458089</v>
       </c>
@@ -11016,7 +11022,7 @@
       </c>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>745658</v>
       </c>
@@ -11066,7 +11072,7 @@
       </c>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>688139</v>
       </c>
@@ -11116,7 +11122,7 @@
       </c>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>446184</v>
       </c>
@@ -11164,7 +11170,7 @@
       </c>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>446198</v>
       </c>
@@ -11214,7 +11220,7 @@
       </c>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>446290</v>
       </c>
@@ -11262,7 +11268,7 @@
       </c>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>446303</v>
       </c>
@@ -11310,7 +11316,7 @@
       </c>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>453628</v>
       </c>
@@ -11358,7 +11364,7 @@
       </c>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>453795</v>
       </c>
@@ -11406,7 +11412,7 @@
       </c>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>446177</v>
       </c>
@@ -11454,7 +11460,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>446369</v>
       </c>
@@ -11502,7 +11508,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>466216</v>
       </c>
@@ -11550,7 +11556,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>449678</v>
       </c>
@@ -11598,7 +11604,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>446370</v>
       </c>
@@ -11646,7 +11652,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>467217</v>
       </c>
@@ -11694,7 +11700,7 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>719565</v>
       </c>
@@ -11744,7 +11750,7 @@
       </c>
       <c r="Q69" s="7"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>466209</v>
       </c>
@@ -11792,7 +11798,7 @@
       </c>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>742253</v>
       </c>
@@ -11840,7 +11846,7 @@
       </c>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>276584</v>
       </c>
@@ -11890,7 +11896,7 @@
       </c>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>286996</v>
       </c>
@@ -11938,7 +11944,7 @@
       </c>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>352186</v>
       </c>
@@ -11986,7 +11992,7 @@
       </c>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>352193</v>
       </c>
@@ -12034,7 +12040,7 @@
       </c>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>62736</v>
       </c>
@@ -12086,7 +12092,7 @@
       </c>
       <c r="Q76" s="7"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>62834</v>
       </c>
@@ -12136,7 +12142,7 @@
       </c>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>62734</v>
       </c>
@@ -12186,7 +12192,7 @@
       </c>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>62811</v>
       </c>
@@ -12234,7 +12240,7 @@
       </c>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>598435</v>
       </c>
@@ -12284,7 +12290,7 @@
       </c>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="1:17" s="21" customFormat="1">
+    <row r="81" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>62799</v>
       </c>
@@ -12332,7 +12338,7 @@
       </c>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="1:17" s="21" customFormat="1">
+    <row r="82" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>62772</v>
       </c>
@@ -12380,7 +12386,7 @@
       </c>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="1:17" s="21" customFormat="1">
+    <row r="83" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>62826</v>
       </c>
@@ -12428,7 +12434,7 @@
       </c>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="1:17" s="21" customFormat="1">
+    <row r="84" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>62870</v>
       </c>
@@ -12480,7 +12486,7 @@
       </c>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>62871</v>
       </c>
@@ -12530,7 +12536,7 @@
       </c>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>62747</v>
       </c>
@@ -12582,7 +12588,7 @@
       </c>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>62804</v>
       </c>
@@ -12632,7 +12638,7 @@
       </c>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>62738</v>
       </c>
@@ -12682,7 +12688,7 @@
       </c>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>62845</v>
       </c>
@@ -12730,7 +12736,7 @@
       </c>
       <c r="Q89" s="7"/>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>62742</v>
       </c>
@@ -12782,7 +12788,7 @@
       </c>
       <c r="Q90" s="7"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>62827</v>
       </c>
@@ -12832,7 +12838,7 @@
       </c>
       <c r="Q91" s="7"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>62859</v>
       </c>
@@ -12884,7 +12890,7 @@
       </c>
       <c r="Q92" s="8"/>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>62862</v>
       </c>
@@ -12934,7 +12940,7 @@
       </c>
       <c r="Q93" s="8"/>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>62748</v>
       </c>
@@ -12984,7 +12990,7 @@
       </c>
       <c r="Q94" s="7"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>62805</v>
       </c>
@@ -13032,7 +13038,7 @@
       </c>
       <c r="Q95" s="7"/>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>62746</v>
       </c>
@@ -13080,7 +13086,7 @@
       </c>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>62814</v>
       </c>
@@ -13128,7 +13134,7 @@
       </c>
       <c r="Q97" s="9"/>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>584383</v>
       </c>
@@ -13163,7 +13169,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="10" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="M98" s="8">
         <f t="shared" si="5"/>
@@ -13176,7 +13182,7 @@
       </c>
       <c r="Q98" s="4"/>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>553030</v>
       </c>
@@ -13211,7 +13217,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="7" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="M99" s="8">
         <f t="shared" si="5"/>
@@ -13224,7 +13230,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>256661</v>
       </c>
@@ -13259,7 +13265,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="7" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="M100" s="8">
         <f t="shared" si="5"/>
@@ -13272,7 +13278,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>256638</v>
       </c>
@@ -13307,7 +13313,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="7" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="M101" s="8">
         <f t="shared" si="5"/>
@@ -13320,9 +13326,9 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="B102" s="25" t="s">
         <v>15</v>
@@ -13334,30 +13340,30 @@
         <v>18</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="J102" s="25" t="s">
+        <v>1899</v>
+      </c>
+      <c r="K102" s="25" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L102" s="27" t="s">
         <v>1903</v>
-      </c>
-      <c r="K102" s="25" t="s">
-        <v>1904</v>
-      </c>
-      <c r="L102" s="27" t="s">
-        <v>1907</v>
       </c>
       <c r="M102" s="8">
         <f t="shared" si="5"/>
@@ -13370,7 +13376,7 @@
       </c>
       <c r="Q102" s="27"/>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
         <v>765474</v>
       </c>
@@ -13384,30 +13390,30 @@
         <v>18</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="J103" s="25" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="L103" s="24" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="M103" s="8">
         <f t="shared" si="5"/>
@@ -13420,7 +13426,7 @@
       </c>
       <c r="Q103" s="24"/>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>732778</v>
       </c>
@@ -13456,12 +13462,12 @@
       <c r="K104" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="L104" s="7" t="s">
-        <v>1823</v>
+      <c r="L104" t="s">
+        <v>1926</v>
       </c>
       <c r="M104" s="8">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N104" s="7"/>
       <c r="O104" s="2"/>
@@ -13470,7 +13476,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>733565</v>
       </c>
@@ -13506,8 +13512,8 @@
       <c r="K105" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="L105" s="7" t="s">
-        <v>1765</v>
+      <c r="L105" t="s">
+        <v>1927</v>
       </c>
       <c r="M105" s="8">
         <f t="shared" si="5"/>
@@ -13520,7 +13526,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>256663</v>
       </c>
@@ -13568,7 +13574,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>761539</v>
       </c>
@@ -13616,7 +13622,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>256640</v>
       </c>
@@ -13664,7 +13670,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>761538</v>
       </c>
@@ -13712,7 +13718,7 @@
       </c>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>732631</v>
       </c>
@@ -13748,12 +13754,12 @@
       <c r="K110" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="L110" s="7" t="s">
-        <v>1825</v>
+      <c r="L110" t="s">
+        <v>1928</v>
       </c>
       <c r="M110" s="8">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="N110" s="7"/>
       <c r="O110" s="2"/>
@@ -13762,7 +13768,7 @@
       </c>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>732670</v>
       </c>
@@ -13798,12 +13804,12 @@
       <c r="K111" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="L111" s="7" t="s">
-        <v>1762</v>
+      <c r="L111" t="s">
+        <v>1929</v>
       </c>
       <c r="M111" s="8">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N111" s="7"/>
       <c r="O111" s="2"/>
@@ -13812,7 +13818,7 @@
       </c>
       <c r="Q111" s="2"/>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>643303</v>
       </c>
@@ -13847,7 +13853,7 @@
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="7" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="M112" s="8">
         <f t="shared" si="5"/>
@@ -13860,7 +13866,7 @@
       </c>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>629642</v>
       </c>
@@ -13908,7 +13914,7 @@
       </c>
       <c r="Q113" s="2"/>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>334873</v>
       </c>
@@ -13958,7 +13964,7 @@
       </c>
       <c r="Q114" s="2"/>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>335457</v>
       </c>
@@ -14008,7 +14014,7 @@
       </c>
       <c r="Q115" s="2"/>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>703039</v>
       </c>
@@ -14058,7 +14064,7 @@
       </c>
       <c r="Q116" s="2"/>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>683133</v>
       </c>
@@ -14108,7 +14114,7 @@
       </c>
       <c r="Q117" s="2"/>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>269587</v>
       </c>
@@ -14158,7 +14164,7 @@
       </c>
       <c r="Q118" s="2"/>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>256643</v>
       </c>
@@ -14208,7 +14214,7 @@
       </c>
       <c r="Q119" s="2"/>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>256659</v>
       </c>
@@ -14256,7 +14262,7 @@
       </c>
       <c r="Q120" s="2"/>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>256636</v>
       </c>
@@ -14304,7 +14310,7 @@
       </c>
       <c r="Q121" s="2"/>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>256660</v>
       </c>
@@ -14352,7 +14358,7 @@
       </c>
       <c r="Q122" s="2"/>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>256637</v>
       </c>
@@ -14400,7 +14406,7 @@
       </c>
       <c r="Q123" s="2"/>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="25">
         <v>765469</v>
       </c>
@@ -14414,14 +14420,14 @@
         <v>12</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="H124" s="24"/>
       <c r="I124" s="7">
@@ -14429,13 +14435,13 @@
         <v>0</v>
       </c>
       <c r="J124" s="25" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="K124" s="25" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="L124" s="24" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="M124" s="8">
         <f t="shared" si="5"/>
@@ -14448,7 +14454,7 @@
       </c>
       <c r="Q124" s="24"/>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="25">
         <v>765470</v>
       </c>
@@ -14462,14 +14468,14 @@
         <v>12</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="H125" s="24"/>
       <c r="I125" s="7">
@@ -14477,13 +14483,13 @@
         <v>0</v>
       </c>
       <c r="J125" s="25" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="M125" s="8">
         <f t="shared" si="5"/>
@@ -14496,7 +14502,7 @@
       </c>
       <c r="Q125" s="24"/>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="25">
         <v>765468</v>
       </c>
@@ -14510,14 +14516,14 @@
         <v>12</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="7">
@@ -14525,13 +14531,13 @@
         <v>0</v>
       </c>
       <c r="J126" s="25" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="K126" s="25" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="L126" s="24" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="M126" s="8">
         <f t="shared" si="5"/>
@@ -14544,7 +14550,7 @@
       </c>
       <c r="Q126" s="24"/>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="25">
         <v>765718</v>
       </c>
@@ -14558,14 +14564,14 @@
         <v>12</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="H127" s="24"/>
       <c r="I127" s="7">
@@ -14573,13 +14579,13 @@
         <v>0</v>
       </c>
       <c r="J127" s="25" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="K127" s="25" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="L127" s="24" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="M127" s="8">
         <f t="shared" si="5"/>
@@ -14592,7 +14598,7 @@
       </c>
       <c r="Q127" s="24"/>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>256665</v>
       </c>
@@ -14640,7 +14646,7 @@
       </c>
       <c r="Q128" s="2"/>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>256642</v>
       </c>
@@ -14688,7 +14694,7 @@
       </c>
       <c r="Q129" s="2"/>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>256622</v>
       </c>
@@ -14723,7 +14729,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="7" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="M130" s="8">
         <f t="shared" si="5"/>
@@ -14736,7 +14742,7 @@
       </c>
       <c r="Q130" s="2"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>256645</v>
       </c>
@@ -14771,7 +14777,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="7" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="M131" s="8">
         <f t="shared" ref="M131:M194" si="8">LEN(L131)</f>
@@ -14784,7 +14790,7 @@
       </c>
       <c r="Q131" s="2"/>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>361803</v>
       </c>
@@ -14832,7 +14838,7 @@
       </c>
       <c r="Q132" s="2"/>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>357358</v>
       </c>
@@ -14880,7 +14886,7 @@
       </c>
       <c r="Q133" s="2"/>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>256654</v>
       </c>
@@ -14928,7 +14934,7 @@
       </c>
       <c r="Q134" s="2"/>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>256631</v>
       </c>
@@ -14963,7 +14969,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="7" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="M135" s="8">
         <f t="shared" si="8"/>
@@ -14976,7 +14982,7 @@
       </c>
       <c r="Q135" s="2"/>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>256647</v>
       </c>
@@ -15011,7 +15017,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="7" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="M136" s="8">
         <f t="shared" si="8"/>
@@ -15024,7 +15030,7 @@
       </c>
       <c r="Q136" s="2"/>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>256624</v>
       </c>
@@ -15059,7 +15065,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="7" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="M137" s="8">
         <f t="shared" si="8"/>
@@ -15072,7 +15078,7 @@
       </c>
       <c r="Q137" s="2"/>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>256650</v>
       </c>
@@ -15120,7 +15126,7 @@
       </c>
       <c r="Q138" s="2"/>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>256627</v>
       </c>
@@ -15168,7 +15174,7 @@
       </c>
       <c r="Q139" s="2"/>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>256649</v>
       </c>
@@ -15203,7 +15209,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="7" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="M140" s="8">
         <f t="shared" si="8"/>
@@ -15216,7 +15222,7 @@
       </c>
       <c r="Q140" s="2"/>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>256626</v>
       </c>
@@ -15251,7 +15257,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="7" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="M141" s="8">
         <f t="shared" si="8"/>
@@ -15264,7 +15270,7 @@
       </c>
       <c r="Q141" s="2"/>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>256644</v>
       </c>
@@ -15314,7 +15320,7 @@
       </c>
       <c r="Q142" s="2"/>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>600442</v>
       </c>
@@ -15364,7 +15370,7 @@
       </c>
       <c r="Q143" s="2"/>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>256657</v>
       </c>
@@ -15412,7 +15418,7 @@
       </c>
       <c r="Q144" s="2"/>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>256634</v>
       </c>
@@ -15460,7 +15466,7 @@
       </c>
       <c r="Q145" s="2"/>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>256652</v>
       </c>
@@ -15508,7 +15514,7 @@
       </c>
       <c r="Q146" s="2"/>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>256629</v>
       </c>
@@ -15556,7 +15562,7 @@
       </c>
       <c r="Q147" s="2"/>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>256653</v>
       </c>
@@ -15593,7 +15599,7 @@
         <v>960</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="M148" s="8">
         <f t="shared" si="8"/>
@@ -15606,7 +15612,7 @@
       </c>
       <c r="Q148" s="2"/>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>256630</v>
       </c>
@@ -15643,7 +15649,7 @@
         <v>960</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="M149" s="8">
         <f t="shared" si="8"/>
@@ -15656,7 +15662,7 @@
       </c>
       <c r="Q149" s="2"/>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>256664</v>
       </c>
@@ -15693,7 +15699,7 @@
         <v>920</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="M150" s="8">
         <f t="shared" si="8"/>
@@ -15706,7 +15712,7 @@
       </c>
       <c r="Q150" s="2"/>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>256641</v>
       </c>
@@ -15743,7 +15749,7 @@
         <v>920</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="M151" s="8">
         <f t="shared" si="8"/>
@@ -15756,7 +15762,7 @@
       </c>
       <c r="Q151" s="2"/>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>256646</v>
       </c>
@@ -15791,7 +15797,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="7" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="M152" s="8">
         <f t="shared" si="8"/>
@@ -15804,7 +15810,7 @@
       </c>
       <c r="Q152" s="2"/>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>256623</v>
       </c>
@@ -15839,7 +15845,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="7" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="M153" s="8">
         <f t="shared" si="8"/>
@@ -15852,7 +15858,7 @@
       </c>
       <c r="Q153" s="2"/>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>663162</v>
       </c>
@@ -15902,7 +15908,7 @@
       </c>
       <c r="Q154" s="2"/>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>733829</v>
       </c>
@@ -15939,7 +15945,7 @@
         <v>913</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="M155" s="8">
         <f t="shared" si="8"/>
@@ -15952,7 +15958,7 @@
       </c>
       <c r="Q155" s="2"/>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>257273</v>
       </c>
@@ -16002,7 +16008,7 @@
       </c>
       <c r="Q156" s="2"/>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>761654</v>
       </c>
@@ -16052,7 +16058,7 @@
       </c>
       <c r="Q157" s="2"/>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>256763</v>
       </c>
@@ -16104,7 +16110,7 @@
       </c>
       <c r="Q158" s="2"/>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>761653</v>
       </c>
@@ -16154,7 +16160,7 @@
       </c>
       <c r="Q159" s="2"/>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>256669</v>
       </c>
@@ -16206,7 +16212,7 @@
       </c>
       <c r="Q160" s="2"/>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>760928</v>
       </c>
@@ -16256,7 +16262,7 @@
       </c>
       <c r="Q161" s="2"/>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>760926</v>
       </c>
@@ -16306,7 +16312,7 @@
       </c>
       <c r="Q162" s="2"/>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>509727</v>
       </c>
@@ -16358,7 +16364,7 @@
       </c>
       <c r="Q163" s="2"/>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>530606</v>
       </c>
@@ -16410,7 +16416,7 @@
       </c>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>256820</v>
       </c>
@@ -16447,7 +16453,7 @@
         <v>1033</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="M165" s="8">
         <f t="shared" si="8"/>
@@ -16462,7 +16468,7 @@
       </c>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>486932</v>
       </c>
@@ -16499,7 +16505,7 @@
         <v>1041</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="M166" s="8">
         <f t="shared" si="8"/>
@@ -16514,7 +16520,7 @@
       </c>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>393556</v>
       </c>
@@ -16566,7 +16572,7 @@
       </c>
       <c r="Q167" s="2"/>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>256817</v>
       </c>
@@ -16618,7 +16624,7 @@
       </c>
       <c r="Q168" s="2"/>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>525763</v>
       </c>
@@ -16670,7 +16676,7 @@
       </c>
       <c r="Q169" s="2"/>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>558933</v>
       </c>
@@ -16722,7 +16728,7 @@
       </c>
       <c r="Q170" s="2"/>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>760927</v>
       </c>
@@ -16772,7 +16778,7 @@
       </c>
       <c r="Q171" s="2"/>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>760925</v>
       </c>
@@ -16822,7 +16828,7 @@
       </c>
       <c r="Q172" s="2"/>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>256724</v>
       </c>
@@ -16874,7 +16880,7 @@
       </c>
       <c r="Q173" s="2"/>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>256725</v>
       </c>
@@ -16926,7 +16932,7 @@
       </c>
       <c r="Q174" s="2"/>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>256726</v>
       </c>
@@ -16963,7 +16969,7 @@
         <v>1033</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="M175" s="8">
         <f t="shared" si="8"/>
@@ -16978,7 +16984,7 @@
       </c>
       <c r="Q175" s="2"/>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>256734</v>
       </c>
@@ -17015,7 +17021,7 @@
         <v>1041</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="M176" s="8">
         <f t="shared" si="8"/>
@@ -17030,7 +17036,7 @@
       </c>
       <c r="Q176" s="2"/>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>256727</v>
       </c>
@@ -17082,7 +17088,7 @@
       </c>
       <c r="Q177" s="2"/>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>256723</v>
       </c>
@@ -17134,7 +17140,7 @@
       </c>
       <c r="Q178" s="2"/>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>256728</v>
       </c>
@@ -17186,7 +17192,7 @@
       </c>
       <c r="Q179" s="2"/>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>256735</v>
       </c>
@@ -17238,7 +17244,7 @@
       </c>
       <c r="Q180" s="2"/>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>617025</v>
       </c>
@@ -17273,7 +17279,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="8" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="M181" s="8">
         <f t="shared" si="8"/>
@@ -17288,7 +17294,7 @@
       </c>
       <c r="Q181" s="3"/>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>598505</v>
       </c>
@@ -17323,7 +17329,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="8" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="M182" s="8">
         <f t="shared" si="8"/>
@@ -17338,7 +17344,7 @@
       </c>
       <c r="Q182" s="3"/>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>429650</v>
       </c>
@@ -17373,7 +17379,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="8" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="M183" s="8">
         <f t="shared" si="8"/>
@@ -17388,7 +17394,7 @@
       </c>
       <c r="Q183" s="3"/>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>371825</v>
       </c>
@@ -17423,7 +17429,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="8" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="M184" s="8">
         <f t="shared" si="8"/>
@@ -17438,7 +17444,7 @@
       </c>
       <c r="Q184" s="3"/>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>256851</v>
       </c>
@@ -17475,7 +17481,7 @@
         <v>1149</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="M185" s="8">
         <f t="shared" si="8"/>
@@ -17490,7 +17496,7 @@
       </c>
       <c r="Q185" s="3"/>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>256757</v>
       </c>
@@ -17527,7 +17533,7 @@
         <v>1149</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="M186" s="8">
         <f t="shared" si="8"/>
@@ -17542,7 +17548,7 @@
       </c>
       <c r="Q186" s="3"/>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>728604</v>
       </c>
@@ -17577,7 +17583,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="8" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="M187" s="8">
         <f t="shared" si="8"/>
@@ -17592,7 +17598,7 @@
       </c>
       <c r="Q187" s="3"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>665736</v>
       </c>
@@ -17644,7 +17650,7 @@
       </c>
       <c r="Q188" s="2"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>632891</v>
       </c>
@@ -17681,7 +17687,7 @@
         <v>1349</v>
       </c>
       <c r="L189" s="7" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="M189" s="8">
         <f t="shared" si="8"/>
@@ -17696,7 +17702,7 @@
       </c>
       <c r="Q189" s="2"/>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>730016</v>
       </c>
@@ -17733,7 +17739,7 @@
         <v>1365</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="M190" s="8">
         <f t="shared" si="8"/>
@@ -17748,7 +17754,7 @@
       </c>
       <c r="Q190" s="2"/>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>256800</v>
       </c>
@@ -17785,7 +17791,7 @@
         <v>1357</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="M191" s="8">
         <f t="shared" si="8"/>
@@ -17800,7 +17806,7 @@
       </c>
       <c r="Q191" s="2"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>600419</v>
       </c>
@@ -17852,7 +17858,7 @@
       </c>
       <c r="Q192" s="2"/>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>632970</v>
       </c>
@@ -17904,7 +17910,7 @@
       </c>
       <c r="Q193" s="2"/>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>611985</v>
       </c>
@@ -17941,7 +17947,7 @@
         <v>1380</v>
       </c>
       <c r="L194" s="7" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="M194" s="8">
         <f t="shared" si="8"/>
@@ -17956,7 +17962,7 @@
       </c>
       <c r="Q194" s="2"/>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>256848</v>
       </c>
@@ -17993,7 +17999,7 @@
         <v>1184</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="M195" s="8">
         <f t="shared" ref="M195:M258" si="11">LEN(L195)</f>
@@ -18008,7 +18014,7 @@
       </c>
       <c r="Q195" s="2"/>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>256776</v>
       </c>
@@ -18060,7 +18066,7 @@
       </c>
       <c r="Q196" s="2"/>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>655358</v>
       </c>
@@ -18112,7 +18118,7 @@
       </c>
       <c r="Q197" s="2"/>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>632470</v>
       </c>
@@ -18149,7 +18155,7 @@
         <v>1349</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="M198" s="8">
         <f t="shared" si="11"/>
@@ -18164,7 +18170,7 @@
       </c>
       <c r="Q198" s="2"/>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>722293</v>
       </c>
@@ -18201,7 +18207,7 @@
         <v>1365</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="M199" s="8">
         <f t="shared" si="11"/>
@@ -18216,7 +18222,7 @@
       </c>
       <c r="Q199" s="2"/>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>256706</v>
       </c>
@@ -18253,7 +18259,7 @@
         <v>1357</v>
       </c>
       <c r="L200" s="7" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="M200" s="8">
         <f t="shared" si="11"/>
@@ -18268,7 +18274,7 @@
       </c>
       <c r="Q200" s="2"/>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>256675</v>
       </c>
@@ -18320,7 +18326,7 @@
       </c>
       <c r="Q201" s="2"/>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>632986</v>
       </c>
@@ -18372,7 +18378,7 @@
       </c>
       <c r="Q202" s="2"/>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>588641</v>
       </c>
@@ -18409,7 +18415,7 @@
         <v>1380</v>
       </c>
       <c r="L203" s="7" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="M203" s="8">
         <f t="shared" si="11"/>
@@ -18424,7 +18430,7 @@
       </c>
       <c r="Q203" s="2"/>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>256754</v>
       </c>
@@ -18461,7 +18467,7 @@
         <v>1184</v>
       </c>
       <c r="L204" s="7" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="M204" s="8">
         <f t="shared" si="11"/>
@@ -18476,7 +18482,7 @@
       </c>
       <c r="Q204" s="2"/>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>256682</v>
       </c>
@@ -18528,7 +18534,7 @@
       </c>
       <c r="Q205" s="2"/>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>744474</v>
       </c>
@@ -18578,7 +18584,7 @@
       </c>
       <c r="Q206" s="2"/>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>744473</v>
       </c>
@@ -18628,7 +18634,7 @@
       </c>
       <c r="Q207" s="2"/>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>256761</v>
       </c>
@@ -18680,7 +18686,7 @@
       </c>
       <c r="Q208" s="2"/>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>256772</v>
       </c>
@@ -18717,7 +18723,7 @@
         <v>1093</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="M209" s="8">
         <f t="shared" si="11"/>
@@ -18732,7 +18738,7 @@
       </c>
       <c r="Q209" s="2"/>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>744628</v>
       </c>
@@ -18782,7 +18788,7 @@
       </c>
       <c r="Q210" s="2"/>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>744472</v>
       </c>
@@ -18832,7 +18838,7 @@
       </c>
       <c r="Q211" s="2"/>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>256667</v>
       </c>
@@ -18884,7 +18890,7 @@
       </c>
       <c r="Q212" s="2"/>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>256678</v>
       </c>
@@ -18921,7 +18927,7 @@
         <v>1093</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="M213" s="8">
         <f t="shared" si="11"/>
@@ -18936,7 +18942,7 @@
       </c>
       <c r="Q213" s="2"/>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>740255</v>
       </c>
@@ -18986,7 +18992,7 @@
       </c>
       <c r="Q214" s="2"/>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>738369</v>
       </c>
@@ -19036,7 +19042,7 @@
       </c>
       <c r="Q215" s="2"/>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>256774</v>
       </c>
@@ -19088,7 +19094,7 @@
       </c>
       <c r="Q216" s="2"/>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>736855</v>
       </c>
@@ -19138,7 +19144,7 @@
       </c>
       <c r="Q217" s="2"/>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>737638</v>
       </c>
@@ -19188,7 +19194,7 @@
       </c>
       <c r="Q218" s="2"/>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>256680</v>
       </c>
@@ -19240,7 +19246,7 @@
       </c>
       <c r="Q219" s="2"/>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>757231</v>
       </c>
@@ -19290,7 +19296,7 @@
       </c>
       <c r="Q220" s="2"/>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>757229</v>
       </c>
@@ -19340,7 +19346,7 @@
       </c>
       <c r="Q221" s="2"/>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>256773</v>
       </c>
@@ -19392,7 +19398,7 @@
       </c>
       <c r="Q222" s="2"/>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>757230</v>
       </c>
@@ -19442,7 +19448,7 @@
       </c>
       <c r="Q223" s="2"/>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>757228</v>
       </c>
@@ -19492,7 +19498,7 @@
       </c>
       <c r="Q224" s="2"/>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>256679</v>
       </c>
@@ -19544,7 +19550,7 @@
       </c>
       <c r="Q225" s="2"/>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>760620</v>
       </c>
@@ -19596,7 +19602,7 @@
       </c>
       <c r="Q226" s="2"/>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>760618</v>
       </c>
@@ -19648,7 +19654,7 @@
       </c>
       <c r="Q227" s="2"/>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>256764</v>
       </c>
@@ -19700,7 +19706,7 @@
       </c>
       <c r="Q228" s="2"/>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>760619</v>
       </c>
@@ -19752,7 +19758,7 @@
       </c>
       <c r="Q229" s="2"/>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>760617</v>
       </c>
@@ -19804,7 +19810,7 @@
       </c>
       <c r="Q230" s="2"/>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>256670</v>
       </c>
@@ -19856,7 +19862,7 @@
       </c>
       <c r="Q231" s="2"/>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>256849</v>
       </c>
@@ -19893,7 +19899,7 @@
         <v>1387</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="M232" s="8">
         <f t="shared" si="11"/>
@@ -19901,14 +19907,14 @@
       </c>
       <c r="N232" s="7"/>
       <c r="O232" s="2" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q232" s="2"/>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>256755</v>
       </c>
@@ -19945,7 +19951,7 @@
         <v>1387</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="M233" s="8">
         <f t="shared" si="11"/>
@@ -19953,14 +19959,14 @@
       </c>
       <c r="N233" s="7"/>
       <c r="O233" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q233" s="2"/>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>410912</v>
       </c>
@@ -19997,7 +20003,7 @@
         <v>1391</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="M234" s="8">
         <f t="shared" si="11"/>
@@ -20005,14 +20011,14 @@
       </c>
       <c r="N234" s="7"/>
       <c r="O234" s="2" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q234" s="2"/>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>256742</v>
       </c>
@@ -20049,7 +20055,7 @@
         <v>1391</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="M235" s="8">
         <f t="shared" si="11"/>
@@ -20057,14 +20063,14 @@
       </c>
       <c r="N235" s="7"/>
       <c r="O235" s="2" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="P235" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q235" s="2"/>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>722489</v>
       </c>
@@ -20116,7 +20122,7 @@
       </c>
       <c r="Q236" s="2"/>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>687776</v>
       </c>
@@ -20168,7 +20174,7 @@
       </c>
       <c r="Q237" s="2"/>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>759064</v>
       </c>
@@ -20203,7 +20209,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="7" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="M238" s="8">
         <f t="shared" si="11"/>
@@ -20218,7 +20224,7 @@
       </c>
       <c r="Q238" s="2"/>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>759062</v>
       </c>
@@ -20270,7 +20276,7 @@
       </c>
       <c r="Q239" s="2"/>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>256806</v>
       </c>
@@ -20307,7 +20313,7 @@
         <v>1146</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="M240" s="8">
         <f t="shared" si="11"/>
@@ -20322,7 +20328,7 @@
       </c>
       <c r="Q240" s="2"/>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>256786</v>
       </c>
@@ -20374,7 +20380,7 @@
       </c>
       <c r="Q241" s="2"/>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>256805</v>
       </c>
@@ -20426,7 +20432,7 @@
       </c>
       <c r="Q242" s="2"/>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>759063</v>
       </c>
@@ -20461,7 +20467,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="7" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="M243" s="8">
         <f t="shared" si="11"/>
@@ -20476,7 +20482,7 @@
       </c>
       <c r="Q243" s="2"/>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>759357</v>
       </c>
@@ -20528,7 +20534,7 @@
       </c>
       <c r="Q244" s="2"/>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>256712</v>
       </c>
@@ -20565,7 +20571,7 @@
         <v>1146</v>
       </c>
       <c r="L245" s="7" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="M245" s="8">
         <f t="shared" si="11"/>
@@ -20580,7 +20586,7 @@
       </c>
       <c r="Q245" s="2"/>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>256692</v>
       </c>
@@ -20632,7 +20638,7 @@
       </c>
       <c r="Q246" s="2"/>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>256711</v>
       </c>
@@ -20684,7 +20690,7 @@
       </c>
       <c r="Q247" s="2"/>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>615278</v>
       </c>
@@ -20736,7 +20742,7 @@
       </c>
       <c r="Q248" s="2"/>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>256720</v>
       </c>
@@ -20788,7 +20794,7 @@
       </c>
       <c r="Q249" s="2"/>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>583660</v>
       </c>
@@ -20825,7 +20831,7 @@
         <v>1309</v>
       </c>
       <c r="L250" s="7" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="M250" s="8">
         <f t="shared" si="11"/>
@@ -20833,14 +20839,14 @@
       </c>
       <c r="N250" s="7"/>
       <c r="O250" s="2" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="P250" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q250" s="2"/>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>256846</v>
       </c>
@@ -20877,7 +20883,7 @@
         <v>1296</v>
       </c>
       <c r="L251" s="7" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="M251" s="8">
         <f t="shared" si="11"/>
@@ -20885,14 +20891,14 @@
       </c>
       <c r="N251" s="7"/>
       <c r="O251" s="2" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="P251" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q251" s="2"/>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>256753</v>
       </c>
@@ -20929,7 +20935,7 @@
         <v>1309</v>
       </c>
       <c r="L252" s="7" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="M252" s="8">
         <f t="shared" si="11"/>
@@ -20937,14 +20943,14 @@
       </c>
       <c r="N252" s="7"/>
       <c r="O252" s="2" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="P252" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q252" s="2"/>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>256752</v>
       </c>
@@ -20981,7 +20987,7 @@
         <v>1296</v>
       </c>
       <c r="L253" s="7" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="M253" s="8">
         <f t="shared" si="11"/>
@@ -20989,14 +20995,14 @@
       </c>
       <c r="N253" s="7"/>
       <c r="O253" s="2" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="P253" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q253" s="2"/>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>256802</v>
       </c>
@@ -21033,7 +21039,7 @@
         <v>1038</v>
       </c>
       <c r="L254" s="7" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="M254" s="8">
         <f t="shared" si="11"/>
@@ -21048,7 +21054,7 @@
       </c>
       <c r="Q254" s="2"/>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>256708</v>
       </c>
@@ -21085,7 +21091,7 @@
         <v>1038</v>
       </c>
       <c r="L255" s="7" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="M255" s="8">
         <f t="shared" si="11"/>
@@ -21100,7 +21106,7 @@
       </c>
       <c r="Q255" s="2"/>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>682078</v>
       </c>
@@ -21137,7 +21143,7 @@
         <v>1201</v>
       </c>
       <c r="L256" s="7" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="M256" s="8">
         <f t="shared" si="11"/>
@@ -21152,7 +21158,7 @@
       </c>
       <c r="Q256" s="2"/>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>641243</v>
       </c>
@@ -21189,7 +21195,7 @@
         <v>1201</v>
       </c>
       <c r="L257" s="7" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="M257" s="8">
         <f t="shared" si="11"/>
@@ -21204,7 +21210,7 @@
       </c>
       <c r="Q257" s="2"/>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>256824</v>
       </c>
@@ -21256,7 +21262,7 @@
       </c>
       <c r="Q258" s="2"/>
     </row>
-    <row r="259" spans="1:17" s="21" customFormat="1">
+    <row r="259" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>256789</v>
       </c>
@@ -21293,7 +21299,7 @@
         <v>1212</v>
       </c>
       <c r="L259" s="7" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="M259" s="8">
         <f t="shared" ref="M259:M322" si="14">LEN(L259)</f>
@@ -21308,7 +21314,7 @@
       </c>
       <c r="Q259" s="2"/>
     </row>
-    <row r="260" spans="1:17" s="21" customFormat="1">
+    <row r="260" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>256765</v>
       </c>
@@ -21345,7 +21351,7 @@
         <v>1215</v>
       </c>
       <c r="L260" s="7" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="M260" s="8">
         <f t="shared" si="14"/>
@@ -21360,7 +21366,7 @@
       </c>
       <c r="Q260" s="2"/>
     </row>
-    <row r="261" spans="1:17" s="21" customFormat="1">
+    <row r="261" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>256788</v>
       </c>
@@ -21397,7 +21403,7 @@
         <v>1220</v>
       </c>
       <c r="L261" s="7" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="M261" s="8">
         <f t="shared" si="14"/>
@@ -21412,7 +21418,7 @@
       </c>
       <c r="Q261" s="2"/>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>256790</v>
       </c>
@@ -21449,7 +21455,7 @@
         <v>1228</v>
       </c>
       <c r="L262" s="7" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="M262" s="8">
         <f t="shared" si="14"/>
@@ -21464,7 +21470,7 @@
       </c>
       <c r="Q262" s="2"/>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>256797</v>
       </c>
@@ -21501,7 +21507,7 @@
         <v>1231</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="M263" s="8">
         <f t="shared" si="14"/>
@@ -21516,7 +21522,7 @@
       </c>
       <c r="Q263" s="2"/>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>256791</v>
       </c>
@@ -21553,7 +21559,7 @@
         <v>1223</v>
       </c>
       <c r="L264" s="7" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="M264" s="8">
         <f t="shared" si="14"/>
@@ -21568,7 +21574,7 @@
       </c>
       <c r="Q264" s="2"/>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>256695</v>
       </c>
@@ -21620,7 +21626,7 @@
       </c>
       <c r="Q265" s="2"/>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>256730</v>
       </c>
@@ -21672,7 +21678,7 @@
       </c>
       <c r="Q266" s="2"/>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>256671</v>
       </c>
@@ -21709,7 +21715,7 @@
         <v>1215</v>
       </c>
       <c r="L267" s="7" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="M267" s="8">
         <f t="shared" si="14"/>
@@ -21724,7 +21730,7 @@
       </c>
       <c r="Q267" s="2"/>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>256694</v>
       </c>
@@ -21761,7 +21767,7 @@
         <v>1220</v>
       </c>
       <c r="L268" s="7" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="M268" s="8">
         <f t="shared" si="14"/>
@@ -21776,7 +21782,7 @@
       </c>
       <c r="Q268" s="2"/>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>256696</v>
       </c>
@@ -21813,7 +21819,7 @@
         <v>1228</v>
       </c>
       <c r="L269" s="7" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="M269" s="8">
         <f t="shared" si="14"/>
@@ -21828,7 +21834,7 @@
       </c>
       <c r="Q269" s="2"/>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>256703</v>
       </c>
@@ -21865,7 +21871,7 @@
         <v>1231</v>
       </c>
       <c r="L270" s="7" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="M270" s="8">
         <f t="shared" si="14"/>
@@ -21880,7 +21886,7 @@
       </c>
       <c r="Q270" s="2"/>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>256697</v>
       </c>
@@ -21917,7 +21923,7 @@
         <v>1223</v>
       </c>
       <c r="L271" s="7" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="M271" s="8">
         <f t="shared" si="14"/>
@@ -21932,7 +21938,7 @@
       </c>
       <c r="Q271" s="2"/>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>256760</v>
       </c>
@@ -21969,7 +21975,7 @@
         <v>1236</v>
       </c>
       <c r="L272" s="7" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="M272" s="8">
         <f t="shared" si="14"/>
@@ -21984,7 +21990,7 @@
       </c>
       <c r="Q272" s="2"/>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>256736</v>
       </c>
@@ -22036,7 +22042,7 @@
       </c>
       <c r="Q273" s="2"/>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>426390</v>
       </c>
@@ -22073,7 +22079,7 @@
         <v>1254</v>
       </c>
       <c r="L274" s="7" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="M274" s="8">
         <f t="shared" si="14"/>
@@ -22088,7 +22094,7 @@
       </c>
       <c r="Q274" s="2"/>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>256771</v>
       </c>
@@ -22125,7 +22131,7 @@
         <v>1245</v>
       </c>
       <c r="L275" s="7" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="M275" s="8">
         <f t="shared" si="14"/>
@@ -22140,7 +22146,7 @@
       </c>
       <c r="Q275" s="2"/>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>256689</v>
       </c>
@@ -22177,7 +22183,7 @@
         <v>1249</v>
       </c>
       <c r="L276" s="7" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="M276" s="8">
         <f t="shared" si="14"/>
@@ -22192,7 +22198,7 @@
       </c>
       <c r="Q276" s="2"/>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>433316</v>
       </c>
@@ -22244,7 +22250,7 @@
       </c>
       <c r="Q277" s="2"/>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>420913</v>
       </c>
@@ -22296,7 +22302,7 @@
       </c>
       <c r="Q278" s="2"/>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>256666</v>
       </c>
@@ -22333,7 +22339,7 @@
         <v>1236</v>
       </c>
       <c r="L279" s="7" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="M279" s="8">
         <f t="shared" si="14"/>
@@ -22348,7 +22354,7 @@
       </c>
       <c r="Q279" s="2"/>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>256830</v>
       </c>
@@ -22400,7 +22406,7 @@
       </c>
       <c r="Q280" s="2"/>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>256746</v>
       </c>
@@ -22437,7 +22443,7 @@
         <v>1254</v>
       </c>
       <c r="L281" s="7" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="M281" s="8">
         <f t="shared" si="14"/>
@@ -22452,7 +22458,7 @@
       </c>
       <c r="Q281" s="2"/>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>256677</v>
       </c>
@@ -22489,7 +22495,7 @@
         <v>1245</v>
       </c>
       <c r="L282" s="7" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="M282" s="8">
         <f t="shared" si="14"/>
@@ -22504,7 +22510,7 @@
       </c>
       <c r="Q282" s="2"/>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>256783</v>
       </c>
@@ -22541,7 +22547,7 @@
         <v>1249</v>
       </c>
       <c r="L283" s="7" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="M283" s="8">
         <f t="shared" si="14"/>
@@ -22556,7 +22562,7 @@
       </c>
       <c r="Q283" s="2"/>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>256758</v>
       </c>
@@ -22608,7 +22614,7 @@
       </c>
       <c r="Q284" s="2"/>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>256743</v>
       </c>
@@ -22660,7 +22666,7 @@
       </c>
       <c r="Q285" s="2"/>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>433305</v>
       </c>
@@ -22712,7 +22718,7 @@
       </c>
       <c r="Q286" s="2"/>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>256702</v>
       </c>
@@ -22764,7 +22770,7 @@
       </c>
       <c r="Q287" s="2"/>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>429622</v>
       </c>
@@ -22801,7 +22807,7 @@
         <v>1279</v>
       </c>
       <c r="L288" s="7" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="M288" s="8">
         <f t="shared" si="14"/>
@@ -22809,14 +22815,14 @@
       </c>
       <c r="N288" s="7"/>
       <c r="O288" s="2" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="P288" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q288" s="2"/>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>256756</v>
       </c>
@@ -22853,7 +22859,7 @@
         <v>1279</v>
       </c>
       <c r="L289" s="7" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="M289" s="8">
         <f t="shared" si="14"/>
@@ -22861,14 +22867,14 @@
       </c>
       <c r="N289" s="7"/>
       <c r="O289" s="2" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="P289" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q289" s="2"/>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>420952</v>
       </c>
@@ -22905,7 +22911,7 @@
         <v>1287</v>
       </c>
       <c r="L290" s="7" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="M290" s="8">
         <f t="shared" si="14"/>
@@ -22913,14 +22919,14 @@
       </c>
       <c r="N290" s="7"/>
       <c r="O290" s="2" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P290" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q290" s="2"/>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>453835</v>
       </c>
@@ -22957,7 +22963,7 @@
         <v>1283</v>
       </c>
       <c r="L291" s="7" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="M291" s="8">
         <f t="shared" si="14"/>
@@ -22965,14 +22971,14 @@
       </c>
       <c r="N291" s="7"/>
       <c r="O291" s="2" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P291" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q291" s="2"/>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>426393</v>
       </c>
@@ -23007,7 +23013,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="7" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="M292" s="8">
         <f t="shared" si="14"/>
@@ -23015,14 +23021,14 @@
       </c>
       <c r="N292" s="7"/>
       <c r="O292" s="2" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P292" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q292" s="2"/>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>256731</v>
       </c>
@@ -23059,7 +23065,7 @@
         <v>1287</v>
       </c>
       <c r="L293" s="7" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="M293" s="8">
         <f t="shared" si="14"/>
@@ -23067,14 +23073,14 @@
       </c>
       <c r="N293" s="7"/>
       <c r="O293" s="2" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="P293" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q293" s="2"/>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>341116</v>
       </c>
@@ -23111,7 +23117,7 @@
         <v>1283</v>
       </c>
       <c r="L294" s="7" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="M294" s="8">
         <f t="shared" si="14"/>
@@ -23119,14 +23125,14 @@
       </c>
       <c r="N294" s="7"/>
       <c r="O294" s="2" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="P294" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q294" s="2"/>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>256733</v>
       </c>
@@ -23161,7 +23167,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="7" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="M295" s="8">
         <f t="shared" si="14"/>
@@ -23169,14 +23175,14 @@
       </c>
       <c r="N295" s="7"/>
       <c r="O295" s="2" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q295" s="2"/>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>760794</v>
       </c>
@@ -23226,7 +23232,7 @@
       </c>
       <c r="Q296" s="2"/>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>391227</v>
       </c>
@@ -23278,7 +23284,7 @@
       </c>
       <c r="Q297" s="2"/>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>760795</v>
       </c>
@@ -23328,7 +23334,7 @@
       </c>
       <c r="Q298" s="2"/>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>256683</v>
       </c>
@@ -23380,7 +23386,7 @@
       </c>
       <c r="Q299" s="2"/>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>537037</v>
       </c>
@@ -23432,7 +23438,7 @@
       </c>
       <c r="Q300" s="2"/>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>256721</v>
       </c>
@@ -23484,7 +23490,7 @@
       </c>
       <c r="Q301" s="2"/>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>755033</v>
       </c>
@@ -23517,7 +23523,9 @@
       <c r="J302" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="K302" s="2"/>
+      <c r="K302" s="2" t="s">
+        <v>1930</v>
+      </c>
       <c r="L302" s="7" t="s">
         <v>1414</v>
       </c>
@@ -23534,7 +23542,7 @@
       </c>
       <c r="Q302" s="2"/>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>755031</v>
       </c>
@@ -23567,7 +23575,9 @@
       <c r="J303" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="K303" s="2"/>
+      <c r="K303" s="2" t="s">
+        <v>1931</v>
+      </c>
       <c r="L303" s="7" t="s">
         <v>1404</v>
       </c>
@@ -23584,7 +23594,7 @@
       </c>
       <c r="Q303" s="2"/>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>256832</v>
       </c>
@@ -23636,7 +23646,7 @@
       </c>
       <c r="Q304" s="2"/>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>256785</v>
       </c>
@@ -23688,7 +23698,7 @@
       </c>
       <c r="Q305" s="2"/>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>256839</v>
       </c>
@@ -23740,7 +23750,7 @@
       </c>
       <c r="Q306" s="2"/>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>755032</v>
       </c>
@@ -23773,7 +23783,9 @@
       <c r="J307" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="K307" s="2"/>
+      <c r="K307" s="2" t="s">
+        <v>1930</v>
+      </c>
       <c r="L307" s="7" t="s">
         <v>1492</v>
       </c>
@@ -23790,7 +23802,7 @@
       </c>
       <c r="Q307" s="2"/>
     </row>
-    <row r="308" spans="1:17" s="22" customFormat="1">
+    <row r="308" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>755030</v>
       </c>
@@ -23823,7 +23835,9 @@
       <c r="J308" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="K308" s="2"/>
+      <c r="K308" s="2" t="s">
+        <v>1931</v>
+      </c>
       <c r="L308" s="7" t="s">
         <v>1482</v>
       </c>
@@ -23840,7 +23854,7 @@
       </c>
       <c r="Q308" s="2"/>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>256738</v>
       </c>
@@ -23892,7 +23906,7 @@
       </c>
       <c r="Q309" s="2"/>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>256691</v>
       </c>
@@ -23944,7 +23958,7 @@
       </c>
       <c r="Q310" s="2"/>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>256745</v>
       </c>
@@ -23996,7 +24010,7 @@
       </c>
       <c r="Q311" s="2"/>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>256768</v>
       </c>
@@ -24048,7 +24062,7 @@
       </c>
       <c r="Q312" s="2"/>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>256781</v>
       </c>
@@ -24085,7 +24099,7 @@
         <v>1394</v>
       </c>
       <c r="L313" s="7" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="M313" s="8">
         <f t="shared" si="14"/>
@@ -24100,7 +24114,7 @@
       </c>
       <c r="Q313" s="2"/>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>256674</v>
       </c>
@@ -24152,7 +24166,7 @@
       </c>
       <c r="Q314" s="2"/>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>256687</v>
       </c>
@@ -24189,7 +24203,7 @@
         <v>1394</v>
       </c>
       <c r="L315" s="7" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="M315" s="8">
         <f t="shared" si="14"/>
@@ -24204,7 +24218,7 @@
       </c>
       <c r="Q315" s="2"/>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>521878</v>
       </c>
@@ -24256,7 +24270,7 @@
       </c>
       <c r="Q316" s="2"/>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>256684</v>
       </c>
@@ -24308,7 +24322,7 @@
       </c>
       <c r="Q317" s="2"/>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>502300</v>
       </c>
@@ -24360,7 +24374,7 @@
       </c>
       <c r="Q318" s="2"/>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>256704</v>
       </c>
@@ -24397,7 +24411,7 @@
         <v>1070</v>
       </c>
       <c r="L319" s="7" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="M319" s="8">
         <f t="shared" si="14"/>
@@ -24412,7 +24426,7 @@
       </c>
       <c r="Q319" s="2"/>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>751558</v>
       </c>
@@ -24462,7 +24476,7 @@
       </c>
       <c r="Q320" s="2"/>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>751556</v>
       </c>
@@ -24512,7 +24526,7 @@
       </c>
       <c r="Q321" s="2"/>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>470863</v>
       </c>
@@ -24564,7 +24578,7 @@
       </c>
       <c r="Q322" s="2"/>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>256816</v>
       </c>
@@ -24616,7 +24630,7 @@
       </c>
       <c r="Q323" s="2"/>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>256809</v>
       </c>
@@ -24668,7 +24682,7 @@
       </c>
       <c r="Q324" s="2"/>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>751557</v>
       </c>
@@ -24718,7 +24732,7 @@
       </c>
       <c r="Q325" s="2"/>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>751555</v>
       </c>
@@ -24768,7 +24782,7 @@
       </c>
       <c r="Q326" s="2"/>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>256759</v>
       </c>
@@ -24820,7 +24834,7 @@
       </c>
       <c r="Q327" s="2"/>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>256722</v>
       </c>
@@ -24872,7 +24886,7 @@
       </c>
       <c r="Q328" s="2"/>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>256715</v>
       </c>
@@ -24924,7 +24938,7 @@
       </c>
       <c r="Q329" s="2"/>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>256833</v>
       </c>
@@ -24976,7 +24990,7 @@
       </c>
       <c r="Q330" s="2"/>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>256739</v>
       </c>
@@ -25028,7 +25042,7 @@
       </c>
       <c r="Q331" s="2"/>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>750632</v>
       </c>
@@ -25078,7 +25092,7 @@
       </c>
       <c r="Q332" s="2"/>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>750593</v>
       </c>
@@ -25128,7 +25142,7 @@
       </c>
       <c r="Q333" s="2"/>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>256810</v>
       </c>
@@ -25180,7 +25194,7 @@
       </c>
       <c r="Q334" s="2"/>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>747922</v>
       </c>
@@ -25230,7 +25244,7 @@
       </c>
       <c r="Q335" s="2"/>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>747947</v>
       </c>
@@ -25280,7 +25294,7 @@
       </c>
       <c r="Q336" s="2"/>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>256716</v>
       </c>
@@ -25332,7 +25346,7 @@
       </c>
       <c r="Q337" s="2"/>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>700560</v>
       </c>
@@ -25382,7 +25396,7 @@
       </c>
       <c r="Q338" s="2"/>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>729199</v>
       </c>
@@ -25432,7 +25446,7 @@
       </c>
       <c r="Q339" s="2"/>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>256766</v>
       </c>
@@ -25484,7 +25498,7 @@
       </c>
       <c r="Q340" s="2"/>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>256767</v>
       </c>
@@ -25536,7 +25550,7 @@
       </c>
       <c r="Q341" s="2"/>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>700433</v>
       </c>
@@ -25586,7 +25600,7 @@
       </c>
       <c r="Q342" s="2"/>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>733624</v>
       </c>
@@ -25636,7 +25650,7 @@
       </c>
       <c r="Q343" s="2"/>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>256672</v>
       </c>
@@ -25688,7 +25702,7 @@
       </c>
       <c r="Q344" s="2"/>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>256673</v>
       </c>
@@ -25740,7 +25754,7 @@
       </c>
       <c r="Q345" s="2"/>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>448617</v>
       </c>
@@ -25792,7 +25806,7 @@
       </c>
       <c r="Q346" s="2"/>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>256693</v>
       </c>
@@ -25844,7 +25858,7 @@
       </c>
       <c r="Q347" s="2"/>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>256834</v>
       </c>
@@ -25881,7 +25895,7 @@
         <v>997</v>
       </c>
       <c r="L348" s="7" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="M348" s="8">
         <f t="shared" si="17"/>
@@ -25896,7 +25910,7 @@
       </c>
       <c r="Q348" s="2"/>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>256795</v>
       </c>
@@ -25948,7 +25962,7 @@
       </c>
       <c r="Q349" s="2"/>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>483772</v>
       </c>
@@ -26000,7 +26014,7 @@
       </c>
       <c r="Q350" s="2"/>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>256740</v>
       </c>
@@ -26037,7 +26051,7 @@
         <v>997</v>
       </c>
       <c r="L351" s="7" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="M351" s="8">
         <f t="shared" si="17"/>
@@ -26052,7 +26066,7 @@
       </c>
       <c r="Q351" s="2"/>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>256701</v>
       </c>
@@ -26104,7 +26118,7 @@
       </c>
       <c r="Q352" s="2"/>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>256685</v>
       </c>
@@ -26156,7 +26170,7 @@
       </c>
       <c r="Q353" s="2"/>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>529998</v>
       </c>
@@ -26208,7 +26222,7 @@
       </c>
       <c r="Q354" s="2"/>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>579418</v>
       </c>
@@ -26260,7 +26274,7 @@
       </c>
       <c r="Q355" s="2"/>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>710915</v>
       </c>
@@ -26297,7 +26311,7 @@
         <v>1369</v>
       </c>
       <c r="L356" s="7" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="M356" s="8">
         <f t="shared" si="17"/>
@@ -26312,7 +26326,7 @@
       </c>
       <c r="Q356" s="2"/>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>520407</v>
       </c>
@@ -26349,7 +26363,7 @@
         <v>1318</v>
       </c>
       <c r="L357" s="7" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="M357" s="8">
         <f t="shared" si="17"/>
@@ -26364,7 +26378,7 @@
       </c>
       <c r="Q357" s="2"/>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>561391</v>
       </c>
@@ -26416,7 +26430,7 @@
       </c>
       <c r="Q358" s="2"/>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>256719</v>
       </c>
@@ -26468,7 +26482,7 @@
       </c>
       <c r="Q359" s="2"/>
     </row>
-    <row r="360" spans="1:17" s="21" customFormat="1">
+    <row r="360" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>256686</v>
       </c>
@@ -26520,7 +26534,7 @@
       </c>
       <c r="Q360" s="2"/>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>697331</v>
       </c>
@@ -26557,7 +26571,7 @@
         <v>1369</v>
       </c>
       <c r="L361" s="7" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="M361" s="8">
         <f t="shared" si="17"/>
@@ -26572,7 +26586,7 @@
       </c>
       <c r="Q361" s="2"/>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>256690</v>
       </c>
@@ -26609,7 +26623,7 @@
         <v>1318</v>
       </c>
       <c r="L362" s="7" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="M362" s="8">
         <f t="shared" si="17"/>
@@ -26624,7 +26638,7 @@
       </c>
       <c r="Q362" s="2"/>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>256737</v>
       </c>
@@ -26676,7 +26690,7 @@
       </c>
       <c r="Q363" s="2"/>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>744471</v>
       </c>
@@ -26711,7 +26725,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="7" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="M364" s="8">
         <f t="shared" si="17"/>
@@ -26726,7 +26740,7 @@
       </c>
       <c r="Q364" s="2"/>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>744469</v>
       </c>
@@ -26778,7 +26792,7 @@
       </c>
       <c r="Q365" s="2"/>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>256843</v>
       </c>
@@ -26815,7 +26829,7 @@
         <v>1340</v>
       </c>
       <c r="L366" s="7" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="M366" s="8">
         <f t="shared" si="17"/>
@@ -26830,7 +26844,7 @@
       </c>
       <c r="Q366" s="2"/>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>256841</v>
       </c>
@@ -26882,7 +26896,7 @@
       </c>
       <c r="Q367" s="2"/>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>256762</v>
       </c>
@@ -26934,7 +26948,7 @@
       </c>
       <c r="Q368" s="2"/>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>744470</v>
       </c>
@@ -26969,7 +26983,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="7" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="M369" s="8">
         <f t="shared" si="17"/>
@@ -26984,7 +26998,7 @@
       </c>
       <c r="Q369" s="2"/>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>744468</v>
       </c>
@@ -27036,7 +27050,7 @@
       </c>
       <c r="Q370" s="2"/>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>256749</v>
       </c>
@@ -27073,7 +27087,7 @@
         <v>1340</v>
       </c>
       <c r="L371" s="7" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="M371" s="8">
         <f t="shared" si="17"/>
@@ -27088,7 +27102,7 @@
       </c>
       <c r="Q371" s="2"/>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>256747</v>
       </c>
@@ -27140,7 +27154,7 @@
       </c>
       <c r="Q372" s="2"/>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>256668</v>
       </c>
@@ -27192,7 +27206,7 @@
       </c>
       <c r="Q373" s="2"/>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>559804</v>
       </c>
@@ -27229,7 +27243,7 @@
         <v>1159</v>
       </c>
       <c r="L374" s="7" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="M374" s="8">
         <f t="shared" si="17"/>
@@ -27237,14 +27251,14 @@
       </c>
       <c r="N374" s="7"/>
       <c r="O374" s="2" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="P374" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q374" s="2"/>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>256713</v>
       </c>
@@ -27281,7 +27295,7 @@
         <v>1159</v>
       </c>
       <c r="L375" s="7" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="M375" s="8">
         <f t="shared" si="17"/>
@@ -27289,14 +27303,14 @@
       </c>
       <c r="N375" s="7"/>
       <c r="O375" s="2" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="P375" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q375" s="2"/>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>756927</v>
       </c>
@@ -27346,7 +27360,7 @@
       </c>
       <c r="Q376" s="2"/>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>256799</v>
       </c>
@@ -27398,7 +27412,7 @@
       </c>
       <c r="Q377" s="2"/>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>756926</v>
       </c>
@@ -27448,7 +27462,7 @@
       </c>
       <c r="Q378" s="2"/>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>256705</v>
       </c>
@@ -27500,7 +27514,7 @@
       </c>
       <c r="Q379" s="2"/>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>441068</v>
       </c>
@@ -27537,7 +27551,7 @@
         <v>1332</v>
       </c>
       <c r="L380" s="7" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="M380" s="8">
         <f t="shared" si="17"/>
@@ -27545,14 +27559,14 @@
       </c>
       <c r="N380" s="7"/>
       <c r="O380" s="2" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="P380" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q380" s="2"/>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>256717</v>
       </c>
@@ -27589,7 +27603,7 @@
         <v>1332</v>
       </c>
       <c r="L381" s="7" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="M381" s="8">
         <f t="shared" si="17"/>
@@ -27597,14 +27611,14 @@
       </c>
       <c r="N381" s="7"/>
       <c r="O381" s="2" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="P381" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q381" s="2"/>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>584552</v>
       </c>
@@ -27656,7 +27670,7 @@
       </c>
       <c r="Q382" s="2"/>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>256718</v>
       </c>
@@ -27708,7 +27722,7 @@
       </c>
       <c r="Q383" s="2"/>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>256801</v>
       </c>
@@ -27745,7 +27759,7 @@
         <v>1181</v>
       </c>
       <c r="L384" s="7" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="M384" s="8">
         <f t="shared" si="17"/>
@@ -27760,7 +27774,7 @@
       </c>
       <c r="Q384" s="2"/>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>256707</v>
       </c>
@@ -27797,7 +27811,7 @@
         <v>1181</v>
       </c>
       <c r="L385" s="7" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="M385" s="8">
         <f t="shared" si="17"/>
@@ -27812,7 +27826,7 @@
       </c>
       <c r="Q385" s="2"/>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>256794</v>
       </c>
@@ -27849,7 +27863,7 @@
         <v>1352</v>
       </c>
       <c r="L386" s="7" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="M386" s="8">
         <f t="shared" si="17"/>
@@ -27857,14 +27871,14 @@
       </c>
       <c r="N386" s="7"/>
       <c r="O386" s="2" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="P386" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q386" s="2"/>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>256700</v>
       </c>
@@ -27901,7 +27915,7 @@
         <v>1352</v>
       </c>
       <c r="L387" s="7" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="M387" s="8">
         <f t="shared" ref="M387:M450" si="20">LEN(L387)</f>
@@ -27909,14 +27923,14 @@
       </c>
       <c r="N387" s="7"/>
       <c r="O387" s="2" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="P387" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q387" s="2"/>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>482337</v>
       </c>
@@ -27968,7 +27982,7 @@
       </c>
       <c r="Q388" s="2"/>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>256729</v>
       </c>
@@ -28020,7 +28034,7 @@
       </c>
       <c r="Q389" s="2"/>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>756923</v>
       </c>
@@ -28055,7 +28069,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="7" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="M390" s="8">
         <f t="shared" si="20"/>
@@ -28063,14 +28077,14 @@
       </c>
       <c r="N390" s="7"/>
       <c r="O390" s="2" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="P390" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q390" s="2"/>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>757227</v>
       </c>
@@ -28105,7 +28119,7 @@
       </c>
       <c r="K391" s="2"/>
       <c r="L391" s="7" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="M391" s="8">
         <f t="shared" si="20"/>
@@ -28113,14 +28127,14 @@
       </c>
       <c r="N391" s="7"/>
       <c r="O391" s="2" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="P391" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q391" s="2"/>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>256803</v>
       </c>
@@ -28157,7 +28171,7 @@
         <v>1013</v>
       </c>
       <c r="L392" s="12" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="M392" s="8">
         <f t="shared" si="20"/>
@@ -28165,14 +28179,14 @@
       </c>
       <c r="N392" s="7"/>
       <c r="O392" s="2" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="P392" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q392" s="2"/>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>452962</v>
       </c>
@@ -28209,7 +28223,7 @@
         <v>1325</v>
       </c>
       <c r="L393" s="12" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="M393" s="8">
         <f t="shared" si="20"/>
@@ -28217,14 +28231,14 @@
       </c>
       <c r="N393" s="7"/>
       <c r="O393" s="2" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="P393" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q393" s="2"/>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>756922</v>
       </c>
@@ -28259,7 +28273,7 @@
       </c>
       <c r="K394" s="2"/>
       <c r="L394" s="7" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="M394" s="8">
         <f t="shared" si="20"/>
@@ -28267,14 +28281,14 @@
       </c>
       <c r="N394" s="7"/>
       <c r="O394" s="2" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="P394" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q394" s="2"/>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>756921</v>
       </c>
@@ -28309,7 +28323,7 @@
       </c>
       <c r="K395" s="2"/>
       <c r="L395" s="12" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="M395" s="8">
         <f t="shared" si="20"/>
@@ -28317,14 +28331,14 @@
       </c>
       <c r="N395" s="7"/>
       <c r="O395" s="2" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="P395" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q395" s="2"/>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>256709</v>
       </c>
@@ -28361,7 +28375,7 @@
         <v>1013</v>
       </c>
       <c r="L396" s="7" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="M396" s="8">
         <f t="shared" si="20"/>
@@ -28369,14 +28383,14 @@
       </c>
       <c r="N396" s="7"/>
       <c r="O396" s="2" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="P396" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q396" s="2"/>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>256741</v>
       </c>
@@ -28413,7 +28427,7 @@
         <v>1325</v>
       </c>
       <c r="L397" s="7" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="M397" s="8">
         <f t="shared" si="20"/>
@@ -28421,14 +28435,14 @@
       </c>
       <c r="N397" s="7"/>
       <c r="O397" s="2" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="P397" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q397" s="2"/>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>452956</v>
       </c>
@@ -28480,7 +28494,7 @@
       </c>
       <c r="Q398" s="2"/>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>256699</v>
       </c>
@@ -28532,7 +28546,7 @@
       </c>
       <c r="Q399" s="2"/>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>752320</v>
       </c>
@@ -28582,7 +28596,7 @@
       </c>
       <c r="Q400" s="2"/>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>256808</v>
       </c>
@@ -28634,7 +28648,7 @@
       </c>
       <c r="Q401" s="2"/>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>752812</v>
       </c>
@@ -28684,7 +28698,7 @@
       </c>
       <c r="Q402" s="2"/>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>256714</v>
       </c>
@@ -28736,7 +28750,7 @@
       </c>
       <c r="Q403" s="2"/>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>256804</v>
       </c>
@@ -28773,7 +28787,7 @@
         <v>989</v>
       </c>
       <c r="L404" s="7" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="M404" s="8">
         <f t="shared" si="20"/>
@@ -28781,14 +28795,14 @@
       </c>
       <c r="N404" s="7"/>
       <c r="O404" s="2" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="P404" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q404" s="2"/>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>256710</v>
       </c>
@@ -28825,7 +28839,7 @@
         <v>989</v>
       </c>
       <c r="L405" s="7" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="M405" s="8">
         <f t="shared" si="20"/>
@@ -28833,14 +28847,14 @@
       </c>
       <c r="N405" s="7"/>
       <c r="O405" s="2" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="P405" s="2" t="s">
         <v>1576</v>
       </c>
       <c r="Q405" s="2"/>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>452963</v>
       </c>
@@ -28892,7 +28906,7 @@
       </c>
       <c r="Q406" s="2"/>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>256698</v>
       </c>
@@ -28944,7 +28958,7 @@
       </c>
       <c r="Q407" s="2"/>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
         <v>256874</v>
       </c>
@@ -28994,7 +29008,7 @@
       </c>
       <c r="Q408" s="7"/>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" s="25">
         <v>765703</v>
       </c>
@@ -29008,27 +29022,27 @@
         <v>12</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="F409" s="7">
         <f t="shared" si="18"/>
         <v>118</v>
       </c>
       <c r="G409" s="25" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="H409" s="25" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="I409" s="7">
         <f t="shared" si="19"/>
         <v>118</v>
       </c>
       <c r="J409" s="25" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="K409" s="25" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="L409" s="24" t="s">
         <v>517</v>
@@ -29044,7 +29058,7 @@
       </c>
       <c r="Q409" s="24"/>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>685387</v>
       </c>
@@ -29096,7 +29110,7 @@
       </c>
       <c r="Q410" s="8"/>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>304747</v>
       </c>
@@ -29148,7 +29162,7 @@
       </c>
       <c r="Q411" s="8"/>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>660468</v>
       </c>
@@ -29200,7 +29214,7 @@
       </c>
       <c r="Q412" s="8"/>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>62796</v>
       </c>
@@ -29252,7 +29266,7 @@
       </c>
       <c r="Q413" s="8"/>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
         <v>62907</v>
       </c>
@@ -29304,7 +29318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
         <v>269044</v>
       </c>
@@ -29356,7 +29370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
         <v>755833</v>
       </c>
@@ -29408,7 +29422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
         <v>62898</v>
       </c>
@@ -29460,7 +29474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
         <v>755491</v>
       </c>
@@ -29512,7 +29526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
         <v>258179</v>
       </c>
@@ -29564,7 +29578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>62875</v>
       </c>
@@ -29618,7 +29632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
         <v>62908</v>
       </c>
@@ -29670,7 +29684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
         <v>304478</v>
       </c>
@@ -29724,7 +29738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" s="7">
         <v>62705</v>
       </c>
@@ -29776,7 +29790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" s="7">
         <v>62841</v>
       </c>
@@ -29828,7 +29842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" s="7">
         <v>62698</v>
       </c>
@@ -29882,7 +29896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="7">
         <v>403689</v>
       </c>
@@ -29934,7 +29948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="7">
         <v>62949</v>
       </c>
@@ -29988,7 +30002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" s="7">
         <v>62900</v>
       </c>
@@ -30040,7 +30054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" s="7">
         <v>614165</v>
       </c>
@@ -30092,7 +30106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" s="7">
         <v>62680</v>
       </c>
@@ -30146,7 +30160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" s="7">
         <v>587224</v>
       </c>
@@ -30200,7 +30214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" s="7">
         <v>548358</v>
       </c>
@@ -30254,7 +30268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" s="7">
         <v>712041</v>
       </c>
@@ -30308,7 +30322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" s="7">
         <v>589150</v>
       </c>
@@ -30360,7 +30374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" s="7">
         <v>62843</v>
       </c>
@@ -30412,7 +30426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" s="7">
         <v>62761</v>
       </c>
@@ -30464,7 +30478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" s="7">
         <v>62697</v>
       </c>
@@ -30516,7 +30530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" s="7">
         <v>574295</v>
       </c>
@@ -30568,7 +30582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" s="7">
         <v>257997</v>
       </c>
@@ -30622,7 +30636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" s="7">
         <v>574573</v>
       </c>
@@ -30676,7 +30690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" s="7">
         <v>552550</v>
       </c>
@@ -30730,7 +30744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" s="7">
         <v>719453</v>
       </c>
@@ -30784,7 +30798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" s="7">
         <v>574137</v>
       </c>
@@ -30836,7 +30850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" s="7">
         <v>62971</v>
       </c>
@@ -30888,7 +30902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" s="7">
         <v>62962</v>
       </c>
@@ -30940,7 +30954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" s="7">
         <v>62855</v>
       </c>
@@ -30994,7 +31008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" s="7">
         <v>62779</v>
       </c>
@@ -31046,7 +31060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" s="7">
         <v>62751</v>
       </c>
@@ -31098,7 +31112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449" s="7">
         <v>62787</v>
       </c>
@@ -31150,7 +31164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450" s="7">
         <v>62745</v>
       </c>
@@ -31202,7 +31216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451" s="7">
         <v>62770</v>
       </c>
@@ -31256,7 +31270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452" s="7">
         <v>257994</v>
       </c>
@@ -31308,7 +31322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453" s="7">
         <v>257995</v>
       </c>
@@ -31360,7 +31374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454" s="7">
         <v>62955</v>
       </c>
@@ -31412,7 +31426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455" s="7">
         <v>62969</v>
       </c>
@@ -31464,7 +31478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456" s="7">
         <v>62970</v>
       </c>
@@ -31518,7 +31532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457" s="7">
         <v>62762</v>
       </c>
@@ -31570,7 +31584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" s="7">
         <v>62756</v>
       </c>
@@ -31622,7 +31636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" s="7">
         <v>62759</v>
       </c>
@@ -31674,7 +31688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" s="7">
         <v>62817</v>
       </c>
@@ -31726,7 +31740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" s="7">
         <v>304518</v>
       </c>
@@ -31778,7 +31792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" s="7">
         <v>62961</v>
       </c>
@@ -31830,7 +31844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" s="11">
         <v>700000</v>
       </c>
@@ -31873,14 +31887,14 @@
       </c>
       <c r="N463" s="11"/>
       <c r="O463" s="11" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="P463" s="11" t="s">
         <v>1761</v>
       </c>
       <c r="Q463" s="11"/>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464" s="11">
         <v>62872</v>
       </c>
@@ -31930,7 +31944,7 @@
       </c>
       <c r="Q464" s="11"/>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465" s="11">
         <v>343584</v>
       </c>
@@ -31975,14 +31989,14 @@
       </c>
       <c r="N465" s="11"/>
       <c r="O465" s="11" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="P465" s="11" t="s">
         <v>1761</v>
       </c>
       <c r="Q465" s="11"/>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A466" s="11">
         <v>373791</v>
       </c>
@@ -32027,14 +32041,14 @@
       </c>
       <c r="N466" s="11"/>
       <c r="O466" s="11" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="P466" s="11" t="s">
         <v>1761</v>
       </c>
       <c r="Q466" s="11"/>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A467" s="11">
         <v>62878</v>
       </c>
@@ -32084,7 +32098,7 @@
       </c>
       <c r="Q467" s="11"/>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A468" s="11">
         <v>595857</v>
       </c>
@@ -32129,14 +32143,14 @@
         <v>636</v>
       </c>
       <c r="O468" s="11" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="P468" s="11" t="s">
         <v>1761</v>
       </c>
       <c r="Q468" s="11"/>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A469" s="11">
         <v>593694</v>
       </c>
@@ -32179,14 +32193,14 @@
       </c>
       <c r="N469" s="11"/>
       <c r="O469" s="11" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="P469" s="11" t="s">
         <v>1761</v>
       </c>
       <c r="Q469" s="11"/>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A470" s="7">
         <v>62687</v>
       </c>
@@ -32238,7 +32252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A471" s="7">
         <v>62863</v>
       </c>
@@ -32290,7 +32304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A472" s="7">
         <v>62763</v>
       </c>
@@ -32342,7 +32356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A473" s="7">
         <v>62753</v>
       </c>
@@ -32394,7 +32408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A474" s="7">
         <v>62726</v>
       </c>
@@ -32446,7 +32460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A475" s="7">
         <v>62954</v>
       </c>
@@ -32498,7 +32512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A476" s="7">
         <v>258007</v>
       </c>
@@ -32550,7 +32564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A477" s="7">
         <v>258008</v>
       </c>
@@ -32602,7 +32616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A478" s="7">
         <v>62959</v>
       </c>
@@ -32654,7 +32668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A479" s="8">
         <v>62880</v>
       </c>
@@ -32706,7 +32720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480" s="8">
         <v>62877</v>
       </c>
@@ -32758,7 +32772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481" s="7">
         <v>62741</v>
       </c>
@@ -32810,7 +32824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" s="8">
         <v>62888</v>
       </c>
@@ -32862,7 +32876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483" s="8">
         <v>304521</v>
       </c>
@@ -32914,7 +32928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
         <v>62960</v>
       </c>
@@ -32966,7 +32980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485" s="7">
         <v>62854</v>
       </c>
@@ -33018,7 +33032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
         <v>62857</v>
       </c>
@@ -33070,7 +33084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487" s="7">
         <v>62939</v>
       </c>
@@ -33122,7 +33136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
         <v>271920</v>
       </c>
@@ -33174,7 +33188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489" s="7">
         <v>62916</v>
       </c>
@@ -33228,7 +33242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
         <v>258015</v>
       </c>
@@ -33282,7 +33296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491" s="7">
         <v>62904</v>
       </c>
@@ -33334,7 +33348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:17">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
         <v>270720</v>
       </c>
@@ -33386,7 +33400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:17">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493" s="7">
         <v>62901</v>
       </c>
@@ -33438,7 +33452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:17">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A494" s="7">
         <v>62699</v>
       </c>
@@ -33490,7 +33504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:17">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495" s="8">
         <v>62893</v>
       </c>
@@ -33544,7 +33558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:17">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
         <v>258021</v>
       </c>
@@ -33598,7 +33612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:17">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497" s="7">
         <v>62921</v>
       </c>
@@ -33650,7 +33664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:17">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A498" s="7">
         <v>62922</v>
       </c>
@@ -33702,7 +33716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:17">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499" s="7">
         <v>62930</v>
       </c>
@@ -33756,7 +33770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:17">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A500" s="8">
         <v>62919</v>
       </c>
@@ -33808,7 +33822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:17">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501" s="7">
         <v>62918</v>
       </c>
@@ -33860,7 +33874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:17">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502" s="8">
         <v>62837</v>
       </c>
@@ -33914,7 +33928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="1:17">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A503" s="8">
         <v>62752</v>
       </c>
@@ -33968,7 +33982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:17">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A504" s="7">
         <v>62924</v>
       </c>
@@ -34020,7 +34034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:17">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505" s="8">
         <v>62931</v>
       </c>
@@ -34074,7 +34088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:17">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A506" s="7">
         <v>62920</v>
       </c>
@@ -34126,7 +34140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:17">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507" s="7">
         <v>258014</v>
       </c>
@@ -34178,7 +34192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:17">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508" s="7">
         <v>258016</v>
       </c>
@@ -34230,7 +34244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:17">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A509" s="7">
         <v>258017</v>
       </c>
@@ -34284,7 +34298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:17">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A510" s="8">
         <v>258020</v>
       </c>
@@ -34338,7 +34352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="1:17">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A511" s="7">
         <v>62966</v>
       </c>
@@ -34390,7 +34404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:17">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A512" s="8">
         <v>593570</v>
       </c>
@@ -34444,7 +34458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:17">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513" s="8">
         <v>593427</v>
       </c>
@@ -34498,7 +34512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:17">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A514" s="7">
         <v>258025</v>
       </c>
@@ -34550,7 +34564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:17">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515" s="7">
         <v>258028</v>
       </c>
@@ -34604,7 +34618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:17">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516" s="7">
         <v>258034</v>
       </c>
@@ -34656,7 +34670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:17">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A517" s="7">
         <v>574548</v>
       </c>
@@ -34710,7 +34724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="518" spans="1:17">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A518" s="7">
         <v>62894</v>
       </c>
@@ -34762,7 +34776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:17">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A519" s="8">
         <v>62937</v>
       </c>
@@ -34816,7 +34830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:17">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520" s="7">
         <v>62789</v>
       </c>
@@ -34870,7 +34884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:17">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521" s="7">
         <v>276462</v>
       </c>
@@ -34922,7 +34936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:17">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A522" s="8">
         <v>343585</v>
       </c>
@@ -34976,7 +34990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:17">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523" s="7">
         <v>415235</v>
       </c>
@@ -35030,7 +35044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:17">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524" s="7">
         <v>600550</v>
       </c>
@@ -35084,7 +35098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:17">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525" s="7">
         <v>597824</v>
       </c>
@@ -35138,7 +35152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:17">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526" s="7">
         <v>62864</v>
       </c>
@@ -35192,7 +35206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:17">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527" s="7">
         <v>62869</v>
       </c>
@@ -35246,7 +35260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:17">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528" s="7">
         <v>62923</v>
       </c>
@@ -35300,7 +35314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:17">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A529" s="7">
         <v>62896</v>
       </c>
@@ -35354,7 +35368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:17">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A530" s="7">
         <v>62856</v>
       </c>
@@ -35408,7 +35422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:17">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A531" s="7">
         <v>62876</v>
       </c>
@@ -35462,7 +35476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:17">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A532" s="7">
         <v>62926</v>
       </c>
@@ -35514,7 +35528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="533" spans="1:17">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A533" s="7">
         <v>257989</v>
       </c>
@@ -35568,7 +35582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:17">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A534" s="7">
         <v>257990</v>
       </c>
@@ -35622,7 +35636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:17">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A535" s="7">
         <v>258001</v>
       </c>
@@ -35676,7 +35690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:17">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A536" s="7">
         <v>258000</v>
       </c>
@@ -35730,7 +35744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:17">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A537" s="7">
         <v>258005</v>
       </c>
@@ -35784,7 +35798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:17">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A538" s="7">
         <v>258006</v>
       </c>
@@ -35838,7 +35852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:17">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A539" s="7">
         <v>258013</v>
       </c>
@@ -35890,7 +35904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="1:17">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540" s="8">
         <v>62906</v>
       </c>
@@ -35946,7 +35960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:17">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A541" s="7">
         <v>62905</v>
       </c>
@@ -35998,7 +36012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:17">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A542" s="7">
         <v>62836</v>
       </c>
@@ -36050,7 +36064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:17">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A543" s="8">
         <v>433282</v>
       </c>
@@ -36106,7 +36120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="544" spans="1:17">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A544" s="8">
         <v>62840</v>
       </c>
@@ -36162,7 +36176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:17">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545" s="8">
         <v>256491</v>
       </c>
@@ -36218,7 +36232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:17">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546" s="7">
         <v>258011</v>
       </c>
@@ -36270,7 +36284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:17">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" s="7">
         <v>258119</v>
       </c>
@@ -36322,7 +36336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:17">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" s="8">
         <v>433423</v>
       </c>
@@ -36378,7 +36392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:17">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" s="8">
         <v>569404</v>
       </c>
@@ -36434,7 +36448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:17">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550" s="8">
         <v>62824</v>
       </c>
@@ -36486,7 +36500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:17">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551" s="7">
         <v>62832</v>
       </c>
@@ -36538,7 +36552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:17">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552" s="7">
         <v>62932</v>
       </c>
@@ -36590,7 +36604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:17">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" s="7">
         <v>62945</v>
       </c>
@@ -36642,7 +36656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:17">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" s="8">
         <v>62825</v>
       </c>
@@ -36694,7 +36708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:17">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" s="7">
         <v>258019</v>
       </c>
@@ -36746,7 +36760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:17">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" s="7">
         <v>62956</v>
       </c>
@@ -36798,7 +36812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:17">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557" s="7">
         <v>62947</v>
       </c>
@@ -36850,7 +36864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:17">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" s="8">
         <v>62675</v>
       </c>
@@ -36904,7 +36918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:17">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" s="8">
         <v>62707</v>
       </c>
@@ -36960,7 +36974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:17">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" s="8">
         <v>62940</v>
       </c>
@@ -37014,7 +37028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:17">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561" s="7">
         <v>62933</v>
       </c>
@@ -37066,7 +37080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:17">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562" s="7">
         <v>62808</v>
       </c>
@@ -37120,7 +37134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:17">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563" s="7">
         <v>62881</v>
       </c>
@@ -37174,7 +37188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:17">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564" s="7">
         <v>62768</v>
       </c>
@@ -37209,7 +37223,7 @@
       </c>
       <c r="K564" s="7"/>
       <c r="L564" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="M564" s="8">
         <f t="shared" si="26"/>
@@ -37226,7 +37240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:17">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565" s="8">
         <v>257991</v>
       </c>
@@ -37280,7 +37294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:17">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566" s="8">
         <v>62958</v>
       </c>
@@ -37336,7 +37350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:17">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567" s="8">
         <v>257993</v>
       </c>
@@ -37390,7 +37404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:17">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568" s="8">
         <v>257999</v>
       </c>
@@ -37442,7 +37456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:17">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569" s="7">
         <v>258002</v>
       </c>
@@ -37496,7 +37510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:17">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570" s="7">
         <v>258022</v>
       </c>
@@ -37550,7 +37564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:17">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571" s="7">
         <v>258030</v>
       </c>
@@ -37585,7 +37599,7 @@
       </c>
       <c r="K571" s="7"/>
       <c r="L571" s="7" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="M571" s="8">
         <f t="shared" si="26"/>
@@ -37602,7 +37616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:17">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572" s="7">
         <v>62895</v>
       </c>
@@ -37654,7 +37668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:17">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573" s="7">
         <v>269299</v>
       </c>
@@ -37706,7 +37720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:17">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574" s="7">
         <v>62866</v>
       </c>
@@ -37760,7 +37774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:17">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575" s="7">
         <v>258195</v>
       </c>
@@ -37814,7 +37828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:17">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A576" s="7">
         <v>62927</v>
       </c>
@@ -37868,7 +37882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:17">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A577" s="7">
         <v>334473</v>
       </c>
@@ -37922,7 +37936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:17">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A578" s="7">
         <v>62929</v>
       </c>
@@ -37974,7 +37988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:17">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A579" s="7">
         <v>368374</v>
       </c>
@@ -38028,7 +38042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:17">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A580" s="7">
         <v>378291</v>
       </c>
@@ -38082,7 +38096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:17">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A581" s="7">
         <v>378089</v>
       </c>
@@ -38134,7 +38148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:17">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A582" s="7">
         <v>62795</v>
       </c>
@@ -38186,7 +38200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:17">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A583" s="7">
         <v>62786</v>
       </c>
@@ -38238,7 +38252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:17">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A584" s="7">
         <v>62849</v>
       </c>
@@ -38290,7 +38304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:17">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A585" s="7">
         <v>258023</v>
       </c>
@@ -38342,7 +38356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:17">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A586" s="8">
         <v>62829</v>
       </c>
@@ -38398,7 +38412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:17">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A587" s="7">
         <v>62935</v>
       </c>
@@ -38450,7 +38464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:17">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A588" s="8">
         <v>62941</v>
       </c>
@@ -38502,7 +38516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:17">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A589" s="7">
         <v>62771</v>
       </c>
@@ -38516,27 +38530,27 @@
         <v>45</v>
       </c>
       <c r="E589" s="7" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="F589" s="7">
         <f t="shared" si="27"/>
         <v>65</v>
       </c>
       <c r="G589" s="7" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="H589" s="7" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="I589" s="7">
         <f t="shared" si="28"/>
         <v>63</v>
       </c>
       <c r="J589" s="7" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="K589" s="7" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="L589" s="7" t="s">
         <v>700</v>
@@ -38556,7 +38570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:17">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A590" s="7">
         <v>62760</v>
       </c>
@@ -38570,27 +38584,27 @@
         <v>55</v>
       </c>
       <c r="E590" s="7" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="F590" s="7">
         <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="G590" s="7" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="H590" s="7" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="I590" s="7">
         <f t="shared" si="28"/>
         <v>64</v>
       </c>
       <c r="J590" s="7" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="K590" s="7" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="L590" s="7" t="s">
         <v>713</v>
@@ -38610,7 +38624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:17">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A591" s="8">
         <v>62963</v>
       </c>
@@ -38664,7 +38678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:17">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A592" s="7">
         <v>62967</v>
       </c>
@@ -38716,7 +38730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:17">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A593" s="7">
         <v>62968</v>
       </c>
@@ -38768,7 +38782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:17">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A594" s="7">
         <v>62822</v>
       </c>
@@ -38782,27 +38796,27 @@
         <v>45</v>
       </c>
       <c r="E594" s="7" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="F594" s="7">
         <f t="shared" si="27"/>
         <v>63</v>
       </c>
       <c r="G594" s="7" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="H594" s="7" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="I594" s="7">
         <f t="shared" si="28"/>
         <v>63</v>
       </c>
       <c r="J594" s="7" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="K594" s="7" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="L594" s="7" t="s">
         <v>526</v>
@@ -38822,7 +38836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:17">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A595" s="7">
         <v>258027</v>
       </c>
@@ -38836,27 +38850,27 @@
         <v>55</v>
       </c>
       <c r="E595" s="7" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="F595" s="7">
         <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="G595" s="7" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="H595" s="7" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="I595" s="7">
         <f t="shared" si="28"/>
         <v>64</v>
       </c>
       <c r="J595" s="7" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="K595" s="7" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="L595" s="7" t="s">
         <v>538</v>
@@ -38876,7 +38890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:17">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A596" s="7">
         <v>62951</v>
       </c>
@@ -38928,7 +38942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:17">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A597" s="7">
         <v>62794</v>
       </c>
@@ -38982,7 +38996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:17">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A598" s="7">
         <v>62957</v>
       </c>
@@ -39034,7 +39048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:17">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A599" s="7">
         <v>62678</v>
       </c>
@@ -39088,7 +39102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:17">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A600" s="7">
         <v>62788</v>
       </c>
@@ -39140,7 +39154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:17">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A601" s="7">
         <v>258029</v>
       </c>
@@ -39192,7 +39206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:17">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A602" s="7">
         <v>62897</v>
       </c>
@@ -39244,7 +39258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:17">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A603" s="7">
         <v>438960</v>
       </c>
@@ -39296,7 +39310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:17">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A604" s="7">
         <v>681246</v>
       </c>
@@ -39350,7 +39364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:17">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A605" s="7">
         <v>270724</v>
       </c>
@@ -39404,7 +39418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:17">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A606" s="7">
         <v>62915</v>
       </c>
@@ -39456,7 +39470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:17">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A607" s="7">
         <v>579645</v>
       </c>
@@ -39508,7 +39522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:17">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A608" s="7">
         <v>299612</v>
       </c>
@@ -39560,7 +39574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:17">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609" s="7">
         <v>62833</v>
       </c>
@@ -39612,7 +39626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:17">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610" s="7">
         <v>62755</v>
       </c>
@@ -39664,7 +39678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:17">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611" s="7">
         <v>62910</v>
       </c>
@@ -39716,7 +39730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:17">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612" s="7">
         <v>62853</v>
       </c>
@@ -39768,7 +39782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:17">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613" s="7">
         <v>258032</v>
       </c>
@@ -39820,7 +39834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:17">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614" s="7">
         <v>62965</v>
       </c>
@@ -39872,7 +39886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:17">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A615" s="7">
         <v>62846</v>
       </c>
@@ -39924,7 +39938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:17">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A616" s="7">
         <v>258033</v>
       </c>
@@ -39976,7 +39990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:17">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A617" s="7">
         <v>62917</v>
       </c>
@@ -40028,7 +40042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:17">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A618" s="7">
         <v>62884</v>
       </c>
@@ -40080,7 +40094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:17">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A619" s="7">
         <v>552637</v>
       </c>
@@ -40132,7 +40146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:17">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A620" s="7">
         <v>62764</v>
       </c>
@@ -40184,7 +40198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="1:17">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A621" s="7">
         <v>62750</v>
       </c>
@@ -40236,7 +40250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:17">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A622" s="7">
         <v>62909</v>
       </c>
@@ -40288,7 +40302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:17">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A623" s="7">
         <v>62713</v>
       </c>
@@ -40340,7 +40354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:17">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A624" s="7">
         <v>441548</v>
       </c>
@@ -40392,7 +40406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:17">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" s="7">
         <v>62802</v>
       </c>
@@ -40444,7 +40458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:17">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626" s="7">
         <v>258037</v>
       </c>
@@ -40496,7 +40510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="1:17">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627" s="7">
         <v>258035</v>
       </c>
@@ -40548,7 +40562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:17">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628" s="7">
         <v>62902</v>
       </c>
@@ -40600,7 +40614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:17">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629" s="7">
         <v>350260</v>
       </c>
@@ -40652,7 +40666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:17">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630" s="7">
         <v>62820</v>
       </c>
@@ -40704,7 +40718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:17">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631" s="7">
         <v>62934</v>
       </c>
@@ -40756,7 +40770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:17">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A632" s="7">
         <v>639481</v>
       </c>
@@ -40810,7 +40824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:17">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A633" s="7">
         <v>62914</v>
       </c>
@@ -40862,7 +40876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:17">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634" s="7">
         <v>62792</v>
       </c>
@@ -40914,7 +40928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="1:17">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635" s="7">
         <v>258102</v>
       </c>
@@ -40966,7 +40980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:17">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636" s="7">
         <v>258672</v>
       </c>
@@ -41018,7 +41032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="1:17">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637" s="7">
         <v>658500</v>
       </c>
@@ -41072,7 +41086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:17">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638" s="7">
         <v>442381</v>
       </c>
@@ -41124,7 +41138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="1:17">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A639" s="7">
         <v>258466</v>
       </c>
@@ -41176,7 +41190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:17">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A640" s="8">
         <v>62830</v>
       </c>
@@ -41232,7 +41246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="641" spans="1:17">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A641" s="7">
         <v>62757</v>
       </c>
@@ -41286,7 +41300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:17">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A642" s="7">
         <v>62911</v>
       </c>
@@ -41338,7 +41352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:17">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A643" s="7">
         <v>62850</v>
       </c>
@@ -41390,7 +41404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:17">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A644" s="7">
         <v>315400</v>
       </c>
@@ -41444,7 +41458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:17">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A645" s="7">
         <v>271446</v>
       </c>
@@ -41496,7 +41510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:17">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A646" s="7">
         <v>62754</v>
       </c>
@@ -41548,7 +41562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:17">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A647" s="7">
         <v>62899</v>
       </c>
@@ -41600,7 +41614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:17">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A648" s="7">
         <v>579320</v>
       </c>
@@ -41652,7 +41666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:17">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A649" s="7">
         <v>257530</v>
       </c>
@@ -41704,7 +41718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:17">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A650" s="7">
         <v>62912</v>
       </c>
@@ -41758,7 +41772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:17">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A651" s="7">
         <v>269321</v>
       </c>
@@ -41812,7 +41826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:17">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A652" s="7">
         <v>62890</v>
       </c>
@@ -41866,7 +41880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:17">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A653" s="7">
         <v>62913</v>
       </c>
@@ -41918,7 +41932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:17">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A654" s="7">
         <v>258038</v>
       </c>
@@ -41970,7 +41984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:17">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A655" s="7">
         <v>62936</v>
       </c>
@@ -42022,7 +42036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:17">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A656" s="7">
         <v>62729</v>
       </c>
@@ -42074,7 +42088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:17">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A657" s="7">
         <v>62925</v>
       </c>
@@ -42126,7 +42140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:17">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A658" s="7">
         <v>435963</v>
       </c>
@@ -42178,7 +42192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:17">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A659" s="8">
         <v>62823</v>
       </c>
@@ -42232,7 +42246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:17">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A660" s="8">
         <v>62819</v>
       </c>
@@ -42286,7 +42300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="1:17">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A661" s="7">
         <v>62903</v>
       </c>
@@ -42338,7 +42352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:17">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A662" s="7">
         <v>62938</v>
       </c>
@@ -42390,7 +42404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:17">
+    <row r="663" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A663" s="8">
         <v>258009</v>
       </c>
@@ -42444,7 +42458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:17" s="21" customFormat="1">
+    <row r="664" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A664" s="8">
         <v>258010</v>
       </c>
@@ -42498,7 +42512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="665" spans="1:17" s="21" customFormat="1">
+    <row r="665" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A665" s="7">
         <v>62964</v>
       </c>
@@ -42550,7 +42564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:17" s="26" customFormat="1">
+    <row r="666" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A666" s="7">
         <v>257805</v>
       </c>
@@ -42602,7 +42616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:17" s="26" customFormat="1">
+    <row r="667" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A667" s="7">
         <v>62892</v>
       </c>
@@ -42654,7 +42668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:17" s="26" customFormat="1">
+    <row r="668" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A668" s="7">
         <v>258349</v>
       </c>
@@ -42706,7 +42720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:17" s="26" customFormat="1">
+    <row r="669" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A669" s="7">
         <v>62886</v>
       </c>
@@ -42758,7 +42772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:17" s="26" customFormat="1">
+    <row r="670" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A670" s="7">
         <v>419665</v>
       </c>
@@ -42810,7 +42824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:17" s="26" customFormat="1">
+    <row r="671" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A671" s="11">
         <v>446574</v>
       </c>
@@ -42858,7 +42872,7 @@
       <c r="P671" s="28"/>
       <c r="Q671" s="13"/>
     </row>
-    <row r="672" spans="1:17" s="26" customFormat="1">
+    <row r="672" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>448614</v>
       </c>

--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -5362,9 +5362,6 @@
     <t>www.cancer.gov/espanol/cancer/tratamiento/efectos-secundarios/estrenimiento/complicaciones-gi-pro-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/tipos/cancer-infantil/cuidados-medicos-ninos-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/espanol/cancer/tratamiento/efectos-secundarios/dolor/dolor-pro-pdq</t>
   </si>
   <si>
@@ -5404,15 +5401,9 @@
     <t>www.cancer.gov/espanol/tipos/higado/pro/tratamiento-higado-adultos-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/tipos/cancer-infantil/pro/canceres-infantiles-poco-comunes-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/espanol/tipos/suprarrenal/pro/tratamiento-corteza-suprarrenal-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/tipos/cancer-infantil/efectos-tardios-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/espanol/tipos/trofoblastico-gestacion/pro/tratamiento-etg-pdq</t>
   </si>
   <si>
@@ -5473,9 +5464,6 @@
     <t>www.cancer.gov/espanol/tipos/timoma/pro/tratamiento-timoma-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/tipos/cancer-infantil/tch-infantil-pro-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/espanol/tipos/seno/pro/tratamiento-seno-embarazo-pdq</t>
   </si>
   <si>
@@ -5530,9 +5518,6 @@
     <t>www.cancer.gov/espanol/cancer/tratamiento/efectos-secundarios/estrenimiento/complicaciones-gi-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/tipos/cancer-infantil/cuidados-medicos-ninos-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/espanol/cancer/cancer-avanzado/cuidadores/planificacion/etapa-final-pdq</t>
   </si>
   <si>
@@ -5566,13 +5551,7 @@
     <t>www.cancer.gov/espanol/tipos/higado/paciente/tratamiento-higado-adultos-pdq</t>
   </si>
   <si>
-    <t>www.cancer.gov/espanol/tipos/cancer-infantil/paciente/canceres-infantiles-poco-comunes-pdq</t>
-  </si>
-  <si>
     <t>www.cancer.gov/espanol/tipos/suprarrenal/paciente/tratamiento-corteza-suprarrenal-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/espanol/tipos/cancer-infantil/efectos-tardios-pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/espanol/tipos/trofoblastico-gestacion/paciente/tratamiento-etg-pdq</t>
@@ -5841,6 +5820,27 @@
   </si>
   <si>
     <t>Prevención del cáncer de ovario, de trompas de Falopio y primario de peritoneo</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/infantil/cuidados-medicos-ninos-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/infantil/cuidados-medicos-ninos-pro-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/infantil/efectos-tardios-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/infantil/efectos-tardios-pro-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/infantil/paciente/canceres-infantiles-poco-comunes-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/infantil/pro/canceres-infantiles-poco-comunes-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/infantil/tch-infantil-pro-pdq</t>
   </si>
 </sst>
 </file>
@@ -8329,8 +8329,8 @@
   <dimension ref="A1:Q672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K314" sqref="K314"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8847,7 +8847,7 @@
         <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="2"/>
@@ -8899,7 +8899,7 @@
         <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="2"/>
@@ -9743,7 +9743,7 @@
         <v>80</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="2"/>
@@ -9795,7 +9795,7 @@
         <v>80</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="2"/>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="10" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="M98" s="8">
         <f t="shared" si="5"/>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="7" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="M99" s="8">
         <f t="shared" si="5"/>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="7" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="M100" s="8">
         <f t="shared" si="5"/>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="B102" s="25" t="s">
         <v>15</v>
@@ -13340,30 +13340,30 @@
         <v>18</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="K102" s="25" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="L102" s="27" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="M102" s="8">
         <f t="shared" si="5"/>
@@ -13390,30 +13390,30 @@
         <v>18</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="J103" s="25" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="L103" s="24" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="M103" s="8">
         <f t="shared" si="5"/>
@@ -13463,7 +13463,7 @@
         <v>838</v>
       </c>
       <c r="L104" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="M104" s="8">
         <f t="shared" si="5"/>
@@ -13513,7 +13513,7 @@
         <v>838</v>
       </c>
       <c r="L105" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="M105" s="8">
         <f t="shared" si="5"/>
@@ -13755,7 +13755,7 @@
         <v>875</v>
       </c>
       <c r="L110" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="M110" s="8">
         <f t="shared" si="5"/>
@@ -13805,7 +13805,7 @@
         <v>875</v>
       </c>
       <c r="L111" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="M111" s="8">
         <f t="shared" si="5"/>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="7" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="M112" s="8">
         <f t="shared" si="5"/>
@@ -14420,14 +14420,14 @@
         <v>12</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="H124" s="24"/>
       <c r="I124" s="7">
@@ -14435,13 +14435,13 @@
         <v>0</v>
       </c>
       <c r="J124" s="25" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="K124" s="25" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="L124" s="24" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="M124" s="8">
         <f t="shared" si="5"/>
@@ -14468,14 +14468,14 @@
         <v>12</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="H125" s="24"/>
       <c r="I125" s="7">
@@ -14483,13 +14483,13 @@
         <v>0</v>
       </c>
       <c r="J125" s="25" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="M125" s="8">
         <f t="shared" si="5"/>
@@ -14516,14 +14516,14 @@
         <v>12</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="7">
@@ -14531,13 +14531,13 @@
         <v>0</v>
       </c>
       <c r="J126" s="25" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="K126" s="25" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="L126" s="24" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="M126" s="8">
         <f t="shared" si="5"/>
@@ -14564,14 +14564,14 @@
         <v>12</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
       <c r="H127" s="24"/>
       <c r="I127" s="7">
@@ -14579,13 +14579,13 @@
         <v>0</v>
       </c>
       <c r="J127" s="25" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="K127" s="25" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="L127" s="24" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="M127" s="8">
         <f t="shared" si="5"/>
@@ -14729,7 +14729,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="7" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="M130" s="8">
         <f t="shared" si="5"/>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="7" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="M131" s="8">
         <f t="shared" ref="M131:M194" si="8">LEN(L131)</f>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="7" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="M135" s="8">
         <f t="shared" si="8"/>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="7" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="M136" s="8">
         <f t="shared" si="8"/>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="7" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="M140" s="8">
         <f t="shared" si="8"/>
@@ -15257,7 +15257,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="7" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="M141" s="8">
         <f t="shared" si="8"/>
@@ -15599,7 +15599,7 @@
         <v>960</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="M148" s="8">
         <f t="shared" si="8"/>
@@ -15649,7 +15649,7 @@
         <v>960</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="M149" s="8">
         <f t="shared" si="8"/>
@@ -15699,7 +15699,7 @@
         <v>920</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="M150" s="8">
         <f t="shared" si="8"/>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="7" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="M152" s="8">
         <f t="shared" si="8"/>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="7" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="M153" s="8">
         <f t="shared" si="8"/>
@@ -16453,7 +16453,7 @@
         <v>1033</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="M165" s="8">
         <f t="shared" si="8"/>
@@ -16505,7 +16505,7 @@
         <v>1041</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="M166" s="8">
         <f t="shared" si="8"/>
@@ -16969,7 +16969,7 @@
         <v>1033</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
       <c r="M175" s="8">
         <f t="shared" si="8"/>
@@ -17021,7 +17021,7 @@
         <v>1041</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
       <c r="M176" s="8">
         <f t="shared" si="8"/>
@@ -17278,12 +17278,12 @@
         <v>932</v>
       </c>
       <c r="K181" s="2"/>
-      <c r="L181" s="8" t="s">
-        <v>1828</v>
+      <c r="L181" s="7" t="s">
+        <v>1925</v>
       </c>
       <c r="M181" s="8">
         <f t="shared" si="8"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N181" s="7"/>
       <c r="O181" s="3" t="s">
@@ -17328,12 +17328,12 @@
         <v>930</v>
       </c>
       <c r="K182" s="2"/>
-      <c r="L182" s="8" t="s">
-        <v>1772</v>
+      <c r="L182" s="7" t="s">
+        <v>1926</v>
       </c>
       <c r="M182" s="8">
         <f t="shared" si="8"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="N182" s="7"/>
       <c r="O182" s="3" t="s">
@@ -17378,12 +17378,12 @@
         <v>1176</v>
       </c>
       <c r="K183" s="2"/>
-      <c r="L183" s="8" t="s">
-        <v>1842</v>
+      <c r="L183" s="7" t="s">
+        <v>1927</v>
       </c>
       <c r="M183" s="8">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N183" s="7"/>
       <c r="O183" s="3" t="s">
@@ -17428,12 +17428,12 @@
         <v>1176</v>
       </c>
       <c r="K184" s="2"/>
-      <c r="L184" s="8" t="s">
-        <v>1788</v>
+      <c r="L184" s="7" t="s">
+        <v>1928</v>
       </c>
       <c r="M184" s="8">
         <f t="shared" si="8"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N184" s="7"/>
       <c r="O184" s="3" t="s">
@@ -17480,12 +17480,12 @@
       <c r="K185" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="L185" s="8" t="s">
-        <v>1840</v>
+      <c r="L185" s="7" t="s">
+        <v>1929</v>
       </c>
       <c r="M185" s="8">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="N185" s="7"/>
       <c r="O185" s="3" t="s">
@@ -17532,12 +17532,12 @@
       <c r="K186" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="L186" s="8" t="s">
-        <v>1786</v>
+      <c r="L186" s="7" t="s">
+        <v>1930</v>
       </c>
       <c r="M186" s="8">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="N186" s="7"/>
       <c r="O186" s="3" t="s">
@@ -17582,12 +17582,12 @@
         <v>1336</v>
       </c>
       <c r="K187" s="2"/>
-      <c r="L187" s="8" t="s">
-        <v>1809</v>
+      <c r="L187" s="7" t="s">
+        <v>1931</v>
       </c>
       <c r="M187" s="8">
         <f t="shared" si="8"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="N187" s="7"/>
       <c r="O187" s="3" t="s">
@@ -17687,7 +17687,7 @@
         <v>1349</v>
       </c>
       <c r="L189" s="7" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="M189" s="8">
         <f t="shared" si="8"/>
@@ -17739,7 +17739,7 @@
         <v>1365</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="M190" s="8">
         <f t="shared" si="8"/>
@@ -17791,7 +17791,7 @@
         <v>1357</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="M191" s="8">
         <f t="shared" si="8"/>
@@ -17947,7 +17947,7 @@
         <v>1380</v>
       </c>
       <c r="L194" s="7" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="M194" s="8">
         <f t="shared" si="8"/>
@@ -17999,7 +17999,7 @@
         <v>1184</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="M195" s="8">
         <f t="shared" ref="M195:M258" si="11">LEN(L195)</f>
@@ -18155,7 +18155,7 @@
         <v>1349</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="M198" s="8">
         <f t="shared" si="11"/>
@@ -18207,7 +18207,7 @@
         <v>1365</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="M199" s="8">
         <f t="shared" si="11"/>
@@ -18259,7 +18259,7 @@
         <v>1357</v>
       </c>
       <c r="L200" s="7" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="M200" s="8">
         <f t="shared" si="11"/>
@@ -18415,7 +18415,7 @@
         <v>1380</v>
       </c>
       <c r="L203" s="7" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="M203" s="8">
         <f t="shared" si="11"/>
@@ -18467,7 +18467,7 @@
         <v>1184</v>
       </c>
       <c r="L204" s="7" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="M204" s="8">
         <f t="shared" si="11"/>
@@ -18723,7 +18723,7 @@
         <v>1093</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="M209" s="8">
         <f t="shared" si="11"/>
@@ -18927,7 +18927,7 @@
         <v>1093</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="M213" s="8">
         <f t="shared" si="11"/>
@@ -19899,7 +19899,7 @@
         <v>1387</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="M232" s="8">
         <f t="shared" si="11"/>
@@ -19907,7 +19907,7 @@
       </c>
       <c r="N232" s="7"/>
       <c r="O232" s="2" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>1576</v>
@@ -19951,7 +19951,7 @@
         <v>1387</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="M233" s="8">
         <f t="shared" si="11"/>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="N233" s="7"/>
       <c r="O233" s="2" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>1576</v>
@@ -20003,7 +20003,7 @@
         <v>1391</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="M234" s="8">
         <f t="shared" si="11"/>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="N234" s="7"/>
       <c r="O234" s="2" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>1576</v>
@@ -20055,7 +20055,7 @@
         <v>1391</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="M235" s="8">
         <f t="shared" si="11"/>
@@ -20063,7 +20063,7 @@
       </c>
       <c r="N235" s="7"/>
       <c r="O235" s="2" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="P235" s="2" t="s">
         <v>1576</v>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="7" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="M238" s="8">
         <f t="shared" si="11"/>
@@ -20313,7 +20313,7 @@
         <v>1146</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="M240" s="8">
         <f t="shared" si="11"/>
@@ -20571,7 +20571,7 @@
         <v>1146</v>
       </c>
       <c r="L245" s="7" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="M245" s="8">
         <f t="shared" si="11"/>
@@ -20831,7 +20831,7 @@
         <v>1309</v>
       </c>
       <c r="L250" s="7" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="M250" s="8">
         <f t="shared" si="11"/>
@@ -20839,7 +20839,7 @@
       </c>
       <c r="N250" s="7"/>
       <c r="O250" s="2" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="P250" s="2" t="s">
         <v>1576</v>
@@ -20883,7 +20883,7 @@
         <v>1296</v>
       </c>
       <c r="L251" s="7" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="M251" s="8">
         <f t="shared" si="11"/>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="N251" s="7"/>
       <c r="O251" s="2" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="P251" s="2" t="s">
         <v>1576</v>
@@ -20935,7 +20935,7 @@
         <v>1309</v>
       </c>
       <c r="L252" s="7" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="M252" s="8">
         <f t="shared" si="11"/>
@@ -20943,7 +20943,7 @@
       </c>
       <c r="N252" s="7"/>
       <c r="O252" s="2" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="P252" s="2" t="s">
         <v>1576</v>
@@ -20987,7 +20987,7 @@
         <v>1296</v>
       </c>
       <c r="L253" s="7" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="M253" s="8">
         <f t="shared" si="11"/>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="N253" s="7"/>
       <c r="O253" s="2" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="P253" s="2" t="s">
         <v>1576</v>
@@ -21039,7 +21039,7 @@
         <v>1038</v>
       </c>
       <c r="L254" s="7" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="M254" s="8">
         <f t="shared" si="11"/>
@@ -21091,7 +21091,7 @@
         <v>1038</v>
       </c>
       <c r="L255" s="7" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="M255" s="8">
         <f t="shared" si="11"/>
@@ -21143,7 +21143,7 @@
         <v>1201</v>
       </c>
       <c r="L256" s="7" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="M256" s="8">
         <f t="shared" si="11"/>
@@ -21195,7 +21195,7 @@
         <v>1201</v>
       </c>
       <c r="L257" s="7" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="M257" s="8">
         <f t="shared" si="11"/>
@@ -21299,7 +21299,7 @@
         <v>1212</v>
       </c>
       <c r="L259" s="7" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="M259" s="8">
         <f t="shared" ref="M259:M322" si="14">LEN(L259)</f>
@@ -21351,7 +21351,7 @@
         <v>1215</v>
       </c>
       <c r="L260" s="7" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="M260" s="8">
         <f t="shared" si="14"/>
@@ -21403,7 +21403,7 @@
         <v>1220</v>
       </c>
       <c r="L261" s="7" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="M261" s="8">
         <f t="shared" si="14"/>
@@ -21455,7 +21455,7 @@
         <v>1228</v>
       </c>
       <c r="L262" s="7" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="M262" s="8">
         <f t="shared" si="14"/>
@@ -21507,7 +21507,7 @@
         <v>1231</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="M263" s="8">
         <f t="shared" si="14"/>
@@ -21559,7 +21559,7 @@
         <v>1223</v>
       </c>
       <c r="L264" s="7" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="M264" s="8">
         <f t="shared" si="14"/>
@@ -21715,7 +21715,7 @@
         <v>1215</v>
       </c>
       <c r="L267" s="7" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="M267" s="8">
         <f t="shared" si="14"/>
@@ -21767,7 +21767,7 @@
         <v>1220</v>
       </c>
       <c r="L268" s="7" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="M268" s="8">
         <f t="shared" si="14"/>
@@ -21819,7 +21819,7 @@
         <v>1228</v>
       </c>
       <c r="L269" s="7" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="M269" s="8">
         <f t="shared" si="14"/>
@@ -21871,7 +21871,7 @@
         <v>1231</v>
       </c>
       <c r="L270" s="7" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="M270" s="8">
         <f t="shared" si="14"/>
@@ -21923,7 +21923,7 @@
         <v>1223</v>
       </c>
       <c r="L271" s="7" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="M271" s="8">
         <f t="shared" si="14"/>
@@ -21975,7 +21975,7 @@
         <v>1236</v>
       </c>
       <c r="L272" s="7" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="M272" s="8">
         <f t="shared" si="14"/>
@@ -22079,7 +22079,7 @@
         <v>1254</v>
       </c>
       <c r="L274" s="7" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="M274" s="8">
         <f t="shared" si="14"/>
@@ -22131,7 +22131,7 @@
         <v>1245</v>
       </c>
       <c r="L275" s="7" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="M275" s="8">
         <f t="shared" si="14"/>
@@ -22183,7 +22183,7 @@
         <v>1249</v>
       </c>
       <c r="L276" s="7" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="M276" s="8">
         <f t="shared" si="14"/>
@@ -22339,7 +22339,7 @@
         <v>1236</v>
       </c>
       <c r="L279" s="7" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="M279" s="8">
         <f t="shared" si="14"/>
@@ -22443,7 +22443,7 @@
         <v>1254</v>
       </c>
       <c r="L281" s="7" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="M281" s="8">
         <f t="shared" si="14"/>
@@ -22495,7 +22495,7 @@
         <v>1245</v>
       </c>
       <c r="L282" s="7" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="M282" s="8">
         <f t="shared" si="14"/>
@@ -22547,7 +22547,7 @@
         <v>1249</v>
       </c>
       <c r="L283" s="7" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="M283" s="8">
         <f t="shared" si="14"/>
@@ -22807,7 +22807,7 @@
         <v>1279</v>
       </c>
       <c r="L288" s="7" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="M288" s="8">
         <f t="shared" si="14"/>
@@ -22815,7 +22815,7 @@
       </c>
       <c r="N288" s="7"/>
       <c r="O288" s="2" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="P288" s="2" t="s">
         <v>1576</v>
@@ -22859,7 +22859,7 @@
         <v>1279</v>
       </c>
       <c r="L289" s="7" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="M289" s="8">
         <f t="shared" si="14"/>
@@ -22867,7 +22867,7 @@
       </c>
       <c r="N289" s="7"/>
       <c r="O289" s="2" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
       <c r="P289" s="2" t="s">
         <v>1576</v>
@@ -22911,7 +22911,7 @@
         <v>1287</v>
       </c>
       <c r="L290" s="7" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="M290" s="8">
         <f t="shared" si="14"/>
@@ -22919,7 +22919,7 @@
       </c>
       <c r="N290" s="7"/>
       <c r="O290" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="P290" s="2" t="s">
         <v>1576</v>
@@ -22963,7 +22963,7 @@
         <v>1283</v>
       </c>
       <c r="L291" s="7" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="M291" s="8">
         <f t="shared" si="14"/>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="N291" s="7"/>
       <c r="O291" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="P291" s="2" t="s">
         <v>1576</v>
@@ -23013,7 +23013,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="7" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="M292" s="8">
         <f t="shared" si="14"/>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="N292" s="7"/>
       <c r="O292" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="P292" s="2" t="s">
         <v>1576</v>
@@ -23065,7 +23065,7 @@
         <v>1287</v>
       </c>
       <c r="L293" s="7" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="M293" s="8">
         <f t="shared" si="14"/>
@@ -23073,7 +23073,7 @@
       </c>
       <c r="N293" s="7"/>
       <c r="O293" s="2" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="P293" s="2" t="s">
         <v>1576</v>
@@ -23117,7 +23117,7 @@
         <v>1283</v>
       </c>
       <c r="L294" s="7" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="M294" s="8">
         <f t="shared" si="14"/>
@@ -23125,7 +23125,7 @@
       </c>
       <c r="N294" s="7"/>
       <c r="O294" s="2" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="P294" s="2" t="s">
         <v>1576</v>
@@ -23167,7 +23167,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="7" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="M295" s="8">
         <f t="shared" si="14"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="N295" s="7"/>
       <c r="O295" s="2" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>1576</v>
@@ -23524,7 +23524,7 @@
         <v>893</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="L302" s="7" t="s">
         <v>1414</v>
@@ -23576,7 +23576,7 @@
         <v>864</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="L303" s="7" t="s">
         <v>1404</v>
@@ -23784,7 +23784,7 @@
         <v>893</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="L307" s="7" t="s">
         <v>1492</v>
@@ -23836,7 +23836,7 @@
         <v>864</v>
       </c>
       <c r="K308" s="2" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="L308" s="7" t="s">
         <v>1482</v>
@@ -24099,7 +24099,7 @@
         <v>1394</v>
       </c>
       <c r="L313" s="7" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="M313" s="8">
         <f t="shared" si="14"/>
@@ -24203,7 +24203,7 @@
         <v>1394</v>
       </c>
       <c r="L315" s="7" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="M315" s="8">
         <f t="shared" si="14"/>
@@ -24411,7 +24411,7 @@
         <v>1070</v>
       </c>
       <c r="L319" s="7" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="M319" s="8">
         <f t="shared" si="14"/>
@@ -25895,7 +25895,7 @@
         <v>997</v>
       </c>
       <c r="L348" s="7" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="M348" s="8">
         <f t="shared" si="17"/>
@@ -26051,7 +26051,7 @@
         <v>997</v>
       </c>
       <c r="L351" s="7" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="M351" s="8">
         <f t="shared" si="17"/>
@@ -26311,7 +26311,7 @@
         <v>1369</v>
       </c>
       <c r="L356" s="7" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="M356" s="8">
         <f t="shared" si="17"/>
@@ -26363,7 +26363,7 @@
         <v>1318</v>
       </c>
       <c r="L357" s="7" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="M357" s="8">
         <f t="shared" si="17"/>
@@ -26571,7 +26571,7 @@
         <v>1369</v>
       </c>
       <c r="L361" s="7" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="M361" s="8">
         <f t="shared" si="17"/>
@@ -26623,7 +26623,7 @@
         <v>1318</v>
       </c>
       <c r="L362" s="7" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="M362" s="8">
         <f t="shared" si="17"/>
@@ -26725,7 +26725,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="7" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="M364" s="8">
         <f t="shared" si="17"/>
@@ -26829,7 +26829,7 @@
         <v>1340</v>
       </c>
       <c r="L366" s="7" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="M366" s="8">
         <f t="shared" si="17"/>
@@ -27087,7 +27087,7 @@
         <v>1340</v>
       </c>
       <c r="L371" s="7" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="M371" s="8">
         <f t="shared" si="17"/>
@@ -27243,7 +27243,7 @@
         <v>1159</v>
       </c>
       <c r="L374" s="7" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="M374" s="8">
         <f t="shared" si="17"/>
@@ -27251,7 +27251,7 @@
       </c>
       <c r="N374" s="7"/>
       <c r="O374" s="2" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="P374" s="2" t="s">
         <v>1576</v>
@@ -27295,7 +27295,7 @@
         <v>1159</v>
       </c>
       <c r="L375" s="7" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="M375" s="8">
         <f t="shared" si="17"/>
@@ -27303,7 +27303,7 @@
       </c>
       <c r="N375" s="7"/>
       <c r="O375" s="2" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="P375" s="2" t="s">
         <v>1576</v>
@@ -27551,7 +27551,7 @@
         <v>1332</v>
       </c>
       <c r="L380" s="7" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="M380" s="8">
         <f t="shared" si="17"/>
@@ -27559,7 +27559,7 @@
       </c>
       <c r="N380" s="7"/>
       <c r="O380" s="2" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
       <c r="P380" s="2" t="s">
         <v>1576</v>
@@ -27603,7 +27603,7 @@
         <v>1332</v>
       </c>
       <c r="L381" s="7" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="M381" s="8">
         <f t="shared" si="17"/>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="N381" s="7"/>
       <c r="O381" s="2" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="P381" s="2" t="s">
         <v>1576</v>
@@ -27759,7 +27759,7 @@
         <v>1181</v>
       </c>
       <c r="L384" s="7" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
       <c r="M384" s="8">
         <f t="shared" si="17"/>
@@ -27811,7 +27811,7 @@
         <v>1181</v>
       </c>
       <c r="L385" s="7" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="M385" s="8">
         <f t="shared" si="17"/>
@@ -27863,7 +27863,7 @@
         <v>1352</v>
       </c>
       <c r="L386" s="7" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="M386" s="8">
         <f t="shared" si="17"/>
@@ -27871,7 +27871,7 @@
       </c>
       <c r="N386" s="7"/>
       <c r="O386" s="2" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="P386" s="2" t="s">
         <v>1576</v>
@@ -27915,7 +27915,7 @@
         <v>1352</v>
       </c>
       <c r="L387" s="7" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="M387" s="8">
         <f t="shared" ref="M387:M450" si="20">LEN(L387)</f>
@@ -27923,7 +27923,7 @@
       </c>
       <c r="N387" s="7"/>
       <c r="O387" s="2" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
       <c r="P387" s="2" t="s">
         <v>1576</v>
@@ -28069,7 +28069,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="7" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="M390" s="8">
         <f t="shared" si="20"/>
@@ -28077,7 +28077,7 @@
       </c>
       <c r="N390" s="7"/>
       <c r="O390" s="2" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="P390" s="2" t="s">
         <v>1576</v>
@@ -28119,7 +28119,7 @@
       </c>
       <c r="K391" s="2"/>
       <c r="L391" s="7" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="M391" s="8">
         <f t="shared" si="20"/>
@@ -28127,7 +28127,7 @@
       </c>
       <c r="N391" s="7"/>
       <c r="O391" s="2" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="P391" s="2" t="s">
         <v>1576</v>
@@ -28171,7 +28171,7 @@
         <v>1013</v>
       </c>
       <c r="L392" s="12" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="M392" s="8">
         <f t="shared" si="20"/>
@@ -28179,7 +28179,7 @@
       </c>
       <c r="N392" s="7"/>
       <c r="O392" s="2" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="P392" s="2" t="s">
         <v>1576</v>
@@ -28223,7 +28223,7 @@
         <v>1325</v>
       </c>
       <c r="L393" s="12" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="M393" s="8">
         <f t="shared" si="20"/>
@@ -28231,7 +28231,7 @@
       </c>
       <c r="N393" s="7"/>
       <c r="O393" s="2" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="P393" s="2" t="s">
         <v>1576</v>
@@ -28281,7 +28281,7 @@
       </c>
       <c r="N394" s="7"/>
       <c r="O394" s="2" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="P394" s="2" t="s">
         <v>1576</v>
@@ -28331,7 +28331,7 @@
       </c>
       <c r="N395" s="7"/>
       <c r="O395" s="2" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="P395" s="2" t="s">
         <v>1576</v>
@@ -28375,7 +28375,7 @@
         <v>1013</v>
       </c>
       <c r="L396" s="7" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="M396" s="8">
         <f t="shared" si="20"/>
@@ -28383,7 +28383,7 @@
       </c>
       <c r="N396" s="7"/>
       <c r="O396" s="2" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="P396" s="2" t="s">
         <v>1576</v>
@@ -28427,7 +28427,7 @@
         <v>1325</v>
       </c>
       <c r="L397" s="7" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="M397" s="8">
         <f t="shared" si="20"/>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="N397" s="7"/>
       <c r="O397" s="2" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="P397" s="2" t="s">
         <v>1576</v>
@@ -28787,7 +28787,7 @@
         <v>989</v>
       </c>
       <c r="L404" s="7" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="M404" s="8">
         <f t="shared" si="20"/>
@@ -28795,7 +28795,7 @@
       </c>
       <c r="N404" s="7"/>
       <c r="O404" s="2" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="P404" s="2" t="s">
         <v>1576</v>
@@ -28839,7 +28839,7 @@
         <v>989</v>
       </c>
       <c r="L405" s="7" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="M405" s="8">
         <f t="shared" si="20"/>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="N405" s="7"/>
       <c r="O405" s="2" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="P405" s="2" t="s">
         <v>1576</v>
@@ -29022,27 +29022,27 @@
         <v>12</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="F409" s="7">
         <f t="shared" si="18"/>
         <v>118</v>
       </c>
       <c r="G409" s="25" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="H409" s="25" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="I409" s="7">
         <f t="shared" si="19"/>
         <v>118</v>
       </c>
       <c r="J409" s="25" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="K409" s="25" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="L409" s="24" t="s">
         <v>517</v>
@@ -31887,7 +31887,7 @@
       </c>
       <c r="N463" s="11"/>
       <c r="O463" s="11" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="P463" s="11" t="s">
         <v>1761</v>
@@ -31989,7 +31989,7 @@
       </c>
       <c r="N465" s="11"/>
       <c r="O465" s="11" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="P465" s="11" t="s">
         <v>1761</v>
@@ -32041,7 +32041,7 @@
       </c>
       <c r="N466" s="11"/>
       <c r="O466" s="11" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="P466" s="11" t="s">
         <v>1761</v>
@@ -32143,7 +32143,7 @@
         <v>636</v>
       </c>
       <c r="O468" s="11" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="P468" s="11" t="s">
         <v>1761</v>
@@ -32193,7 +32193,7 @@
       </c>
       <c r="N469" s="11"/>
       <c r="O469" s="11" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="P469" s="11" t="s">
         <v>1761</v>
@@ -38530,27 +38530,27 @@
         <v>45</v>
       </c>
       <c r="E589" s="7" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="F589" s="7">
         <f t="shared" si="27"/>
         <v>65</v>
       </c>
       <c r="G589" s="7" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="H589" s="7" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="I589" s="7">
         <f t="shared" si="28"/>
         <v>63</v>
       </c>
       <c r="J589" s="7" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="K589" s="7" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="L589" s="7" t="s">
         <v>700</v>
@@ -38584,27 +38584,27 @@
         <v>55</v>
       </c>
       <c r="E590" s="7" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="F590" s="7">
         <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="G590" s="7" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="H590" s="7" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="I590" s="7">
         <f t="shared" si="28"/>
         <v>64</v>
       </c>
       <c r="J590" s="7" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="K590" s="7" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="L590" s="7" t="s">
         <v>713</v>
@@ -38796,27 +38796,27 @@
         <v>45</v>
       </c>
       <c r="E594" s="7" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="F594" s="7">
         <f t="shared" si="27"/>
         <v>63</v>
       </c>
       <c r="G594" s="7" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="H594" s="7" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="I594" s="7">
         <f t="shared" si="28"/>
         <v>63</v>
       </c>
       <c r="J594" s="7" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="K594" s="7" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="L594" s="7" t="s">
         <v>526</v>
@@ -38850,27 +38850,27 @@
         <v>55</v>
       </c>
       <c r="E595" s="7" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="F595" s="7">
         <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="G595" s="7" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="H595" s="7" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="I595" s="7">
         <f t="shared" si="28"/>
         <v>64</v>
       </c>
       <c r="J595" s="7" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="K595" s="7" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="L595" s="7" t="s">
         <v>538</v>

--- a/Daisy-xls/PDQ-Titles-URLs.xlsx
+++ b/Daisy-xls/PDQ-Titles-URLs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sort_Rank for Min" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6954" uniqueCount="1932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6954" uniqueCount="1936">
   <si>
     <t>CDR-ID</t>
   </si>
@@ -5480,9 +5480,6 @@
   </si>
   <si>
     <t>www.cancer.gov/espanol/tipos/sarcoma-de-tejido-blando/pro/tratamiento-tegi-pdq</t>
-  </si>
-  <si>
-    <t>www.cancer.gov/espanol/tipos/cerebro/pro/tratamiento-embrionarios-snc-infantil--pdq</t>
   </si>
   <si>
     <t>www.cancer.gov/espanol/tipos/extracraneal-celulas-germinativas/pro/tratamiento-celulas-germinativas-pdq</t>
@@ -5841,6 +5838,21 @@
   </si>
   <si>
     <t>www.cancer.gov/espanol/infantil/tch-infantil-pro-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/causas-prevencion/riesgo/tabaco/dejar-fumar-tratamiento-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/causas-prevencion/riesgo/tabaco/dejar-fumar-tratamiento-pro-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/tipos/linfoma/pro/tratamiento-lnh-infantil-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/tipos/cerebro/pro/tratamiento-embrionarios-snc-infantil-pdq</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/publicaciones/pdq/grados-comprobacion/cam</t>
   </si>
 </sst>
 </file>
@@ -6941,7 +6953,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7028,6 +7040,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="955" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="955" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -8328,9 +8343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q672"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L409" sqref="L409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8847,7 +8862,7 @@
         <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="2"/>
@@ -8899,7 +8914,7 @@
         <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="2"/>
@@ -9743,7 +9758,7 @@
         <v>80</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="2"/>
@@ -9795,7 +9810,7 @@
         <v>80</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="2"/>
@@ -13169,7 +13184,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="10" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="M98" s="8">
         <f t="shared" si="5"/>
@@ -13265,7 +13280,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="7" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="M100" s="8">
         <f t="shared" si="5"/>
@@ -13328,7 +13343,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B102" s="25" t="s">
         <v>15</v>
@@ -13340,30 +13355,30 @@
         <v>18</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="J102" s="25" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K102" s="25" t="s">
         <v>1892</v>
       </c>
-      <c r="K102" s="25" t="s">
-        <v>1893</v>
-      </c>
       <c r="L102" s="27" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="M102" s="8">
         <f t="shared" si="5"/>
@@ -13390,30 +13405,30 @@
         <v>18</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="J103" s="25" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K103" s="25" t="s">
         <v>1892</v>
       </c>
-      <c r="K103" s="25" t="s">
-        <v>1893</v>
-      </c>
       <c r="L103" s="24" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M103" s="8">
         <f t="shared" si="5"/>
@@ -13463,7 +13478,7 @@
         <v>838</v>
       </c>
       <c r="L104" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="M104" s="8">
         <f t="shared" si="5"/>
@@ -13513,7 +13528,7 @@
         <v>838</v>
       </c>
       <c r="L105" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="M105" s="8">
         <f t="shared" si="5"/>
@@ -13526,7 +13541,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>256663</v>
       </c>
@@ -13560,12 +13575,12 @@
         <v>949</v>
       </c>
       <c r="K106" s="2"/>
-      <c r="L106" s="7" t="s">
-        <v>1396</v>
+      <c r="L106" t="s">
+        <v>1931</v>
       </c>
       <c r="M106" s="8">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N106" s="7"/>
       <c r="O106" s="2"/>
@@ -13622,7 +13637,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>256640</v>
       </c>
@@ -13656,12 +13671,12 @@
         <v>949</v>
       </c>
       <c r="K108" s="2"/>
-      <c r="L108" s="7" t="s">
-        <v>1590</v>
+      <c r="L108" s="30" t="s">
+        <v>1932</v>
       </c>
       <c r="M108" s="8">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N108" s="7"/>
       <c r="O108" s="2"/>
@@ -13755,7 +13770,7 @@
         <v>875</v>
       </c>
       <c r="L110" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M110" s="8">
         <f t="shared" si="5"/>
@@ -13805,7 +13820,7 @@
         <v>875</v>
       </c>
       <c r="L111" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="M111" s="8">
         <f t="shared" si="5"/>
@@ -13853,7 +13868,7 @@
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="7" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="M112" s="8">
         <f t="shared" si="5"/>
@@ -14420,14 +14435,14 @@
         <v>12</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H124" s="24"/>
       <c r="I124" s="7">
@@ -14435,13 +14450,13 @@
         <v>0</v>
       </c>
       <c r="J124" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="K124" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="L124" s="24" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="M124" s="8">
         <f t="shared" si="5"/>
@@ -14468,14 +14483,14 @@
         <v>12</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="H125" s="24"/>
       <c r="I125" s="7">
@@ -14483,13 +14498,13 @@
         <v>0</v>
       </c>
       <c r="J125" s="25" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M125" s="8">
         <f t="shared" si="5"/>
@@ -14516,14 +14531,14 @@
         <v>12</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="7">
@@ -14531,13 +14546,13 @@
         <v>0</v>
       </c>
       <c r="J126" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="K126" s="25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="L126" s="24" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="M126" s="8">
         <f t="shared" si="5"/>
@@ -14564,14 +14579,14 @@
         <v>12</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H127" s="24"/>
       <c r="I127" s="7">
@@ -14579,13 +14594,13 @@
         <v>0</v>
       </c>
       <c r="J127" s="25" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K127" s="25" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="L127" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="M127" s="8">
         <f t="shared" si="5"/>
@@ -14777,7 +14792,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="7" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="M131" s="8">
         <f t="shared" ref="M131:M194" si="8">LEN(L131)</f>
@@ -15017,7 +15032,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="7" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="M136" s="8">
         <f t="shared" si="8"/>
@@ -15209,7 +15224,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="7" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="M140" s="8">
         <f t="shared" si="8"/>
@@ -15599,7 +15614,7 @@
         <v>960</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="M148" s="8">
         <f t="shared" si="8"/>
@@ -15699,7 +15714,7 @@
         <v>920</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="M150" s="8">
         <f t="shared" si="8"/>
@@ -15797,7 +15812,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="M152" s="8">
         <f t="shared" si="8"/>
@@ -16453,7 +16468,7 @@
         <v>1033</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="M165" s="8">
         <f t="shared" si="8"/>
@@ -16505,7 +16520,7 @@
         <v>1041</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="M166" s="8">
         <f t="shared" si="8"/>
@@ -16969,7 +16984,7 @@
         <v>1033</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="M175" s="8">
         <f t="shared" si="8"/>
@@ -17021,7 +17036,7 @@
         <v>1041</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="M176" s="8">
         <f t="shared" si="8"/>
@@ -17279,7 +17294,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="7" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="M181" s="8">
         <f t="shared" si="8"/>
@@ -17329,7 +17344,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="7" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="M182" s="8">
         <f t="shared" si="8"/>
@@ -17379,7 +17394,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="7" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="M183" s="8">
         <f t="shared" si="8"/>
@@ -17429,7 +17444,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="7" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="M184" s="8">
         <f t="shared" si="8"/>
@@ -17481,7 +17496,7 @@
         <v>1149</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="M185" s="8">
         <f t="shared" si="8"/>
@@ -17533,7 +17548,7 @@
         <v>1149</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M186" s="8">
         <f t="shared" si="8"/>
@@ -17583,7 +17598,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="7" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="M187" s="8">
         <f t="shared" si="8"/>
@@ -17687,7 +17702,7 @@
         <v>1349</v>
       </c>
       <c r="L189" s="7" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="M189" s="8">
         <f t="shared" si="8"/>
@@ -17739,7 +17754,7 @@
         <v>1365</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="M190" s="8">
         <f t="shared" si="8"/>
@@ -17791,7 +17806,7 @@
         <v>1357</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="M191" s="8">
         <f t="shared" si="8"/>
@@ -17947,7 +17962,7 @@
         <v>1380</v>
       </c>
       <c r="L194" s="7" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="M194" s="8">
         <f t="shared" si="8"/>
@@ -17999,7 +18014,7 @@
         <v>1184</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="M195" s="8">
         <f t="shared" ref="M195:M258" si="11">LEN(L195)</f>
@@ -18415,11 +18430,11 @@
         <v>1380</v>
       </c>
       <c r="L203" s="7" t="s">
-        <v>1812</v>
+        <v>1934</v>
       </c>
       <c r="M203" s="8">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N203" s="7"/>
       <c r="O203" s="2" t="s">
@@ -18723,7 +18738,7 @@
         <v>1093</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="M209" s="8">
         <f t="shared" si="11"/>
@@ -19899,7 +19914,7 @@
         <v>1387</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="M232" s="8">
         <f t="shared" si="11"/>
@@ -19907,7 +19922,7 @@
       </c>
       <c r="N232" s="7"/>
       <c r="O232" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>1576</v>
@@ -19951,7 +19966,7 @@
         <v>1387</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="M233" s="8">
         <f t="shared" si="11"/>
@@ -19959,7 +19974,7 @@
       </c>
       <c r="N233" s="7"/>
       <c r="O233" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>1576</v>
@@ -20003,7 +20018,7 @@
         <v>1391</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="M234" s="8">
         <f t="shared" si="11"/>
@@ -20011,7 +20026,7 @@
       </c>
       <c r="N234" s="7"/>
       <c r="O234" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>1576</v>
@@ -20055,7 +20070,7 @@
         <v>1391</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="M235" s="8">
         <f t="shared" si="11"/>
@@ -20063,7 +20078,7 @@
       </c>
       <c r="N235" s="7"/>
       <c r="O235" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="P235" s="2" t="s">
         <v>1576</v>
@@ -20209,7 +20224,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="7" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="M238" s="8">
         <f t="shared" si="11"/>
@@ -20313,7 +20328,7 @@
         <v>1146</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="M240" s="8">
         <f t="shared" si="11"/>
@@ -20831,7 +20846,7 @@
         <v>1309</v>
       </c>
       <c r="L250" s="7" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="M250" s="8">
         <f t="shared" si="11"/>
@@ -20839,7 +20854,7 @@
       </c>
       <c r="N250" s="7"/>
       <c r="O250" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="P250" s="2" t="s">
         <v>1576</v>
@@ -20883,7 +20898,7 @@
         <v>1296</v>
       </c>
       <c r="L251" s="7" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="M251" s="8">
         <f t="shared" si="11"/>
@@ -20891,7 +20906,7 @@
       </c>
       <c r="N251" s="7"/>
       <c r="O251" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="P251" s="2" t="s">
         <v>1576</v>
@@ -20943,7 +20958,7 @@
       </c>
       <c r="N252" s="7"/>
       <c r="O252" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="P252" s="2" t="s">
         <v>1576</v>
@@ -20987,7 +21002,7 @@
         <v>1296</v>
       </c>
       <c r="L253" s="7" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="M253" s="8">
         <f t="shared" si="11"/>
@@ -20995,7 +21010,7 @@
       </c>
       <c r="N253" s="7"/>
       <c r="O253" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="P253" s="2" t="s">
         <v>1576</v>
@@ -21039,7 +21054,7 @@
         <v>1038</v>
       </c>
       <c r="L254" s="7" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="M254" s="8">
         <f t="shared" si="11"/>
@@ -21143,7 +21158,7 @@
         <v>1201</v>
       </c>
       <c r="L256" s="7" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="M256" s="8">
         <f t="shared" si="11"/>
@@ -21299,7 +21314,7 @@
         <v>1212</v>
       </c>
       <c r="L259" s="7" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="M259" s="8">
         <f t="shared" ref="M259:M322" si="14">LEN(L259)</f>
@@ -21351,7 +21366,7 @@
         <v>1215</v>
       </c>
       <c r="L260" s="7" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="M260" s="8">
         <f t="shared" si="14"/>
@@ -21403,7 +21418,7 @@
         <v>1220</v>
       </c>
       <c r="L261" s="7" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="M261" s="8">
         <f t="shared" si="14"/>
@@ -21455,7 +21470,7 @@
         <v>1228</v>
       </c>
       <c r="L262" s="7" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="M262" s="8">
         <f t="shared" si="14"/>
@@ -21507,7 +21522,7 @@
         <v>1231</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="M263" s="8">
         <f t="shared" si="14"/>
@@ -21559,7 +21574,7 @@
         <v>1223</v>
       </c>
       <c r="L264" s="7" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="M264" s="8">
         <f t="shared" si="14"/>
@@ -21975,7 +21990,7 @@
         <v>1236</v>
       </c>
       <c r="L272" s="7" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="M272" s="8">
         <f t="shared" si="14"/>
@@ -22079,7 +22094,7 @@
         <v>1254</v>
       </c>
       <c r="L274" s="7" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="M274" s="8">
         <f t="shared" si="14"/>
@@ -22131,7 +22146,7 @@
         <v>1245</v>
       </c>
       <c r="L275" s="7" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="M275" s="8">
         <f t="shared" si="14"/>
@@ -22547,11 +22562,11 @@
         <v>1249</v>
       </c>
       <c r="L283" s="7" t="s">
-        <v>1795</v>
+        <v>1933</v>
       </c>
       <c r="M283" s="8">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N283" s="7"/>
       <c r="O283" s="2" t="s">
@@ -22807,7 +22822,7 @@
         <v>1279</v>
       </c>
       <c r="L288" s="7" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="M288" s="8">
         <f t="shared" si="14"/>
@@ -22815,7 +22830,7 @@
       </c>
       <c r="N288" s="7"/>
       <c r="O288" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="P288" s="2" t="s">
         <v>1576</v>
@@ -22867,7 +22882,7 @@
       </c>
       <c r="N289" s="7"/>
       <c r="O289" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="P289" s="2" t="s">
         <v>1576</v>
@@ -22911,7 +22926,7 @@
         <v>1287</v>
       </c>
       <c r="L290" s="7" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="M290" s="8">
         <f t="shared" si="14"/>
@@ -22919,7 +22934,7 @@
       </c>
       <c r="N290" s="7"/>
       <c r="O290" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="P290" s="2" t="s">
         <v>1576</v>
@@ -22963,7 +22978,7 @@
         <v>1283</v>
       </c>
       <c r="L291" s="7" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="M291" s="8">
         <f t="shared" si="14"/>
@@ -22971,7 +22986,7 @@
       </c>
       <c r="N291" s="7"/>
       <c r="O291" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="P291" s="2" t="s">
         <v>1576</v>
@@ -23013,7 +23028,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="7" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="M292" s="8">
         <f t="shared" si="14"/>
@@ -23021,7 +23036,7 @@
       </c>
       <c r="N292" s="7"/>
       <c r="O292" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="P292" s="2" t="s">
         <v>1576</v>
@@ -23073,7 +23088,7 @@
       </c>
       <c r="N293" s="7"/>
       <c r="O293" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="P293" s="2" t="s">
         <v>1576</v>
@@ -23125,7 +23140,7 @@
       </c>
       <c r="N294" s="7"/>
       <c r="O294" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="P294" s="2" t="s">
         <v>1576</v>
@@ -23175,7 +23190,7 @@
       </c>
       <c r="N295" s="7"/>
       <c r="O295" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>1576</v>
@@ -23524,7 +23539,7 @@
         <v>893</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="L302" s="7" t="s">
         <v>1414</v>
@@ -23576,7 +23591,7 @@
         <v>864</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="L303" s="7" t="s">
         <v>1404</v>
@@ -23784,7 +23799,7 @@
         <v>893</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="L307" s="7" t="s">
         <v>1492</v>
@@ -23836,7 +23851,7 @@
         <v>864</v>
       </c>
       <c r="K308" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="L308" s="7" t="s">
         <v>1482</v>
@@ -24099,7 +24114,7 @@
         <v>1394</v>
       </c>
       <c r="L313" s="7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="M313" s="8">
         <f t="shared" si="14"/>
@@ -24203,7 +24218,7 @@
         <v>1394</v>
       </c>
       <c r="L315" s="7" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="M315" s="8">
         <f t="shared" si="14"/>
@@ -25895,7 +25910,7 @@
         <v>997</v>
       </c>
       <c r="L348" s="7" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="M348" s="8">
         <f t="shared" si="17"/>
@@ -26311,7 +26326,7 @@
         <v>1369</v>
       </c>
       <c r="L356" s="7" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="M356" s="8">
         <f t="shared" si="17"/>
@@ -26363,7 +26378,7 @@
         <v>1318</v>
       </c>
       <c r="L357" s="7" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="M357" s="8">
         <f t="shared" si="17"/>
@@ -26725,7 +26740,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="7" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="M364" s="8">
         <f t="shared" si="17"/>
@@ -26829,7 +26844,7 @@
         <v>1340</v>
       </c>
       <c r="L366" s="7" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="M366" s="8">
         <f t="shared" si="17"/>
@@ -27243,7 +27258,7 @@
         <v>1159</v>
       </c>
       <c r="L374" s="7" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="M374" s="8">
         <f t="shared" si="17"/>
@@ -27251,7 +27266,7 @@
       </c>
       <c r="N374" s="7"/>
       <c r="O374" s="2" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="P374" s="2" t="s">
         <v>1576</v>
@@ -27303,7 +27318,7 @@
       </c>
       <c r="N375" s="7"/>
       <c r="O375" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="P375" s="2" t="s">
         <v>1576</v>
@@ -27551,7 +27566,7 @@
         <v>1332</v>
       </c>
       <c r="L380" s="7" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="M380" s="8">
         <f t="shared" si="17"/>
@@ -27559,7 +27574,7 @@
       </c>
       <c r="N380" s="7"/>
       <c r="O380" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="P380" s="2" t="s">
         <v>1576</v>
@@ -27611,7 +27626,7 @@
       </c>
       <c r="N381" s="7"/>
       <c r="O381" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="P381" s="2" t="s">
         <v>1576</v>
@@ -27759,7 +27774,7 @@
         <v>1181</v>
       </c>
       <c r="L384" s="7" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="M384" s="8">
         <f t="shared" si="17"/>
@@ -27863,7 +27878,7 @@
         <v>1352</v>
       </c>
       <c r="L386" s="7" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="M386" s="8">
         <f t="shared" si="17"/>
@@ -27871,7 +27886,7 @@
       </c>
       <c r="N386" s="7"/>
       <c r="O386" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="P386" s="2" t="s">
         <v>1576</v>
@@ -27923,7 +27938,7 @@
       </c>
       <c r="N387" s="7"/>
       <c r="O387" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="P387" s="2" t="s">
         <v>1576</v>
@@ -28069,7 +28084,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="7" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="M390" s="8">
         <f t="shared" si="20"/>
@@ -28077,7 +28092,7 @@
       </c>
       <c r="N390" s="7"/>
       <c r="O390" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="P390" s="2" t="s">
         <v>1576</v>
@@ -28119,7 +28134,7 @@
       </c>
       <c r="K391" s="2"/>
       <c r="L391" s="7" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="M391" s="8">
         <f t="shared" si="20"/>
@@ -28127,7 +28142,7 @@
       </c>
       <c r="N391" s="7"/>
       <c r="O391" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="P391" s="2" t="s">
         <v>1576</v>
@@ -28171,7 +28186,7 @@
         <v>1013</v>
       </c>
       <c r="L392" s="12" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="M392" s="8">
         <f t="shared" si="20"/>
@@ -28179,7 +28194,7 @@
       </c>
       <c r="N392" s="7"/>
       <c r="O392" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="P392" s="2" t="s">
         <v>1576</v>
@@ -28223,7 +28238,7 @@
         <v>1325</v>
       </c>
       <c r="L393" s="12" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="M393" s="8">
         <f t="shared" si="20"/>
@@ -28231,7 +28246,7 @@
       </c>
       <c r="N393" s="7"/>
       <c r="O393" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="P393" s="2" t="s">
         <v>1576</v>
@@ -28281,7 +28296,7 @@
       </c>
       <c r="N394" s="7"/>
       <c r="O394" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="P394" s="2" t="s">
         <v>1576</v>
@@ -28331,7 +28346,7 @@
       </c>
       <c r="N395" s="7"/>
       <c r="O395" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="P395" s="2" t="s">
         <v>1576</v>
@@ -28383,7 +28398,7 @@
       </c>
       <c r="N396" s="7"/>
       <c r="O396" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="P396" s="2" t="s">
         <v>1576</v>
@@ -28435,7 +28450,7 @@
       </c>
       <c r="N397" s="7"/>
       <c r="O397" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="P397" s="2" t="s">
         <v>1576</v>
@@ -28787,7 +28802,7 @@
         <v>989</v>
       </c>
       <c r="L404" s="7" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="M404" s="8">
         <f t="shared" si="20"/>
@@ -28795,7 +28810,7 @@
       </c>
       <c r="N404" s="7"/>
       <c r="O404" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="P404" s="2" t="s">
         <v>1576</v>
@@ -28847,7 +28862,7 @@
       </c>
       <c r="N405" s="7"/>
       <c r="O405" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="P405" s="2" t="s">
         <v>1576</v>
@@ -29022,34 +29037,34 @@
         <v>12</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F409" s="7">
         <f t="shared" si="18"/>
         <v>118</v>
       </c>
       <c r="G409" s="25" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H409" s="25" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I409" s="7">
         <f t="shared" si="19"/>
         <v>118</v>
       </c>
       <c r="J409" s="25" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="K409" s="25" t="s">
-        <v>1899</v>
-      </c>
-      <c r="L409" s="24" t="s">
-        <v>517</v>
+        <v>1898</v>
+      </c>
+      <c r="L409" s="7" t="s">
+        <v>1935</v>
       </c>
       <c r="M409" s="8">
         <f t="shared" si="20"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N409" s="24"/>
       <c r="O409" s="24"/>
@@ -31887,7 +31902,7 @@
       </c>
       <c r="N463" s="11"/>
       <c r="O463" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="P463" s="11" t="s">
         <v>1761</v>
@@ -31989,7 +32004,7 @@
       </c>
       <c r="N465" s="11"/>
       <c r="O465" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="P465" s="11" t="s">
         <v>1761</v>
@@ -32041,7 +32056,7 @@
       </c>
       <c r="N466" s="11"/>
       <c r="O466" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="P466" s="11" t="s">
         <v>1761</v>
@@ -32143,7 +32158,7 @@
         <v>636</v>
       </c>
       <c r="O468" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="P468" s="11" t="s">
         <v>1761</v>
@@ -32193,7 +32208,7 @@
       </c>
       <c r="N469" s="11"/>
       <c r="O469" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="P469" s="11" t="s">
         <v>1761</v>
@@ -38530,27 +38545,27 @@
         <v>45</v>
       </c>
       <c r="E589" s="7" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F589" s="7">
         <f t="shared" si="27"/>
         <v>65</v>
       </c>
       <c r="G589" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H589" s="7" t="s">
         <v>1915</v>
-      </c>
-      <c r="H589" s="7" t="s">
-        <v>1916</v>
       </c>
       <c r="I589" s="7">
         <f t="shared" si="28"/>
         <v>63</v>
       </c>
       <c r="J589" s="7" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="K589" s="7" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="L589" s="7" t="s">
         <v>700</v>
@@ -38584,27 +38599,27 @@
         <v>55</v>
       </c>
       <c r="E590" s="7" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F590" s="7">
         <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="G590" s="7" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="H590" s="7" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="I590" s="7">
         <f t="shared" si="28"/>
         <v>64</v>
       </c>
       <c r="J590" s="7" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K590" s="7" t="s">
         <v>1917</v>
-      </c>
-      <c r="K590" s="7" t="s">
-        <v>1918</v>
       </c>
       <c r="L590" s="7" t="s">
         <v>713</v>
@@ -38796,27 +38811,27 @@
         <v>45</v>
       </c>
       <c r="E594" s="7" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F594" s="7">
         <f t="shared" si="27"/>
         <v>63</v>
       </c>
       <c r="G594" s="7" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H594" s="7" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="I594" s="7">
         <f t="shared" si="28"/>
         <v>63</v>
       </c>
       <c r="J594" s="7" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="K594" s="7" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="L594" s="7" t="s">
         <v>526</v>
@@ -38850,27 +38865,27 @@
         <v>55</v>
       </c>
       <c r="E595" s="7" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F595" s="7">
         <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="G595" s="7" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="H595" s="7" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="I595" s="7">
         <f t="shared" si="28"/>
         <v>64</v>
       </c>
       <c r="J595" s="7" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K595" s="7" t="s">
         <v>1917</v>
-      </c>
-      <c r="K595" s="7" t="s">
-        <v>1918</v>
       </c>
       <c r="L595" s="7" t="s">
         <v>538</v>
@@ -42925,6 +42940,7 @@
     <hyperlink ref="L155" r:id="rId3"/>
     <hyperlink ref="L28" r:id="rId4" display="www.cancer.gov/about-cancer/screening/screening-overview-pdq"/>
     <hyperlink ref="L29" r:id="rId5" display="www.cancer.gov/about-cancer/screening/screening-overview-pdq/hp"/>
+    <hyperlink ref="L108" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
